--- a/AAII_Financials/Yearly/NTES_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NTES_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>NTES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9635600</v>
+        <v>8291400</v>
       </c>
       <c r="E8" s="3">
-        <v>7762600</v>
+        <v>7163000</v>
       </c>
       <c r="F8" s="3">
-        <v>5477900</v>
+        <v>6219500</v>
       </c>
       <c r="G8" s="3">
-        <v>3271800</v>
+        <v>4757900</v>
       </c>
       <c r="H8" s="3">
-        <v>1680600</v>
+        <v>3035400</v>
       </c>
       <c r="I8" s="3">
-        <v>1319500</v>
+        <v>1639300</v>
       </c>
       <c r="J8" s="3">
+        <v>1287100</v>
+      </c>
+      <c r="K8" s="3">
         <v>1176700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1082000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5560300</v>
+        <v>3874900</v>
       </c>
       <c r="E9" s="3">
-        <v>4044600</v>
+        <v>3335600</v>
       </c>
       <c r="F9" s="3">
-        <v>2369600</v>
+        <v>2714400</v>
       </c>
       <c r="G9" s="3">
-        <v>1348600</v>
+        <v>4107700</v>
       </c>
       <c r="H9" s="3">
-        <v>468000</v>
+        <v>2484000</v>
       </c>
       <c r="I9" s="3">
-        <v>355600</v>
+        <v>456500</v>
       </c>
       <c r="J9" s="3">
+        <v>346900</v>
+      </c>
+      <c r="K9" s="3">
         <v>369900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>352100</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4075300</v>
+        <v>4416500</v>
       </c>
       <c r="E10" s="3">
-        <v>3718000</v>
+        <v>3827400</v>
       </c>
       <c r="F10" s="3">
-        <v>3108300</v>
+        <v>3505000</v>
       </c>
       <c r="G10" s="3">
-        <v>1923200</v>
+        <v>650100</v>
       </c>
       <c r="H10" s="3">
-        <v>1212600</v>
+        <v>551400</v>
       </c>
       <c r="I10" s="3">
-        <v>963800</v>
+        <v>1182800</v>
       </c>
       <c r="J10" s="3">
+        <v>940200</v>
+      </c>
+      <c r="K10" s="3">
         <v>806800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>729900</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1118100</v>
+        <v>1177500</v>
       </c>
       <c r="E12" s="3">
-        <v>627200</v>
+        <v>1032700</v>
       </c>
       <c r="F12" s="3">
-        <v>437200</v>
+        <v>582500</v>
       </c>
       <c r="G12" s="3">
-        <v>309800</v>
+        <v>835200</v>
       </c>
       <c r="H12" s="3">
-        <v>189900</v>
+        <v>599100</v>
       </c>
       <c r="I12" s="3">
-        <v>132200</v>
+        <v>185200</v>
       </c>
       <c r="J12" s="3">
+        <v>129000</v>
+      </c>
+      <c r="K12" s="3">
         <v>103100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>69100</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -901,9 +920,12 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>8503100</v>
+        <v>6361300</v>
       </c>
       <c r="E17" s="3">
-        <v>6018700</v>
+        <v>5766500</v>
       </c>
       <c r="F17" s="3">
-        <v>3665900</v>
+        <v>4400700</v>
       </c>
       <c r="G17" s="3">
-        <v>2228400</v>
+        <v>2942200</v>
       </c>
       <c r="H17" s="3">
-        <v>996900</v>
+        <v>1990000</v>
       </c>
       <c r="I17" s="3">
-        <v>695000</v>
+        <v>972400</v>
       </c>
       <c r="J17" s="3">
+        <v>677900</v>
+      </c>
+      <c r="K17" s="3">
         <v>644100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>588800</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1132500</v>
+        <v>1930100</v>
       </c>
       <c r="E18" s="3">
-        <v>1743800</v>
+        <v>1396400</v>
       </c>
       <c r="F18" s="3">
-        <v>1812000</v>
+        <v>1818800</v>
       </c>
       <c r="G18" s="3">
-        <v>1043400</v>
+        <v>1815600</v>
       </c>
       <c r="H18" s="3">
-        <v>683700</v>
+        <v>1045400</v>
       </c>
       <c r="I18" s="3">
-        <v>624500</v>
+        <v>666900</v>
       </c>
       <c r="J18" s="3">
+        <v>609200</v>
+      </c>
+      <c r="K18" s="3">
         <v>532500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>493200</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>196500</v>
+        <v>421500</v>
       </c>
       <c r="E20" s="3">
-        <v>136300</v>
+        <v>198100</v>
       </c>
       <c r="F20" s="3">
-        <v>186300</v>
+        <v>131100</v>
       </c>
       <c r="G20" s="3">
-        <v>123000</v>
+        <v>181600</v>
       </c>
       <c r="H20" s="3">
-        <v>102300</v>
+        <v>119800</v>
       </c>
       <c r="I20" s="3">
-        <v>91200</v>
+        <v>99800</v>
       </c>
       <c r="J20" s="3">
+        <v>88900</v>
+      </c>
+      <c r="K20" s="3">
         <v>81300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>43400</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1627800</v>
+        <v>2716300</v>
       </c>
       <c r="E21" s="3">
-        <v>1995100</v>
+        <v>1885200</v>
       </c>
       <c r="F21" s="3">
-        <v>2045300</v>
+        <v>2061700</v>
       </c>
       <c r="G21" s="3">
-        <v>1192600</v>
+        <v>2042900</v>
       </c>
       <c r="H21" s="3">
-        <v>811000</v>
+        <v>1190700</v>
       </c>
       <c r="I21" s="3">
-        <v>738400</v>
+        <v>791000</v>
       </c>
       <c r="J21" s="3">
+        <v>720200</v>
+      </c>
+      <c r="K21" s="3">
         <v>647300</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>45600</v>
+        <v>58700</v>
       </c>
       <c r="E22" s="3">
-        <v>13200</v>
+        <v>44200</v>
       </c>
       <c r="F22" s="3">
-        <v>4600</v>
+        <v>12900</v>
       </c>
       <c r="G22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H22" s="3">
         <v>2700</v>
       </c>
-      <c r="H22" s="3">
-        <v>2800</v>
-      </c>
       <c r="I22" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>17</v>
+        <v>2700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1700</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1283300</v>
+        <v>2293000</v>
       </c>
       <c r="E23" s="3">
-        <v>1866900</v>
+        <v>1550300</v>
       </c>
       <c r="F23" s="3">
-        <v>1993700</v>
+        <v>1937000</v>
       </c>
       <c r="G23" s="3">
-        <v>1163700</v>
+        <v>1992700</v>
       </c>
       <c r="H23" s="3">
-        <v>783200</v>
+        <v>1162500</v>
       </c>
       <c r="I23" s="3">
-        <v>713900</v>
+        <v>764000</v>
       </c>
       <c r="J23" s="3">
+        <v>696400</v>
+      </c>
+      <c r="K23" s="3">
         <v>613800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>536600</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>353900</v>
+        <v>407900</v>
       </c>
       <c r="E24" s="3">
-        <v>310300</v>
+        <v>344400</v>
       </c>
       <c r="F24" s="3">
-        <v>301700</v>
+        <v>301800</v>
       </c>
       <c r="G24" s="3">
-        <v>182700</v>
+        <v>294200</v>
       </c>
       <c r="H24" s="3">
-        <v>95100</v>
+        <v>176500</v>
       </c>
       <c r="I24" s="3">
-        <v>76100</v>
+        <v>92800</v>
       </c>
       <c r="J24" s="3">
+        <v>74300</v>
+      </c>
+      <c r="K24" s="3">
         <v>99200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>58300</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>929400</v>
+        <v>1885100</v>
       </c>
       <c r="E26" s="3">
-        <v>1556600</v>
+        <v>1205900</v>
       </c>
       <c r="F26" s="3">
-        <v>1692000</v>
+        <v>1635200</v>
       </c>
       <c r="G26" s="3">
-        <v>981000</v>
+        <v>1698500</v>
       </c>
       <c r="H26" s="3">
-        <v>688100</v>
+        <v>986100</v>
       </c>
       <c r="I26" s="3">
-        <v>637800</v>
+        <v>671200</v>
       </c>
       <c r="J26" s="3">
+        <v>622200</v>
+      </c>
+      <c r="K26" s="3">
         <v>514600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>478300</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>882700</v>
+        <v>1858000</v>
       </c>
       <c r="E27" s="3">
-        <v>1536400</v>
+        <v>1160400</v>
       </c>
       <c r="F27" s="3">
-        <v>1665000</v>
+        <v>1615500</v>
       </c>
       <c r="G27" s="3">
-        <v>966400</v>
+        <v>1672100</v>
       </c>
       <c r="H27" s="3">
-        <v>682500</v>
+        <v>971800</v>
       </c>
       <c r="I27" s="3">
-        <v>637600</v>
+        <v>665700</v>
       </c>
       <c r="J27" s="3">
+        <v>622000</v>
+      </c>
+      <c r="K27" s="3">
         <v>521900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>480000</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,39 +1343,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>1114400</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>-299300</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>-116800</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>-47900</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-29200</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-196500</v>
+        <v>-421500</v>
       </c>
       <c r="E32" s="3">
-        <v>-136300</v>
+        <v>-198100</v>
       </c>
       <c r="F32" s="3">
-        <v>-186300</v>
+        <v>-131100</v>
       </c>
       <c r="G32" s="3">
-        <v>-123000</v>
+        <v>-181600</v>
       </c>
       <c r="H32" s="3">
-        <v>-102300</v>
+        <v>-119800</v>
       </c>
       <c r="I32" s="3">
-        <v>-91200</v>
+        <v>-99800</v>
       </c>
       <c r="J32" s="3">
+        <v>-88900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-81300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-43400</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>882700</v>
+        <v>2972400</v>
       </c>
       <c r="E33" s="3">
-        <v>1536400</v>
+        <v>861100</v>
       </c>
       <c r="F33" s="3">
-        <v>1665000</v>
+        <v>1498700</v>
       </c>
       <c r="G33" s="3">
-        <v>966400</v>
+        <v>1624200</v>
       </c>
       <c r="H33" s="3">
-        <v>682500</v>
+        <v>942600</v>
       </c>
       <c r="I33" s="3">
-        <v>637600</v>
+        <v>665700</v>
       </c>
       <c r="J33" s="3">
+        <v>622000</v>
+      </c>
+      <c r="K33" s="3">
         <v>521900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>480000</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>882700</v>
+        <v>2972400</v>
       </c>
       <c r="E35" s="3">
-        <v>1536400</v>
+        <v>861100</v>
       </c>
       <c r="F35" s="3">
-        <v>1665000</v>
+        <v>1498700</v>
       </c>
       <c r="G35" s="3">
-        <v>966400</v>
+        <v>1624200</v>
       </c>
       <c r="H35" s="3">
-        <v>682500</v>
+        <v>942600</v>
       </c>
       <c r="I35" s="3">
-        <v>637600</v>
+        <v>665700</v>
       </c>
       <c r="J35" s="3">
+        <v>622000</v>
+      </c>
+      <c r="K35" s="3">
         <v>521900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>480000</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,115 +1645,125 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>715700</v>
+        <v>455000</v>
       </c>
       <c r="E41" s="3">
-        <v>396600</v>
+        <v>699200</v>
       </c>
       <c r="F41" s="3">
-        <v>780500</v>
+        <v>387400</v>
       </c>
       <c r="G41" s="3">
-        <v>871100</v>
+        <v>762400</v>
       </c>
       <c r="H41" s="3">
-        <v>290000</v>
+        <v>851000</v>
       </c>
       <c r="I41" s="3">
-        <v>209200</v>
+        <v>283300</v>
       </c>
       <c r="J41" s="3">
+        <v>204400</v>
+      </c>
+      <c r="K41" s="3">
         <v>228200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>328700</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6395600</v>
+        <v>9643000</v>
       </c>
       <c r="E42" s="3">
-        <v>5788800</v>
+        <v>6247600</v>
       </c>
       <c r="F42" s="3">
-        <v>4439700</v>
+        <v>5654900</v>
       </c>
       <c r="G42" s="3">
-        <v>2813200</v>
+        <v>4337000</v>
       </c>
       <c r="H42" s="3">
-        <v>2949200</v>
+        <v>2748100</v>
       </c>
       <c r="I42" s="3">
-        <v>2514700</v>
+        <v>2881000</v>
       </c>
       <c r="J42" s="3">
+        <v>2456500</v>
+      </c>
+      <c r="K42" s="3">
         <v>2033400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1587700</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1336300</v>
+        <v>675700</v>
       </c>
       <c r="E43" s="3">
-        <v>640100</v>
+        <v>1305400</v>
       </c>
       <c r="F43" s="3">
-        <v>1297900</v>
+        <v>625300</v>
       </c>
       <c r="G43" s="3">
-        <v>422600</v>
+        <v>1267900</v>
       </c>
       <c r="H43" s="3">
-        <v>181100</v>
+        <v>412900</v>
       </c>
       <c r="I43" s="3">
-        <v>98200</v>
+        <v>177000</v>
       </c>
       <c r="J43" s="3">
+        <v>95900</v>
+      </c>
+      <c r="K43" s="3">
         <v>66300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>50800</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>152900</v>
+        <v>91200</v>
       </c>
       <c r="E44" s="3">
-        <v>785500</v>
+        <v>149400</v>
       </c>
       <c r="F44" s="3">
-        <v>226400</v>
+        <v>767400</v>
       </c>
       <c r="G44" s="3">
-        <v>117300</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>17</v>
+        <v>221200</v>
+      </c>
+      <c r="H44" s="3">
+        <v>114600</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>17</v>
@@ -1679,159 +1774,177 @@
       <c r="K44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2538100</v>
+        <v>1063400</v>
       </c>
       <c r="E45" s="3">
-        <v>1277200</v>
+        <v>2479300</v>
       </c>
       <c r="F45" s="3">
-        <v>1784900</v>
+        <v>1247600</v>
       </c>
       <c r="G45" s="3">
-        <v>712700</v>
+        <v>1743600</v>
       </c>
       <c r="H45" s="3">
-        <v>558600</v>
+        <v>696200</v>
       </c>
       <c r="I45" s="3">
-        <v>448900</v>
+        <v>545700</v>
       </c>
       <c r="J45" s="3">
+        <v>438500</v>
+      </c>
+      <c r="K45" s="3">
         <v>235800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>180900</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9859300</v>
+        <v>11928300</v>
       </c>
       <c r="E46" s="3">
-        <v>8888300</v>
+        <v>9631200</v>
       </c>
       <c r="F46" s="3">
-        <v>7085500</v>
+        <v>8682600</v>
       </c>
       <c r="G46" s="3">
-        <v>4937000</v>
+        <v>6921600</v>
       </c>
       <c r="H46" s="3">
-        <v>3979100</v>
+        <v>4822800</v>
       </c>
       <c r="I46" s="3">
-        <v>3271000</v>
+        <v>3887000</v>
       </c>
       <c r="J46" s="3">
+        <v>3195300</v>
+      </c>
+      <c r="K46" s="3">
         <v>2563800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2148100</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>767100</v>
+        <v>1857600</v>
       </c>
       <c r="E47" s="3">
-        <v>399600</v>
+        <v>749300</v>
       </c>
       <c r="F47" s="3">
-        <v>361600</v>
+        <v>390300</v>
       </c>
       <c r="G47" s="3">
-        <v>412500</v>
+        <v>353200</v>
       </c>
       <c r="H47" s="3">
-        <v>150700</v>
+        <v>402900</v>
       </c>
       <c r="I47" s="3">
-        <v>109900</v>
+        <v>147200</v>
       </c>
       <c r="J47" s="3">
+        <v>107400</v>
+      </c>
+      <c r="K47" s="3">
         <v>75200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5000</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1442200</v>
+        <v>712800</v>
       </c>
       <c r="E48" s="3">
-        <v>540800</v>
+        <v>1408800</v>
       </c>
       <c r="F48" s="3">
-        <v>694300</v>
+        <v>528300</v>
       </c>
       <c r="G48" s="3">
-        <v>300200</v>
+        <v>678200</v>
       </c>
       <c r="H48" s="3">
-        <v>183800</v>
+        <v>293200</v>
       </c>
       <c r="I48" s="3">
-        <v>125100</v>
+        <v>179600</v>
       </c>
       <c r="J48" s="3">
+        <v>122200</v>
+      </c>
+      <c r="K48" s="3">
         <v>116900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>125900</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>353700</v>
+        <v>510100</v>
       </c>
       <c r="E49" s="3">
-        <v>117700</v>
+        <v>345500</v>
       </c>
       <c r="F49" s="3">
-        <v>36500</v>
+        <v>115000</v>
       </c>
       <c r="G49" s="3">
-        <v>27400</v>
+        <v>35600</v>
       </c>
       <c r="H49" s="3">
-        <v>15500</v>
+        <v>26800</v>
       </c>
       <c r="I49" s="3">
+        <v>15200</v>
+      </c>
+      <c r="J49" s="3">
         <v>1800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9000</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2005100</v>
+        <v>706600</v>
       </c>
       <c r="E52" s="3">
-        <v>245200</v>
+        <v>1958700</v>
       </c>
       <c r="F52" s="3">
-        <v>850100</v>
+        <v>239600</v>
       </c>
       <c r="G52" s="3">
-        <v>228300</v>
+        <v>830400</v>
       </c>
       <c r="H52" s="3">
-        <v>26200</v>
+        <v>223000</v>
       </c>
       <c r="I52" s="3">
-        <v>14000</v>
+        <v>25600</v>
       </c>
       <c r="J52" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K52" s="3">
         <v>8400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7900</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12478200</v>
+        <v>15715400</v>
       </c>
       <c r="E54" s="3">
-        <v>10191600</v>
+        <v>12189400</v>
       </c>
       <c r="F54" s="3">
-        <v>8326400</v>
+        <v>9955800</v>
       </c>
       <c r="G54" s="3">
-        <v>5905300</v>
+        <v>8133700</v>
       </c>
       <c r="H54" s="3">
-        <v>4355300</v>
+        <v>5768600</v>
       </c>
       <c r="I54" s="3">
-        <v>3521900</v>
+        <v>4254500</v>
       </c>
       <c r="J54" s="3">
+        <v>3440400</v>
+      </c>
+      <c r="K54" s="3">
         <v>2766000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2292200</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,128 +2137,141 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>172400</v>
+        <v>169900</v>
       </c>
       <c r="E57" s="3">
-        <v>350500</v>
+        <v>168400</v>
       </c>
       <c r="F57" s="3">
-        <v>200300</v>
+        <v>342300</v>
       </c>
       <c r="G57" s="3">
-        <v>100500</v>
+        <v>195700</v>
       </c>
       <c r="H57" s="3">
-        <v>58900</v>
+        <v>98200</v>
       </c>
       <c r="I57" s="3">
-        <v>31500</v>
+        <v>57600</v>
       </c>
       <c r="J57" s="3">
+        <v>30700</v>
+      </c>
+      <c r="K57" s="3">
         <v>22600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19900</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1959700</v>
+        <v>2358600</v>
       </c>
       <c r="E58" s="3">
-        <v>950300</v>
+        <v>1914400</v>
       </c>
       <c r="F58" s="3">
-        <v>547500</v>
+        <v>928400</v>
       </c>
       <c r="G58" s="3">
-        <v>326100</v>
+        <v>534800</v>
       </c>
       <c r="H58" s="3">
-        <v>294100</v>
+        <v>318600</v>
       </c>
       <c r="I58" s="3">
-        <v>140000</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>17</v>
+        <v>287300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>136700</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3744400</v>
+        <v>2831600</v>
       </c>
       <c r="E59" s="3">
-        <v>2106900</v>
+        <v>3657800</v>
       </c>
       <c r="F59" s="3">
-        <v>2517000</v>
+        <v>2058100</v>
       </c>
       <c r="G59" s="3">
-        <v>1247400</v>
+        <v>2458800</v>
       </c>
       <c r="H59" s="3">
-        <v>616400</v>
+        <v>1218600</v>
       </c>
       <c r="I59" s="3">
-        <v>436000</v>
+        <v>602100</v>
       </c>
       <c r="J59" s="3">
+        <v>425900</v>
+      </c>
+      <c r="K59" s="3">
         <v>490500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>318800</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5037400</v>
+        <v>5360100</v>
       </c>
       <c r="E60" s="3">
-        <v>3407700</v>
+        <v>4920900</v>
       </c>
       <c r="F60" s="3">
-        <v>2751400</v>
+        <v>3328800</v>
       </c>
       <c r="G60" s="3">
-        <v>1674000</v>
+        <v>2687800</v>
       </c>
       <c r="H60" s="3">
-        <v>969400</v>
+        <v>1635300</v>
       </c>
       <c r="I60" s="3">
-        <v>607400</v>
+        <v>947000</v>
       </c>
       <c r="J60" s="3">
+        <v>593300</v>
+      </c>
+      <c r="K60" s="3">
         <v>513200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>338800</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2157,39 +2299,45 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>63300</v>
+        <v>117600</v>
       </c>
       <c r="E62" s="3">
-        <v>33200</v>
+        <v>61900</v>
       </c>
       <c r="F62" s="3">
-        <v>56300</v>
+        <v>32400</v>
       </c>
       <c r="G62" s="3">
-        <v>23900</v>
+        <v>55000</v>
       </c>
       <c r="H62" s="3">
-        <v>15300</v>
+        <v>23300</v>
       </c>
       <c r="I62" s="3">
-        <v>20800</v>
+        <v>14900</v>
       </c>
       <c r="J62" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K62" s="3">
         <v>14300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9500</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5988300</v>
+        <v>7102000</v>
       </c>
       <c r="E66" s="3">
-        <v>3630000</v>
+        <v>5849800</v>
       </c>
       <c r="F66" s="3">
-        <v>2846800</v>
+        <v>3546000</v>
       </c>
       <c r="G66" s="3">
-        <v>1709900</v>
+        <v>2780900</v>
       </c>
       <c r="H66" s="3">
-        <v>999200</v>
+        <v>1670300</v>
       </c>
       <c r="I66" s="3">
-        <v>617100</v>
+        <v>976100</v>
       </c>
       <c r="J66" s="3">
+        <v>602900</v>
+      </c>
+      <c r="K66" s="3">
         <v>516100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>344000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6487000</v>
+        <v>8074500</v>
       </c>
       <c r="E72" s="3">
-        <v>6304400</v>
+        <v>6336900</v>
       </c>
       <c r="F72" s="3">
-        <v>5235400</v>
+        <v>6158500</v>
       </c>
       <c r="G72" s="3">
-        <v>3935700</v>
+        <v>5114300</v>
       </c>
       <c r="H72" s="3">
-        <v>3045200</v>
+        <v>3844700</v>
       </c>
       <c r="I72" s="3">
-        <v>2655700</v>
+        <v>2974800</v>
       </c>
       <c r="J72" s="3">
+        <v>2594200</v>
+      </c>
+      <c r="K72" s="3">
         <v>2053100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1728800</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6489800</v>
+        <v>8613400</v>
       </c>
       <c r="E76" s="3">
-        <v>6561600</v>
+        <v>6339700</v>
       </c>
       <c r="F76" s="3">
-        <v>5479700</v>
+        <v>6409800</v>
       </c>
       <c r="G76" s="3">
-        <v>4195400</v>
+        <v>5352900</v>
       </c>
       <c r="H76" s="3">
-        <v>3356000</v>
+        <v>4098300</v>
       </c>
       <c r="I76" s="3">
-        <v>2904800</v>
+        <v>3278400</v>
       </c>
       <c r="J76" s="3">
+        <v>2837600</v>
+      </c>
+      <c r="K76" s="3">
         <v>2249900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1948100</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>882700</v>
+        <v>2972400</v>
       </c>
       <c r="E81" s="3">
-        <v>1536400</v>
+        <v>861100</v>
       </c>
       <c r="F81" s="3">
-        <v>1665000</v>
+        <v>1498700</v>
       </c>
       <c r="G81" s="3">
-        <v>966400</v>
+        <v>1624200</v>
       </c>
       <c r="H81" s="3">
-        <v>682500</v>
+        <v>942600</v>
       </c>
       <c r="I81" s="3">
-        <v>637600</v>
+        <v>665700</v>
       </c>
       <c r="J81" s="3">
+        <v>622000</v>
+      </c>
+      <c r="K81" s="3">
         <v>521900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>480000</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>298900</v>
+        <v>365800</v>
       </c>
       <c r="E83" s="3">
-        <v>115000</v>
+        <v>291600</v>
       </c>
       <c r="F83" s="3">
-        <v>47000</v>
+        <v>112200</v>
       </c>
       <c r="G83" s="3">
-        <v>26200</v>
+        <v>45800</v>
       </c>
       <c r="H83" s="3">
-        <v>25000</v>
+        <v>25500</v>
       </c>
       <c r="I83" s="3">
-        <v>22700</v>
+        <v>24400</v>
       </c>
       <c r="J83" s="3">
+        <v>22200</v>
+      </c>
+      <c r="K83" s="3">
         <v>33500</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1924900</v>
+        <v>2409600</v>
       </c>
       <c r="E89" s="3">
-        <v>1705900</v>
+        <v>1877700</v>
       </c>
       <c r="F89" s="3">
-        <v>2222300</v>
+        <v>1664000</v>
       </c>
       <c r="G89" s="3">
-        <v>1158900</v>
+        <v>2167700</v>
       </c>
       <c r="H89" s="3">
-        <v>842700</v>
+        <v>1130400</v>
       </c>
       <c r="I89" s="3">
-        <v>751200</v>
+        <v>822000</v>
       </c>
       <c r="J89" s="3">
+        <v>732800</v>
+      </c>
+      <c r="K89" s="3">
         <v>606100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>604500</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-362700</v>
+        <v>-169300</v>
       </c>
       <c r="E91" s="3">
-        <v>-264400</v>
+        <v>-353800</v>
       </c>
       <c r="F91" s="3">
-        <v>-162900</v>
+        <v>-257900</v>
       </c>
       <c r="G91" s="3">
-        <v>-124300</v>
+        <v>-158900</v>
       </c>
       <c r="H91" s="3">
-        <v>-77100</v>
+        <v>-121200</v>
       </c>
       <c r="I91" s="3">
-        <v>-31400</v>
+        <v>-75200</v>
       </c>
       <c r="J91" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-25600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-60900</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1947000</v>
+        <v>-3098300</v>
       </c>
       <c r="E94" s="3">
-        <v>-1844500</v>
+        <v>-1899200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1701900</v>
+        <v>-1799200</v>
       </c>
       <c r="G94" s="3">
-        <v>-363900</v>
+        <v>-1660100</v>
       </c>
       <c r="H94" s="3">
-        <v>-648600</v>
+        <v>-355000</v>
       </c>
       <c r="I94" s="3">
-        <v>-782400</v>
+        <v>-632600</v>
       </c>
       <c r="J94" s="3">
+        <v>-763200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-639100</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-206600</v>
+        <v>-1237300</v>
       </c>
       <c r="E96" s="3">
-        <v>-467400</v>
+        <v>-201600</v>
       </c>
       <c r="F96" s="3">
-        <v>-365300</v>
+        <v>-455900</v>
       </c>
       <c r="G96" s="3">
-        <v>-210600</v>
+        <v>-356400</v>
       </c>
       <c r="H96" s="3">
-        <v>-284500</v>
+        <v>-205500</v>
       </c>
       <c r="I96" s="3">
-        <v>-117000</v>
+        <v>-277500</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-114100</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>227800</v>
+        <v>151500</v>
       </c>
       <c r="E100" s="3">
-        <v>-186900</v>
+        <v>222200</v>
       </c>
       <c r="F100" s="3">
-        <v>-322900</v>
+        <v>-182300</v>
       </c>
       <c r="G100" s="3">
-        <v>-234300</v>
+        <v>-315000</v>
       </c>
       <c r="H100" s="3">
-        <v>-111700</v>
+        <v>-228500</v>
       </c>
       <c r="I100" s="3">
-        <v>12500</v>
+        <v>-109000</v>
       </c>
       <c r="J100" s="3">
+        <v>12200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-56000</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>11700</v>
+        <v>4100</v>
       </c>
       <c r="E101" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1800</v>
       </c>
-      <c r="F101" s="3">
-        <v>19000</v>
-      </c>
       <c r="G101" s="3">
-        <v>20400</v>
+        <v>18500</v>
       </c>
       <c r="H101" s="3">
+        <v>19900</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-600</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>217400</v>
+        <v>-533100</v>
       </c>
       <c r="E102" s="3">
-        <v>-327400</v>
+        <v>212100</v>
       </c>
       <c r="F102" s="3">
-        <v>216500</v>
+        <v>-319300</v>
       </c>
       <c r="G102" s="3">
-        <v>581100</v>
+        <v>211200</v>
       </c>
       <c r="H102" s="3">
-        <v>80800</v>
+        <v>566800</v>
       </c>
       <c r="I102" s="3">
-        <v>-19000</v>
+        <v>78800</v>
       </c>
       <c r="J102" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-89500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>137900</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NTES_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NTES_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8291400</v>
+        <v>8603600</v>
       </c>
       <c r="E8" s="3">
-        <v>7163000</v>
+        <v>7432700</v>
       </c>
       <c r="F8" s="3">
-        <v>6219500</v>
+        <v>6453600</v>
       </c>
       <c r="G8" s="3">
-        <v>4757900</v>
+        <v>4937000</v>
       </c>
       <c r="H8" s="3">
-        <v>3035400</v>
+        <v>3149700</v>
       </c>
       <c r="I8" s="3">
-        <v>1639300</v>
+        <v>1701100</v>
       </c>
       <c r="J8" s="3">
-        <v>1287100</v>
+        <v>1335600</v>
       </c>
       <c r="K8" s="3">
         <v>1176700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3874900</v>
+        <v>4020800</v>
       </c>
       <c r="E9" s="3">
-        <v>3335600</v>
+        <v>3461200</v>
       </c>
       <c r="F9" s="3">
-        <v>2714400</v>
+        <v>2816600</v>
       </c>
       <c r="G9" s="3">
-        <v>4107700</v>
+        <v>4262400</v>
       </c>
       <c r="H9" s="3">
-        <v>2484000</v>
+        <v>2577500</v>
       </c>
       <c r="I9" s="3">
-        <v>456500</v>
+        <v>473700</v>
       </c>
       <c r="J9" s="3">
-        <v>346900</v>
+        <v>360000</v>
       </c>
       <c r="K9" s="3">
         <v>369900</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4416500</v>
+        <v>4582800</v>
       </c>
       <c r="E10" s="3">
-        <v>3827400</v>
+        <v>3971500</v>
       </c>
       <c r="F10" s="3">
-        <v>3505000</v>
+        <v>3637000</v>
       </c>
       <c r="G10" s="3">
-        <v>650100</v>
+        <v>674600</v>
       </c>
       <c r="H10" s="3">
-        <v>551400</v>
+        <v>572100</v>
       </c>
       <c r="I10" s="3">
-        <v>1182800</v>
+        <v>1227400</v>
       </c>
       <c r="J10" s="3">
-        <v>940200</v>
+        <v>975600</v>
       </c>
       <c r="K10" s="3">
         <v>806800</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1177500</v>
+        <v>1221900</v>
       </c>
       <c r="E12" s="3">
-        <v>1032700</v>
+        <v>1071600</v>
       </c>
       <c r="F12" s="3">
-        <v>582500</v>
+        <v>604400</v>
       </c>
       <c r="G12" s="3">
-        <v>835200</v>
+        <v>866600</v>
       </c>
       <c r="H12" s="3">
-        <v>599100</v>
+        <v>621700</v>
       </c>
       <c r="I12" s="3">
-        <v>185200</v>
+        <v>192200</v>
       </c>
       <c r="J12" s="3">
-        <v>129000</v>
+        <v>133800</v>
       </c>
       <c r="K12" s="3">
         <v>103100</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>6361300</v>
+        <v>6600800</v>
       </c>
       <c r="E17" s="3">
-        <v>5766500</v>
+        <v>5983700</v>
       </c>
       <c r="F17" s="3">
-        <v>4400700</v>
+        <v>4566400</v>
       </c>
       <c r="G17" s="3">
-        <v>2942200</v>
+        <v>3053000</v>
       </c>
       <c r="H17" s="3">
-        <v>1990000</v>
+        <v>2064900</v>
       </c>
       <c r="I17" s="3">
-        <v>972400</v>
+        <v>1009000</v>
       </c>
       <c r="J17" s="3">
-        <v>677900</v>
+        <v>703400</v>
       </c>
       <c r="K17" s="3">
         <v>644100</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1930100</v>
+        <v>2002800</v>
       </c>
       <c r="E18" s="3">
-        <v>1396400</v>
+        <v>1449000</v>
       </c>
       <c r="F18" s="3">
-        <v>1818800</v>
+        <v>1887300</v>
       </c>
       <c r="G18" s="3">
-        <v>1815600</v>
+        <v>1884000</v>
       </c>
       <c r="H18" s="3">
-        <v>1045400</v>
+        <v>1084700</v>
       </c>
       <c r="I18" s="3">
-        <v>666900</v>
+        <v>692000</v>
       </c>
       <c r="J18" s="3">
-        <v>609200</v>
+        <v>632100</v>
       </c>
       <c r="K18" s="3">
         <v>532500</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>421500</v>
+        <v>437400</v>
       </c>
       <c r="E20" s="3">
-        <v>198100</v>
+        <v>205500</v>
       </c>
       <c r="F20" s="3">
-        <v>131100</v>
+        <v>136000</v>
       </c>
       <c r="G20" s="3">
-        <v>181600</v>
+        <v>188400</v>
       </c>
       <c r="H20" s="3">
-        <v>119800</v>
+        <v>124300</v>
       </c>
       <c r="I20" s="3">
-        <v>99800</v>
+        <v>103500</v>
       </c>
       <c r="J20" s="3">
-        <v>88900</v>
+        <v>92300</v>
       </c>
       <c r="K20" s="3">
         <v>81300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2716300</v>
+        <v>2818400</v>
       </c>
       <c r="E21" s="3">
-        <v>1885200</v>
+        <v>1956000</v>
       </c>
       <c r="F21" s="3">
-        <v>2061700</v>
+        <v>2139300</v>
       </c>
       <c r="G21" s="3">
-        <v>2042900</v>
+        <v>2119800</v>
       </c>
       <c r="H21" s="3">
-        <v>1190700</v>
+        <v>1235500</v>
       </c>
       <c r="I21" s="3">
-        <v>791000</v>
+        <v>820800</v>
       </c>
       <c r="J21" s="3">
-        <v>720200</v>
+        <v>747300</v>
       </c>
       <c r="K21" s="3">
         <v>647300</v>
@@ -1122,25 +1122,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>58700</v>
+        <v>60900</v>
       </c>
       <c r="E22" s="3">
-        <v>44200</v>
+        <v>45900</v>
       </c>
       <c r="F22" s="3">
-        <v>12900</v>
+        <v>13400</v>
       </c>
       <c r="G22" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="H22" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="I22" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J22" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>17</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2293000</v>
+        <v>2379400</v>
       </c>
       <c r="E23" s="3">
-        <v>1550300</v>
+        <v>1608700</v>
       </c>
       <c r="F23" s="3">
-        <v>1937000</v>
+        <v>2009900</v>
       </c>
       <c r="G23" s="3">
-        <v>1992700</v>
+        <v>2067700</v>
       </c>
       <c r="H23" s="3">
-        <v>1162500</v>
+        <v>1206300</v>
       </c>
       <c r="I23" s="3">
-        <v>764000</v>
+        <v>792700</v>
       </c>
       <c r="J23" s="3">
-        <v>696400</v>
+        <v>722600</v>
       </c>
       <c r="K23" s="3">
         <v>613800</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>407900</v>
+        <v>423300</v>
       </c>
       <c r="E24" s="3">
-        <v>344400</v>
+        <v>357400</v>
       </c>
       <c r="F24" s="3">
-        <v>301800</v>
+        <v>313100</v>
       </c>
       <c r="G24" s="3">
-        <v>294200</v>
+        <v>305300</v>
       </c>
       <c r="H24" s="3">
-        <v>176500</v>
+        <v>183100</v>
       </c>
       <c r="I24" s="3">
-        <v>92800</v>
+        <v>96200</v>
       </c>
       <c r="J24" s="3">
-        <v>74300</v>
+        <v>77100</v>
       </c>
       <c r="K24" s="3">
         <v>99200</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1885100</v>
+        <v>1956000</v>
       </c>
       <c r="E26" s="3">
-        <v>1205900</v>
+        <v>1251300</v>
       </c>
       <c r="F26" s="3">
-        <v>1635200</v>
+        <v>1696800</v>
       </c>
       <c r="G26" s="3">
-        <v>1698500</v>
+        <v>1762400</v>
       </c>
       <c r="H26" s="3">
-        <v>986100</v>
+        <v>1023200</v>
       </c>
       <c r="I26" s="3">
-        <v>671200</v>
+        <v>696500</v>
       </c>
       <c r="J26" s="3">
-        <v>622200</v>
+        <v>645600</v>
       </c>
       <c r="K26" s="3">
         <v>514600</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1858000</v>
+        <v>1927900</v>
       </c>
       <c r="E27" s="3">
-        <v>1160400</v>
+        <v>1204100</v>
       </c>
       <c r="F27" s="3">
-        <v>1615500</v>
+        <v>1676300</v>
       </c>
       <c r="G27" s="3">
-        <v>1672100</v>
+        <v>1735100</v>
       </c>
       <c r="H27" s="3">
-        <v>971800</v>
+        <v>1008400</v>
       </c>
       <c r="I27" s="3">
-        <v>665700</v>
+        <v>690800</v>
       </c>
       <c r="J27" s="3">
-        <v>622000</v>
+        <v>645400</v>
       </c>
       <c r="K27" s="3">
         <v>521900</v>
@@ -1353,19 +1353,19 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>1114400</v>
+        <v>1156400</v>
       </c>
       <c r="E29" s="3">
-        <v>-299300</v>
+        <v>-310600</v>
       </c>
       <c r="F29" s="3">
-        <v>-116800</v>
+        <v>-121200</v>
       </c>
       <c r="G29" s="3">
-        <v>-47900</v>
+        <v>-49700</v>
       </c>
       <c r="H29" s="3">
-        <v>-29200</v>
+        <v>-30300</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>17</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-421500</v>
+        <v>-437400</v>
       </c>
       <c r="E32" s="3">
-        <v>-198100</v>
+        <v>-205500</v>
       </c>
       <c r="F32" s="3">
-        <v>-131100</v>
+        <v>-136000</v>
       </c>
       <c r="G32" s="3">
-        <v>-181600</v>
+        <v>-188400</v>
       </c>
       <c r="H32" s="3">
-        <v>-119800</v>
+        <v>-124300</v>
       </c>
       <c r="I32" s="3">
-        <v>-99800</v>
+        <v>-103500</v>
       </c>
       <c r="J32" s="3">
-        <v>-88900</v>
+        <v>-92300</v>
       </c>
       <c r="K32" s="3">
         <v>-81300</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2972400</v>
+        <v>3084300</v>
       </c>
       <c r="E33" s="3">
-        <v>861100</v>
+        <v>893500</v>
       </c>
       <c r="F33" s="3">
-        <v>1498700</v>
+        <v>1555100</v>
       </c>
       <c r="G33" s="3">
-        <v>1624200</v>
+        <v>1685300</v>
       </c>
       <c r="H33" s="3">
-        <v>942600</v>
+        <v>978100</v>
       </c>
       <c r="I33" s="3">
-        <v>665700</v>
+        <v>690800</v>
       </c>
       <c r="J33" s="3">
-        <v>622000</v>
+        <v>645400</v>
       </c>
       <c r="K33" s="3">
         <v>521900</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2972400</v>
+        <v>3084300</v>
       </c>
       <c r="E35" s="3">
-        <v>861100</v>
+        <v>893500</v>
       </c>
       <c r="F35" s="3">
-        <v>1498700</v>
+        <v>1555100</v>
       </c>
       <c r="G35" s="3">
-        <v>1624200</v>
+        <v>1685300</v>
       </c>
       <c r="H35" s="3">
-        <v>942600</v>
+        <v>978100</v>
       </c>
       <c r="I35" s="3">
-        <v>665700</v>
+        <v>690800</v>
       </c>
       <c r="J35" s="3">
-        <v>622000</v>
+        <v>645400</v>
       </c>
       <c r="K35" s="3">
         <v>521900</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>455000</v>
+        <v>471500</v>
       </c>
       <c r="E41" s="3">
-        <v>699200</v>
+        <v>724500</v>
       </c>
       <c r="F41" s="3">
-        <v>387400</v>
+        <v>401400</v>
       </c>
       <c r="G41" s="3">
-        <v>762400</v>
+        <v>790000</v>
       </c>
       <c r="H41" s="3">
-        <v>851000</v>
+        <v>881800</v>
       </c>
       <c r="I41" s="3">
-        <v>283300</v>
+        <v>293600</v>
       </c>
       <c r="J41" s="3">
-        <v>204400</v>
+        <v>211800</v>
       </c>
       <c r="K41" s="3">
         <v>228200</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9643000</v>
+        <v>9991800</v>
       </c>
       <c r="E42" s="3">
-        <v>6247600</v>
+        <v>6473600</v>
       </c>
       <c r="F42" s="3">
-        <v>5654900</v>
+        <v>5859500</v>
       </c>
       <c r="G42" s="3">
-        <v>4337000</v>
+        <v>4493900</v>
       </c>
       <c r="H42" s="3">
-        <v>2748100</v>
+        <v>2847500</v>
       </c>
       <c r="I42" s="3">
-        <v>2881000</v>
+        <v>2985200</v>
       </c>
       <c r="J42" s="3">
-        <v>2456500</v>
+        <v>2545400</v>
       </c>
       <c r="K42" s="3">
         <v>2033400</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>675700</v>
+        <v>700200</v>
       </c>
       <c r="E43" s="3">
-        <v>1305400</v>
+        <v>1352600</v>
       </c>
       <c r="F43" s="3">
-        <v>625300</v>
+        <v>647900</v>
       </c>
       <c r="G43" s="3">
-        <v>1267900</v>
+        <v>1313800</v>
       </c>
       <c r="H43" s="3">
-        <v>412900</v>
+        <v>427800</v>
       </c>
       <c r="I43" s="3">
-        <v>177000</v>
+        <v>183400</v>
       </c>
       <c r="J43" s="3">
-        <v>95900</v>
+        <v>99400</v>
       </c>
       <c r="K43" s="3">
         <v>66300</v>
@@ -1751,19 +1751,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>91200</v>
+        <v>94500</v>
       </c>
       <c r="E44" s="3">
-        <v>149400</v>
+        <v>154800</v>
       </c>
       <c r="F44" s="3">
-        <v>767400</v>
+        <v>795100</v>
       </c>
       <c r="G44" s="3">
-        <v>221200</v>
+        <v>229200</v>
       </c>
       <c r="H44" s="3">
-        <v>114600</v>
+        <v>118800</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>17</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1063400</v>
+        <v>1101900</v>
       </c>
       <c r="E45" s="3">
-        <v>2479300</v>
+        <v>2569000</v>
       </c>
       <c r="F45" s="3">
-        <v>1247600</v>
+        <v>1292800</v>
       </c>
       <c r="G45" s="3">
-        <v>1743600</v>
+        <v>1806700</v>
       </c>
       <c r="H45" s="3">
-        <v>696200</v>
+        <v>721400</v>
       </c>
       <c r="I45" s="3">
-        <v>545700</v>
+        <v>565400</v>
       </c>
       <c r="J45" s="3">
-        <v>438500</v>
+        <v>454400</v>
       </c>
       <c r="K45" s="3">
         <v>235800</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11928300</v>
+        <v>12359800</v>
       </c>
       <c r="E46" s="3">
-        <v>9631200</v>
+        <v>9979600</v>
       </c>
       <c r="F46" s="3">
-        <v>8682600</v>
+        <v>8996700</v>
       </c>
       <c r="G46" s="3">
-        <v>6921600</v>
+        <v>7171900</v>
       </c>
       <c r="H46" s="3">
-        <v>4822800</v>
+        <v>4997200</v>
       </c>
       <c r="I46" s="3">
-        <v>3887000</v>
+        <v>4027600</v>
       </c>
       <c r="J46" s="3">
-        <v>3195300</v>
+        <v>3310900</v>
       </c>
       <c r="K46" s="3">
         <v>2563800</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1857600</v>
+        <v>1924800</v>
       </c>
       <c r="E47" s="3">
-        <v>749300</v>
+        <v>776400</v>
       </c>
       <c r="F47" s="3">
-        <v>390300</v>
+        <v>404400</v>
       </c>
       <c r="G47" s="3">
-        <v>353200</v>
+        <v>366000</v>
       </c>
       <c r="H47" s="3">
-        <v>402900</v>
+        <v>417500</v>
       </c>
       <c r="I47" s="3">
-        <v>147200</v>
+        <v>152600</v>
       </c>
       <c r="J47" s="3">
-        <v>107400</v>
+        <v>111300</v>
       </c>
       <c r="K47" s="3">
         <v>75200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>712800</v>
+        <v>738600</v>
       </c>
       <c r="E48" s="3">
-        <v>1408800</v>
+        <v>1459800</v>
       </c>
       <c r="F48" s="3">
-        <v>528300</v>
+        <v>547400</v>
       </c>
       <c r="G48" s="3">
-        <v>678200</v>
+        <v>702800</v>
       </c>
       <c r="H48" s="3">
-        <v>293200</v>
+        <v>303800</v>
       </c>
       <c r="I48" s="3">
-        <v>179600</v>
+        <v>186100</v>
       </c>
       <c r="J48" s="3">
-        <v>122200</v>
+        <v>126700</v>
       </c>
       <c r="K48" s="3">
         <v>116900</v>
@@ -1916,22 +1916,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>510100</v>
+        <v>528500</v>
       </c>
       <c r="E49" s="3">
-        <v>345500</v>
+        <v>358000</v>
       </c>
       <c r="F49" s="3">
-        <v>115000</v>
+        <v>119100</v>
       </c>
       <c r="G49" s="3">
-        <v>35600</v>
+        <v>36900</v>
       </c>
       <c r="H49" s="3">
-        <v>26800</v>
+        <v>27700</v>
       </c>
       <c r="I49" s="3">
-        <v>15200</v>
+        <v>15700</v>
       </c>
       <c r="J49" s="3">
         <v>1800</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>706600</v>
+        <v>732200</v>
       </c>
       <c r="E52" s="3">
-        <v>1958700</v>
+        <v>2029600</v>
       </c>
       <c r="F52" s="3">
-        <v>239600</v>
+        <v>248200</v>
       </c>
       <c r="G52" s="3">
-        <v>830400</v>
+        <v>860400</v>
       </c>
       <c r="H52" s="3">
-        <v>223000</v>
+        <v>231000</v>
       </c>
       <c r="I52" s="3">
-        <v>25600</v>
+        <v>26500</v>
       </c>
       <c r="J52" s="3">
-        <v>13700</v>
+        <v>14200</v>
       </c>
       <c r="K52" s="3">
         <v>8400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15715400</v>
+        <v>16283800</v>
       </c>
       <c r="E54" s="3">
-        <v>12189400</v>
+        <v>12630400</v>
       </c>
       <c r="F54" s="3">
-        <v>9955800</v>
+        <v>10315900</v>
       </c>
       <c r="G54" s="3">
-        <v>8133700</v>
+        <v>8428000</v>
       </c>
       <c r="H54" s="3">
-        <v>5768600</v>
+        <v>5977300</v>
       </c>
       <c r="I54" s="3">
-        <v>4254500</v>
+        <v>4408400</v>
       </c>
       <c r="J54" s="3">
-        <v>3440400</v>
+        <v>3564900</v>
       </c>
       <c r="K54" s="3">
         <v>2766000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>169900</v>
+        <v>176100</v>
       </c>
       <c r="E57" s="3">
-        <v>168400</v>
+        <v>174500</v>
       </c>
       <c r="F57" s="3">
-        <v>342300</v>
+        <v>354700</v>
       </c>
       <c r="G57" s="3">
-        <v>195700</v>
+        <v>202800</v>
       </c>
       <c r="H57" s="3">
-        <v>98200</v>
+        <v>101700</v>
       </c>
       <c r="I57" s="3">
-        <v>57600</v>
+        <v>59600</v>
       </c>
       <c r="J57" s="3">
-        <v>30700</v>
+        <v>31800</v>
       </c>
       <c r="K57" s="3">
         <v>22600</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2358600</v>
+        <v>2444000</v>
       </c>
       <c r="E58" s="3">
-        <v>1914400</v>
+        <v>1983600</v>
       </c>
       <c r="F58" s="3">
-        <v>928400</v>
+        <v>961900</v>
       </c>
       <c r="G58" s="3">
-        <v>534800</v>
+        <v>554200</v>
       </c>
       <c r="H58" s="3">
-        <v>318600</v>
+        <v>330100</v>
       </c>
       <c r="I58" s="3">
-        <v>287300</v>
+        <v>297700</v>
       </c>
       <c r="J58" s="3">
-        <v>136700</v>
+        <v>141700</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>17</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2831600</v>
+        <v>2934000</v>
       </c>
       <c r="E59" s="3">
-        <v>3657800</v>
+        <v>3790100</v>
       </c>
       <c r="F59" s="3">
-        <v>2058100</v>
+        <v>2132600</v>
       </c>
       <c r="G59" s="3">
-        <v>2458800</v>
+        <v>2547700</v>
       </c>
       <c r="H59" s="3">
-        <v>1218600</v>
+        <v>1262600</v>
       </c>
       <c r="I59" s="3">
-        <v>602100</v>
+        <v>623900</v>
       </c>
       <c r="J59" s="3">
-        <v>425900</v>
+        <v>441300</v>
       </c>
       <c r="K59" s="3">
         <v>490500</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5360100</v>
+        <v>5554000</v>
       </c>
       <c r="E60" s="3">
-        <v>4920900</v>
+        <v>5098900</v>
       </c>
       <c r="F60" s="3">
-        <v>3328800</v>
+        <v>3449200</v>
       </c>
       <c r="G60" s="3">
-        <v>2687800</v>
+        <v>2785000</v>
       </c>
       <c r="H60" s="3">
-        <v>1635300</v>
+        <v>1694500</v>
       </c>
       <c r="I60" s="3">
-        <v>947000</v>
+        <v>981200</v>
       </c>
       <c r="J60" s="3">
-        <v>593300</v>
+        <v>614800</v>
       </c>
       <c r="K60" s="3">
         <v>513200</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>117600</v>
+        <v>121800</v>
       </c>
       <c r="E62" s="3">
-        <v>61900</v>
+        <v>64100</v>
       </c>
       <c r="F62" s="3">
-        <v>32400</v>
+        <v>33600</v>
       </c>
       <c r="G62" s="3">
-        <v>55000</v>
+        <v>57000</v>
       </c>
       <c r="H62" s="3">
-        <v>23300</v>
+        <v>24200</v>
       </c>
       <c r="I62" s="3">
-        <v>14900</v>
+        <v>15500</v>
       </c>
       <c r="J62" s="3">
-        <v>20300</v>
+        <v>21000</v>
       </c>
       <c r="K62" s="3">
         <v>14300</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7102000</v>
+        <v>7358900</v>
       </c>
       <c r="E66" s="3">
-        <v>5849800</v>
+        <v>6061400</v>
       </c>
       <c r="F66" s="3">
-        <v>3546000</v>
+        <v>3674200</v>
       </c>
       <c r="G66" s="3">
-        <v>2780900</v>
+        <v>2881500</v>
       </c>
       <c r="H66" s="3">
-        <v>1670300</v>
+        <v>1730800</v>
       </c>
       <c r="I66" s="3">
-        <v>976100</v>
+        <v>1011400</v>
       </c>
       <c r="J66" s="3">
-        <v>602900</v>
+        <v>624700</v>
       </c>
       <c r="K66" s="3">
         <v>516100</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8074500</v>
+        <v>8366500</v>
       </c>
       <c r="E72" s="3">
-        <v>6336900</v>
+        <v>6566100</v>
       </c>
       <c r="F72" s="3">
-        <v>6158500</v>
+        <v>6381300</v>
       </c>
       <c r="G72" s="3">
-        <v>5114300</v>
+        <v>5299300</v>
       </c>
       <c r="H72" s="3">
-        <v>3844700</v>
+        <v>3983700</v>
       </c>
       <c r="I72" s="3">
-        <v>2974800</v>
+        <v>3082400</v>
       </c>
       <c r="J72" s="3">
-        <v>2594200</v>
+        <v>2688100</v>
       </c>
       <c r="K72" s="3">
         <v>2053100</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8613400</v>
+        <v>8924900</v>
       </c>
       <c r="E76" s="3">
-        <v>6339700</v>
+        <v>6569000</v>
       </c>
       <c r="F76" s="3">
-        <v>6409800</v>
+        <v>6641700</v>
       </c>
       <c r="G76" s="3">
-        <v>5352900</v>
+        <v>5546500</v>
       </c>
       <c r="H76" s="3">
-        <v>4098300</v>
+        <v>4246500</v>
       </c>
       <c r="I76" s="3">
-        <v>3278400</v>
+        <v>3397000</v>
       </c>
       <c r="J76" s="3">
-        <v>2837600</v>
+        <v>2940200</v>
       </c>
       <c r="K76" s="3">
         <v>2249900</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2972400</v>
+        <v>3084300</v>
       </c>
       <c r="E81" s="3">
-        <v>861100</v>
+        <v>893500</v>
       </c>
       <c r="F81" s="3">
-        <v>1498700</v>
+        <v>1555100</v>
       </c>
       <c r="G81" s="3">
-        <v>1624200</v>
+        <v>1685300</v>
       </c>
       <c r="H81" s="3">
-        <v>942600</v>
+        <v>978100</v>
       </c>
       <c r="I81" s="3">
-        <v>665700</v>
+        <v>690800</v>
       </c>
       <c r="J81" s="3">
-        <v>622000</v>
+        <v>645400</v>
       </c>
       <c r="K81" s="3">
         <v>521900</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>365800</v>
+        <v>379600</v>
       </c>
       <c r="E83" s="3">
-        <v>291600</v>
+        <v>302600</v>
       </c>
       <c r="F83" s="3">
-        <v>112200</v>
+        <v>116400</v>
       </c>
       <c r="G83" s="3">
-        <v>45800</v>
+        <v>47600</v>
       </c>
       <c r="H83" s="3">
-        <v>25500</v>
+        <v>26500</v>
       </c>
       <c r="I83" s="3">
-        <v>24400</v>
+        <v>25300</v>
       </c>
       <c r="J83" s="3">
-        <v>22200</v>
+        <v>23000</v>
       </c>
       <c r="K83" s="3">
         <v>33500</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2409600</v>
+        <v>2500300</v>
       </c>
       <c r="E89" s="3">
-        <v>1877700</v>
+        <v>1948400</v>
       </c>
       <c r="F89" s="3">
-        <v>1664000</v>
+        <v>1726700</v>
       </c>
       <c r="G89" s="3">
-        <v>2167700</v>
+        <v>2249400</v>
       </c>
       <c r="H89" s="3">
-        <v>1130400</v>
+        <v>1173000</v>
       </c>
       <c r="I89" s="3">
-        <v>822000</v>
+        <v>852900</v>
       </c>
       <c r="J89" s="3">
-        <v>732800</v>
+        <v>760400</v>
       </c>
       <c r="K89" s="3">
         <v>606100</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-169300</v>
+        <v>-175700</v>
       </c>
       <c r="E91" s="3">
-        <v>-353800</v>
+        <v>-367200</v>
       </c>
       <c r="F91" s="3">
-        <v>-257900</v>
+        <v>-267600</v>
       </c>
       <c r="G91" s="3">
-        <v>-158900</v>
+        <v>-164900</v>
       </c>
       <c r="H91" s="3">
-        <v>-121200</v>
+        <v>-125800</v>
       </c>
       <c r="I91" s="3">
-        <v>-75200</v>
+        <v>-78000</v>
       </c>
       <c r="J91" s="3">
-        <v>-30600</v>
+        <v>-31800</v>
       </c>
       <c r="K91" s="3">
         <v>-25600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3098300</v>
+        <v>-3214900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1899200</v>
+        <v>-1970700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1799200</v>
+        <v>-1867000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1660100</v>
+        <v>-1722600</v>
       </c>
       <c r="H94" s="3">
-        <v>-355000</v>
+        <v>-368400</v>
       </c>
       <c r="I94" s="3">
-        <v>-632600</v>
+        <v>-656500</v>
       </c>
       <c r="J94" s="3">
-        <v>-763200</v>
+        <v>-792000</v>
       </c>
       <c r="K94" s="3">
         <v>-639100</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1237300</v>
+        <v>-1283900</v>
       </c>
       <c r="E96" s="3">
-        <v>-201600</v>
+        <v>-209200</v>
       </c>
       <c r="F96" s="3">
-        <v>-455900</v>
+        <v>-473100</v>
       </c>
       <c r="G96" s="3">
-        <v>-356400</v>
+        <v>-369800</v>
       </c>
       <c r="H96" s="3">
-        <v>-205500</v>
+        <v>-213200</v>
       </c>
       <c r="I96" s="3">
-        <v>-277500</v>
+        <v>-288000</v>
       </c>
       <c r="J96" s="3">
-        <v>-114100</v>
+        <v>-118400</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>151500</v>
+        <v>157200</v>
       </c>
       <c r="E100" s="3">
-        <v>222200</v>
+        <v>230500</v>
       </c>
       <c r="F100" s="3">
-        <v>-182300</v>
+        <v>-189200</v>
       </c>
       <c r="G100" s="3">
-        <v>-315000</v>
+        <v>-326800</v>
       </c>
       <c r="H100" s="3">
-        <v>-228500</v>
+        <v>-237100</v>
       </c>
       <c r="I100" s="3">
-        <v>-109000</v>
+        <v>-113100</v>
       </c>
       <c r="J100" s="3">
-        <v>12200</v>
+        <v>12600</v>
       </c>
       <c r="K100" s="3">
         <v>-56000</v>
@@ -3463,19 +3463,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="E101" s="3">
-        <v>11400</v>
+        <v>11800</v>
       </c>
       <c r="F101" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="G101" s="3">
-        <v>18500</v>
+        <v>19200</v>
       </c>
       <c r="H101" s="3">
-        <v>19900</v>
+        <v>20700</v>
       </c>
       <c r="I101" s="3">
         <v>-1600</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-533100</v>
+        <v>-553100</v>
       </c>
       <c r="E102" s="3">
-        <v>212100</v>
+        <v>220100</v>
       </c>
       <c r="F102" s="3">
-        <v>-319300</v>
+        <v>-331300</v>
       </c>
       <c r="G102" s="3">
-        <v>211200</v>
+        <v>219100</v>
       </c>
       <c r="H102" s="3">
-        <v>566800</v>
+        <v>588200</v>
       </c>
       <c r="I102" s="3">
-        <v>78800</v>
+        <v>81800</v>
       </c>
       <c r="J102" s="3">
-        <v>-18500</v>
+        <v>-19200</v>
       </c>
       <c r="K102" s="3">
         <v>-89500</v>

--- a/AAII_Financials/Yearly/NTES_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NTES_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8603600</v>
+        <v>9011800</v>
       </c>
       <c r="E8" s="3">
-        <v>7432700</v>
+        <v>7785300</v>
       </c>
       <c r="F8" s="3">
-        <v>6453600</v>
+        <v>6759800</v>
       </c>
       <c r="G8" s="3">
-        <v>4937000</v>
+        <v>5171200</v>
       </c>
       <c r="H8" s="3">
-        <v>3149700</v>
+        <v>3299100</v>
       </c>
       <c r="I8" s="3">
-        <v>1701100</v>
+        <v>1781800</v>
       </c>
       <c r="J8" s="3">
-        <v>1335600</v>
+        <v>1398900</v>
       </c>
       <c r="K8" s="3">
         <v>1176700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4020800</v>
+        <v>4211600</v>
       </c>
       <c r="E9" s="3">
-        <v>3461200</v>
+        <v>3625400</v>
       </c>
       <c r="F9" s="3">
-        <v>2816600</v>
+        <v>2950300</v>
       </c>
       <c r="G9" s="3">
-        <v>4262400</v>
+        <v>4464600</v>
       </c>
       <c r="H9" s="3">
-        <v>2577500</v>
+        <v>2699800</v>
       </c>
       <c r="I9" s="3">
-        <v>473700</v>
+        <v>496100</v>
       </c>
       <c r="J9" s="3">
-        <v>360000</v>
+        <v>377000</v>
       </c>
       <c r="K9" s="3">
         <v>369900</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4582800</v>
+        <v>4800200</v>
       </c>
       <c r="E10" s="3">
-        <v>3971500</v>
+        <v>4159900</v>
       </c>
       <c r="F10" s="3">
-        <v>3637000</v>
+        <v>3809500</v>
       </c>
       <c r="G10" s="3">
-        <v>674600</v>
+        <v>706600</v>
       </c>
       <c r="H10" s="3">
-        <v>572100</v>
+        <v>599300</v>
       </c>
       <c r="I10" s="3">
-        <v>1227400</v>
+        <v>1285600</v>
       </c>
       <c r="J10" s="3">
-        <v>975600</v>
+        <v>1021900</v>
       </c>
       <c r="K10" s="3">
         <v>806800</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1221900</v>
+        <v>1279800</v>
       </c>
       <c r="E12" s="3">
-        <v>1071600</v>
+        <v>1122400</v>
       </c>
       <c r="F12" s="3">
-        <v>604400</v>
+        <v>633100</v>
       </c>
       <c r="G12" s="3">
-        <v>866600</v>
+        <v>907700</v>
       </c>
       <c r="H12" s="3">
-        <v>621700</v>
+        <v>651200</v>
       </c>
       <c r="I12" s="3">
-        <v>192200</v>
+        <v>201300</v>
       </c>
       <c r="J12" s="3">
-        <v>133800</v>
+        <v>140200</v>
       </c>
       <c r="K12" s="3">
         <v>103100</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>6600800</v>
+        <v>6913900</v>
       </c>
       <c r="E17" s="3">
-        <v>5983700</v>
+        <v>6267500</v>
       </c>
       <c r="F17" s="3">
-        <v>4566400</v>
+        <v>4783000</v>
       </c>
       <c r="G17" s="3">
-        <v>3053000</v>
+        <v>3197800</v>
       </c>
       <c r="H17" s="3">
-        <v>2064900</v>
+        <v>2162900</v>
       </c>
       <c r="I17" s="3">
-        <v>1009000</v>
+        <v>1056900</v>
       </c>
       <c r="J17" s="3">
-        <v>703400</v>
+        <v>736800</v>
       </c>
       <c r="K17" s="3">
         <v>644100</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2002800</v>
+        <v>2097800</v>
       </c>
       <c r="E18" s="3">
-        <v>1449000</v>
+        <v>1517800</v>
       </c>
       <c r="F18" s="3">
-        <v>1887300</v>
+        <v>1976800</v>
       </c>
       <c r="G18" s="3">
-        <v>1884000</v>
+        <v>1973400</v>
       </c>
       <c r="H18" s="3">
-        <v>1084700</v>
+        <v>1136200</v>
       </c>
       <c r="I18" s="3">
-        <v>692000</v>
+        <v>724900</v>
       </c>
       <c r="J18" s="3">
-        <v>632100</v>
+        <v>662100</v>
       </c>
       <c r="K18" s="3">
         <v>532500</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>437400</v>
+        <v>458200</v>
       </c>
       <c r="E20" s="3">
-        <v>205500</v>
+        <v>215300</v>
       </c>
       <c r="F20" s="3">
-        <v>136000</v>
+        <v>142500</v>
       </c>
       <c r="G20" s="3">
-        <v>188400</v>
+        <v>197300</v>
       </c>
       <c r="H20" s="3">
-        <v>124300</v>
+        <v>130200</v>
       </c>
       <c r="I20" s="3">
-        <v>103500</v>
+        <v>108400</v>
       </c>
       <c r="J20" s="3">
-        <v>92300</v>
+        <v>96700</v>
       </c>
       <c r="K20" s="3">
         <v>81300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2818400</v>
+        <v>2953600</v>
       </c>
       <c r="E21" s="3">
-        <v>1956000</v>
+        <v>2050000</v>
       </c>
       <c r="F21" s="3">
-        <v>2139300</v>
+        <v>2241200</v>
       </c>
       <c r="G21" s="3">
-        <v>2119800</v>
+        <v>2220500</v>
       </c>
       <c r="H21" s="3">
-        <v>1235500</v>
+        <v>1294200</v>
       </c>
       <c r="I21" s="3">
-        <v>820800</v>
+        <v>859900</v>
       </c>
       <c r="J21" s="3">
-        <v>747300</v>
+        <v>782900</v>
       </c>
       <c r="K21" s="3">
         <v>647300</v>
@@ -1122,25 +1122,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>60900</v>
+        <v>63800</v>
       </c>
       <c r="E22" s="3">
-        <v>45900</v>
+        <v>48100</v>
       </c>
       <c r="F22" s="3">
-        <v>13400</v>
+        <v>14000</v>
       </c>
       <c r="G22" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="H22" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="I22" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="J22" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>17</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2379400</v>
+        <v>2492200</v>
       </c>
       <c r="E23" s="3">
-        <v>1608700</v>
+        <v>1685000</v>
       </c>
       <c r="F23" s="3">
-        <v>2009900</v>
+        <v>2105300</v>
       </c>
       <c r="G23" s="3">
-        <v>2067700</v>
+        <v>2165800</v>
       </c>
       <c r="H23" s="3">
-        <v>1206300</v>
+        <v>1263600</v>
       </c>
       <c r="I23" s="3">
-        <v>792700</v>
+        <v>830300</v>
       </c>
       <c r="J23" s="3">
-        <v>722600</v>
+        <v>756900</v>
       </c>
       <c r="K23" s="3">
         <v>613800</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>423300</v>
+        <v>443400</v>
       </c>
       <c r="E24" s="3">
-        <v>357400</v>
+        <v>374300</v>
       </c>
       <c r="F24" s="3">
-        <v>313100</v>
+        <v>328000</v>
       </c>
       <c r="G24" s="3">
-        <v>305300</v>
+        <v>319800</v>
       </c>
       <c r="H24" s="3">
-        <v>183100</v>
+        <v>191800</v>
       </c>
       <c r="I24" s="3">
-        <v>96200</v>
+        <v>100800</v>
       </c>
       <c r="J24" s="3">
-        <v>77100</v>
+        <v>80700</v>
       </c>
       <c r="K24" s="3">
         <v>99200</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1956000</v>
+        <v>2048800</v>
       </c>
       <c r="E26" s="3">
-        <v>1251300</v>
+        <v>1310700</v>
       </c>
       <c r="F26" s="3">
-        <v>1696800</v>
+        <v>1777300</v>
       </c>
       <c r="G26" s="3">
-        <v>1762400</v>
+        <v>1846000</v>
       </c>
       <c r="H26" s="3">
-        <v>1023200</v>
+        <v>1071700</v>
       </c>
       <c r="I26" s="3">
-        <v>696500</v>
+        <v>729500</v>
       </c>
       <c r="J26" s="3">
-        <v>645600</v>
+        <v>676200</v>
       </c>
       <c r="K26" s="3">
         <v>514600</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1927900</v>
+        <v>2019400</v>
       </c>
       <c r="E27" s="3">
-        <v>1204100</v>
+        <v>1261200</v>
       </c>
       <c r="F27" s="3">
-        <v>1676300</v>
+        <v>1755800</v>
       </c>
       <c r="G27" s="3">
-        <v>1735100</v>
+        <v>1817400</v>
       </c>
       <c r="H27" s="3">
-        <v>1008400</v>
+        <v>1056300</v>
       </c>
       <c r="I27" s="3">
-        <v>690800</v>
+        <v>723600</v>
       </c>
       <c r="J27" s="3">
-        <v>645400</v>
+        <v>676000</v>
       </c>
       <c r="K27" s="3">
         <v>521900</v>
@@ -1353,19 +1353,19 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>1156400</v>
+        <v>1211300</v>
       </c>
       <c r="E29" s="3">
-        <v>-310600</v>
+        <v>-325300</v>
       </c>
       <c r="F29" s="3">
-        <v>-121200</v>
+        <v>-126900</v>
       </c>
       <c r="G29" s="3">
-        <v>-49700</v>
+        <v>-52100</v>
       </c>
       <c r="H29" s="3">
-        <v>-30300</v>
+        <v>-31700</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>17</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-437400</v>
+        <v>-458200</v>
       </c>
       <c r="E32" s="3">
-        <v>-205500</v>
+        <v>-215300</v>
       </c>
       <c r="F32" s="3">
-        <v>-136000</v>
+        <v>-142500</v>
       </c>
       <c r="G32" s="3">
-        <v>-188400</v>
+        <v>-197300</v>
       </c>
       <c r="H32" s="3">
-        <v>-124300</v>
+        <v>-130200</v>
       </c>
       <c r="I32" s="3">
-        <v>-103500</v>
+        <v>-108400</v>
       </c>
       <c r="J32" s="3">
-        <v>-92300</v>
+        <v>-96700</v>
       </c>
       <c r="K32" s="3">
         <v>-81300</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3084300</v>
+        <v>3230700</v>
       </c>
       <c r="E33" s="3">
-        <v>893500</v>
+        <v>935900</v>
       </c>
       <c r="F33" s="3">
-        <v>1555100</v>
+        <v>1628900</v>
       </c>
       <c r="G33" s="3">
-        <v>1685300</v>
+        <v>1765300</v>
       </c>
       <c r="H33" s="3">
-        <v>978100</v>
+        <v>1024500</v>
       </c>
       <c r="I33" s="3">
-        <v>690800</v>
+        <v>723600</v>
       </c>
       <c r="J33" s="3">
-        <v>645400</v>
+        <v>676000</v>
       </c>
       <c r="K33" s="3">
         <v>521900</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3084300</v>
+        <v>3230700</v>
       </c>
       <c r="E35" s="3">
-        <v>893500</v>
+        <v>935900</v>
       </c>
       <c r="F35" s="3">
-        <v>1555100</v>
+        <v>1628900</v>
       </c>
       <c r="G35" s="3">
-        <v>1685300</v>
+        <v>1765300</v>
       </c>
       <c r="H35" s="3">
-        <v>978100</v>
+        <v>1024500</v>
       </c>
       <c r="I35" s="3">
-        <v>690800</v>
+        <v>723600</v>
       </c>
       <c r="J35" s="3">
-        <v>645400</v>
+        <v>676000</v>
       </c>
       <c r="K35" s="3">
         <v>521900</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>471500</v>
+        <v>493800</v>
       </c>
       <c r="E41" s="3">
-        <v>724500</v>
+        <v>758800</v>
       </c>
       <c r="F41" s="3">
-        <v>401400</v>
+        <v>420500</v>
       </c>
       <c r="G41" s="3">
-        <v>790000</v>
+        <v>827500</v>
       </c>
       <c r="H41" s="3">
-        <v>881800</v>
+        <v>923600</v>
       </c>
       <c r="I41" s="3">
-        <v>293600</v>
+        <v>307500</v>
       </c>
       <c r="J41" s="3">
-        <v>211800</v>
+        <v>221800</v>
       </c>
       <c r="K41" s="3">
         <v>228200</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9991800</v>
+        <v>10465800</v>
       </c>
       <c r="E42" s="3">
-        <v>6473600</v>
+        <v>6780800</v>
       </c>
       <c r="F42" s="3">
-        <v>5859500</v>
+        <v>6137400</v>
       </c>
       <c r="G42" s="3">
-        <v>4493900</v>
+        <v>4707100</v>
       </c>
       <c r="H42" s="3">
-        <v>2847500</v>
+        <v>2982600</v>
       </c>
       <c r="I42" s="3">
-        <v>2985200</v>
+        <v>3126800</v>
       </c>
       <c r="J42" s="3">
-        <v>2545400</v>
+        <v>2666200</v>
       </c>
       <c r="K42" s="3">
         <v>2033400</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>700200</v>
+        <v>733400</v>
       </c>
       <c r="E43" s="3">
-        <v>1352600</v>
+        <v>1416800</v>
       </c>
       <c r="F43" s="3">
-        <v>647900</v>
+        <v>678600</v>
       </c>
       <c r="G43" s="3">
-        <v>1313800</v>
+        <v>1376100</v>
       </c>
       <c r="H43" s="3">
-        <v>427800</v>
+        <v>448100</v>
       </c>
       <c r="I43" s="3">
-        <v>183400</v>
+        <v>192000</v>
       </c>
       <c r="J43" s="3">
-        <v>99400</v>
+        <v>104100</v>
       </c>
       <c r="K43" s="3">
         <v>66300</v>
@@ -1751,19 +1751,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>94500</v>
+        <v>99000</v>
       </c>
       <c r="E44" s="3">
-        <v>154800</v>
+        <v>162100</v>
       </c>
       <c r="F44" s="3">
-        <v>795100</v>
+        <v>832800</v>
       </c>
       <c r="G44" s="3">
-        <v>229200</v>
+        <v>240100</v>
       </c>
       <c r="H44" s="3">
-        <v>118800</v>
+        <v>124400</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>17</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1101900</v>
+        <v>1154200</v>
       </c>
       <c r="E45" s="3">
-        <v>2569000</v>
+        <v>2690900</v>
       </c>
       <c r="F45" s="3">
-        <v>1292800</v>
+        <v>1354100</v>
       </c>
       <c r="G45" s="3">
-        <v>1806700</v>
+        <v>1892400</v>
       </c>
       <c r="H45" s="3">
-        <v>721400</v>
+        <v>755600</v>
       </c>
       <c r="I45" s="3">
-        <v>565400</v>
+        <v>592300</v>
       </c>
       <c r="J45" s="3">
-        <v>454400</v>
+        <v>475900</v>
       </c>
       <c r="K45" s="3">
         <v>235800</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12359800</v>
+        <v>12946200</v>
       </c>
       <c r="E46" s="3">
-        <v>9979600</v>
+        <v>10453000</v>
       </c>
       <c r="F46" s="3">
-        <v>8996700</v>
+        <v>9423500</v>
       </c>
       <c r="G46" s="3">
-        <v>7171900</v>
+        <v>7512200</v>
       </c>
       <c r="H46" s="3">
-        <v>4997200</v>
+        <v>5234300</v>
       </c>
       <c r="I46" s="3">
-        <v>4027600</v>
+        <v>4218700</v>
       </c>
       <c r="J46" s="3">
-        <v>3310900</v>
+        <v>3468000</v>
       </c>
       <c r="K46" s="3">
         <v>2563800</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1924800</v>
+        <v>2016100</v>
       </c>
       <c r="E47" s="3">
-        <v>776400</v>
+        <v>813200</v>
       </c>
       <c r="F47" s="3">
-        <v>404400</v>
+        <v>423600</v>
       </c>
       <c r="G47" s="3">
-        <v>366000</v>
+        <v>383300</v>
       </c>
       <c r="H47" s="3">
-        <v>417500</v>
+        <v>437300</v>
       </c>
       <c r="I47" s="3">
-        <v>152600</v>
+        <v>159800</v>
       </c>
       <c r="J47" s="3">
-        <v>111300</v>
+        <v>116500</v>
       </c>
       <c r="K47" s="3">
         <v>75200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>738600</v>
+        <v>773600</v>
       </c>
       <c r="E48" s="3">
-        <v>1459800</v>
+        <v>1529100</v>
       </c>
       <c r="F48" s="3">
-        <v>547400</v>
+        <v>573400</v>
       </c>
       <c r="G48" s="3">
-        <v>702800</v>
+        <v>736100</v>
       </c>
       <c r="H48" s="3">
-        <v>303800</v>
+        <v>318200</v>
       </c>
       <c r="I48" s="3">
-        <v>186100</v>
+        <v>194900</v>
       </c>
       <c r="J48" s="3">
-        <v>126700</v>
+        <v>132700</v>
       </c>
       <c r="K48" s="3">
         <v>116900</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>528500</v>
+        <v>553600</v>
       </c>
       <c r="E49" s="3">
-        <v>358000</v>
+        <v>375000</v>
       </c>
       <c r="F49" s="3">
-        <v>119100</v>
+        <v>124800</v>
       </c>
       <c r="G49" s="3">
-        <v>36900</v>
+        <v>38600</v>
       </c>
       <c r="H49" s="3">
-        <v>27700</v>
+        <v>29100</v>
       </c>
       <c r="I49" s="3">
-        <v>15700</v>
+        <v>16400</v>
       </c>
       <c r="J49" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K49" s="3">
         <v>1700</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>732200</v>
+        <v>766900</v>
       </c>
       <c r="E52" s="3">
-        <v>2029600</v>
+        <v>2125800</v>
       </c>
       <c r="F52" s="3">
-        <v>248200</v>
+        <v>260000</v>
       </c>
       <c r="G52" s="3">
-        <v>860400</v>
+        <v>901300</v>
       </c>
       <c r="H52" s="3">
-        <v>231000</v>
+        <v>242000</v>
       </c>
       <c r="I52" s="3">
-        <v>26500</v>
+        <v>27700</v>
       </c>
       <c r="J52" s="3">
-        <v>14200</v>
+        <v>14900</v>
       </c>
       <c r="K52" s="3">
         <v>8400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16283800</v>
+        <v>17056400</v>
       </c>
       <c r="E54" s="3">
-        <v>12630400</v>
+        <v>13229600</v>
       </c>
       <c r="F54" s="3">
-        <v>10315900</v>
+        <v>10805300</v>
       </c>
       <c r="G54" s="3">
-        <v>8428000</v>
+        <v>8827800</v>
       </c>
       <c r="H54" s="3">
-        <v>5977300</v>
+        <v>6260900</v>
       </c>
       <c r="I54" s="3">
-        <v>4408400</v>
+        <v>4617600</v>
       </c>
       <c r="J54" s="3">
-        <v>3564900</v>
+        <v>3734000</v>
       </c>
       <c r="K54" s="3">
         <v>2766000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>176100</v>
+        <v>184400</v>
       </c>
       <c r="E57" s="3">
-        <v>174500</v>
+        <v>182800</v>
       </c>
       <c r="F57" s="3">
-        <v>354700</v>
+        <v>371600</v>
       </c>
       <c r="G57" s="3">
-        <v>202800</v>
+        <v>212400</v>
       </c>
       <c r="H57" s="3">
-        <v>101700</v>
+        <v>106600</v>
       </c>
       <c r="I57" s="3">
-        <v>59600</v>
+        <v>62500</v>
       </c>
       <c r="J57" s="3">
-        <v>31800</v>
+        <v>33400</v>
       </c>
       <c r="K57" s="3">
         <v>22600</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2444000</v>
+        <v>2559900</v>
       </c>
       <c r="E58" s="3">
-        <v>1983600</v>
+        <v>2077700</v>
       </c>
       <c r="F58" s="3">
-        <v>961900</v>
+        <v>1007600</v>
       </c>
       <c r="G58" s="3">
-        <v>554200</v>
+        <v>580400</v>
       </c>
       <c r="H58" s="3">
-        <v>330100</v>
+        <v>345700</v>
       </c>
       <c r="I58" s="3">
-        <v>297700</v>
+        <v>311800</v>
       </c>
       <c r="J58" s="3">
-        <v>141700</v>
+        <v>148400</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>17</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2934000</v>
+        <v>3073200</v>
       </c>
       <c r="E59" s="3">
-        <v>3790100</v>
+        <v>3969900</v>
       </c>
       <c r="F59" s="3">
-        <v>2132600</v>
+        <v>2233700</v>
       </c>
       <c r="G59" s="3">
-        <v>2547700</v>
+        <v>2668600</v>
       </c>
       <c r="H59" s="3">
-        <v>1262600</v>
+        <v>1322500</v>
       </c>
       <c r="I59" s="3">
-        <v>623900</v>
+        <v>653500</v>
       </c>
       <c r="J59" s="3">
-        <v>441300</v>
+        <v>462200</v>
       </c>
       <c r="K59" s="3">
         <v>490500</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5554000</v>
+        <v>5817500</v>
       </c>
       <c r="E60" s="3">
-        <v>5098900</v>
+        <v>5340800</v>
       </c>
       <c r="F60" s="3">
-        <v>3449200</v>
+        <v>3612900</v>
       </c>
       <c r="G60" s="3">
-        <v>2785000</v>
+        <v>2917100</v>
       </c>
       <c r="H60" s="3">
-        <v>1694500</v>
+        <v>1774800</v>
       </c>
       <c r="I60" s="3">
-        <v>981200</v>
+        <v>1027800</v>
       </c>
       <c r="J60" s="3">
-        <v>614800</v>
+        <v>644000</v>
       </c>
       <c r="K60" s="3">
         <v>513200</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>121800</v>
+        <v>127600</v>
       </c>
       <c r="E62" s="3">
-        <v>64100</v>
+        <v>67200</v>
       </c>
       <c r="F62" s="3">
-        <v>33600</v>
+        <v>35200</v>
       </c>
       <c r="G62" s="3">
-        <v>57000</v>
+        <v>59700</v>
       </c>
       <c r="H62" s="3">
-        <v>24200</v>
+        <v>25300</v>
       </c>
       <c r="I62" s="3">
-        <v>15500</v>
+        <v>16200</v>
       </c>
       <c r="J62" s="3">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="K62" s="3">
         <v>14300</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7358900</v>
+        <v>7708000</v>
       </c>
       <c r="E66" s="3">
-        <v>6061400</v>
+        <v>6348900</v>
       </c>
       <c r="F66" s="3">
-        <v>3674200</v>
+        <v>3848500</v>
       </c>
       <c r="G66" s="3">
-        <v>2881500</v>
+        <v>3018200</v>
       </c>
       <c r="H66" s="3">
-        <v>1730800</v>
+        <v>1812900</v>
       </c>
       <c r="I66" s="3">
-        <v>1011400</v>
+        <v>1059400</v>
       </c>
       <c r="J66" s="3">
-        <v>624700</v>
+        <v>654300</v>
       </c>
       <c r="K66" s="3">
         <v>516100</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8366500</v>
+        <v>8763500</v>
       </c>
       <c r="E72" s="3">
-        <v>6566100</v>
+        <v>6877600</v>
       </c>
       <c r="F72" s="3">
-        <v>6381300</v>
+        <v>6684000</v>
       </c>
       <c r="G72" s="3">
-        <v>5299300</v>
+        <v>5550700</v>
       </c>
       <c r="H72" s="3">
-        <v>3983700</v>
+        <v>4172700</v>
       </c>
       <c r="I72" s="3">
-        <v>3082400</v>
+        <v>3228600</v>
       </c>
       <c r="J72" s="3">
-        <v>2688100</v>
+        <v>2815600</v>
       </c>
       <c r="K72" s="3">
         <v>2053100</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8924900</v>
+        <v>9348300</v>
       </c>
       <c r="E76" s="3">
-        <v>6569000</v>
+        <v>6880600</v>
       </c>
       <c r="F76" s="3">
-        <v>6641700</v>
+        <v>6956800</v>
       </c>
       <c r="G76" s="3">
-        <v>5546500</v>
+        <v>5809600</v>
       </c>
       <c r="H76" s="3">
-        <v>4246500</v>
+        <v>4448000</v>
       </c>
       <c r="I76" s="3">
-        <v>3397000</v>
+        <v>3558100</v>
       </c>
       <c r="J76" s="3">
-        <v>2940200</v>
+        <v>3079700</v>
       </c>
       <c r="K76" s="3">
         <v>2249900</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3084300</v>
+        <v>3230700</v>
       </c>
       <c r="E81" s="3">
-        <v>893500</v>
+        <v>935900</v>
       </c>
       <c r="F81" s="3">
-        <v>1555100</v>
+        <v>1628900</v>
       </c>
       <c r="G81" s="3">
-        <v>1685300</v>
+        <v>1765300</v>
       </c>
       <c r="H81" s="3">
-        <v>978100</v>
+        <v>1024500</v>
       </c>
       <c r="I81" s="3">
-        <v>690800</v>
+        <v>723600</v>
       </c>
       <c r="J81" s="3">
-        <v>645400</v>
+        <v>676000</v>
       </c>
       <c r="K81" s="3">
         <v>521900</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>379600</v>
+        <v>397600</v>
       </c>
       <c r="E83" s="3">
-        <v>302600</v>
+        <v>316900</v>
       </c>
       <c r="F83" s="3">
-        <v>116400</v>
+        <v>122000</v>
       </c>
       <c r="G83" s="3">
-        <v>47600</v>
+        <v>49800</v>
       </c>
       <c r="H83" s="3">
+        <v>27800</v>
+      </c>
+      <c r="I83" s="3">
         <v>26500</v>
       </c>
-      <c r="I83" s="3">
-        <v>25300</v>
-      </c>
       <c r="J83" s="3">
-        <v>23000</v>
+        <v>24100</v>
       </c>
       <c r="K83" s="3">
         <v>33500</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2500300</v>
+        <v>2619000</v>
       </c>
       <c r="E89" s="3">
-        <v>1948400</v>
+        <v>2040800</v>
       </c>
       <c r="F89" s="3">
-        <v>1726700</v>
+        <v>1808600</v>
       </c>
       <c r="G89" s="3">
-        <v>2249400</v>
+        <v>2356100</v>
       </c>
       <c r="H89" s="3">
-        <v>1173000</v>
+        <v>1228700</v>
       </c>
       <c r="I89" s="3">
-        <v>852900</v>
+        <v>893400</v>
       </c>
       <c r="J89" s="3">
-        <v>760400</v>
+        <v>796500</v>
       </c>
       <c r="K89" s="3">
         <v>606100</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-175700</v>
+        <v>-184000</v>
       </c>
       <c r="E91" s="3">
-        <v>-367200</v>
+        <v>-384600</v>
       </c>
       <c r="F91" s="3">
-        <v>-267600</v>
+        <v>-280300</v>
       </c>
       <c r="G91" s="3">
-        <v>-164900</v>
+        <v>-172700</v>
       </c>
       <c r="H91" s="3">
-        <v>-125800</v>
+        <v>-131800</v>
       </c>
       <c r="I91" s="3">
-        <v>-78000</v>
+        <v>-81700</v>
       </c>
       <c r="J91" s="3">
-        <v>-31800</v>
+        <v>-33300</v>
       </c>
       <c r="K91" s="3">
         <v>-25600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3214900</v>
+        <v>-3367400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1970700</v>
+        <v>-2064200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1867000</v>
+        <v>-1955500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1722600</v>
+        <v>-1804400</v>
       </c>
       <c r="H94" s="3">
-        <v>-368400</v>
+        <v>-385900</v>
       </c>
       <c r="I94" s="3">
-        <v>-656500</v>
+        <v>-687600</v>
       </c>
       <c r="J94" s="3">
-        <v>-792000</v>
+        <v>-829600</v>
       </c>
       <c r="K94" s="3">
         <v>-639100</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1283900</v>
+        <v>-1344800</v>
       </c>
       <c r="E96" s="3">
-        <v>-209200</v>
+        <v>-219100</v>
       </c>
       <c r="F96" s="3">
-        <v>-473100</v>
+        <v>-495500</v>
       </c>
       <c r="G96" s="3">
-        <v>-369800</v>
+        <v>-387300</v>
       </c>
       <c r="H96" s="3">
-        <v>-213200</v>
+        <v>-223300</v>
       </c>
       <c r="I96" s="3">
-        <v>-288000</v>
+        <v>-301700</v>
       </c>
       <c r="J96" s="3">
-        <v>-118400</v>
+        <v>-124000</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>157200</v>
+        <v>164700</v>
       </c>
       <c r="E100" s="3">
-        <v>230500</v>
+        <v>241500</v>
       </c>
       <c r="F100" s="3">
-        <v>-189200</v>
+        <v>-198200</v>
       </c>
       <c r="G100" s="3">
-        <v>-326800</v>
+        <v>-342300</v>
       </c>
       <c r="H100" s="3">
-        <v>-237100</v>
+        <v>-248400</v>
       </c>
       <c r="I100" s="3">
-        <v>-113100</v>
+        <v>-118400</v>
       </c>
       <c r="J100" s="3">
-        <v>12600</v>
+        <v>13200</v>
       </c>
       <c r="K100" s="3">
         <v>-56000</v>
@@ -3463,22 +3463,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="E101" s="3">
-        <v>11800</v>
+        <v>12400</v>
       </c>
       <c r="F101" s="3">
         <v>-1900</v>
       </c>
       <c r="G101" s="3">
-        <v>19200</v>
+        <v>20100</v>
       </c>
       <c r="H101" s="3">
-        <v>20700</v>
+        <v>21700</v>
       </c>
       <c r="I101" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="J101" s="3">
         <v>-300</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-553100</v>
+        <v>-579400</v>
       </c>
       <c r="E102" s="3">
-        <v>220100</v>
+        <v>230500</v>
       </c>
       <c r="F102" s="3">
-        <v>-331300</v>
+        <v>-347100</v>
       </c>
       <c r="G102" s="3">
-        <v>219100</v>
+        <v>229500</v>
       </c>
       <c r="H102" s="3">
-        <v>588200</v>
+        <v>616100</v>
       </c>
       <c r="I102" s="3">
-        <v>81800</v>
+        <v>85700</v>
       </c>
       <c r="J102" s="3">
-        <v>-19200</v>
+        <v>-20200</v>
       </c>
       <c r="K102" s="3">
         <v>-89500</v>

--- a/AAII_Financials/Yearly/NTES_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NTES_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>NTES</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9011800</v>
+        <v>9050900</v>
       </c>
       <c r="E8" s="3">
-        <v>7785300</v>
+        <v>7819100</v>
       </c>
       <c r="F8" s="3">
-        <v>6759800</v>
+        <v>6789100</v>
       </c>
       <c r="G8" s="3">
-        <v>5171200</v>
+        <v>5193700</v>
       </c>
       <c r="H8" s="3">
-        <v>3299100</v>
+        <v>3313400</v>
       </c>
       <c r="I8" s="3">
-        <v>1781800</v>
+        <v>1789500</v>
       </c>
       <c r="J8" s="3">
-        <v>1398900</v>
+        <v>1405000</v>
       </c>
       <c r="K8" s="3">
         <v>1176700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4211600</v>
+        <v>4229800</v>
       </c>
       <c r="E9" s="3">
-        <v>3625400</v>
+        <v>3641100</v>
       </c>
       <c r="F9" s="3">
-        <v>2950300</v>
+        <v>2963100</v>
       </c>
       <c r="G9" s="3">
-        <v>4464600</v>
+        <v>4484000</v>
       </c>
       <c r="H9" s="3">
-        <v>2699800</v>
+        <v>2711500</v>
       </c>
       <c r="I9" s="3">
-        <v>496100</v>
+        <v>498300</v>
       </c>
       <c r="J9" s="3">
-        <v>377000</v>
+        <v>378700</v>
       </c>
       <c r="K9" s="3">
         <v>369900</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4800200</v>
+        <v>4821000</v>
       </c>
       <c r="E10" s="3">
-        <v>4159900</v>
+        <v>4177900</v>
       </c>
       <c r="F10" s="3">
-        <v>3809500</v>
+        <v>3826100</v>
       </c>
       <c r="G10" s="3">
-        <v>706600</v>
+        <v>709700</v>
       </c>
       <c r="H10" s="3">
-        <v>599300</v>
+        <v>601900</v>
       </c>
       <c r="I10" s="3">
-        <v>1285600</v>
+        <v>1291200</v>
       </c>
       <c r="J10" s="3">
-        <v>1021900</v>
+        <v>1026300</v>
       </c>
       <c r="K10" s="3">
         <v>806800</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1279800</v>
+        <v>1285400</v>
       </c>
       <c r="E12" s="3">
-        <v>1122400</v>
+        <v>1127300</v>
       </c>
       <c r="F12" s="3">
-        <v>633100</v>
+        <v>635800</v>
       </c>
       <c r="G12" s="3">
-        <v>907700</v>
+        <v>911700</v>
       </c>
       <c r="H12" s="3">
-        <v>651200</v>
+        <v>654000</v>
       </c>
       <c r="I12" s="3">
-        <v>201300</v>
+        <v>202200</v>
       </c>
       <c r="J12" s="3">
-        <v>140200</v>
+        <v>140800</v>
       </c>
       <c r="K12" s="3">
         <v>103100</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>6913900</v>
+        <v>6943900</v>
       </c>
       <c r="E17" s="3">
-        <v>6267500</v>
+        <v>6294700</v>
       </c>
       <c r="F17" s="3">
-        <v>4783000</v>
+        <v>4803800</v>
       </c>
       <c r="G17" s="3">
-        <v>3197800</v>
+        <v>3211700</v>
       </c>
       <c r="H17" s="3">
-        <v>2162900</v>
+        <v>2172300</v>
       </c>
       <c r="I17" s="3">
-        <v>1056900</v>
+        <v>1061500</v>
       </c>
       <c r="J17" s="3">
-        <v>736800</v>
+        <v>740000</v>
       </c>
       <c r="K17" s="3">
         <v>644100</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2097800</v>
+        <v>2106900</v>
       </c>
       <c r="E18" s="3">
-        <v>1517800</v>
+        <v>1524300</v>
       </c>
       <c r="F18" s="3">
-        <v>1976800</v>
+        <v>1985400</v>
       </c>
       <c r="G18" s="3">
-        <v>1973400</v>
+        <v>1982000</v>
       </c>
       <c r="H18" s="3">
-        <v>1136200</v>
+        <v>1141100</v>
       </c>
       <c r="I18" s="3">
-        <v>724900</v>
+        <v>728000</v>
       </c>
       <c r="J18" s="3">
-        <v>662100</v>
+        <v>665000</v>
       </c>
       <c r="K18" s="3">
         <v>532500</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>458200</v>
+        <v>460100</v>
       </c>
       <c r="E20" s="3">
-        <v>215300</v>
+        <v>216200</v>
       </c>
       <c r="F20" s="3">
-        <v>142500</v>
+        <v>143100</v>
       </c>
       <c r="G20" s="3">
-        <v>197300</v>
+        <v>198200</v>
       </c>
       <c r="H20" s="3">
-        <v>130200</v>
+        <v>130800</v>
       </c>
       <c r="I20" s="3">
-        <v>108400</v>
+        <v>108900</v>
       </c>
       <c r="J20" s="3">
-        <v>96700</v>
+        <v>97100</v>
       </c>
       <c r="K20" s="3">
         <v>81300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2953600</v>
+        <v>2967800</v>
       </c>
       <c r="E21" s="3">
-        <v>2050000</v>
+        <v>2060000</v>
       </c>
       <c r="F21" s="3">
-        <v>2241200</v>
+        <v>2251400</v>
       </c>
       <c r="G21" s="3">
-        <v>2220500</v>
+        <v>2230400</v>
       </c>
       <c r="H21" s="3">
-        <v>1294200</v>
+        <v>1299900</v>
       </c>
       <c r="I21" s="3">
-        <v>859900</v>
-      </c>
-      <c r="J21" s="3">
-        <v>782900</v>
+        <v>863700</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K21" s="3">
         <v>647300</v>
@@ -1122,13 +1122,13 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>63800</v>
+        <v>64000</v>
       </c>
       <c r="E22" s="3">
-        <v>48100</v>
+        <v>48300</v>
       </c>
       <c r="F22" s="3">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="G22" s="3">
         <v>4900</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2492200</v>
+        <v>2503000</v>
       </c>
       <c r="E23" s="3">
-        <v>1685000</v>
+        <v>1692300</v>
       </c>
       <c r="F23" s="3">
-        <v>2105300</v>
+        <v>2114400</v>
       </c>
       <c r="G23" s="3">
-        <v>2165800</v>
+        <v>2175200</v>
       </c>
       <c r="H23" s="3">
-        <v>1263600</v>
+        <v>1269000</v>
       </c>
       <c r="I23" s="3">
-        <v>830300</v>
+        <v>833900</v>
       </c>
       <c r="J23" s="3">
-        <v>756900</v>
+        <v>760200</v>
       </c>
       <c r="K23" s="3">
         <v>613800</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>443400</v>
+        <v>445300</v>
       </c>
       <c r="E24" s="3">
-        <v>374300</v>
+        <v>375900</v>
       </c>
       <c r="F24" s="3">
-        <v>328000</v>
+        <v>329400</v>
       </c>
       <c r="G24" s="3">
-        <v>319800</v>
+        <v>321200</v>
       </c>
       <c r="H24" s="3">
-        <v>191800</v>
+        <v>192600</v>
       </c>
       <c r="I24" s="3">
-        <v>100800</v>
+        <v>101300</v>
       </c>
       <c r="J24" s="3">
-        <v>80700</v>
+        <v>81100</v>
       </c>
       <c r="K24" s="3">
         <v>99200</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2048800</v>
+        <v>2057700</v>
       </c>
       <c r="E26" s="3">
-        <v>1310700</v>
+        <v>1316400</v>
       </c>
       <c r="F26" s="3">
-        <v>1777300</v>
+        <v>1785000</v>
       </c>
       <c r="G26" s="3">
-        <v>1846000</v>
+        <v>1854000</v>
       </c>
       <c r="H26" s="3">
-        <v>1071700</v>
+        <v>1076400</v>
       </c>
       <c r="I26" s="3">
-        <v>729500</v>
+        <v>732700</v>
       </c>
       <c r="J26" s="3">
-        <v>676200</v>
+        <v>679100</v>
       </c>
       <c r="K26" s="3">
         <v>514600</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2019400</v>
+        <v>2028200</v>
       </c>
       <c r="E27" s="3">
-        <v>1261200</v>
+        <v>1266700</v>
       </c>
       <c r="F27" s="3">
-        <v>1755800</v>
+        <v>1763400</v>
       </c>
       <c r="G27" s="3">
-        <v>1817400</v>
+        <v>1825300</v>
       </c>
       <c r="H27" s="3">
-        <v>1056300</v>
+        <v>1060800</v>
       </c>
       <c r="I27" s="3">
-        <v>723600</v>
+        <v>726700</v>
       </c>
       <c r="J27" s="3">
-        <v>676000</v>
+        <v>678900</v>
       </c>
       <c r="K27" s="3">
         <v>521900</v>
@@ -1353,19 +1353,19 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>1211300</v>
+        <v>1216500</v>
       </c>
       <c r="E29" s="3">
-        <v>-325300</v>
+        <v>-326700</v>
       </c>
       <c r="F29" s="3">
-        <v>-126900</v>
+        <v>-127500</v>
       </c>
       <c r="G29" s="3">
-        <v>-52100</v>
+        <v>-52300</v>
       </c>
       <c r="H29" s="3">
-        <v>-31700</v>
+        <v>-31900</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>17</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-458200</v>
+        <v>-460100</v>
       </c>
       <c r="E32" s="3">
-        <v>-215300</v>
+        <v>-216200</v>
       </c>
       <c r="F32" s="3">
-        <v>-142500</v>
+        <v>-143100</v>
       </c>
       <c r="G32" s="3">
-        <v>-197300</v>
+        <v>-198200</v>
       </c>
       <c r="H32" s="3">
-        <v>-130200</v>
+        <v>-130800</v>
       </c>
       <c r="I32" s="3">
-        <v>-108400</v>
+        <v>-108900</v>
       </c>
       <c r="J32" s="3">
-        <v>-96700</v>
+        <v>-97100</v>
       </c>
       <c r="K32" s="3">
         <v>-81300</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3230700</v>
+        <v>3244700</v>
       </c>
       <c r="E33" s="3">
-        <v>935900</v>
+        <v>940000</v>
       </c>
       <c r="F33" s="3">
-        <v>1628900</v>
+        <v>1636000</v>
       </c>
       <c r="G33" s="3">
-        <v>1765300</v>
+        <v>1772900</v>
       </c>
       <c r="H33" s="3">
-        <v>1024500</v>
+        <v>1029000</v>
       </c>
       <c r="I33" s="3">
-        <v>723600</v>
+        <v>726700</v>
       </c>
       <c r="J33" s="3">
-        <v>676000</v>
+        <v>678900</v>
       </c>
       <c r="K33" s="3">
         <v>521900</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3230700</v>
+        <v>3244700</v>
       </c>
       <c r="E35" s="3">
-        <v>935900</v>
+        <v>940000</v>
       </c>
       <c r="F35" s="3">
-        <v>1628900</v>
+        <v>1636000</v>
       </c>
       <c r="G35" s="3">
-        <v>1765300</v>
+        <v>1772900</v>
       </c>
       <c r="H35" s="3">
-        <v>1024500</v>
+        <v>1029000</v>
       </c>
       <c r="I35" s="3">
-        <v>723600</v>
+        <v>726700</v>
       </c>
       <c r="J35" s="3">
-        <v>676000</v>
+        <v>678900</v>
       </c>
       <c r="K35" s="3">
         <v>521900</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>493800</v>
+        <v>496000</v>
       </c>
       <c r="E41" s="3">
-        <v>758800</v>
+        <v>823400</v>
       </c>
       <c r="F41" s="3">
-        <v>420500</v>
+        <v>422300</v>
       </c>
       <c r="G41" s="3">
-        <v>827500</v>
+        <v>831000</v>
       </c>
       <c r="H41" s="3">
-        <v>923600</v>
+        <v>927600</v>
       </c>
       <c r="I41" s="3">
-        <v>307500</v>
+        <v>308800</v>
       </c>
       <c r="J41" s="3">
-        <v>221800</v>
+        <v>222800</v>
       </c>
       <c r="K41" s="3">
         <v>228200</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>10465800</v>
+        <v>10511200</v>
       </c>
       <c r="E42" s="3">
-        <v>6780800</v>
+        <v>6810200</v>
       </c>
       <c r="F42" s="3">
-        <v>6137400</v>
+        <v>6164100</v>
       </c>
       <c r="G42" s="3">
-        <v>4707100</v>
+        <v>4727500</v>
       </c>
       <c r="H42" s="3">
-        <v>2982600</v>
+        <v>2995500</v>
       </c>
       <c r="I42" s="3">
-        <v>3126800</v>
+        <v>3140400</v>
       </c>
       <c r="J42" s="3">
-        <v>2666200</v>
+        <v>2677700</v>
       </c>
       <c r="K42" s="3">
         <v>2033400</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>733400</v>
+        <v>736600</v>
       </c>
       <c r="E43" s="3">
-        <v>1416800</v>
+        <v>793700</v>
       </c>
       <c r="F43" s="3">
-        <v>678600</v>
+        <v>681600</v>
       </c>
       <c r="G43" s="3">
-        <v>1376100</v>
+        <v>1382100</v>
       </c>
       <c r="H43" s="3">
-        <v>448100</v>
+        <v>450000</v>
       </c>
       <c r="I43" s="3">
-        <v>192000</v>
+        <v>192900</v>
       </c>
       <c r="J43" s="3">
-        <v>104100</v>
+        <v>104500</v>
       </c>
       <c r="K43" s="3">
         <v>66300</v>
@@ -1751,19 +1751,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>99000</v>
+        <v>99400</v>
       </c>
       <c r="E44" s="3">
-        <v>162100</v>
+        <v>766600</v>
       </c>
       <c r="F44" s="3">
-        <v>832800</v>
+        <v>836500</v>
       </c>
       <c r="G44" s="3">
-        <v>240100</v>
+        <v>241100</v>
       </c>
       <c r="H44" s="3">
-        <v>124400</v>
+        <v>124900</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>17</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1154200</v>
+        <v>1159200</v>
       </c>
       <c r="E45" s="3">
-        <v>2690900</v>
+        <v>1304500</v>
       </c>
       <c r="F45" s="3">
-        <v>1354100</v>
+        <v>1360000</v>
       </c>
       <c r="G45" s="3">
-        <v>1892400</v>
+        <v>1900600</v>
       </c>
       <c r="H45" s="3">
-        <v>755600</v>
+        <v>758900</v>
       </c>
       <c r="I45" s="3">
-        <v>592300</v>
+        <v>594800</v>
       </c>
       <c r="J45" s="3">
-        <v>475900</v>
+        <v>478000</v>
       </c>
       <c r="K45" s="3">
         <v>235800</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12946200</v>
+        <v>13002300</v>
       </c>
       <c r="E46" s="3">
-        <v>10453000</v>
+        <v>10498400</v>
       </c>
       <c r="F46" s="3">
-        <v>9423500</v>
+        <v>9464400</v>
       </c>
       <c r="G46" s="3">
-        <v>7512200</v>
+        <v>7544800</v>
       </c>
       <c r="H46" s="3">
-        <v>5234300</v>
+        <v>5257000</v>
       </c>
       <c r="I46" s="3">
-        <v>4218700</v>
+        <v>4237000</v>
       </c>
       <c r="J46" s="3">
-        <v>3468000</v>
+        <v>3483000</v>
       </c>
       <c r="K46" s="3">
         <v>2563800</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2016100</v>
+        <v>2024900</v>
       </c>
       <c r="E47" s="3">
-        <v>813200</v>
+        <v>816800</v>
       </c>
       <c r="F47" s="3">
-        <v>423600</v>
+        <v>425500</v>
       </c>
       <c r="G47" s="3">
-        <v>383300</v>
+        <v>385000</v>
       </c>
       <c r="H47" s="3">
-        <v>437300</v>
+        <v>439200</v>
       </c>
       <c r="I47" s="3">
-        <v>159800</v>
+        <v>160500</v>
       </c>
       <c r="J47" s="3">
-        <v>116500</v>
+        <v>117000</v>
       </c>
       <c r="K47" s="3">
         <v>75200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>773600</v>
+        <v>776900</v>
       </c>
       <c r="E48" s="3">
-        <v>1529100</v>
+        <v>821700</v>
       </c>
       <c r="F48" s="3">
-        <v>573400</v>
+        <v>575900</v>
       </c>
       <c r="G48" s="3">
-        <v>736100</v>
+        <v>739300</v>
       </c>
       <c r="H48" s="3">
-        <v>318200</v>
+        <v>319600</v>
       </c>
       <c r="I48" s="3">
-        <v>194900</v>
+        <v>195700</v>
       </c>
       <c r="J48" s="3">
-        <v>132700</v>
+        <v>133200</v>
       </c>
       <c r="K48" s="3">
         <v>116900</v>
@@ -1916,22 +1916,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>553600</v>
+        <v>556000</v>
       </c>
       <c r="E49" s="3">
-        <v>375000</v>
+        <v>376600</v>
       </c>
       <c r="F49" s="3">
-        <v>124800</v>
+        <v>125300</v>
       </c>
       <c r="G49" s="3">
-        <v>38600</v>
+        <v>38800</v>
       </c>
       <c r="H49" s="3">
-        <v>29100</v>
+        <v>29200</v>
       </c>
       <c r="I49" s="3">
-        <v>16400</v>
+        <v>16500</v>
       </c>
       <c r="J49" s="3">
         <v>1900</v>
@@ -2015,22 +2015,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>766900</v>
+        <v>770200</v>
       </c>
       <c r="E52" s="3">
-        <v>2125800</v>
+        <v>773500</v>
       </c>
       <c r="F52" s="3">
-        <v>260000</v>
+        <v>261100</v>
       </c>
       <c r="G52" s="3">
-        <v>901300</v>
+        <v>905200</v>
       </c>
       <c r="H52" s="3">
-        <v>242000</v>
+        <v>243000</v>
       </c>
       <c r="I52" s="3">
-        <v>27700</v>
+        <v>27900</v>
       </c>
       <c r="J52" s="3">
         <v>14900</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17056400</v>
+        <v>17130400</v>
       </c>
       <c r="E54" s="3">
-        <v>13229600</v>
+        <v>13287000</v>
       </c>
       <c r="F54" s="3">
-        <v>10805300</v>
+        <v>10852200</v>
       </c>
       <c r="G54" s="3">
-        <v>8827800</v>
+        <v>8866100</v>
       </c>
       <c r="H54" s="3">
-        <v>6260900</v>
+        <v>6288000</v>
       </c>
       <c r="I54" s="3">
-        <v>4617600</v>
+        <v>4637600</v>
       </c>
       <c r="J54" s="3">
-        <v>3734000</v>
+        <v>3750200</v>
       </c>
       <c r="K54" s="3">
         <v>2766000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>184400</v>
+        <v>185200</v>
       </c>
       <c r="E57" s="3">
-        <v>182800</v>
+        <v>364400</v>
       </c>
       <c r="F57" s="3">
-        <v>371600</v>
+        <v>373200</v>
       </c>
       <c r="G57" s="3">
-        <v>212400</v>
+        <v>213300</v>
       </c>
       <c r="H57" s="3">
-        <v>106600</v>
+        <v>107000</v>
       </c>
       <c r="I57" s="3">
-        <v>62500</v>
+        <v>62800</v>
       </c>
       <c r="J57" s="3">
-        <v>33400</v>
+        <v>33500</v>
       </c>
       <c r="K57" s="3">
         <v>22600</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2559900</v>
+        <v>2571000</v>
       </c>
       <c r="E58" s="3">
-        <v>2077700</v>
+        <v>2086800</v>
       </c>
       <c r="F58" s="3">
-        <v>1007600</v>
+        <v>1011900</v>
       </c>
       <c r="G58" s="3">
-        <v>580400</v>
+        <v>583000</v>
       </c>
       <c r="H58" s="3">
-        <v>345700</v>
+        <v>347200</v>
       </c>
       <c r="I58" s="3">
-        <v>311800</v>
+        <v>313200</v>
       </c>
       <c r="J58" s="3">
-        <v>148400</v>
+        <v>149000</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>17</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3073200</v>
+        <v>3086500</v>
       </c>
       <c r="E59" s="3">
-        <v>3969900</v>
+        <v>2912800</v>
       </c>
       <c r="F59" s="3">
-        <v>2233700</v>
+        <v>2243400</v>
       </c>
       <c r="G59" s="3">
-        <v>2668600</v>
+        <v>2680100</v>
       </c>
       <c r="H59" s="3">
-        <v>1322500</v>
+        <v>1328300</v>
       </c>
       <c r="I59" s="3">
-        <v>653500</v>
+        <v>656300</v>
       </c>
       <c r="J59" s="3">
-        <v>462200</v>
+        <v>464200</v>
       </c>
       <c r="K59" s="3">
         <v>490500</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5817500</v>
+        <v>5842800</v>
       </c>
       <c r="E60" s="3">
-        <v>5340800</v>
+        <v>5364000</v>
       </c>
       <c r="F60" s="3">
-        <v>3612900</v>
+        <v>3628500</v>
       </c>
       <c r="G60" s="3">
-        <v>2917100</v>
+        <v>2929800</v>
       </c>
       <c r="H60" s="3">
-        <v>1774800</v>
+        <v>1782500</v>
       </c>
       <c r="I60" s="3">
-        <v>1027800</v>
+        <v>1032200</v>
       </c>
       <c r="J60" s="3">
-        <v>644000</v>
+        <v>646700</v>
       </c>
       <c r="K60" s="3">
         <v>513200</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>127600</v>
+        <v>128200</v>
       </c>
       <c r="E62" s="3">
-        <v>67200</v>
+        <v>68300</v>
       </c>
       <c r="F62" s="3">
-        <v>35200</v>
+        <v>35400</v>
       </c>
       <c r="G62" s="3">
-        <v>59700</v>
+        <v>60000</v>
       </c>
       <c r="H62" s="3">
-        <v>25300</v>
+        <v>25400</v>
       </c>
       <c r="I62" s="3">
-        <v>16200</v>
+        <v>16300</v>
       </c>
       <c r="J62" s="3">
-        <v>22000</v>
+        <v>22100</v>
       </c>
       <c r="K62" s="3">
         <v>14300</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7708000</v>
+        <v>7741500</v>
       </c>
       <c r="E66" s="3">
-        <v>6348900</v>
+        <v>6376500</v>
       </c>
       <c r="F66" s="3">
-        <v>3848500</v>
+        <v>3865200</v>
       </c>
       <c r="G66" s="3">
-        <v>3018200</v>
+        <v>3031300</v>
       </c>
       <c r="H66" s="3">
-        <v>1812900</v>
+        <v>1820700</v>
       </c>
       <c r="I66" s="3">
-        <v>1059400</v>
+        <v>1064000</v>
       </c>
       <c r="J66" s="3">
-        <v>654300</v>
+        <v>657100</v>
       </c>
       <c r="K66" s="3">
         <v>516100</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8763500</v>
+        <v>8801500</v>
       </c>
       <c r="E72" s="3">
-        <v>6877600</v>
+        <v>6907500</v>
       </c>
       <c r="F72" s="3">
-        <v>6684000</v>
+        <v>6713000</v>
       </c>
       <c r="G72" s="3">
-        <v>5550700</v>
+        <v>5574800</v>
       </c>
       <c r="H72" s="3">
-        <v>4172700</v>
+        <v>4190800</v>
       </c>
       <c r="I72" s="3">
-        <v>3228600</v>
+        <v>3242600</v>
       </c>
       <c r="J72" s="3">
-        <v>2815600</v>
+        <v>2827800</v>
       </c>
       <c r="K72" s="3">
         <v>2053100</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9348300</v>
+        <v>9388900</v>
       </c>
       <c r="E76" s="3">
-        <v>6880600</v>
+        <v>6910500</v>
       </c>
       <c r="F76" s="3">
-        <v>6956800</v>
+        <v>6986900</v>
       </c>
       <c r="G76" s="3">
-        <v>5809600</v>
+        <v>5834800</v>
       </c>
       <c r="H76" s="3">
-        <v>4448000</v>
+        <v>4467300</v>
       </c>
       <c r="I76" s="3">
-        <v>3558100</v>
+        <v>3573600</v>
       </c>
       <c r="J76" s="3">
-        <v>3079700</v>
+        <v>3093100</v>
       </c>
       <c r="K76" s="3">
         <v>2249900</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3230700</v>
+        <v>3244700</v>
       </c>
       <c r="E81" s="3">
-        <v>935900</v>
+        <v>940000</v>
       </c>
       <c r="F81" s="3">
-        <v>1628900</v>
+        <v>1636000</v>
       </c>
       <c r="G81" s="3">
-        <v>1765300</v>
+        <v>1772900</v>
       </c>
       <c r="H81" s="3">
-        <v>1024500</v>
+        <v>1029000</v>
       </c>
       <c r="I81" s="3">
-        <v>723600</v>
+        <v>726700</v>
       </c>
       <c r="J81" s="3">
-        <v>676000</v>
+        <v>678900</v>
       </c>
       <c r="K81" s="3">
         <v>521900</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>397600</v>
+        <v>399300</v>
       </c>
       <c r="E83" s="3">
-        <v>316900</v>
+        <v>318300</v>
       </c>
       <c r="F83" s="3">
-        <v>122000</v>
+        <v>122500</v>
       </c>
       <c r="G83" s="3">
-        <v>49800</v>
+        <v>50000</v>
       </c>
       <c r="H83" s="3">
-        <v>27800</v>
+        <v>27900</v>
       </c>
       <c r="I83" s="3">
-        <v>26500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>24100</v>
+        <v>26700</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K83" s="3">
         <v>33500</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2619000</v>
+        <v>2630300</v>
       </c>
       <c r="E89" s="3">
-        <v>2040800</v>
+        <v>2049700</v>
       </c>
       <c r="F89" s="3">
-        <v>1808600</v>
+        <v>1816400</v>
       </c>
       <c r="G89" s="3">
-        <v>2356100</v>
+        <v>2366300</v>
       </c>
       <c r="H89" s="3">
-        <v>1228700</v>
+        <v>1234000</v>
       </c>
       <c r="I89" s="3">
-        <v>893400</v>
+        <v>897300</v>
       </c>
       <c r="J89" s="3">
-        <v>796500</v>
+        <v>799900</v>
       </c>
       <c r="K89" s="3">
         <v>606100</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-184000</v>
+        <v>-184800</v>
       </c>
       <c r="E91" s="3">
-        <v>-384600</v>
+        <v>-386300</v>
       </c>
       <c r="F91" s="3">
-        <v>-280300</v>
+        <v>-281600</v>
       </c>
       <c r="G91" s="3">
-        <v>-172700</v>
+        <v>-173500</v>
       </c>
       <c r="H91" s="3">
-        <v>-131800</v>
+        <v>-132400</v>
       </c>
       <c r="I91" s="3">
-        <v>-81700</v>
+        <v>-82100</v>
       </c>
       <c r="J91" s="3">
-        <v>-33300</v>
+        <v>-33400</v>
       </c>
       <c r="K91" s="3">
         <v>-25600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3367400</v>
+        <v>-3382100</v>
       </c>
       <c r="E94" s="3">
-        <v>-2064200</v>
+        <v>-2073200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1955500</v>
+        <v>-1964000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1804400</v>
+        <v>-1812200</v>
       </c>
       <c r="H94" s="3">
-        <v>-385900</v>
+        <v>-387500</v>
       </c>
       <c r="I94" s="3">
-        <v>-687600</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-829600</v>
+        <v>-690600</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K94" s="3">
         <v>-639100</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1344800</v>
+        <v>-1350700</v>
       </c>
       <c r="E96" s="3">
-        <v>-219100</v>
+        <v>-220000</v>
       </c>
       <c r="F96" s="3">
-        <v>-495500</v>
+        <v>-497700</v>
       </c>
       <c r="G96" s="3">
-        <v>-387300</v>
+        <v>-389000</v>
       </c>
       <c r="H96" s="3">
-        <v>-223300</v>
+        <v>-224300</v>
       </c>
       <c r="I96" s="3">
-        <v>-301700</v>
+        <v>-303000</v>
       </c>
       <c r="J96" s="3">
-        <v>-124000</v>
+        <v>-124600</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>164700</v>
+        <v>165400</v>
       </c>
       <c r="E100" s="3">
-        <v>241500</v>
+        <v>242500</v>
       </c>
       <c r="F100" s="3">
-        <v>-198200</v>
+        <v>-199000</v>
       </c>
       <c r="G100" s="3">
-        <v>-342300</v>
+        <v>-343800</v>
       </c>
       <c r="H100" s="3">
-        <v>-248400</v>
+        <v>-249400</v>
       </c>
       <c r="I100" s="3">
-        <v>-118400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>13200</v>
+        <v>-118900</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K100" s="3">
         <v>-56000</v>
@@ -3466,22 +3466,22 @@
         <v>4400</v>
       </c>
       <c r="E101" s="3">
-        <v>12400</v>
+        <v>12500</v>
       </c>
       <c r="F101" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="G101" s="3">
-        <v>20100</v>
+        <v>20200</v>
       </c>
       <c r="H101" s="3">
-        <v>21700</v>
+        <v>21800</v>
       </c>
       <c r="I101" s="3">
         <v>-1700</v>
       </c>
-      <c r="J101" s="3">
-        <v>-300</v>
+      <c r="J101" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K101" s="3">
         <v>-600</v>
@@ -3496,22 +3496,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-579400</v>
+        <v>-581900</v>
       </c>
       <c r="E102" s="3">
+        <v>231500</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-348600</v>
+      </c>
+      <c r="G102" s="3">
         <v>230500</v>
       </c>
-      <c r="F102" s="3">
-        <v>-347100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>229500</v>
-      </c>
       <c r="H102" s="3">
-        <v>616100</v>
+        <v>618800</v>
       </c>
       <c r="I102" s="3">
-        <v>85700</v>
+        <v>86000</v>
       </c>
       <c r="J102" s="3">
         <v>-20200</v>

--- a/AAII_Financials/Yearly/NTES_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NTES_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>NTES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9050900</v>
+        <v>11492800</v>
       </c>
       <c r="E8" s="3">
-        <v>7819100</v>
+        <v>9242200</v>
       </c>
       <c r="F8" s="3">
-        <v>6789100</v>
+        <v>7984400</v>
       </c>
       <c r="G8" s="3">
-        <v>5193700</v>
+        <v>6932700</v>
       </c>
       <c r="H8" s="3">
-        <v>3313400</v>
+        <v>5303500</v>
       </c>
       <c r="I8" s="3">
-        <v>1789500</v>
+        <v>3383400</v>
       </c>
       <c r="J8" s="3">
+        <v>1827300</v>
+      </c>
+      <c r="K8" s="3">
         <v>1405000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1176700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1082000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4229800</v>
+        <v>5411000</v>
       </c>
       <c r="E9" s="3">
-        <v>3641100</v>
+        <v>4319300</v>
       </c>
       <c r="F9" s="3">
-        <v>2963100</v>
+        <v>3718100</v>
       </c>
       <c r="G9" s="3">
-        <v>4484000</v>
+        <v>3025700</v>
       </c>
       <c r="H9" s="3">
-        <v>2711500</v>
+        <v>4578800</v>
       </c>
       <c r="I9" s="3">
-        <v>498300</v>
+        <v>2768800</v>
       </c>
       <c r="J9" s="3">
+        <v>508800</v>
+      </c>
+      <c r="K9" s="3">
         <v>378700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>369900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>352100</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4821000</v>
+        <v>6081800</v>
       </c>
       <c r="E10" s="3">
-        <v>4177900</v>
+        <v>4922900</v>
       </c>
       <c r="F10" s="3">
-        <v>3826100</v>
+        <v>4266300</v>
       </c>
       <c r="G10" s="3">
-        <v>709700</v>
+        <v>3907000</v>
       </c>
       <c r="H10" s="3">
-        <v>601900</v>
+        <v>724700</v>
       </c>
       <c r="I10" s="3">
-        <v>1291200</v>
+        <v>614600</v>
       </c>
       <c r="J10" s="3">
+        <v>1318500</v>
+      </c>
+      <c r="K10" s="3">
         <v>1026300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>806800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>729900</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,41 +837,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1285400</v>
+        <v>1617700</v>
       </c>
       <c r="E12" s="3">
-        <v>1127300</v>
+        <v>1312500</v>
       </c>
       <c r="F12" s="3">
-        <v>635800</v>
+        <v>1151100</v>
       </c>
       <c r="G12" s="3">
-        <v>911700</v>
+        <v>649300</v>
       </c>
       <c r="H12" s="3">
-        <v>654000</v>
+        <v>930900</v>
       </c>
       <c r="I12" s="3">
-        <v>202200</v>
+        <v>667800</v>
       </c>
       <c r="J12" s="3">
+        <v>206500</v>
+      </c>
+      <c r="K12" s="3">
         <v>140800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>103100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>69100</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,32 +906,35 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>8700</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -923,9 +942,12 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -956,9 +978,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>6943900</v>
+        <v>9233300</v>
       </c>
       <c r="E17" s="3">
-        <v>6294700</v>
+        <v>7090700</v>
       </c>
       <c r="F17" s="3">
-        <v>4803800</v>
+        <v>6427800</v>
       </c>
       <c r="G17" s="3">
-        <v>3211700</v>
+        <v>4905300</v>
       </c>
       <c r="H17" s="3">
-        <v>2172300</v>
+        <v>3279600</v>
       </c>
       <c r="I17" s="3">
-        <v>1061500</v>
+        <v>2218200</v>
       </c>
       <c r="J17" s="3">
+        <v>1083900</v>
+      </c>
+      <c r="K17" s="3">
         <v>740000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>644100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>588800</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2106900</v>
+        <v>2259500</v>
       </c>
       <c r="E18" s="3">
-        <v>1524300</v>
+        <v>2151500</v>
       </c>
       <c r="F18" s="3">
-        <v>1985400</v>
+        <v>1556600</v>
       </c>
       <c r="G18" s="3">
-        <v>1982000</v>
+        <v>2027300</v>
       </c>
       <c r="H18" s="3">
-        <v>1141100</v>
+        <v>2023900</v>
       </c>
       <c r="I18" s="3">
-        <v>728000</v>
+        <v>1165300</v>
       </c>
       <c r="J18" s="3">
+        <v>743400</v>
+      </c>
+      <c r="K18" s="3">
         <v>665000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>532500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>493200</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>460100</v>
+        <v>177400</v>
       </c>
       <c r="E20" s="3">
-        <v>216200</v>
+        <v>469900</v>
       </c>
       <c r="F20" s="3">
-        <v>143100</v>
+        <v>220800</v>
       </c>
       <c r="G20" s="3">
-        <v>198200</v>
+        <v>146100</v>
       </c>
       <c r="H20" s="3">
-        <v>130800</v>
+        <v>202400</v>
       </c>
       <c r="I20" s="3">
-        <v>108900</v>
+        <v>133600</v>
       </c>
       <c r="J20" s="3">
+        <v>111200</v>
+      </c>
+      <c r="K20" s="3">
         <v>97100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>81300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>43400</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2967800</v>
+        <v>2975600</v>
       </c>
       <c r="E21" s="3">
-        <v>2060000</v>
+        <v>3028600</v>
       </c>
       <c r="F21" s="3">
-        <v>2251400</v>
+        <v>2102000</v>
       </c>
       <c r="G21" s="3">
-        <v>2230400</v>
+        <v>2298400</v>
       </c>
       <c r="H21" s="3">
-        <v>1299900</v>
+        <v>2277300</v>
       </c>
       <c r="I21" s="3">
-        <v>863700</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>1327300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>881800</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>647300</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>64000</v>
+        <v>38700</v>
       </c>
       <c r="E22" s="3">
-        <v>48300</v>
+        <v>65400</v>
       </c>
       <c r="F22" s="3">
-        <v>14100</v>
+        <v>49300</v>
       </c>
       <c r="G22" s="3">
-        <v>4900</v>
+        <v>14400</v>
       </c>
       <c r="H22" s="3">
-        <v>2900</v>
+        <v>5000</v>
       </c>
       <c r="I22" s="3">
         <v>3000</v>
       </c>
       <c r="J22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K22" s="3">
         <v>1900</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2503000</v>
+        <v>2398200</v>
       </c>
       <c r="E23" s="3">
-        <v>1692300</v>
+        <v>2556000</v>
       </c>
       <c r="F23" s="3">
-        <v>2114400</v>
+        <v>1728100</v>
       </c>
       <c r="G23" s="3">
-        <v>2175200</v>
+        <v>2159100</v>
       </c>
       <c r="H23" s="3">
-        <v>1269000</v>
+        <v>2221200</v>
       </c>
       <c r="I23" s="3">
-        <v>833900</v>
+        <v>1295900</v>
       </c>
       <c r="J23" s="3">
+        <v>851600</v>
+      </c>
+      <c r="K23" s="3">
         <v>760200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>613800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>536600</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>445300</v>
+        <v>474600</v>
       </c>
       <c r="E24" s="3">
-        <v>375900</v>
+        <v>454700</v>
       </c>
       <c r="F24" s="3">
-        <v>329400</v>
+        <v>383900</v>
       </c>
       <c r="G24" s="3">
-        <v>321200</v>
+        <v>336400</v>
       </c>
       <c r="H24" s="3">
-        <v>192600</v>
+        <v>328000</v>
       </c>
       <c r="I24" s="3">
-        <v>101300</v>
+        <v>196700</v>
       </c>
       <c r="J24" s="3">
+        <v>103400</v>
+      </c>
+      <c r="K24" s="3">
         <v>81100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>99200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>58300</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2057700</v>
+        <v>1923600</v>
       </c>
       <c r="E26" s="3">
-        <v>1316400</v>
+        <v>2101200</v>
       </c>
       <c r="F26" s="3">
-        <v>1785000</v>
+        <v>1344200</v>
       </c>
       <c r="G26" s="3">
-        <v>1854000</v>
+        <v>1822800</v>
       </c>
       <c r="H26" s="3">
-        <v>1076400</v>
+        <v>1893200</v>
       </c>
       <c r="I26" s="3">
-        <v>732700</v>
+        <v>1099200</v>
       </c>
       <c r="J26" s="3">
+        <v>748200</v>
+      </c>
+      <c r="K26" s="3">
         <v>679100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>514600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>478300</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2028200</v>
+        <v>1881900</v>
       </c>
       <c r="E27" s="3">
-        <v>1266700</v>
+        <v>2071000</v>
       </c>
       <c r="F27" s="3">
-        <v>1763400</v>
+        <v>1293500</v>
       </c>
       <c r="G27" s="3">
-        <v>1825300</v>
+        <v>1800700</v>
       </c>
       <c r="H27" s="3">
-        <v>1060800</v>
+        <v>1863900</v>
       </c>
       <c r="I27" s="3">
-        <v>726700</v>
+        <v>1083300</v>
       </c>
       <c r="J27" s="3">
+        <v>742100</v>
+      </c>
+      <c r="K27" s="3">
         <v>678900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>521900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>480000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,42 +1403,48 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>1216500</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-326700</v>
+        <v>1242200</v>
       </c>
       <c r="F29" s="3">
-        <v>-127500</v>
+        <v>-333700</v>
       </c>
       <c r="G29" s="3">
-        <v>-52300</v>
+        <v>-130200</v>
       </c>
       <c r="H29" s="3">
-        <v>-31900</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>17</v>
+        <v>-53400</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-32500</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-460100</v>
+        <v>-177400</v>
       </c>
       <c r="E32" s="3">
-        <v>-216200</v>
+        <v>-469900</v>
       </c>
       <c r="F32" s="3">
-        <v>-143100</v>
+        <v>-220800</v>
       </c>
       <c r="G32" s="3">
-        <v>-198200</v>
+        <v>-146100</v>
       </c>
       <c r="H32" s="3">
-        <v>-130800</v>
+        <v>-202400</v>
       </c>
       <c r="I32" s="3">
-        <v>-108900</v>
+        <v>-133600</v>
       </c>
       <c r="J32" s="3">
+        <v>-111200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-97100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-81300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-43400</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3244700</v>
+        <v>1881900</v>
       </c>
       <c r="E33" s="3">
-        <v>940000</v>
+        <v>3313300</v>
       </c>
       <c r="F33" s="3">
-        <v>1636000</v>
+        <v>959800</v>
       </c>
       <c r="G33" s="3">
-        <v>1772900</v>
+        <v>1670500</v>
       </c>
       <c r="H33" s="3">
-        <v>1029000</v>
+        <v>1810400</v>
       </c>
       <c r="I33" s="3">
-        <v>726700</v>
+        <v>1050700</v>
       </c>
       <c r="J33" s="3">
+        <v>742100</v>
+      </c>
+      <c r="K33" s="3">
         <v>678900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>521900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>480000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3244700</v>
+        <v>1881900</v>
       </c>
       <c r="E35" s="3">
-        <v>940000</v>
+        <v>3313300</v>
       </c>
       <c r="F35" s="3">
-        <v>1636000</v>
+        <v>959800</v>
       </c>
       <c r="G35" s="3">
-        <v>1772900</v>
+        <v>1670500</v>
       </c>
       <c r="H35" s="3">
-        <v>1029000</v>
+        <v>1810400</v>
       </c>
       <c r="I35" s="3">
-        <v>726700</v>
+        <v>1050700</v>
       </c>
       <c r="J35" s="3">
+        <v>742100</v>
+      </c>
+      <c r="K35" s="3">
         <v>678900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>521900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>480000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,127 +1731,137 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>496000</v>
+        <v>1422400</v>
       </c>
       <c r="E41" s="3">
-        <v>823400</v>
+        <v>506500</v>
       </c>
       <c r="F41" s="3">
-        <v>422300</v>
+        <v>778200</v>
       </c>
       <c r="G41" s="3">
-        <v>831000</v>
+        <v>431200</v>
       </c>
       <c r="H41" s="3">
-        <v>927600</v>
+        <v>848600</v>
       </c>
       <c r="I41" s="3">
-        <v>308800</v>
+        <v>947200</v>
       </c>
       <c r="J41" s="3">
+        <v>315400</v>
+      </c>
+      <c r="K41" s="3">
         <v>222800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>228200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>328700</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>10511200</v>
+        <v>13159800</v>
       </c>
       <c r="E42" s="3">
-        <v>6810200</v>
+        <v>10733400</v>
       </c>
       <c r="F42" s="3">
-        <v>6164100</v>
+        <v>6954200</v>
       </c>
       <c r="G42" s="3">
-        <v>4727500</v>
+        <v>6294400</v>
       </c>
       <c r="H42" s="3">
-        <v>2995500</v>
+        <v>4827500</v>
       </c>
       <c r="I42" s="3">
-        <v>3140400</v>
+        <v>3058900</v>
       </c>
       <c r="J42" s="3">
+        <v>3206800</v>
+      </c>
+      <c r="K42" s="3">
         <v>2677700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2033400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1587700</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>736600</v>
+        <v>1055700</v>
       </c>
       <c r="E43" s="3">
-        <v>793700</v>
+        <v>752200</v>
       </c>
       <c r="F43" s="3">
-        <v>681600</v>
+        <v>1453000</v>
       </c>
       <c r="G43" s="3">
-        <v>1382100</v>
+        <v>696000</v>
       </c>
       <c r="H43" s="3">
-        <v>450000</v>
+        <v>1411300</v>
       </c>
       <c r="I43" s="3">
-        <v>192900</v>
+        <v>459600</v>
       </c>
       <c r="J43" s="3">
+        <v>197000</v>
+      </c>
+      <c r="K43" s="3">
         <v>104500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>66300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>50800</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>99400</v>
+        <v>96900</v>
       </c>
       <c r="E44" s="3">
-        <v>766600</v>
+        <v>101500</v>
       </c>
       <c r="F44" s="3">
-        <v>836500</v>
+        <v>166200</v>
       </c>
       <c r="G44" s="3">
-        <v>241100</v>
+        <v>854100</v>
       </c>
       <c r="H44" s="3">
-        <v>124900</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>17</v>
+        <v>246200</v>
+      </c>
+      <c r="I44" s="3">
+        <v>127600</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>17</v>
@@ -1777,174 +1872,192 @@
       <c r="L44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1159200</v>
+        <v>1087900</v>
       </c>
       <c r="E45" s="3">
-        <v>1304500</v>
+        <v>1183700</v>
       </c>
       <c r="F45" s="3">
-        <v>1360000</v>
+        <v>2759700</v>
       </c>
       <c r="G45" s="3">
-        <v>1900600</v>
+        <v>1388700</v>
       </c>
       <c r="H45" s="3">
-        <v>758900</v>
+        <v>1940800</v>
       </c>
       <c r="I45" s="3">
-        <v>594800</v>
+        <v>774900</v>
       </c>
       <c r="J45" s="3">
+        <v>607400</v>
+      </c>
+      <c r="K45" s="3">
         <v>478000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>235800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>180900</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13002300</v>
+        <v>16822700</v>
       </c>
       <c r="E46" s="3">
-        <v>10498400</v>
+        <v>13277200</v>
       </c>
       <c r="F46" s="3">
-        <v>9464400</v>
+        <v>10720300</v>
       </c>
       <c r="G46" s="3">
-        <v>7544800</v>
+        <v>9664500</v>
       </c>
       <c r="H46" s="3">
-        <v>5257000</v>
+        <v>7704300</v>
       </c>
       <c r="I46" s="3">
-        <v>4237000</v>
+        <v>5368100</v>
       </c>
       <c r="J46" s="3">
+        <v>4326600</v>
+      </c>
+      <c r="K46" s="3">
         <v>3483000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2563800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2148100</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2024900</v>
+        <v>2892300</v>
       </c>
       <c r="E47" s="3">
-        <v>816800</v>
+        <v>2067700</v>
       </c>
       <c r="F47" s="3">
-        <v>425500</v>
+        <v>834000</v>
       </c>
       <c r="G47" s="3">
-        <v>385000</v>
+        <v>434500</v>
       </c>
       <c r="H47" s="3">
-        <v>439200</v>
+        <v>393100</v>
       </c>
       <c r="I47" s="3">
-        <v>160500</v>
+        <v>448500</v>
       </c>
       <c r="J47" s="3">
+        <v>163900</v>
+      </c>
+      <c r="K47" s="3">
         <v>117000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>75200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>776900</v>
+        <v>1483200</v>
       </c>
       <c r="E48" s="3">
-        <v>821700</v>
+        <v>1371700</v>
       </c>
       <c r="F48" s="3">
-        <v>575900</v>
+        <v>2078600</v>
       </c>
       <c r="G48" s="3">
-        <v>739300</v>
+        <v>680600</v>
       </c>
       <c r="H48" s="3">
-        <v>319600</v>
+        <v>846800</v>
       </c>
       <c r="I48" s="3">
-        <v>195700</v>
+        <v>363600</v>
       </c>
       <c r="J48" s="3">
+        <v>212000</v>
+      </c>
+      <c r="K48" s="3">
         <v>133200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>116900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>125900</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>556000</v>
+        <v>693400</v>
       </c>
       <c r="E49" s="3">
-        <v>376600</v>
+        <v>567800</v>
       </c>
       <c r="F49" s="3">
-        <v>125300</v>
+        <v>384600</v>
       </c>
       <c r="G49" s="3">
-        <v>38800</v>
+        <v>128000</v>
       </c>
       <c r="H49" s="3">
-        <v>29200</v>
+        <v>39600</v>
       </c>
       <c r="I49" s="3">
-        <v>16500</v>
+        <v>29800</v>
       </c>
       <c r="J49" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K49" s="3">
         <v>1900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>770200</v>
+        <v>242300</v>
       </c>
       <c r="E52" s="3">
-        <v>773500</v>
+        <v>208100</v>
       </c>
       <c r="F52" s="3">
-        <v>261100</v>
+        <v>1669800</v>
       </c>
       <c r="G52" s="3">
-        <v>905200</v>
+        <v>174100</v>
       </c>
       <c r="H52" s="3">
-        <v>243000</v>
+        <v>832400</v>
       </c>
       <c r="I52" s="3">
-        <v>27900</v>
+        <v>210900</v>
       </c>
       <c r="J52" s="3">
+        <v>16300</v>
+      </c>
+      <c r="K52" s="3">
         <v>14900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7900</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17130400</v>
+        <v>22133900</v>
       </c>
       <c r="E54" s="3">
-        <v>13287000</v>
+        <v>17492500</v>
       </c>
       <c r="F54" s="3">
-        <v>10852200</v>
+        <v>13567900</v>
       </c>
       <c r="G54" s="3">
-        <v>8866100</v>
+        <v>11081600</v>
       </c>
       <c r="H54" s="3">
-        <v>6288000</v>
+        <v>9053600</v>
       </c>
       <c r="I54" s="3">
-        <v>4637600</v>
+        <v>6421000</v>
       </c>
       <c r="J54" s="3">
+        <v>4735600</v>
+      </c>
+      <c r="K54" s="3">
         <v>3750200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2766000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2292200</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,140 +2267,153 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>185200</v>
+        <v>177000</v>
       </c>
       <c r="E57" s="3">
-        <v>364400</v>
+        <v>189100</v>
       </c>
       <c r="F57" s="3">
-        <v>373200</v>
+        <v>187500</v>
       </c>
       <c r="G57" s="3">
-        <v>213300</v>
+        <v>381100</v>
       </c>
       <c r="H57" s="3">
-        <v>107000</v>
+        <v>217800</v>
       </c>
       <c r="I57" s="3">
-        <v>62800</v>
+        <v>109300</v>
       </c>
       <c r="J57" s="3">
+        <v>64100</v>
+      </c>
+      <c r="K57" s="3">
         <v>33500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>22600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19900</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2571000</v>
+        <v>3042900</v>
       </c>
       <c r="E58" s="3">
-        <v>2086800</v>
+        <v>2625400</v>
       </c>
       <c r="F58" s="3">
-        <v>1011900</v>
+        <v>2130900</v>
       </c>
       <c r="G58" s="3">
-        <v>583000</v>
+        <v>1033300</v>
       </c>
       <c r="H58" s="3">
-        <v>347200</v>
+        <v>595300</v>
       </c>
       <c r="I58" s="3">
-        <v>313200</v>
+        <v>354600</v>
       </c>
       <c r="J58" s="3">
+        <v>319800</v>
+      </c>
+      <c r="K58" s="3">
         <v>149000</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3086500</v>
+        <v>4072500</v>
       </c>
       <c r="E59" s="3">
-        <v>2912800</v>
+        <v>3151800</v>
       </c>
       <c r="F59" s="3">
-        <v>2243400</v>
+        <v>4071400</v>
       </c>
       <c r="G59" s="3">
-        <v>2680100</v>
+        <v>2290900</v>
       </c>
       <c r="H59" s="3">
-        <v>1328300</v>
+        <v>2736800</v>
       </c>
       <c r="I59" s="3">
-        <v>656300</v>
+        <v>1356400</v>
       </c>
       <c r="J59" s="3">
+        <v>670200</v>
+      </c>
+      <c r="K59" s="3">
         <v>464200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>490500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>318800</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5842800</v>
+        <v>7292500</v>
       </c>
       <c r="E60" s="3">
-        <v>5364000</v>
+        <v>5966300</v>
       </c>
       <c r="F60" s="3">
-        <v>3628500</v>
+        <v>5477400</v>
       </c>
       <c r="G60" s="3">
-        <v>2929800</v>
+        <v>3705300</v>
       </c>
       <c r="H60" s="3">
-        <v>1782500</v>
+        <v>2991700</v>
       </c>
       <c r="I60" s="3">
-        <v>1032200</v>
+        <v>1820200</v>
       </c>
       <c r="J60" s="3">
+        <v>1054100</v>
+      </c>
+      <c r="K60" s="3">
         <v>646700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>513200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>338800</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2302,42 +2444,48 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>128200</v>
+        <v>208600</v>
       </c>
       <c r="E62" s="3">
-        <v>68300</v>
+        <v>130900</v>
       </c>
       <c r="F62" s="3">
-        <v>35400</v>
+        <v>68900</v>
       </c>
       <c r="G62" s="3">
-        <v>60000</v>
+        <v>36100</v>
       </c>
       <c r="H62" s="3">
-        <v>25400</v>
+        <v>61200</v>
       </c>
       <c r="I62" s="3">
-        <v>16300</v>
+        <v>26000</v>
       </c>
       <c r="J62" s="3">
+        <v>16600</v>
+      </c>
+      <c r="K62" s="3">
         <v>22100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9500</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7741500</v>
+        <v>9321300</v>
       </c>
       <c r="E66" s="3">
-        <v>6376500</v>
+        <v>7905100</v>
       </c>
       <c r="F66" s="3">
-        <v>3865200</v>
+        <v>6511300</v>
       </c>
       <c r="G66" s="3">
-        <v>3031300</v>
+        <v>3947000</v>
       </c>
       <c r="H66" s="3">
-        <v>1820700</v>
+        <v>3095400</v>
       </c>
       <c r="I66" s="3">
-        <v>1064000</v>
+        <v>1859200</v>
       </c>
       <c r="J66" s="3">
+        <v>1086500</v>
+      </c>
+      <c r="K66" s="3">
         <v>657100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>516100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>344000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8801500</v>
+        <v>10201700</v>
       </c>
       <c r="E72" s="3">
-        <v>6907500</v>
+        <v>8987600</v>
       </c>
       <c r="F72" s="3">
-        <v>6713000</v>
+        <v>7053500</v>
       </c>
       <c r="G72" s="3">
-        <v>5574800</v>
+        <v>6855000</v>
       </c>
       <c r="H72" s="3">
-        <v>4190800</v>
+        <v>5692600</v>
       </c>
       <c r="I72" s="3">
-        <v>3242600</v>
+        <v>4279500</v>
       </c>
       <c r="J72" s="3">
+        <v>3311200</v>
+      </c>
+      <c r="K72" s="3">
         <v>2827800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2053100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1728800</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9388900</v>
+        <v>12812600</v>
       </c>
       <c r="E76" s="3">
-        <v>6910500</v>
+        <v>9587400</v>
       </c>
       <c r="F76" s="3">
-        <v>6986900</v>
+        <v>7056600</v>
       </c>
       <c r="G76" s="3">
-        <v>5834800</v>
+        <v>7134700</v>
       </c>
       <c r="H76" s="3">
-        <v>4467300</v>
+        <v>5958200</v>
       </c>
       <c r="I76" s="3">
-        <v>3573600</v>
+        <v>4561700</v>
       </c>
       <c r="J76" s="3">
+        <v>3649100</v>
+      </c>
+      <c r="K76" s="3">
         <v>3093100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2249900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1948100</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3244700</v>
+        <v>1881900</v>
       </c>
       <c r="E81" s="3">
-        <v>940000</v>
+        <v>3313300</v>
       </c>
       <c r="F81" s="3">
-        <v>1636000</v>
+        <v>959800</v>
       </c>
       <c r="G81" s="3">
-        <v>1772900</v>
+        <v>1670500</v>
       </c>
       <c r="H81" s="3">
-        <v>1029000</v>
+        <v>1810400</v>
       </c>
       <c r="I81" s="3">
-        <v>726700</v>
+        <v>1050700</v>
       </c>
       <c r="J81" s="3">
+        <v>742100</v>
+      </c>
+      <c r="K81" s="3">
         <v>678900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>521900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>480000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>399300</v>
+        <v>539400</v>
       </c>
       <c r="E83" s="3">
-        <v>318300</v>
+        <v>407800</v>
       </c>
       <c r="F83" s="3">
-        <v>122500</v>
+        <v>325000</v>
       </c>
       <c r="G83" s="3">
-        <v>50000</v>
+        <v>125100</v>
       </c>
       <c r="H83" s="3">
-        <v>27900</v>
+        <v>51100</v>
       </c>
       <c r="I83" s="3">
-        <v>26700</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>28500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>27200</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>33500</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2630300</v>
+        <v>3882800</v>
       </c>
       <c r="E89" s="3">
-        <v>2049700</v>
+        <v>2685900</v>
       </c>
       <c r="F89" s="3">
-        <v>1816400</v>
+        <v>2093000</v>
       </c>
       <c r="G89" s="3">
-        <v>2366300</v>
+        <v>1854800</v>
       </c>
       <c r="H89" s="3">
-        <v>1234000</v>
+        <v>2416300</v>
       </c>
       <c r="I89" s="3">
-        <v>897300</v>
+        <v>1260100</v>
       </c>
       <c r="J89" s="3">
+        <v>916300</v>
+      </c>
+      <c r="K89" s="3">
         <v>799900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>606100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>604500</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-184800</v>
+        <v>-164700</v>
       </c>
       <c r="E91" s="3">
-        <v>-386300</v>
+        <v>-188700</v>
       </c>
       <c r="F91" s="3">
-        <v>-281600</v>
+        <v>-394400</v>
       </c>
       <c r="G91" s="3">
-        <v>-173500</v>
+        <v>-287500</v>
       </c>
       <c r="H91" s="3">
-        <v>-132400</v>
+        <v>-177200</v>
       </c>
       <c r="I91" s="3">
-        <v>-82100</v>
+        <v>-135200</v>
       </c>
       <c r="J91" s="3">
+        <v>-83800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-33400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-60900</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3382100</v>
+        <v>-4554300</v>
       </c>
       <c r="E94" s="3">
-        <v>-2073200</v>
+        <v>-3453600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1964000</v>
+        <v>-2117000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1812200</v>
+        <v>-2005600</v>
       </c>
       <c r="H94" s="3">
-        <v>-387500</v>
+        <v>-1850500</v>
       </c>
       <c r="I94" s="3">
-        <v>-690600</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-395700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-705200</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-639100</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1350700</v>
+        <v>-667800</v>
       </c>
       <c r="E96" s="3">
-        <v>-220000</v>
+        <v>-1379200</v>
       </c>
       <c r="F96" s="3">
-        <v>-497700</v>
+        <v>-224700</v>
       </c>
       <c r="G96" s="3">
-        <v>-389000</v>
+        <v>-508200</v>
       </c>
       <c r="H96" s="3">
-        <v>-224300</v>
+        <v>-397200</v>
       </c>
       <c r="I96" s="3">
-        <v>-303000</v>
+        <v>-229000</v>
       </c>
       <c r="J96" s="3">
+        <v>-309400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-124600</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>165400</v>
+        <v>1546500</v>
       </c>
       <c r="E100" s="3">
-        <v>242500</v>
+        <v>168900</v>
       </c>
       <c r="F100" s="3">
-        <v>-199000</v>
+        <v>247700</v>
       </c>
       <c r="G100" s="3">
-        <v>-343800</v>
+        <v>-203200</v>
       </c>
       <c r="H100" s="3">
-        <v>-249400</v>
+        <v>-351100</v>
       </c>
       <c r="I100" s="3">
-        <v>-118900</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-254700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-121400</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-56000</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4400</v>
+        <v>25300</v>
       </c>
       <c r="E101" s="3">
-        <v>12500</v>
+        <v>4500</v>
       </c>
       <c r="F101" s="3">
+        <v>12700</v>
+      </c>
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
-        <v>20200</v>
-      </c>
       <c r="H101" s="3">
-        <v>21800</v>
+        <v>20600</v>
       </c>
       <c r="I101" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="J101" s="3" t="s">
+        <v>22200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-600</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="M101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-581900</v>
+        <v>900300</v>
       </c>
       <c r="E102" s="3">
-        <v>231500</v>
+        <v>-594200</v>
       </c>
       <c r="F102" s="3">
-        <v>-348600</v>
+        <v>236400</v>
       </c>
       <c r="G102" s="3">
-        <v>230500</v>
+        <v>-355900</v>
       </c>
       <c r="H102" s="3">
-        <v>618800</v>
+        <v>235400</v>
       </c>
       <c r="I102" s="3">
-        <v>86000</v>
+        <v>631800</v>
       </c>
       <c r="J102" s="3">
+        <v>87900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-20200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-89500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>137900</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NTES_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NTES_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11492800</v>
+        <v>11343300</v>
       </c>
       <c r="E8" s="3">
-        <v>9242200</v>
+        <v>9122000</v>
       </c>
       <c r="F8" s="3">
-        <v>7984400</v>
+        <v>7880500</v>
       </c>
       <c r="G8" s="3">
-        <v>6932700</v>
+        <v>6842500</v>
       </c>
       <c r="H8" s="3">
-        <v>5303500</v>
+        <v>5234500</v>
       </c>
       <c r="I8" s="3">
-        <v>3383400</v>
+        <v>3339400</v>
       </c>
       <c r="J8" s="3">
-        <v>1827300</v>
+        <v>1803500</v>
       </c>
       <c r="K8" s="3">
         <v>1405000</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5411000</v>
+        <v>5340600</v>
       </c>
       <c r="E9" s="3">
-        <v>4319300</v>
+        <v>4263100</v>
       </c>
       <c r="F9" s="3">
-        <v>3718100</v>
+        <v>3669700</v>
       </c>
       <c r="G9" s="3">
-        <v>3025700</v>
+        <v>2986300</v>
       </c>
       <c r="H9" s="3">
-        <v>4578800</v>
+        <v>4519200</v>
       </c>
       <c r="I9" s="3">
-        <v>2768800</v>
+        <v>2732800</v>
       </c>
       <c r="J9" s="3">
-        <v>508800</v>
+        <v>502200</v>
       </c>
       <c r="K9" s="3">
         <v>378700</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6081800</v>
+        <v>6002700</v>
       </c>
       <c r="E10" s="3">
-        <v>4922900</v>
+        <v>4858900</v>
       </c>
       <c r="F10" s="3">
-        <v>4266300</v>
+        <v>4210800</v>
       </c>
       <c r="G10" s="3">
-        <v>3907000</v>
+        <v>3856100</v>
       </c>
       <c r="H10" s="3">
-        <v>724700</v>
+        <v>715300</v>
       </c>
       <c r="I10" s="3">
-        <v>614600</v>
+        <v>606600</v>
       </c>
       <c r="J10" s="3">
-        <v>1318500</v>
+        <v>1301300</v>
       </c>
       <c r="K10" s="3">
         <v>1026300</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1617700</v>
+        <v>1596700</v>
       </c>
       <c r="E12" s="3">
-        <v>1312500</v>
+        <v>1295500</v>
       </c>
       <c r="F12" s="3">
-        <v>1151100</v>
+        <v>1136100</v>
       </c>
       <c r="G12" s="3">
-        <v>649300</v>
+        <v>640800</v>
       </c>
       <c r="H12" s="3">
-        <v>930900</v>
+        <v>918800</v>
       </c>
       <c r="I12" s="3">
-        <v>667800</v>
+        <v>659200</v>
       </c>
       <c r="J12" s="3">
-        <v>206500</v>
+        <v>203800</v>
       </c>
       <c r="K12" s="3">
         <v>140800</v>
@@ -916,7 +916,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>17</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>9233300</v>
+        <v>9113200</v>
       </c>
       <c r="E17" s="3">
-        <v>7090700</v>
+        <v>6998500</v>
       </c>
       <c r="F17" s="3">
-        <v>6427800</v>
+        <v>6344200</v>
       </c>
       <c r="G17" s="3">
-        <v>4905300</v>
+        <v>4841500</v>
       </c>
       <c r="H17" s="3">
-        <v>3279600</v>
+        <v>3236900</v>
       </c>
       <c r="I17" s="3">
-        <v>2218200</v>
+        <v>2189300</v>
       </c>
       <c r="J17" s="3">
-        <v>1083900</v>
+        <v>1069800</v>
       </c>
       <c r="K17" s="3">
         <v>740000</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2259500</v>
+        <v>2230100</v>
       </c>
       <c r="E18" s="3">
-        <v>2151500</v>
+        <v>2123500</v>
       </c>
       <c r="F18" s="3">
-        <v>1556600</v>
+        <v>1536300</v>
       </c>
       <c r="G18" s="3">
-        <v>2027300</v>
+        <v>2001000</v>
       </c>
       <c r="H18" s="3">
-        <v>2023900</v>
+        <v>1997500</v>
       </c>
       <c r="I18" s="3">
-        <v>1165300</v>
+        <v>1150100</v>
       </c>
       <c r="J18" s="3">
-        <v>743400</v>
+        <v>733700</v>
       </c>
       <c r="K18" s="3">
         <v>665000</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>177400</v>
+        <v>175100</v>
       </c>
       <c r="E20" s="3">
-        <v>469900</v>
+        <v>463800</v>
       </c>
       <c r="F20" s="3">
-        <v>220800</v>
+        <v>217900</v>
       </c>
       <c r="G20" s="3">
-        <v>146100</v>
+        <v>144200</v>
       </c>
       <c r="H20" s="3">
-        <v>202400</v>
+        <v>199700</v>
       </c>
       <c r="I20" s="3">
-        <v>133600</v>
+        <v>131800</v>
       </c>
       <c r="J20" s="3">
-        <v>111200</v>
+        <v>109800</v>
       </c>
       <c r="K20" s="3">
         <v>97100</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2975600</v>
+        <v>2938400</v>
       </c>
       <c r="E21" s="3">
-        <v>3028600</v>
+        <v>2990300</v>
       </c>
       <c r="F21" s="3">
-        <v>2102000</v>
+        <v>2075600</v>
       </c>
       <c r="G21" s="3">
-        <v>2298400</v>
+        <v>2268900</v>
       </c>
       <c r="H21" s="3">
-        <v>2277300</v>
+        <v>2247800</v>
       </c>
       <c r="I21" s="3">
-        <v>1327300</v>
+        <v>1310100</v>
       </c>
       <c r="J21" s="3">
-        <v>881800</v>
+        <v>870400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>17</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>38700</v>
+        <v>38200</v>
       </c>
       <c r="E22" s="3">
-        <v>65400</v>
+        <v>64500</v>
       </c>
       <c r="F22" s="3">
-        <v>49300</v>
+        <v>48600</v>
       </c>
       <c r="G22" s="3">
-        <v>14400</v>
+        <v>14200</v>
       </c>
       <c r="H22" s="3">
         <v>5000</v>
       </c>
       <c r="I22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J22" s="3">
         <v>3000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>3100</v>
       </c>
       <c r="K22" s="3">
         <v>1900</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2398200</v>
+        <v>2367000</v>
       </c>
       <c r="E23" s="3">
-        <v>2556000</v>
+        <v>2522700</v>
       </c>
       <c r="F23" s="3">
-        <v>1728100</v>
+        <v>1705600</v>
       </c>
       <c r="G23" s="3">
-        <v>2159100</v>
+        <v>2131000</v>
       </c>
       <c r="H23" s="3">
-        <v>2221200</v>
+        <v>2192300</v>
       </c>
       <c r="I23" s="3">
-        <v>1295900</v>
+        <v>1279000</v>
       </c>
       <c r="J23" s="3">
-        <v>851600</v>
+        <v>840500</v>
       </c>
       <c r="K23" s="3">
         <v>760200</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>474600</v>
+        <v>468400</v>
       </c>
       <c r="E24" s="3">
-        <v>454700</v>
+        <v>448800</v>
       </c>
       <c r="F24" s="3">
-        <v>383900</v>
+        <v>378900</v>
       </c>
       <c r="G24" s="3">
-        <v>336400</v>
+        <v>332000</v>
       </c>
       <c r="H24" s="3">
-        <v>328000</v>
+        <v>323700</v>
       </c>
       <c r="I24" s="3">
-        <v>196700</v>
+        <v>194200</v>
       </c>
       <c r="J24" s="3">
-        <v>103400</v>
+        <v>102000</v>
       </c>
       <c r="K24" s="3">
         <v>81100</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1923600</v>
+        <v>1898600</v>
       </c>
       <c r="E26" s="3">
-        <v>2101200</v>
+        <v>2073900</v>
       </c>
       <c r="F26" s="3">
-        <v>1344200</v>
+        <v>1326700</v>
       </c>
       <c r="G26" s="3">
-        <v>1822800</v>
+        <v>1799000</v>
       </c>
       <c r="H26" s="3">
-        <v>1893200</v>
+        <v>1868600</v>
       </c>
       <c r="I26" s="3">
-        <v>1099200</v>
+        <v>1084900</v>
       </c>
       <c r="J26" s="3">
-        <v>748200</v>
+        <v>738400</v>
       </c>
       <c r="K26" s="3">
         <v>679100</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1881900</v>
+        <v>1857400</v>
       </c>
       <c r="E27" s="3">
-        <v>2071000</v>
+        <v>2044100</v>
       </c>
       <c r="F27" s="3">
-        <v>1293500</v>
+        <v>1276700</v>
       </c>
       <c r="G27" s="3">
-        <v>1800700</v>
+        <v>1777300</v>
       </c>
       <c r="H27" s="3">
-        <v>1863900</v>
+        <v>1839600</v>
       </c>
       <c r="I27" s="3">
-        <v>1083300</v>
+        <v>1069200</v>
       </c>
       <c r="J27" s="3">
-        <v>742100</v>
+        <v>732400</v>
       </c>
       <c r="K27" s="3">
         <v>678900</v>
@@ -1416,19 +1416,19 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>1242200</v>
+        <v>1226100</v>
       </c>
       <c r="F29" s="3">
-        <v>-333700</v>
+        <v>-329300</v>
       </c>
       <c r="G29" s="3">
-        <v>-130200</v>
+        <v>-128500</v>
       </c>
       <c r="H29" s="3">
-        <v>-53400</v>
+        <v>-52700</v>
       </c>
       <c r="I29" s="3">
-        <v>-32500</v>
+        <v>-32100</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>17</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-177400</v>
+        <v>-175100</v>
       </c>
       <c r="E32" s="3">
-        <v>-469900</v>
+        <v>-463800</v>
       </c>
       <c r="F32" s="3">
-        <v>-220800</v>
+        <v>-217900</v>
       </c>
       <c r="G32" s="3">
-        <v>-146100</v>
+        <v>-144200</v>
       </c>
       <c r="H32" s="3">
-        <v>-202400</v>
+        <v>-199700</v>
       </c>
       <c r="I32" s="3">
-        <v>-133600</v>
+        <v>-131800</v>
       </c>
       <c r="J32" s="3">
-        <v>-111200</v>
+        <v>-109800</v>
       </c>
       <c r="K32" s="3">
         <v>-97100</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1881900</v>
+        <v>1857400</v>
       </c>
       <c r="E33" s="3">
-        <v>3313300</v>
+        <v>3270200</v>
       </c>
       <c r="F33" s="3">
-        <v>959800</v>
+        <v>947300</v>
       </c>
       <c r="G33" s="3">
-        <v>1670500</v>
+        <v>1648800</v>
       </c>
       <c r="H33" s="3">
-        <v>1810400</v>
+        <v>1786900</v>
       </c>
       <c r="I33" s="3">
-        <v>1050700</v>
+        <v>1037100</v>
       </c>
       <c r="J33" s="3">
-        <v>742100</v>
+        <v>732400</v>
       </c>
       <c r="K33" s="3">
         <v>678900</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1881900</v>
+        <v>1857400</v>
       </c>
       <c r="E35" s="3">
-        <v>3313300</v>
+        <v>3270200</v>
       </c>
       <c r="F35" s="3">
-        <v>959800</v>
+        <v>947300</v>
       </c>
       <c r="G35" s="3">
-        <v>1670500</v>
+        <v>1648800</v>
       </c>
       <c r="H35" s="3">
-        <v>1810400</v>
+        <v>1786900</v>
       </c>
       <c r="I35" s="3">
-        <v>1050700</v>
+        <v>1037100</v>
       </c>
       <c r="J35" s="3">
-        <v>742100</v>
+        <v>732400</v>
       </c>
       <c r="K35" s="3">
         <v>678900</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1422400</v>
+        <v>1403900</v>
       </c>
       <c r="E41" s="3">
-        <v>506500</v>
+        <v>499900</v>
       </c>
       <c r="F41" s="3">
-        <v>778200</v>
+        <v>768100</v>
       </c>
       <c r="G41" s="3">
-        <v>431200</v>
+        <v>425600</v>
       </c>
       <c r="H41" s="3">
-        <v>848600</v>
+        <v>837600</v>
       </c>
       <c r="I41" s="3">
-        <v>947200</v>
+        <v>934900</v>
       </c>
       <c r="J41" s="3">
-        <v>315400</v>
+        <v>311300</v>
       </c>
       <c r="K41" s="3">
         <v>222800</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>13159800</v>
+        <v>12988600</v>
       </c>
       <c r="E42" s="3">
-        <v>10733400</v>
+        <v>10593800</v>
       </c>
       <c r="F42" s="3">
-        <v>6954200</v>
+        <v>6863700</v>
       </c>
       <c r="G42" s="3">
-        <v>6294400</v>
+        <v>6212500</v>
       </c>
       <c r="H42" s="3">
-        <v>4827500</v>
+        <v>4764600</v>
       </c>
       <c r="I42" s="3">
-        <v>3058900</v>
+        <v>3019100</v>
       </c>
       <c r="J42" s="3">
-        <v>3206800</v>
+        <v>3165100</v>
       </c>
       <c r="K42" s="3">
         <v>2677700</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1055700</v>
+        <v>1041900</v>
       </c>
       <c r="E43" s="3">
-        <v>752200</v>
+        <v>742400</v>
       </c>
       <c r="F43" s="3">
-        <v>1453000</v>
+        <v>1434100</v>
       </c>
       <c r="G43" s="3">
-        <v>696000</v>
+        <v>686900</v>
       </c>
       <c r="H43" s="3">
-        <v>1411300</v>
+        <v>1392900</v>
       </c>
       <c r="I43" s="3">
-        <v>459600</v>
+        <v>453600</v>
       </c>
       <c r="J43" s="3">
-        <v>197000</v>
+        <v>194400</v>
       </c>
       <c r="K43" s="3">
         <v>104500</v>
@@ -1846,22 +1846,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>96900</v>
+        <v>95700</v>
       </c>
       <c r="E44" s="3">
-        <v>101500</v>
+        <v>100200</v>
       </c>
       <c r="F44" s="3">
-        <v>166200</v>
+        <v>164100</v>
       </c>
       <c r="G44" s="3">
-        <v>854100</v>
+        <v>843000</v>
       </c>
       <c r="H44" s="3">
-        <v>246200</v>
+        <v>243000</v>
       </c>
       <c r="I44" s="3">
-        <v>127600</v>
+        <v>125900</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>17</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1087900</v>
+        <v>1073800</v>
       </c>
       <c r="E45" s="3">
-        <v>1183700</v>
+        <v>1168300</v>
       </c>
       <c r="F45" s="3">
-        <v>2759700</v>
+        <v>2723800</v>
       </c>
       <c r="G45" s="3">
-        <v>1388700</v>
+        <v>1370700</v>
       </c>
       <c r="H45" s="3">
-        <v>1940800</v>
+        <v>1915500</v>
       </c>
       <c r="I45" s="3">
-        <v>774900</v>
+        <v>764900</v>
       </c>
       <c r="J45" s="3">
-        <v>607400</v>
+        <v>599500</v>
       </c>
       <c r="K45" s="3">
         <v>478000</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16822700</v>
+        <v>16603800</v>
       </c>
       <c r="E46" s="3">
-        <v>13277200</v>
+        <v>13104500</v>
       </c>
       <c r="F46" s="3">
-        <v>10720300</v>
+        <v>10580800</v>
       </c>
       <c r="G46" s="3">
-        <v>9664500</v>
+        <v>9538700</v>
       </c>
       <c r="H46" s="3">
-        <v>7704300</v>
+        <v>7604100</v>
       </c>
       <c r="I46" s="3">
-        <v>5368100</v>
+        <v>5298300</v>
       </c>
       <c r="J46" s="3">
-        <v>4326600</v>
+        <v>4270300</v>
       </c>
       <c r="K46" s="3">
         <v>3483000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2892300</v>
+        <v>2854700</v>
       </c>
       <c r="E47" s="3">
-        <v>2067700</v>
+        <v>2040800</v>
       </c>
       <c r="F47" s="3">
-        <v>834000</v>
+        <v>823200</v>
       </c>
       <c r="G47" s="3">
-        <v>434500</v>
+        <v>428800</v>
       </c>
       <c r="H47" s="3">
-        <v>393100</v>
+        <v>388000</v>
       </c>
       <c r="I47" s="3">
-        <v>448500</v>
+        <v>442600</v>
       </c>
       <c r="J47" s="3">
-        <v>163900</v>
+        <v>161800</v>
       </c>
       <c r="K47" s="3">
         <v>117000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1483200</v>
+        <v>1463900</v>
       </c>
       <c r="E48" s="3">
-        <v>1371700</v>
+        <v>1353900</v>
       </c>
       <c r="F48" s="3">
-        <v>2078600</v>
+        <v>2051500</v>
       </c>
       <c r="G48" s="3">
-        <v>680600</v>
+        <v>671800</v>
       </c>
       <c r="H48" s="3">
-        <v>846800</v>
+        <v>835800</v>
       </c>
       <c r="I48" s="3">
-        <v>363600</v>
+        <v>358900</v>
       </c>
       <c r="J48" s="3">
-        <v>212000</v>
+        <v>209200</v>
       </c>
       <c r="K48" s="3">
         <v>133200</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>693400</v>
+        <v>684300</v>
       </c>
       <c r="E49" s="3">
-        <v>567800</v>
+        <v>560400</v>
       </c>
       <c r="F49" s="3">
-        <v>384600</v>
+        <v>379600</v>
       </c>
       <c r="G49" s="3">
-        <v>128000</v>
+        <v>126300</v>
       </c>
       <c r="H49" s="3">
-        <v>39600</v>
+        <v>39100</v>
       </c>
       <c r="I49" s="3">
-        <v>29800</v>
+        <v>29400</v>
       </c>
       <c r="J49" s="3">
-        <v>16900</v>
+        <v>16600</v>
       </c>
       <c r="K49" s="3">
         <v>1900</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>242300</v>
+        <v>239200</v>
       </c>
       <c r="E52" s="3">
-        <v>208100</v>
+        <v>205400</v>
       </c>
       <c r="F52" s="3">
-        <v>1669800</v>
+        <v>1648100</v>
       </c>
       <c r="G52" s="3">
-        <v>174100</v>
+        <v>171800</v>
       </c>
       <c r="H52" s="3">
-        <v>832400</v>
+        <v>821600</v>
       </c>
       <c r="I52" s="3">
-        <v>210900</v>
+        <v>208200</v>
       </c>
       <c r="J52" s="3">
-        <v>16300</v>
+        <v>16100</v>
       </c>
       <c r="K52" s="3">
         <v>14900</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22133900</v>
+        <v>21845800</v>
       </c>
       <c r="E54" s="3">
-        <v>17492500</v>
+        <v>17264900</v>
       </c>
       <c r="F54" s="3">
-        <v>13567900</v>
+        <v>13391300</v>
       </c>
       <c r="G54" s="3">
-        <v>11081600</v>
+        <v>10937400</v>
       </c>
       <c r="H54" s="3">
-        <v>9053600</v>
+        <v>8935700</v>
       </c>
       <c r="I54" s="3">
-        <v>6421000</v>
+        <v>6337400</v>
       </c>
       <c r="J54" s="3">
-        <v>4735600</v>
+        <v>4674000</v>
       </c>
       <c r="K54" s="3">
         <v>3750200</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>177000</v>
+        <v>174700</v>
       </c>
       <c r="E57" s="3">
-        <v>189100</v>
+        <v>186700</v>
       </c>
       <c r="F57" s="3">
-        <v>187500</v>
+        <v>185000</v>
       </c>
       <c r="G57" s="3">
-        <v>381100</v>
+        <v>376100</v>
       </c>
       <c r="H57" s="3">
-        <v>217800</v>
+        <v>215000</v>
       </c>
       <c r="I57" s="3">
-        <v>109300</v>
+        <v>107900</v>
       </c>
       <c r="J57" s="3">
-        <v>64100</v>
+        <v>63200</v>
       </c>
       <c r="K57" s="3">
         <v>33500</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3042900</v>
+        <v>3003300</v>
       </c>
       <c r="E58" s="3">
-        <v>2625400</v>
+        <v>2591200</v>
       </c>
       <c r="F58" s="3">
-        <v>2130900</v>
+        <v>2103100</v>
       </c>
       <c r="G58" s="3">
-        <v>1033300</v>
+        <v>1019900</v>
       </c>
       <c r="H58" s="3">
-        <v>595300</v>
+        <v>587500</v>
       </c>
       <c r="I58" s="3">
-        <v>354600</v>
+        <v>350000</v>
       </c>
       <c r="J58" s="3">
-        <v>319800</v>
+        <v>315600</v>
       </c>
       <c r="K58" s="3">
         <v>149000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4072500</v>
+        <v>4019600</v>
       </c>
       <c r="E59" s="3">
-        <v>3151800</v>
+        <v>3110800</v>
       </c>
       <c r="F59" s="3">
-        <v>4071400</v>
+        <v>4018500</v>
       </c>
       <c r="G59" s="3">
-        <v>2290900</v>
+        <v>2261100</v>
       </c>
       <c r="H59" s="3">
-        <v>2736800</v>
+        <v>2701200</v>
       </c>
       <c r="I59" s="3">
-        <v>1356400</v>
+        <v>1338700</v>
       </c>
       <c r="J59" s="3">
-        <v>670200</v>
+        <v>661500</v>
       </c>
       <c r="K59" s="3">
         <v>464200</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7292500</v>
+        <v>7197600</v>
       </c>
       <c r="E60" s="3">
-        <v>5966300</v>
+        <v>5888700</v>
       </c>
       <c r="F60" s="3">
-        <v>5477400</v>
+        <v>5406100</v>
       </c>
       <c r="G60" s="3">
-        <v>3705300</v>
+        <v>3657000</v>
       </c>
       <c r="H60" s="3">
-        <v>2991700</v>
+        <v>2952800</v>
       </c>
       <c r="I60" s="3">
-        <v>1820200</v>
+        <v>1796500</v>
       </c>
       <c r="J60" s="3">
-        <v>1054100</v>
+        <v>1040400</v>
       </c>
       <c r="K60" s="3">
         <v>646700</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>208600</v>
+        <v>205900</v>
       </c>
       <c r="E62" s="3">
-        <v>130900</v>
+        <v>129200</v>
       </c>
       <c r="F62" s="3">
-        <v>68900</v>
+        <v>68000</v>
       </c>
       <c r="G62" s="3">
-        <v>36100</v>
+        <v>35600</v>
       </c>
       <c r="H62" s="3">
-        <v>61200</v>
+        <v>60400</v>
       </c>
       <c r="I62" s="3">
-        <v>26000</v>
+        <v>25600</v>
       </c>
       <c r="J62" s="3">
-        <v>16600</v>
+        <v>16400</v>
       </c>
       <c r="K62" s="3">
         <v>22100</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9321300</v>
+        <v>9200000</v>
       </c>
       <c r="E66" s="3">
-        <v>7905100</v>
+        <v>7802300</v>
       </c>
       <c r="F66" s="3">
-        <v>6511300</v>
+        <v>6426600</v>
       </c>
       <c r="G66" s="3">
-        <v>3947000</v>
+        <v>3895600</v>
       </c>
       <c r="H66" s="3">
-        <v>3095400</v>
+        <v>3055100</v>
       </c>
       <c r="I66" s="3">
-        <v>1859200</v>
+        <v>1835000</v>
       </c>
       <c r="J66" s="3">
-        <v>1086500</v>
+        <v>1072400</v>
       </c>
       <c r="K66" s="3">
         <v>657100</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10201700</v>
+        <v>10068900</v>
       </c>
       <c r="E72" s="3">
-        <v>8987600</v>
+        <v>8870600</v>
       </c>
       <c r="F72" s="3">
-        <v>7053500</v>
+        <v>6961700</v>
       </c>
       <c r="G72" s="3">
-        <v>6855000</v>
+        <v>6765800</v>
       </c>
       <c r="H72" s="3">
-        <v>5692600</v>
+        <v>5618600</v>
       </c>
       <c r="I72" s="3">
-        <v>4279500</v>
+        <v>4223800</v>
       </c>
       <c r="J72" s="3">
-        <v>3311200</v>
+        <v>3268100</v>
       </c>
       <c r="K72" s="3">
         <v>2827800</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12812600</v>
+        <v>12645900</v>
       </c>
       <c r="E76" s="3">
-        <v>9587400</v>
+        <v>9462600</v>
       </c>
       <c r="F76" s="3">
-        <v>7056600</v>
+        <v>6964800</v>
       </c>
       <c r="G76" s="3">
-        <v>7134700</v>
+        <v>7041800</v>
       </c>
       <c r="H76" s="3">
-        <v>5958200</v>
+        <v>5880700</v>
       </c>
       <c r="I76" s="3">
-        <v>4561700</v>
+        <v>4502400</v>
       </c>
       <c r="J76" s="3">
-        <v>3649100</v>
+        <v>3601600</v>
       </c>
       <c r="K76" s="3">
         <v>3093100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1881900</v>
+        <v>1857400</v>
       </c>
       <c r="E81" s="3">
-        <v>3313300</v>
+        <v>3270200</v>
       </c>
       <c r="F81" s="3">
-        <v>959800</v>
+        <v>947300</v>
       </c>
       <c r="G81" s="3">
-        <v>1670500</v>
+        <v>1648800</v>
       </c>
       <c r="H81" s="3">
-        <v>1810400</v>
+        <v>1786900</v>
       </c>
       <c r="I81" s="3">
-        <v>1050700</v>
+        <v>1037100</v>
       </c>
       <c r="J81" s="3">
-        <v>742100</v>
+        <v>732400</v>
       </c>
       <c r="K81" s="3">
         <v>678900</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>539400</v>
+        <v>532400</v>
       </c>
       <c r="E83" s="3">
-        <v>407800</v>
+        <v>402500</v>
       </c>
       <c r="F83" s="3">
-        <v>325000</v>
+        <v>320800</v>
       </c>
       <c r="G83" s="3">
-        <v>125100</v>
+        <v>123500</v>
       </c>
       <c r="H83" s="3">
-        <v>51100</v>
+        <v>50400</v>
       </c>
       <c r="I83" s="3">
-        <v>28500</v>
+        <v>28100</v>
       </c>
       <c r="J83" s="3">
-        <v>27200</v>
+        <v>26900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>17</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3882800</v>
+        <v>3832300</v>
       </c>
       <c r="E89" s="3">
-        <v>2685900</v>
+        <v>2651000</v>
       </c>
       <c r="F89" s="3">
-        <v>2093000</v>
+        <v>2065800</v>
       </c>
       <c r="G89" s="3">
-        <v>1854800</v>
+        <v>1830700</v>
       </c>
       <c r="H89" s="3">
-        <v>2416300</v>
+        <v>2384900</v>
       </c>
       <c r="I89" s="3">
-        <v>1260100</v>
+        <v>1243700</v>
       </c>
       <c r="J89" s="3">
-        <v>916300</v>
+        <v>904300</v>
       </c>
       <c r="K89" s="3">
         <v>799900</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-164700</v>
+        <v>-162500</v>
       </c>
       <c r="E91" s="3">
-        <v>-188700</v>
+        <v>-186200</v>
       </c>
       <c r="F91" s="3">
-        <v>-394400</v>
+        <v>-389300</v>
       </c>
       <c r="G91" s="3">
-        <v>-287500</v>
+        <v>-283800</v>
       </c>
       <c r="H91" s="3">
-        <v>-177200</v>
+        <v>-174800</v>
       </c>
       <c r="I91" s="3">
-        <v>-135200</v>
+        <v>-133400</v>
       </c>
       <c r="J91" s="3">
-        <v>-83800</v>
+        <v>-82700</v>
       </c>
       <c r="K91" s="3">
         <v>-33400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4554300</v>
+        <v>-4495000</v>
       </c>
       <c r="E94" s="3">
-        <v>-3453600</v>
+        <v>-3408600</v>
       </c>
       <c r="F94" s="3">
-        <v>-2117000</v>
+        <v>-2089400</v>
       </c>
       <c r="G94" s="3">
-        <v>-2005600</v>
+        <v>-1979500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1850500</v>
+        <v>-1826400</v>
       </c>
       <c r="I94" s="3">
-        <v>-395700</v>
+        <v>-390600</v>
       </c>
       <c r="J94" s="3">
-        <v>-705200</v>
+        <v>-696000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>17</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-667800</v>
+        <v>-659100</v>
       </c>
       <c r="E96" s="3">
-        <v>-1379200</v>
+        <v>-1361300</v>
       </c>
       <c r="F96" s="3">
-        <v>-224700</v>
+        <v>-221800</v>
       </c>
       <c r="G96" s="3">
-        <v>-508200</v>
+        <v>-501600</v>
       </c>
       <c r="H96" s="3">
-        <v>-397200</v>
+        <v>-392100</v>
       </c>
       <c r="I96" s="3">
-        <v>-229000</v>
+        <v>-226000</v>
       </c>
       <c r="J96" s="3">
-        <v>-309400</v>
+        <v>-305300</v>
       </c>
       <c r="K96" s="3">
         <v>-124600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1546500</v>
+        <v>1526400</v>
       </c>
       <c r="E100" s="3">
-        <v>168900</v>
+        <v>166700</v>
       </c>
       <c r="F100" s="3">
-        <v>247700</v>
+        <v>244400</v>
       </c>
       <c r="G100" s="3">
-        <v>-203200</v>
+        <v>-200600</v>
       </c>
       <c r="H100" s="3">
-        <v>-351100</v>
+        <v>-346500</v>
       </c>
       <c r="I100" s="3">
-        <v>-254700</v>
+        <v>-251400</v>
       </c>
       <c r="J100" s="3">
-        <v>-121400</v>
+        <v>-119900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>17</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>25300</v>
+        <v>24900</v>
       </c>
       <c r="E101" s="3">
         <v>4500</v>
       </c>
       <c r="F101" s="3">
-        <v>12700</v>
+        <v>12600</v>
       </c>
       <c r="G101" s="3">
         <v>-2000</v>
       </c>
       <c r="H101" s="3">
-        <v>20600</v>
+        <v>20400</v>
       </c>
       <c r="I101" s="3">
-        <v>22200</v>
+        <v>21900</v>
       </c>
       <c r="J101" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>17</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>900300</v>
+        <v>888600</v>
       </c>
       <c r="E102" s="3">
-        <v>-594200</v>
+        <v>-586500</v>
       </c>
       <c r="F102" s="3">
-        <v>236400</v>
+        <v>233300</v>
       </c>
       <c r="G102" s="3">
-        <v>-355900</v>
+        <v>-351300</v>
       </c>
       <c r="H102" s="3">
-        <v>235400</v>
+        <v>232300</v>
       </c>
       <c r="I102" s="3">
-        <v>631800</v>
+        <v>623600</v>
       </c>
       <c r="J102" s="3">
-        <v>87900</v>
+        <v>86700</v>
       </c>
       <c r="K102" s="3">
         <v>-20200</v>

--- a/AAII_Financials/Yearly/NTES_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NTES_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11343300</v>
+        <v>11533300</v>
       </c>
       <c r="E8" s="3">
-        <v>9122000</v>
+        <v>9274800</v>
       </c>
       <c r="F8" s="3">
-        <v>7880500</v>
+        <v>8012500</v>
       </c>
       <c r="G8" s="3">
-        <v>6842500</v>
+        <v>6957100</v>
       </c>
       <c r="H8" s="3">
-        <v>5234500</v>
+        <v>5322200</v>
       </c>
       <c r="I8" s="3">
-        <v>3339400</v>
+        <v>3395400</v>
       </c>
       <c r="J8" s="3">
-        <v>1803500</v>
+        <v>1833800</v>
       </c>
       <c r="K8" s="3">
         <v>1405000</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5340600</v>
+        <v>5430100</v>
       </c>
       <c r="E9" s="3">
-        <v>4263100</v>
+        <v>4334500</v>
       </c>
       <c r="F9" s="3">
-        <v>3669700</v>
+        <v>3731200</v>
       </c>
       <c r="G9" s="3">
-        <v>2986300</v>
+        <v>3036400</v>
       </c>
       <c r="H9" s="3">
-        <v>4519200</v>
+        <v>4594900</v>
       </c>
       <c r="I9" s="3">
-        <v>2732800</v>
+        <v>2778600</v>
       </c>
       <c r="J9" s="3">
-        <v>502200</v>
+        <v>510600</v>
       </c>
       <c r="K9" s="3">
         <v>378700</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6002700</v>
+        <v>6103200</v>
       </c>
       <c r="E10" s="3">
-        <v>4858900</v>
+        <v>4940300</v>
       </c>
       <c r="F10" s="3">
-        <v>4210800</v>
+        <v>4281300</v>
       </c>
       <c r="G10" s="3">
-        <v>3856100</v>
+        <v>3920700</v>
       </c>
       <c r="H10" s="3">
-        <v>715300</v>
+        <v>727200</v>
       </c>
       <c r="I10" s="3">
-        <v>606600</v>
+        <v>616800</v>
       </c>
       <c r="J10" s="3">
-        <v>1301300</v>
+        <v>1323100</v>
       </c>
       <c r="K10" s="3">
         <v>1026300</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1596700</v>
+        <v>1623400</v>
       </c>
       <c r="E12" s="3">
-        <v>1295500</v>
+        <v>1317200</v>
       </c>
       <c r="F12" s="3">
-        <v>1136100</v>
+        <v>1155200</v>
       </c>
       <c r="G12" s="3">
-        <v>640800</v>
+        <v>651600</v>
       </c>
       <c r="H12" s="3">
-        <v>918800</v>
+        <v>934200</v>
       </c>
       <c r="I12" s="3">
-        <v>659200</v>
+        <v>670200</v>
       </c>
       <c r="J12" s="3">
-        <v>203800</v>
+        <v>207200</v>
       </c>
       <c r="K12" s="3">
         <v>140800</v>
@@ -916,7 +916,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>17</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>9113200</v>
+        <v>9265900</v>
       </c>
       <c r="E17" s="3">
-        <v>6998500</v>
+        <v>7115700</v>
       </c>
       <c r="F17" s="3">
-        <v>6344200</v>
+        <v>6450500</v>
       </c>
       <c r="G17" s="3">
-        <v>4841500</v>
+        <v>4922600</v>
       </c>
       <c r="H17" s="3">
-        <v>3236900</v>
+        <v>3291200</v>
       </c>
       <c r="I17" s="3">
-        <v>2189300</v>
+        <v>2226000</v>
       </c>
       <c r="J17" s="3">
-        <v>1069800</v>
+        <v>1087700</v>
       </c>
       <c r="K17" s="3">
         <v>740000</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2230100</v>
+        <v>2267400</v>
       </c>
       <c r="E18" s="3">
-        <v>2123500</v>
+        <v>2159100</v>
       </c>
       <c r="F18" s="3">
-        <v>1536300</v>
+        <v>1562100</v>
       </c>
       <c r="G18" s="3">
-        <v>2001000</v>
+        <v>2034500</v>
       </c>
       <c r="H18" s="3">
-        <v>1997500</v>
+        <v>2031000</v>
       </c>
       <c r="I18" s="3">
-        <v>1150100</v>
+        <v>1169400</v>
       </c>
       <c r="J18" s="3">
-        <v>733700</v>
+        <v>746000</v>
       </c>
       <c r="K18" s="3">
         <v>665000</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>175100</v>
+        <v>178000</v>
       </c>
       <c r="E20" s="3">
-        <v>463800</v>
+        <v>471500</v>
       </c>
       <c r="F20" s="3">
-        <v>217900</v>
+        <v>221600</v>
       </c>
       <c r="G20" s="3">
-        <v>144200</v>
+        <v>146700</v>
       </c>
       <c r="H20" s="3">
-        <v>199700</v>
+        <v>203100</v>
       </c>
       <c r="I20" s="3">
-        <v>131800</v>
+        <v>134000</v>
       </c>
       <c r="J20" s="3">
-        <v>109800</v>
+        <v>111600</v>
       </c>
       <c r="K20" s="3">
         <v>97100</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2938400</v>
+        <v>2986400</v>
       </c>
       <c r="E21" s="3">
-        <v>2990300</v>
+        <v>3039500</v>
       </c>
       <c r="F21" s="3">
-        <v>2075600</v>
+        <v>2109600</v>
       </c>
       <c r="G21" s="3">
-        <v>2268900</v>
+        <v>2306600</v>
       </c>
       <c r="H21" s="3">
-        <v>2247800</v>
+        <v>2285300</v>
       </c>
       <c r="I21" s="3">
-        <v>1310100</v>
+        <v>1332000</v>
       </c>
       <c r="J21" s="3">
-        <v>870400</v>
+        <v>884900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>17</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>38200</v>
+        <v>38800</v>
       </c>
       <c r="E22" s="3">
-        <v>64500</v>
+        <v>65600</v>
       </c>
       <c r="F22" s="3">
-        <v>48600</v>
+        <v>49500</v>
       </c>
       <c r="G22" s="3">
-        <v>14200</v>
+        <v>14400</v>
       </c>
       <c r="H22" s="3">
         <v>5000</v>
       </c>
       <c r="I22" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="J22" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="K22" s="3">
         <v>1900</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2367000</v>
+        <v>2406700</v>
       </c>
       <c r="E23" s="3">
-        <v>2522700</v>
+        <v>2565000</v>
       </c>
       <c r="F23" s="3">
-        <v>1705600</v>
+        <v>1734200</v>
       </c>
       <c r="G23" s="3">
-        <v>2131000</v>
+        <v>2166700</v>
       </c>
       <c r="H23" s="3">
-        <v>2192300</v>
+        <v>2229000</v>
       </c>
       <c r="I23" s="3">
-        <v>1279000</v>
+        <v>1300400</v>
       </c>
       <c r="J23" s="3">
-        <v>840500</v>
+        <v>854600</v>
       </c>
       <c r="K23" s="3">
         <v>760200</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>468400</v>
+        <v>476200</v>
       </c>
       <c r="E24" s="3">
-        <v>448800</v>
+        <v>456300</v>
       </c>
       <c r="F24" s="3">
-        <v>378900</v>
+        <v>385200</v>
       </c>
       <c r="G24" s="3">
-        <v>332000</v>
+        <v>337500</v>
       </c>
       <c r="H24" s="3">
-        <v>323700</v>
+        <v>329100</v>
       </c>
       <c r="I24" s="3">
-        <v>194200</v>
+        <v>197400</v>
       </c>
       <c r="J24" s="3">
-        <v>102000</v>
+        <v>103800</v>
       </c>
       <c r="K24" s="3">
         <v>81100</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1898600</v>
+        <v>1930400</v>
       </c>
       <c r="E26" s="3">
-        <v>2073900</v>
+        <v>2108600</v>
       </c>
       <c r="F26" s="3">
-        <v>1326700</v>
+        <v>1348900</v>
       </c>
       <c r="G26" s="3">
-        <v>1799000</v>
+        <v>1829200</v>
       </c>
       <c r="H26" s="3">
-        <v>1868600</v>
+        <v>1899900</v>
       </c>
       <c r="I26" s="3">
-        <v>1084900</v>
+        <v>1103000</v>
       </c>
       <c r="J26" s="3">
-        <v>738400</v>
+        <v>750800</v>
       </c>
       <c r="K26" s="3">
         <v>679100</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1857400</v>
+        <v>1888500</v>
       </c>
       <c r="E27" s="3">
-        <v>2044100</v>
+        <v>2078300</v>
       </c>
       <c r="F27" s="3">
-        <v>1276700</v>
+        <v>1298100</v>
       </c>
       <c r="G27" s="3">
-        <v>1777300</v>
+        <v>1807100</v>
       </c>
       <c r="H27" s="3">
-        <v>1839600</v>
+        <v>1870400</v>
       </c>
       <c r="I27" s="3">
-        <v>1069200</v>
+        <v>1087100</v>
       </c>
       <c r="J27" s="3">
-        <v>732400</v>
+        <v>744700</v>
       </c>
       <c r="K27" s="3">
         <v>678900</v>
@@ -1416,19 +1416,19 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>1226100</v>
+        <v>1246600</v>
       </c>
       <c r="F29" s="3">
-        <v>-329300</v>
+        <v>-334800</v>
       </c>
       <c r="G29" s="3">
-        <v>-128500</v>
+        <v>-130600</v>
       </c>
       <c r="H29" s="3">
-        <v>-52700</v>
+        <v>-53600</v>
       </c>
       <c r="I29" s="3">
-        <v>-32100</v>
+        <v>-32600</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>17</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-175100</v>
+        <v>-178000</v>
       </c>
       <c r="E32" s="3">
-        <v>-463800</v>
+        <v>-471500</v>
       </c>
       <c r="F32" s="3">
-        <v>-217900</v>
+        <v>-221600</v>
       </c>
       <c r="G32" s="3">
-        <v>-144200</v>
+        <v>-146700</v>
       </c>
       <c r="H32" s="3">
-        <v>-199700</v>
+        <v>-203100</v>
       </c>
       <c r="I32" s="3">
-        <v>-131800</v>
+        <v>-134000</v>
       </c>
       <c r="J32" s="3">
-        <v>-109800</v>
+        <v>-111600</v>
       </c>
       <c r="K32" s="3">
         <v>-97100</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1857400</v>
+        <v>1888500</v>
       </c>
       <c r="E33" s="3">
-        <v>3270200</v>
+        <v>3324900</v>
       </c>
       <c r="F33" s="3">
-        <v>947300</v>
+        <v>963200</v>
       </c>
       <c r="G33" s="3">
-        <v>1648800</v>
+        <v>1676400</v>
       </c>
       <c r="H33" s="3">
-        <v>1786900</v>
+        <v>1816800</v>
       </c>
       <c r="I33" s="3">
-        <v>1037100</v>
+        <v>1054400</v>
       </c>
       <c r="J33" s="3">
-        <v>732400</v>
+        <v>744700</v>
       </c>
       <c r="K33" s="3">
         <v>678900</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1857400</v>
+        <v>1888500</v>
       </c>
       <c r="E35" s="3">
-        <v>3270200</v>
+        <v>3324900</v>
       </c>
       <c r="F35" s="3">
-        <v>947300</v>
+        <v>963200</v>
       </c>
       <c r="G35" s="3">
-        <v>1648800</v>
+        <v>1676400</v>
       </c>
       <c r="H35" s="3">
-        <v>1786900</v>
+        <v>1816800</v>
       </c>
       <c r="I35" s="3">
-        <v>1037100</v>
+        <v>1054400</v>
       </c>
       <c r="J35" s="3">
-        <v>732400</v>
+        <v>744700</v>
       </c>
       <c r="K35" s="3">
         <v>678900</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1403900</v>
+        <v>1427400</v>
       </c>
       <c r="E41" s="3">
-        <v>499900</v>
+        <v>508300</v>
       </c>
       <c r="F41" s="3">
-        <v>768100</v>
+        <v>781000</v>
       </c>
       <c r="G41" s="3">
-        <v>425600</v>
+        <v>432800</v>
       </c>
       <c r="H41" s="3">
-        <v>837600</v>
+        <v>851600</v>
       </c>
       <c r="I41" s="3">
-        <v>934900</v>
+        <v>950600</v>
       </c>
       <c r="J41" s="3">
-        <v>311300</v>
+        <v>316500</v>
       </c>
       <c r="K41" s="3">
         <v>222800</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>12988600</v>
+        <v>13206200</v>
       </c>
       <c r="E42" s="3">
-        <v>10593800</v>
+        <v>10771300</v>
       </c>
       <c r="F42" s="3">
-        <v>6863700</v>
+        <v>6978700</v>
       </c>
       <c r="G42" s="3">
-        <v>6212500</v>
+        <v>6316600</v>
       </c>
       <c r="H42" s="3">
-        <v>4764600</v>
+        <v>4844500</v>
       </c>
       <c r="I42" s="3">
-        <v>3019100</v>
+        <v>3069600</v>
       </c>
       <c r="J42" s="3">
-        <v>3165100</v>
+        <v>3218100</v>
       </c>
       <c r="K42" s="3">
         <v>2677700</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1041900</v>
+        <v>1059400</v>
       </c>
       <c r="E43" s="3">
-        <v>742400</v>
+        <v>754800</v>
       </c>
       <c r="F43" s="3">
-        <v>1434100</v>
+        <v>1458100</v>
       </c>
       <c r="G43" s="3">
-        <v>686900</v>
+        <v>698400</v>
       </c>
       <c r="H43" s="3">
-        <v>1392900</v>
+        <v>1416300</v>
       </c>
       <c r="I43" s="3">
-        <v>453600</v>
+        <v>461200</v>
       </c>
       <c r="J43" s="3">
-        <v>194400</v>
+        <v>197700</v>
       </c>
       <c r="K43" s="3">
         <v>104500</v>
@@ -1846,22 +1846,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>95700</v>
+        <v>97300</v>
       </c>
       <c r="E44" s="3">
-        <v>100200</v>
+        <v>101900</v>
       </c>
       <c r="F44" s="3">
-        <v>164100</v>
+        <v>166800</v>
       </c>
       <c r="G44" s="3">
-        <v>843000</v>
+        <v>857200</v>
       </c>
       <c r="H44" s="3">
-        <v>243000</v>
+        <v>247100</v>
       </c>
       <c r="I44" s="3">
-        <v>125900</v>
+        <v>128000</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>17</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1073800</v>
+        <v>1091800</v>
       </c>
       <c r="E45" s="3">
-        <v>1168300</v>
+        <v>1187900</v>
       </c>
       <c r="F45" s="3">
-        <v>2723800</v>
+        <v>2769400</v>
       </c>
       <c r="G45" s="3">
-        <v>1370700</v>
+        <v>1393600</v>
       </c>
       <c r="H45" s="3">
-        <v>1915500</v>
+        <v>1947600</v>
       </c>
       <c r="I45" s="3">
-        <v>764900</v>
+        <v>777700</v>
       </c>
       <c r="J45" s="3">
-        <v>599500</v>
+        <v>609600</v>
       </c>
       <c r="K45" s="3">
         <v>478000</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16603800</v>
+        <v>16882000</v>
       </c>
       <c r="E46" s="3">
-        <v>13104500</v>
+        <v>13324000</v>
       </c>
       <c r="F46" s="3">
-        <v>10580800</v>
+        <v>10758100</v>
       </c>
       <c r="G46" s="3">
-        <v>9538700</v>
+        <v>9698500</v>
       </c>
       <c r="H46" s="3">
-        <v>7604100</v>
+        <v>7731500</v>
       </c>
       <c r="I46" s="3">
-        <v>5298300</v>
+        <v>5387100</v>
       </c>
       <c r="J46" s="3">
-        <v>4270300</v>
+        <v>4341800</v>
       </c>
       <c r="K46" s="3">
         <v>3483000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2854700</v>
+        <v>2902500</v>
       </c>
       <c r="E47" s="3">
-        <v>2040800</v>
+        <v>2075000</v>
       </c>
       <c r="F47" s="3">
-        <v>823200</v>
+        <v>837000</v>
       </c>
       <c r="G47" s="3">
-        <v>428800</v>
+        <v>436000</v>
       </c>
       <c r="H47" s="3">
-        <v>388000</v>
+        <v>394500</v>
       </c>
       <c r="I47" s="3">
-        <v>442600</v>
+        <v>450100</v>
       </c>
       <c r="J47" s="3">
-        <v>161800</v>
+        <v>164500</v>
       </c>
       <c r="K47" s="3">
         <v>117000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1463900</v>
+        <v>1488400</v>
       </c>
       <c r="E48" s="3">
-        <v>1353900</v>
+        <v>1376600</v>
       </c>
       <c r="F48" s="3">
-        <v>2051500</v>
+        <v>2085900</v>
       </c>
       <c r="G48" s="3">
-        <v>671800</v>
+        <v>683000</v>
       </c>
       <c r="H48" s="3">
-        <v>835800</v>
+        <v>849800</v>
       </c>
       <c r="I48" s="3">
-        <v>358900</v>
+        <v>364900</v>
       </c>
       <c r="J48" s="3">
-        <v>209200</v>
+        <v>212700</v>
       </c>
       <c r="K48" s="3">
         <v>133200</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>684300</v>
+        <v>695800</v>
       </c>
       <c r="E49" s="3">
-        <v>560400</v>
+        <v>569800</v>
       </c>
       <c r="F49" s="3">
-        <v>379600</v>
+        <v>385900</v>
       </c>
       <c r="G49" s="3">
-        <v>126300</v>
+        <v>128400</v>
       </c>
       <c r="H49" s="3">
-        <v>39100</v>
+        <v>39800</v>
       </c>
       <c r="I49" s="3">
-        <v>29400</v>
+        <v>29900</v>
       </c>
       <c r="J49" s="3">
-        <v>16600</v>
+        <v>16900</v>
       </c>
       <c r="K49" s="3">
         <v>1900</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>239200</v>
+        <v>243200</v>
       </c>
       <c r="E52" s="3">
-        <v>205400</v>
+        <v>208900</v>
       </c>
       <c r="F52" s="3">
-        <v>1648100</v>
+        <v>1675700</v>
       </c>
       <c r="G52" s="3">
-        <v>171800</v>
+        <v>174700</v>
       </c>
       <c r="H52" s="3">
-        <v>821600</v>
+        <v>835400</v>
       </c>
       <c r="I52" s="3">
-        <v>208200</v>
+        <v>211700</v>
       </c>
       <c r="J52" s="3">
-        <v>16100</v>
+        <v>16400</v>
       </c>
       <c r="K52" s="3">
         <v>14900</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21845800</v>
+        <v>22211900</v>
       </c>
       <c r="E54" s="3">
-        <v>17264900</v>
+        <v>17554200</v>
       </c>
       <c r="F54" s="3">
-        <v>13391300</v>
+        <v>13615700</v>
       </c>
       <c r="G54" s="3">
-        <v>10937400</v>
+        <v>11120700</v>
       </c>
       <c r="H54" s="3">
-        <v>8935700</v>
+        <v>9085500</v>
       </c>
       <c r="I54" s="3">
-        <v>6337400</v>
+        <v>6443600</v>
       </c>
       <c r="J54" s="3">
-        <v>4674000</v>
+        <v>4752300</v>
       </c>
       <c r="K54" s="3">
         <v>3750200</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>174700</v>
+        <v>177600</v>
       </c>
       <c r="E57" s="3">
-        <v>186700</v>
+        <v>189800</v>
       </c>
       <c r="F57" s="3">
-        <v>185000</v>
+        <v>188100</v>
       </c>
       <c r="G57" s="3">
-        <v>376100</v>
+        <v>382400</v>
       </c>
       <c r="H57" s="3">
-        <v>215000</v>
+        <v>218600</v>
       </c>
       <c r="I57" s="3">
-        <v>107900</v>
+        <v>109700</v>
       </c>
       <c r="J57" s="3">
-        <v>63200</v>
+        <v>64300</v>
       </c>
       <c r="K57" s="3">
         <v>33500</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3003300</v>
+        <v>3053700</v>
       </c>
       <c r="E58" s="3">
-        <v>2591200</v>
+        <v>2634600</v>
       </c>
       <c r="F58" s="3">
-        <v>2103100</v>
+        <v>2138400</v>
       </c>
       <c r="G58" s="3">
-        <v>1019900</v>
+        <v>1037000</v>
       </c>
       <c r="H58" s="3">
-        <v>587500</v>
+        <v>597400</v>
       </c>
       <c r="I58" s="3">
-        <v>350000</v>
+        <v>355800</v>
       </c>
       <c r="J58" s="3">
-        <v>315600</v>
+        <v>320900</v>
       </c>
       <c r="K58" s="3">
         <v>149000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4019600</v>
+        <v>4086900</v>
       </c>
       <c r="E59" s="3">
-        <v>3110800</v>
+        <v>3162900</v>
       </c>
       <c r="F59" s="3">
-        <v>4018500</v>
+        <v>4085800</v>
       </c>
       <c r="G59" s="3">
-        <v>2261100</v>
+        <v>2298900</v>
       </c>
       <c r="H59" s="3">
-        <v>2701200</v>
+        <v>2746500</v>
       </c>
       <c r="I59" s="3">
-        <v>1338700</v>
+        <v>1361100</v>
       </c>
       <c r="J59" s="3">
-        <v>661500</v>
+        <v>672600</v>
       </c>
       <c r="K59" s="3">
         <v>464200</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7197600</v>
+        <v>7318200</v>
       </c>
       <c r="E60" s="3">
-        <v>5888700</v>
+        <v>5987300</v>
       </c>
       <c r="F60" s="3">
-        <v>5406100</v>
+        <v>5496700</v>
       </c>
       <c r="G60" s="3">
-        <v>3657000</v>
+        <v>3718300</v>
       </c>
       <c r="H60" s="3">
-        <v>2952800</v>
+        <v>3002300</v>
       </c>
       <c r="I60" s="3">
-        <v>1796500</v>
+        <v>1826700</v>
       </c>
       <c r="J60" s="3">
-        <v>1040400</v>
+        <v>1057800</v>
       </c>
       <c r="K60" s="3">
         <v>646700</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>205900</v>
+        <v>209300</v>
       </c>
       <c r="E62" s="3">
-        <v>129200</v>
+        <v>131300</v>
       </c>
       <c r="F62" s="3">
-        <v>68000</v>
+        <v>69100</v>
       </c>
       <c r="G62" s="3">
-        <v>35600</v>
+        <v>36200</v>
       </c>
       <c r="H62" s="3">
-        <v>60400</v>
+        <v>61400</v>
       </c>
       <c r="I62" s="3">
-        <v>25600</v>
+        <v>26100</v>
       </c>
       <c r="J62" s="3">
-        <v>16400</v>
+        <v>16700</v>
       </c>
       <c r="K62" s="3">
         <v>22100</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9200000</v>
+        <v>9354100</v>
       </c>
       <c r="E66" s="3">
-        <v>7802300</v>
+        <v>7933000</v>
       </c>
       <c r="F66" s="3">
-        <v>6426600</v>
+        <v>6534200</v>
       </c>
       <c r="G66" s="3">
-        <v>3895600</v>
+        <v>3960900</v>
       </c>
       <c r="H66" s="3">
-        <v>3055100</v>
+        <v>3106300</v>
       </c>
       <c r="I66" s="3">
-        <v>1835000</v>
+        <v>1865800</v>
       </c>
       <c r="J66" s="3">
-        <v>1072400</v>
+        <v>1090300</v>
       </c>
       <c r="K66" s="3">
         <v>657100</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10068900</v>
+        <v>10237600</v>
       </c>
       <c r="E72" s="3">
-        <v>8870600</v>
+        <v>9019200</v>
       </c>
       <c r="F72" s="3">
-        <v>6961700</v>
+        <v>7078400</v>
       </c>
       <c r="G72" s="3">
-        <v>6765800</v>
+        <v>6879100</v>
       </c>
       <c r="H72" s="3">
-        <v>5618600</v>
+        <v>5712700</v>
       </c>
       <c r="I72" s="3">
-        <v>4223800</v>
+        <v>4294500</v>
       </c>
       <c r="J72" s="3">
-        <v>3268100</v>
+        <v>3322800</v>
       </c>
       <c r="K72" s="3">
         <v>2827800</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12645900</v>
+        <v>12857800</v>
       </c>
       <c r="E76" s="3">
-        <v>9462600</v>
+        <v>9621200</v>
       </c>
       <c r="F76" s="3">
-        <v>6964800</v>
+        <v>7081500</v>
       </c>
       <c r="G76" s="3">
-        <v>7041800</v>
+        <v>7159800</v>
       </c>
       <c r="H76" s="3">
-        <v>5880700</v>
+        <v>5979200</v>
       </c>
       <c r="I76" s="3">
-        <v>4502400</v>
+        <v>4577800</v>
       </c>
       <c r="J76" s="3">
-        <v>3601600</v>
+        <v>3662000</v>
       </c>
       <c r="K76" s="3">
         <v>3093100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1857400</v>
+        <v>1888500</v>
       </c>
       <c r="E81" s="3">
-        <v>3270200</v>
+        <v>3324900</v>
       </c>
       <c r="F81" s="3">
-        <v>947300</v>
+        <v>963200</v>
       </c>
       <c r="G81" s="3">
-        <v>1648800</v>
+        <v>1676400</v>
       </c>
       <c r="H81" s="3">
-        <v>1786900</v>
+        <v>1816800</v>
       </c>
       <c r="I81" s="3">
-        <v>1037100</v>
+        <v>1054400</v>
       </c>
       <c r="J81" s="3">
-        <v>732400</v>
+        <v>744700</v>
       </c>
       <c r="K81" s="3">
         <v>678900</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>532400</v>
+        <v>541400</v>
       </c>
       <c r="E83" s="3">
-        <v>402500</v>
+        <v>409200</v>
       </c>
       <c r="F83" s="3">
-        <v>320800</v>
+        <v>326200</v>
       </c>
       <c r="G83" s="3">
-        <v>123500</v>
+        <v>125500</v>
       </c>
       <c r="H83" s="3">
-        <v>50400</v>
+        <v>51300</v>
       </c>
       <c r="I83" s="3">
-        <v>28100</v>
+        <v>28600</v>
       </c>
       <c r="J83" s="3">
-        <v>26900</v>
+        <v>27300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>17</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3832300</v>
+        <v>3896500</v>
       </c>
       <c r="E89" s="3">
-        <v>2651000</v>
+        <v>2695400</v>
       </c>
       <c r="F89" s="3">
-        <v>2065800</v>
+        <v>2100400</v>
       </c>
       <c r="G89" s="3">
-        <v>1830700</v>
+        <v>1861400</v>
       </c>
       <c r="H89" s="3">
-        <v>2384900</v>
+        <v>2424800</v>
       </c>
       <c r="I89" s="3">
-        <v>1243700</v>
+        <v>1264500</v>
       </c>
       <c r="J89" s="3">
-        <v>904300</v>
+        <v>919500</v>
       </c>
       <c r="K89" s="3">
         <v>799900</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-162500</v>
+        <v>-165300</v>
       </c>
       <c r="E91" s="3">
-        <v>-186200</v>
+        <v>-189400</v>
       </c>
       <c r="F91" s="3">
-        <v>-389300</v>
+        <v>-395800</v>
       </c>
       <c r="G91" s="3">
-        <v>-283800</v>
+        <v>-288500</v>
       </c>
       <c r="H91" s="3">
-        <v>-174800</v>
+        <v>-177800</v>
       </c>
       <c r="I91" s="3">
-        <v>-133400</v>
+        <v>-135600</v>
       </c>
       <c r="J91" s="3">
-        <v>-82700</v>
+        <v>-84100</v>
       </c>
       <c r="K91" s="3">
         <v>-33400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4495000</v>
+        <v>-4570400</v>
       </c>
       <c r="E94" s="3">
-        <v>-3408600</v>
+        <v>-3465700</v>
       </c>
       <c r="F94" s="3">
-        <v>-2089400</v>
+        <v>-2124400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1979500</v>
+        <v>-2012600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1826400</v>
+        <v>-1857000</v>
       </c>
       <c r="I94" s="3">
-        <v>-390600</v>
+        <v>-397100</v>
       </c>
       <c r="J94" s="3">
-        <v>-696000</v>
+        <v>-707700</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>17</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-659100</v>
+        <v>-670100</v>
       </c>
       <c r="E96" s="3">
-        <v>-1361300</v>
+        <v>-1384100</v>
       </c>
       <c r="F96" s="3">
-        <v>-221800</v>
+        <v>-225500</v>
       </c>
       <c r="G96" s="3">
-        <v>-501600</v>
+        <v>-510000</v>
       </c>
       <c r="H96" s="3">
-        <v>-392100</v>
+        <v>-398600</v>
       </c>
       <c r="I96" s="3">
-        <v>-226000</v>
+        <v>-229800</v>
       </c>
       <c r="J96" s="3">
-        <v>-305300</v>
+        <v>-310500</v>
       </c>
       <c r="K96" s="3">
         <v>-124600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1526400</v>
+        <v>1552000</v>
       </c>
       <c r="E100" s="3">
-        <v>166700</v>
+        <v>169500</v>
       </c>
       <c r="F100" s="3">
-        <v>244400</v>
+        <v>248500</v>
       </c>
       <c r="G100" s="3">
-        <v>-200600</v>
+        <v>-204000</v>
       </c>
       <c r="H100" s="3">
-        <v>-346500</v>
+        <v>-352300</v>
       </c>
       <c r="I100" s="3">
-        <v>-251400</v>
+        <v>-255600</v>
       </c>
       <c r="J100" s="3">
-        <v>-119900</v>
+        <v>-121900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>17</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>24900</v>
+        <v>25300</v>
       </c>
       <c r="E101" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="F101" s="3">
-        <v>12600</v>
+        <v>12800</v>
       </c>
       <c r="G101" s="3">
         <v>-2000</v>
       </c>
       <c r="H101" s="3">
-        <v>20400</v>
+        <v>20700</v>
       </c>
       <c r="I101" s="3">
-        <v>21900</v>
+        <v>22300</v>
       </c>
       <c r="J101" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>17</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>888600</v>
+        <v>903500</v>
       </c>
       <c r="E102" s="3">
-        <v>-586500</v>
+        <v>-596300</v>
       </c>
       <c r="F102" s="3">
-        <v>233300</v>
+        <v>237200</v>
       </c>
       <c r="G102" s="3">
-        <v>-351300</v>
+        <v>-357200</v>
       </c>
       <c r="H102" s="3">
-        <v>232300</v>
+        <v>236200</v>
       </c>
       <c r="I102" s="3">
-        <v>623600</v>
+        <v>634100</v>
       </c>
       <c r="J102" s="3">
-        <v>86700</v>
+        <v>88200</v>
       </c>
       <c r="K102" s="3">
         <v>-20200</v>

--- a/AAII_Financials/Yearly/NTES_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NTES_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>NTES</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11533300</v>
+        <v>11621700</v>
       </c>
       <c r="E8" s="3">
-        <v>9274800</v>
+        <v>9345900</v>
       </c>
       <c r="F8" s="3">
-        <v>8012500</v>
+        <v>8073900</v>
       </c>
       <c r="G8" s="3">
-        <v>6957100</v>
+        <v>7010400</v>
       </c>
       <c r="H8" s="3">
-        <v>5322200</v>
+        <v>5363000</v>
       </c>
       <c r="I8" s="3">
-        <v>3395400</v>
+        <v>3421400</v>
       </c>
       <c r="J8" s="3">
-        <v>1833800</v>
+        <v>1847800</v>
       </c>
       <c r="K8" s="3">
         <v>1405000</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5430100</v>
+        <v>5471700</v>
       </c>
       <c r="E9" s="3">
-        <v>4334500</v>
+        <v>4367700</v>
       </c>
       <c r="F9" s="3">
-        <v>3731200</v>
+        <v>3759800</v>
       </c>
       <c r="G9" s="3">
-        <v>3036400</v>
+        <v>3059600</v>
       </c>
       <c r="H9" s="3">
-        <v>4594900</v>
+        <v>4630100</v>
       </c>
       <c r="I9" s="3">
-        <v>2778600</v>
+        <v>2799900</v>
       </c>
       <c r="J9" s="3">
-        <v>510600</v>
+        <v>514500</v>
       </c>
       <c r="K9" s="3">
         <v>378700</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6103200</v>
+        <v>6150000</v>
       </c>
       <c r="E10" s="3">
-        <v>4940300</v>
+        <v>4978200</v>
       </c>
       <c r="F10" s="3">
-        <v>4281300</v>
+        <v>4314100</v>
       </c>
       <c r="G10" s="3">
-        <v>3920700</v>
+        <v>3950800</v>
       </c>
       <c r="H10" s="3">
-        <v>727200</v>
+        <v>732800</v>
       </c>
       <c r="I10" s="3">
-        <v>616800</v>
+        <v>621500</v>
       </c>
       <c r="J10" s="3">
-        <v>1323100</v>
+        <v>1333300</v>
       </c>
       <c r="K10" s="3">
         <v>1026300</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1623400</v>
+        <v>1635900</v>
       </c>
       <c r="E12" s="3">
-        <v>1317200</v>
+        <v>1327300</v>
       </c>
       <c r="F12" s="3">
-        <v>1155200</v>
+        <v>1164000</v>
       </c>
       <c r="G12" s="3">
-        <v>651600</v>
+        <v>656500</v>
       </c>
       <c r="H12" s="3">
-        <v>934200</v>
+        <v>941400</v>
       </c>
       <c r="I12" s="3">
-        <v>670200</v>
+        <v>675300</v>
       </c>
       <c r="J12" s="3">
-        <v>207200</v>
+        <v>208800</v>
       </c>
       <c r="K12" s="3">
         <v>140800</v>
@@ -916,7 +916,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>17</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>9265900</v>
+        <v>9336900</v>
       </c>
       <c r="E17" s="3">
-        <v>7115700</v>
+        <v>7170300</v>
       </c>
       <c r="F17" s="3">
-        <v>6450500</v>
+        <v>6499900</v>
       </c>
       <c r="G17" s="3">
-        <v>4922600</v>
+        <v>4960400</v>
       </c>
       <c r="H17" s="3">
-        <v>3291200</v>
+        <v>3316400</v>
       </c>
       <c r="I17" s="3">
-        <v>2226000</v>
+        <v>2243100</v>
       </c>
       <c r="J17" s="3">
-        <v>1087700</v>
+        <v>1096100</v>
       </c>
       <c r="K17" s="3">
         <v>740000</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2267400</v>
+        <v>2284800</v>
       </c>
       <c r="E18" s="3">
-        <v>2159100</v>
+        <v>2175600</v>
       </c>
       <c r="F18" s="3">
-        <v>1562100</v>
+        <v>1574000</v>
       </c>
       <c r="G18" s="3">
-        <v>2034500</v>
+        <v>2050100</v>
       </c>
       <c r="H18" s="3">
-        <v>2031000</v>
+        <v>2046600</v>
       </c>
       <c r="I18" s="3">
-        <v>1169400</v>
+        <v>1178300</v>
       </c>
       <c r="J18" s="3">
-        <v>746000</v>
+        <v>751700</v>
       </c>
       <c r="K18" s="3">
         <v>665000</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>178000</v>
+        <v>179400</v>
       </c>
       <c r="E20" s="3">
-        <v>471500</v>
+        <v>475100</v>
       </c>
       <c r="F20" s="3">
-        <v>221600</v>
+        <v>223300</v>
       </c>
       <c r="G20" s="3">
-        <v>146700</v>
+        <v>147800</v>
       </c>
       <c r="H20" s="3">
-        <v>203100</v>
+        <v>204600</v>
       </c>
       <c r="I20" s="3">
-        <v>134000</v>
+        <v>135100</v>
       </c>
       <c r="J20" s="3">
-        <v>111600</v>
+        <v>112500</v>
       </c>
       <c r="K20" s="3">
         <v>97100</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2986400</v>
+        <v>3011500</v>
       </c>
       <c r="E21" s="3">
-        <v>3039500</v>
+        <v>3064500</v>
       </c>
       <c r="F21" s="3">
-        <v>2109600</v>
+        <v>2127100</v>
       </c>
       <c r="G21" s="3">
-        <v>2306600</v>
+        <v>2324800</v>
       </c>
       <c r="H21" s="3">
-        <v>2285300</v>
+        <v>2303100</v>
       </c>
       <c r="I21" s="3">
-        <v>1332000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>884900</v>
+        <v>1342300</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>17</v>
@@ -1161,19 +1161,19 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>38800</v>
+        <v>39100</v>
       </c>
       <c r="E22" s="3">
-        <v>65600</v>
+        <v>66100</v>
       </c>
       <c r="F22" s="3">
-        <v>49500</v>
+        <v>49800</v>
       </c>
       <c r="G22" s="3">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="H22" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="I22" s="3">
         <v>3000</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2406700</v>
+        <v>2425100</v>
       </c>
       <c r="E23" s="3">
-        <v>2565000</v>
+        <v>2584600</v>
       </c>
       <c r="F23" s="3">
-        <v>1734200</v>
+        <v>1747500</v>
       </c>
       <c r="G23" s="3">
-        <v>2166700</v>
+        <v>2183300</v>
       </c>
       <c r="H23" s="3">
-        <v>2229000</v>
+        <v>2246100</v>
       </c>
       <c r="I23" s="3">
-        <v>1300400</v>
+        <v>1310400</v>
       </c>
       <c r="J23" s="3">
-        <v>854600</v>
+        <v>861100</v>
       </c>
       <c r="K23" s="3">
         <v>760200</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>476200</v>
+        <v>479900</v>
       </c>
       <c r="E24" s="3">
-        <v>456300</v>
+        <v>459800</v>
       </c>
       <c r="F24" s="3">
-        <v>385200</v>
+        <v>388200</v>
       </c>
       <c r="G24" s="3">
-        <v>337500</v>
+        <v>340100</v>
       </c>
       <c r="H24" s="3">
-        <v>329100</v>
+        <v>331700</v>
       </c>
       <c r="I24" s="3">
-        <v>197400</v>
+        <v>198900</v>
       </c>
       <c r="J24" s="3">
-        <v>103800</v>
+        <v>104600</v>
       </c>
       <c r="K24" s="3">
         <v>81100</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1930400</v>
+        <v>1945200</v>
       </c>
       <c r="E26" s="3">
-        <v>2108600</v>
+        <v>2124800</v>
       </c>
       <c r="F26" s="3">
-        <v>1348900</v>
+        <v>1359300</v>
       </c>
       <c r="G26" s="3">
-        <v>1829200</v>
+        <v>1843200</v>
       </c>
       <c r="H26" s="3">
-        <v>1899900</v>
+        <v>1914500</v>
       </c>
       <c r="I26" s="3">
-        <v>1103000</v>
+        <v>1111500</v>
       </c>
       <c r="J26" s="3">
-        <v>750800</v>
+        <v>756600</v>
       </c>
       <c r="K26" s="3">
         <v>679100</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1888500</v>
+        <v>1903000</v>
       </c>
       <c r="E27" s="3">
-        <v>2078300</v>
+        <v>2094300</v>
       </c>
       <c r="F27" s="3">
-        <v>1298100</v>
+        <v>1308000</v>
       </c>
       <c r="G27" s="3">
-        <v>1807100</v>
+        <v>1820900</v>
       </c>
       <c r="H27" s="3">
-        <v>1870400</v>
+        <v>1884800</v>
       </c>
       <c r="I27" s="3">
-        <v>1087100</v>
+        <v>1095400</v>
       </c>
       <c r="J27" s="3">
-        <v>744700</v>
+        <v>750400</v>
       </c>
       <c r="K27" s="3">
         <v>678900</v>
@@ -1416,19 +1416,19 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>1246600</v>
+        <v>1256200</v>
       </c>
       <c r="F29" s="3">
-        <v>-334800</v>
+        <v>-337400</v>
       </c>
       <c r="G29" s="3">
-        <v>-130600</v>
+        <v>-131600</v>
       </c>
       <c r="H29" s="3">
-        <v>-53600</v>
+        <v>-54000</v>
       </c>
       <c r="I29" s="3">
-        <v>-32600</v>
+        <v>-32900</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>17</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-178000</v>
+        <v>-179400</v>
       </c>
       <c r="E32" s="3">
-        <v>-471500</v>
+        <v>-475100</v>
       </c>
       <c r="F32" s="3">
-        <v>-221600</v>
+        <v>-223300</v>
       </c>
       <c r="G32" s="3">
-        <v>-146700</v>
+        <v>-147800</v>
       </c>
       <c r="H32" s="3">
-        <v>-203100</v>
+        <v>-204600</v>
       </c>
       <c r="I32" s="3">
-        <v>-134000</v>
+        <v>-135100</v>
       </c>
       <c r="J32" s="3">
-        <v>-111600</v>
+        <v>-112500</v>
       </c>
       <c r="K32" s="3">
         <v>-97100</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1888500</v>
+        <v>1903000</v>
       </c>
       <c r="E33" s="3">
-        <v>3324900</v>
+        <v>3350400</v>
       </c>
       <c r="F33" s="3">
-        <v>963200</v>
+        <v>970600</v>
       </c>
       <c r="G33" s="3">
-        <v>1676400</v>
+        <v>1689300</v>
       </c>
       <c r="H33" s="3">
-        <v>1816800</v>
+        <v>1830700</v>
       </c>
       <c r="I33" s="3">
-        <v>1054400</v>
+        <v>1062500</v>
       </c>
       <c r="J33" s="3">
-        <v>744700</v>
+        <v>750400</v>
       </c>
       <c r="K33" s="3">
         <v>678900</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1888500</v>
+        <v>1903000</v>
       </c>
       <c r="E35" s="3">
-        <v>3324900</v>
+        <v>3350400</v>
       </c>
       <c r="F35" s="3">
-        <v>963200</v>
+        <v>970600</v>
       </c>
       <c r="G35" s="3">
-        <v>1676400</v>
+        <v>1689300</v>
       </c>
       <c r="H35" s="3">
-        <v>1816800</v>
+        <v>1830700</v>
       </c>
       <c r="I35" s="3">
-        <v>1054400</v>
+        <v>1062500</v>
       </c>
       <c r="J35" s="3">
-        <v>744700</v>
+        <v>750400</v>
       </c>
       <c r="K35" s="3">
         <v>678900</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1427400</v>
+        <v>2287200</v>
       </c>
       <c r="E41" s="3">
-        <v>508300</v>
+        <v>1438300</v>
       </c>
       <c r="F41" s="3">
-        <v>781000</v>
+        <v>512100</v>
       </c>
       <c r="G41" s="3">
-        <v>432800</v>
+        <v>787000</v>
       </c>
       <c r="H41" s="3">
-        <v>851600</v>
+        <v>436100</v>
       </c>
       <c r="I41" s="3">
-        <v>950600</v>
+        <v>858100</v>
       </c>
       <c r="J41" s="3">
-        <v>316500</v>
+        <v>957800</v>
       </c>
       <c r="K41" s="3">
         <v>222800</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>13206200</v>
+        <v>13099800</v>
       </c>
       <c r="E42" s="3">
-        <v>10771300</v>
+        <v>13307400</v>
       </c>
       <c r="F42" s="3">
-        <v>6978700</v>
+        <v>10853800</v>
       </c>
       <c r="G42" s="3">
-        <v>6316600</v>
+        <v>7032200</v>
       </c>
       <c r="H42" s="3">
-        <v>4844500</v>
+        <v>6365000</v>
       </c>
       <c r="I42" s="3">
-        <v>3069600</v>
+        <v>4881600</v>
       </c>
       <c r="J42" s="3">
-        <v>3218100</v>
+        <v>3093200</v>
       </c>
       <c r="K42" s="3">
         <v>2677700</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1059400</v>
+        <v>868900</v>
       </c>
       <c r="E43" s="3">
-        <v>754800</v>
+        <v>1067500</v>
       </c>
       <c r="F43" s="3">
-        <v>1458100</v>
+        <v>760600</v>
       </c>
       <c r="G43" s="3">
-        <v>698400</v>
+        <v>1469300</v>
       </c>
       <c r="H43" s="3">
-        <v>1416300</v>
+        <v>703800</v>
       </c>
       <c r="I43" s="3">
-        <v>461200</v>
+        <v>1427100</v>
       </c>
       <c r="J43" s="3">
-        <v>197700</v>
+        <v>464700</v>
       </c>
       <c r="K43" s="3">
         <v>104500</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>97300</v>
+        <v>152200</v>
       </c>
       <c r="E44" s="3">
-        <v>101900</v>
+        <v>98000</v>
       </c>
       <c r="F44" s="3">
-        <v>166800</v>
+        <v>102600</v>
       </c>
       <c r="G44" s="3">
-        <v>857200</v>
+        <v>168100</v>
       </c>
       <c r="H44" s="3">
-        <v>247100</v>
+        <v>863700</v>
       </c>
       <c r="I44" s="3">
-        <v>128000</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>17</v>
+        <v>249000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>129000</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>17</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1091800</v>
+        <v>1437700</v>
       </c>
       <c r="E45" s="3">
-        <v>1187900</v>
+        <v>1100100</v>
       </c>
       <c r="F45" s="3">
-        <v>2769400</v>
+        <v>1197000</v>
       </c>
       <c r="G45" s="3">
-        <v>1393600</v>
+        <v>2790700</v>
       </c>
       <c r="H45" s="3">
-        <v>1947600</v>
+        <v>1404300</v>
       </c>
       <c r="I45" s="3">
-        <v>777700</v>
+        <v>1962500</v>
       </c>
       <c r="J45" s="3">
-        <v>609600</v>
+        <v>783600</v>
       </c>
       <c r="K45" s="3">
         <v>478000</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16882000</v>
+        <v>17845900</v>
       </c>
       <c r="E46" s="3">
-        <v>13324000</v>
+        <v>17011400</v>
       </c>
       <c r="F46" s="3">
-        <v>10758100</v>
+        <v>13426200</v>
       </c>
       <c r="G46" s="3">
-        <v>9698500</v>
+        <v>10840600</v>
       </c>
       <c r="H46" s="3">
-        <v>7731500</v>
+        <v>9772900</v>
       </c>
       <c r="I46" s="3">
-        <v>5387100</v>
+        <v>7790700</v>
       </c>
       <c r="J46" s="3">
-        <v>4341800</v>
+        <v>5428400</v>
       </c>
       <c r="K46" s="3">
         <v>3483000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2902500</v>
+        <v>918800</v>
       </c>
       <c r="E47" s="3">
-        <v>2075000</v>
+        <v>2924700</v>
       </c>
       <c r="F47" s="3">
-        <v>837000</v>
+        <v>2090900</v>
       </c>
       <c r="G47" s="3">
-        <v>436000</v>
+        <v>843400</v>
       </c>
       <c r="H47" s="3">
-        <v>394500</v>
+        <v>439300</v>
       </c>
       <c r="I47" s="3">
-        <v>450100</v>
+        <v>397600</v>
       </c>
       <c r="J47" s="3">
-        <v>164500</v>
+        <v>453500</v>
       </c>
       <c r="K47" s="3">
         <v>117000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1488400</v>
+        <v>1505300</v>
       </c>
       <c r="E48" s="3">
-        <v>1376600</v>
+        <v>1499800</v>
       </c>
       <c r="F48" s="3">
-        <v>2085900</v>
+        <v>1387100</v>
       </c>
       <c r="G48" s="3">
-        <v>683000</v>
+        <v>2101900</v>
       </c>
       <c r="H48" s="3">
-        <v>849800</v>
+        <v>688200</v>
       </c>
       <c r="I48" s="3">
-        <v>364900</v>
+        <v>856300</v>
       </c>
       <c r="J48" s="3">
-        <v>212700</v>
+        <v>367700</v>
       </c>
       <c r="K48" s="3">
         <v>133200</v>
@@ -2025,26 +2025,26 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>695800</v>
+      <c r="D49" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E49" s="3">
-        <v>569800</v>
+        <v>701100</v>
       </c>
       <c r="F49" s="3">
-        <v>385900</v>
+        <v>574100</v>
       </c>
       <c r="G49" s="3">
-        <v>128400</v>
+        <v>388900</v>
       </c>
       <c r="H49" s="3">
-        <v>39800</v>
+        <v>129400</v>
       </c>
       <c r="I49" s="3">
-        <v>29900</v>
+        <v>40100</v>
       </c>
       <c r="J49" s="3">
-        <v>16900</v>
+        <v>30100</v>
       </c>
       <c r="K49" s="3">
         <v>1900</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>243200</v>
+        <v>3968900</v>
       </c>
       <c r="E52" s="3">
-        <v>208900</v>
+        <v>245000</v>
       </c>
       <c r="F52" s="3">
-        <v>1675700</v>
+        <v>210500</v>
       </c>
       <c r="G52" s="3">
-        <v>174700</v>
+        <v>1688500</v>
       </c>
       <c r="H52" s="3">
-        <v>835400</v>
+        <v>176000</v>
       </c>
       <c r="I52" s="3">
-        <v>211700</v>
+        <v>841800</v>
       </c>
       <c r="J52" s="3">
-        <v>16400</v>
+        <v>213300</v>
       </c>
       <c r="K52" s="3">
         <v>14900</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22211900</v>
+        <v>24238900</v>
       </c>
       <c r="E54" s="3">
-        <v>17554200</v>
+        <v>22382100</v>
       </c>
       <c r="F54" s="3">
-        <v>13615700</v>
+        <v>17688700</v>
       </c>
       <c r="G54" s="3">
-        <v>11120700</v>
+        <v>13720100</v>
       </c>
       <c r="H54" s="3">
-        <v>9085500</v>
+        <v>11205900</v>
       </c>
       <c r="I54" s="3">
-        <v>6443600</v>
+        <v>9155100</v>
       </c>
       <c r="J54" s="3">
-        <v>4752300</v>
+        <v>6493000</v>
       </c>
       <c r="K54" s="3">
         <v>3750200</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>177600</v>
+        <v>155400</v>
       </c>
       <c r="E57" s="3">
-        <v>189800</v>
+        <v>179000</v>
       </c>
       <c r="F57" s="3">
-        <v>188100</v>
+        <v>191300</v>
       </c>
       <c r="G57" s="3">
-        <v>382400</v>
+        <v>189600</v>
       </c>
       <c r="H57" s="3">
-        <v>218600</v>
+        <v>385300</v>
       </c>
       <c r="I57" s="3">
-        <v>109700</v>
+        <v>220300</v>
       </c>
       <c r="J57" s="3">
-        <v>64300</v>
+        <v>110500</v>
       </c>
       <c r="K57" s="3">
         <v>33500</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3053700</v>
+        <v>3053000</v>
       </c>
       <c r="E58" s="3">
-        <v>2634600</v>
+        <v>3077100</v>
       </c>
       <c r="F58" s="3">
-        <v>2138400</v>
+        <v>2654800</v>
       </c>
       <c r="G58" s="3">
-        <v>1037000</v>
+        <v>2154800</v>
       </c>
       <c r="H58" s="3">
-        <v>597400</v>
+        <v>1044900</v>
       </c>
       <c r="I58" s="3">
-        <v>355800</v>
+        <v>602000</v>
       </c>
       <c r="J58" s="3">
-        <v>320900</v>
+        <v>358600</v>
       </c>
       <c r="K58" s="3">
         <v>149000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4086900</v>
+        <v>4758700</v>
       </c>
       <c r="E59" s="3">
-        <v>3162900</v>
+        <v>4118200</v>
       </c>
       <c r="F59" s="3">
-        <v>4085800</v>
+        <v>3187100</v>
       </c>
       <c r="G59" s="3">
-        <v>2298900</v>
+        <v>4117100</v>
       </c>
       <c r="H59" s="3">
-        <v>2746500</v>
+        <v>2316600</v>
       </c>
       <c r="I59" s="3">
-        <v>1361100</v>
+        <v>2767500</v>
       </c>
       <c r="J59" s="3">
-        <v>672600</v>
+        <v>1371600</v>
       </c>
       <c r="K59" s="3">
         <v>464200</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7318200</v>
+        <v>7967100</v>
       </c>
       <c r="E60" s="3">
-        <v>5987300</v>
+        <v>7374300</v>
       </c>
       <c r="F60" s="3">
-        <v>5496700</v>
+        <v>6033200</v>
       </c>
       <c r="G60" s="3">
-        <v>3718300</v>
+        <v>5538800</v>
       </c>
       <c r="H60" s="3">
-        <v>3002300</v>
+        <v>3746800</v>
       </c>
       <c r="I60" s="3">
-        <v>1826700</v>
+        <v>3025300</v>
       </c>
       <c r="J60" s="3">
-        <v>1057800</v>
+        <v>1840700</v>
       </c>
       <c r="K60" s="3">
         <v>646700</v>
@@ -2418,7 +2418,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>201200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>209300</v>
+        <v>385500</v>
       </c>
       <c r="E62" s="3">
-        <v>131300</v>
+        <v>211000</v>
       </c>
       <c r="F62" s="3">
-        <v>69100</v>
+        <v>132400</v>
       </c>
       <c r="G62" s="3">
-        <v>36200</v>
+        <v>69700</v>
       </c>
       <c r="H62" s="3">
-        <v>61400</v>
+        <v>36500</v>
       </c>
       <c r="I62" s="3">
-        <v>26100</v>
+        <v>61900</v>
       </c>
       <c r="J62" s="3">
-        <v>16700</v>
+        <v>26300</v>
       </c>
       <c r="K62" s="3">
         <v>22100</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9354100</v>
+        <v>9199900</v>
       </c>
       <c r="E66" s="3">
-        <v>7933000</v>
+        <v>9425800</v>
       </c>
       <c r="F66" s="3">
-        <v>6534200</v>
+        <v>7993800</v>
       </c>
       <c r="G66" s="3">
-        <v>3960900</v>
+        <v>6584300</v>
       </c>
       <c r="H66" s="3">
-        <v>3106300</v>
+        <v>3991200</v>
       </c>
       <c r="I66" s="3">
-        <v>1865800</v>
+        <v>3130100</v>
       </c>
       <c r="J66" s="3">
-        <v>1090300</v>
+        <v>1880100</v>
       </c>
       <c r="K66" s="3">
         <v>657100</v>
@@ -2793,26 +2793,26 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>10237600</v>
+      <c r="D72" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E72" s="3">
-        <v>9019200</v>
+        <v>10316100</v>
       </c>
       <c r="F72" s="3">
-        <v>7078400</v>
+        <v>9088400</v>
       </c>
       <c r="G72" s="3">
-        <v>6879100</v>
+        <v>7132600</v>
       </c>
       <c r="H72" s="3">
-        <v>5712700</v>
+        <v>6931900</v>
       </c>
       <c r="I72" s="3">
-        <v>4294500</v>
+        <v>5756500</v>
       </c>
       <c r="J72" s="3">
-        <v>3322800</v>
+        <v>4327500</v>
       </c>
       <c r="K72" s="3">
         <v>2827800</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12857800</v>
+        <v>15039000</v>
       </c>
       <c r="E76" s="3">
-        <v>9621200</v>
+        <v>12956300</v>
       </c>
       <c r="F76" s="3">
-        <v>7081500</v>
+        <v>9694900</v>
       </c>
       <c r="G76" s="3">
-        <v>7159800</v>
+        <v>7135700</v>
       </c>
       <c r="H76" s="3">
-        <v>5979200</v>
+        <v>7214700</v>
       </c>
       <c r="I76" s="3">
-        <v>4577800</v>
+        <v>6025000</v>
       </c>
       <c r="J76" s="3">
-        <v>3662000</v>
+        <v>4612900</v>
       </c>
       <c r="K76" s="3">
         <v>3093100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1888500</v>
+        <v>1903000</v>
       </c>
       <c r="E81" s="3">
-        <v>3324900</v>
+        <v>3350400</v>
       </c>
       <c r="F81" s="3">
-        <v>963200</v>
+        <v>970600</v>
       </c>
       <c r="G81" s="3">
-        <v>1676400</v>
+        <v>1689300</v>
       </c>
       <c r="H81" s="3">
-        <v>1816800</v>
+        <v>1830700</v>
       </c>
       <c r="I81" s="3">
-        <v>1054400</v>
+        <v>1062500</v>
       </c>
       <c r="J81" s="3">
-        <v>744700</v>
+        <v>750400</v>
       </c>
       <c r="K81" s="3">
         <v>678900</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>541400</v>
+        <v>545500</v>
       </c>
       <c r="E83" s="3">
-        <v>409200</v>
+        <v>412400</v>
       </c>
       <c r="F83" s="3">
-        <v>326200</v>
+        <v>328700</v>
       </c>
       <c r="G83" s="3">
-        <v>125500</v>
+        <v>126500</v>
       </c>
       <c r="H83" s="3">
-        <v>51300</v>
+        <v>51700</v>
       </c>
       <c r="I83" s="3">
-        <v>28600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>27300</v>
+        <v>28800</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>17</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3896500</v>
+        <v>3926400</v>
       </c>
       <c r="E89" s="3">
-        <v>2695400</v>
+        <v>2716100</v>
       </c>
       <c r="F89" s="3">
-        <v>2100400</v>
+        <v>2116500</v>
       </c>
       <c r="G89" s="3">
-        <v>1861400</v>
+        <v>1875600</v>
       </c>
       <c r="H89" s="3">
-        <v>2424800</v>
+        <v>2443400</v>
       </c>
       <c r="I89" s="3">
-        <v>1264500</v>
+        <v>1274200</v>
       </c>
       <c r="J89" s="3">
-        <v>919500</v>
+        <v>926500</v>
       </c>
       <c r="K89" s="3">
         <v>799900</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-165300</v>
+        <v>-166500</v>
       </c>
       <c r="E91" s="3">
-        <v>-189400</v>
+        <v>-190800</v>
       </c>
       <c r="F91" s="3">
-        <v>-395800</v>
+        <v>-398800</v>
       </c>
       <c r="G91" s="3">
-        <v>-288500</v>
+        <v>-290700</v>
       </c>
       <c r="H91" s="3">
-        <v>-177800</v>
+        <v>-179100</v>
       </c>
       <c r="I91" s="3">
-        <v>-135600</v>
+        <v>-136700</v>
       </c>
       <c r="J91" s="3">
-        <v>-84100</v>
+        <v>-84800</v>
       </c>
       <c r="K91" s="3">
         <v>-33400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4570400</v>
+        <v>-4605400</v>
       </c>
       <c r="E94" s="3">
-        <v>-3465700</v>
+        <v>-3492300</v>
       </c>
       <c r="F94" s="3">
-        <v>-2124400</v>
+        <v>-2140700</v>
       </c>
       <c r="G94" s="3">
-        <v>-2012600</v>
+        <v>-2028000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1857000</v>
+        <v>-1871300</v>
       </c>
       <c r="I94" s="3">
-        <v>-397100</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-707700</v>
+        <v>-400200</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>17</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-670100</v>
+        <v>-675300</v>
       </c>
       <c r="E96" s="3">
-        <v>-1384100</v>
+        <v>-1394700</v>
       </c>
       <c r="F96" s="3">
-        <v>-225500</v>
+        <v>-227200</v>
       </c>
       <c r="G96" s="3">
-        <v>-510000</v>
+        <v>-513900</v>
       </c>
       <c r="H96" s="3">
-        <v>-398600</v>
+        <v>-401700</v>
       </c>
       <c r="I96" s="3">
-        <v>-229800</v>
+        <v>-231600</v>
       </c>
       <c r="J96" s="3">
-        <v>-310500</v>
+        <v>-312800</v>
       </c>
       <c r="K96" s="3">
         <v>-124600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1552000</v>
+        <v>1563900</v>
       </c>
       <c r="E100" s="3">
-        <v>169500</v>
+        <v>170800</v>
       </c>
       <c r="F100" s="3">
-        <v>248500</v>
+        <v>250400</v>
       </c>
       <c r="G100" s="3">
-        <v>-204000</v>
+        <v>-205500</v>
       </c>
       <c r="H100" s="3">
-        <v>-352300</v>
+        <v>-355000</v>
       </c>
       <c r="I100" s="3">
-        <v>-255600</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-121900</v>
+        <v>-257600</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>17</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>25300</v>
+        <v>25500</v>
       </c>
       <c r="E101" s="3">
         <v>4600</v>
       </c>
       <c r="F101" s="3">
-        <v>12800</v>
+        <v>12900</v>
       </c>
       <c r="G101" s="3">
         <v>-2000</v>
       </c>
       <c r="H101" s="3">
-        <v>20700</v>
+        <v>20900</v>
       </c>
       <c r="I101" s="3">
-        <v>22300</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-1800</v>
+        <v>22500</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>17</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>903500</v>
+        <v>910400</v>
       </c>
       <c r="E102" s="3">
-        <v>-596300</v>
+        <v>-600900</v>
       </c>
       <c r="F102" s="3">
-        <v>237200</v>
+        <v>239100</v>
       </c>
       <c r="G102" s="3">
-        <v>-357200</v>
+        <v>-359900</v>
       </c>
       <c r="H102" s="3">
-        <v>236200</v>
+        <v>238000</v>
       </c>
       <c r="I102" s="3">
-        <v>634100</v>
+        <v>638900</v>
       </c>
       <c r="J102" s="3">
-        <v>88200</v>
+        <v>88800</v>
       </c>
       <c r="K102" s="3">
         <v>-20200</v>

--- a/AAII_Financials/Yearly/NTES_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NTES_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>NTES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11621700</v>
+        <v>12909600</v>
       </c>
       <c r="E8" s="3">
-        <v>9345900</v>
+        <v>10855600</v>
       </c>
       <c r="F8" s="3">
-        <v>8073900</v>
+        <v>8729800</v>
       </c>
       <c r="G8" s="3">
-        <v>7010400</v>
+        <v>7541700</v>
       </c>
       <c r="H8" s="3">
-        <v>5363000</v>
+        <v>6548300</v>
       </c>
       <c r="I8" s="3">
-        <v>3421400</v>
+        <v>5009400</v>
       </c>
       <c r="J8" s="3">
+        <v>3195900</v>
+      </c>
+      <c r="K8" s="3">
         <v>1847800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1405000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1176700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1082000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5471700</v>
+        <v>5988000</v>
       </c>
       <c r="E9" s="3">
-        <v>4367700</v>
+        <v>5111000</v>
       </c>
       <c r="F9" s="3">
-        <v>3759800</v>
+        <v>4079800</v>
       </c>
       <c r="G9" s="3">
-        <v>3059600</v>
+        <v>3511900</v>
       </c>
       <c r="H9" s="3">
-        <v>4630100</v>
+        <v>2857900</v>
       </c>
       <c r="I9" s="3">
-        <v>2799900</v>
+        <v>4324900</v>
       </c>
       <c r="J9" s="3">
+        <v>2615300</v>
+      </c>
+      <c r="K9" s="3">
         <v>514500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>378700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>369900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>352100</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6150000</v>
+        <v>6921600</v>
       </c>
       <c r="E10" s="3">
-        <v>4978200</v>
+        <v>5744600</v>
       </c>
       <c r="F10" s="3">
-        <v>4314100</v>
+        <v>4650000</v>
       </c>
       <c r="G10" s="3">
-        <v>3950800</v>
+        <v>4029700</v>
       </c>
       <c r="H10" s="3">
-        <v>732800</v>
+        <v>3690300</v>
       </c>
       <c r="I10" s="3">
-        <v>621500</v>
+        <v>684500</v>
       </c>
       <c r="J10" s="3">
+        <v>580500</v>
+      </c>
+      <c r="K10" s="3">
         <v>1333300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1026300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>806800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>729900</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,44 +850,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1635900</v>
+        <v>2074200</v>
       </c>
       <c r="E12" s="3">
-        <v>1327300</v>
+        <v>1528000</v>
       </c>
       <c r="F12" s="3">
-        <v>1164000</v>
+        <v>1239800</v>
       </c>
       <c r="G12" s="3">
-        <v>656500</v>
+        <v>1087300</v>
       </c>
       <c r="H12" s="3">
-        <v>941400</v>
+        <v>613300</v>
       </c>
       <c r="I12" s="3">
-        <v>675300</v>
+        <v>879300</v>
       </c>
       <c r="J12" s="3">
+        <v>630800</v>
+      </c>
+      <c r="K12" s="3">
         <v>208800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>140800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>103100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>69100</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,17 +925,20 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>8800</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>17</v>
+        <v>2800</v>
+      </c>
+      <c r="E14" s="3">
+        <v>8200</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>17</v>
@@ -936,8 +955,8 @@
       <c r="J14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -945,9 +964,12 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -981,9 +1003,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>9336900</v>
+        <v>10493200</v>
       </c>
       <c r="E17" s="3">
-        <v>7170300</v>
+        <v>8721400</v>
       </c>
       <c r="F17" s="3">
-        <v>6499900</v>
+        <v>6697600</v>
       </c>
       <c r="G17" s="3">
-        <v>4960400</v>
+        <v>6071400</v>
       </c>
       <c r="H17" s="3">
-        <v>3316400</v>
+        <v>4633400</v>
       </c>
       <c r="I17" s="3">
-        <v>2243100</v>
+        <v>3097800</v>
       </c>
       <c r="J17" s="3">
+        <v>2095200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1096100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>740000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>644100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>588800</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2284800</v>
+        <v>2416400</v>
       </c>
       <c r="E18" s="3">
-        <v>2175600</v>
+        <v>2134200</v>
       </c>
       <c r="F18" s="3">
-        <v>1574000</v>
+        <v>2032200</v>
       </c>
       <c r="G18" s="3">
-        <v>2050100</v>
+        <v>1470300</v>
       </c>
       <c r="H18" s="3">
-        <v>2046600</v>
+        <v>1914900</v>
       </c>
       <c r="I18" s="3">
-        <v>1178300</v>
+        <v>1911600</v>
       </c>
       <c r="J18" s="3">
+        <v>1100700</v>
+      </c>
+      <c r="K18" s="3">
         <v>751700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>665000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>532500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>493200</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>179400</v>
+        <v>721800</v>
       </c>
       <c r="E20" s="3">
-        <v>475100</v>
+        <v>167600</v>
       </c>
       <c r="F20" s="3">
-        <v>223300</v>
+        <v>443800</v>
       </c>
       <c r="G20" s="3">
-        <v>147800</v>
+        <v>208600</v>
       </c>
       <c r="H20" s="3">
-        <v>204600</v>
+        <v>138000</v>
       </c>
       <c r="I20" s="3">
-        <v>135100</v>
+        <v>191200</v>
       </c>
       <c r="J20" s="3">
+        <v>126200</v>
+      </c>
+      <c r="K20" s="3">
         <v>112500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>97100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>81300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>43400</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3011500</v>
+        <v>3625700</v>
       </c>
       <c r="E21" s="3">
-        <v>3064500</v>
+        <v>2816400</v>
       </c>
       <c r="F21" s="3">
-        <v>2127100</v>
+        <v>2865000</v>
       </c>
       <c r="G21" s="3">
-        <v>2324800</v>
+        <v>1988900</v>
       </c>
       <c r="H21" s="3">
-        <v>2303100</v>
+        <v>2172300</v>
       </c>
       <c r="I21" s="3">
-        <v>1342300</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>17</v>
+        <v>2151600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1254000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="3">
         <v>647300</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>39100</v>
+        <v>28200</v>
       </c>
       <c r="E22" s="3">
-        <v>66100</v>
+        <v>36500</v>
       </c>
       <c r="F22" s="3">
-        <v>49800</v>
+        <v>61800</v>
       </c>
       <c r="G22" s="3">
-        <v>14500</v>
+        <v>46600</v>
       </c>
       <c r="H22" s="3">
-        <v>5100</v>
+        <v>13600</v>
       </c>
       <c r="I22" s="3">
-        <v>3000</v>
+        <v>4700</v>
       </c>
       <c r="J22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K22" s="3">
         <v>3100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1900</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2425100</v>
+        <v>3110000</v>
       </c>
       <c r="E23" s="3">
-        <v>2584600</v>
+        <v>2265200</v>
       </c>
       <c r="F23" s="3">
-        <v>1747500</v>
+        <v>2414200</v>
       </c>
       <c r="G23" s="3">
-        <v>2183300</v>
+        <v>1632300</v>
       </c>
       <c r="H23" s="3">
-        <v>2246100</v>
+        <v>2039400</v>
       </c>
       <c r="I23" s="3">
-        <v>1310400</v>
+        <v>2098100</v>
       </c>
       <c r="J23" s="3">
+        <v>1224000</v>
+      </c>
+      <c r="K23" s="3">
         <v>861100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>760200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>613800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>536600</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>479900</v>
+        <v>608300</v>
       </c>
       <c r="E24" s="3">
-        <v>459800</v>
+        <v>448200</v>
       </c>
       <c r="F24" s="3">
-        <v>388200</v>
+        <v>429500</v>
       </c>
       <c r="G24" s="3">
-        <v>340100</v>
+        <v>362600</v>
       </c>
       <c r="H24" s="3">
-        <v>331700</v>
+        <v>317700</v>
       </c>
       <c r="I24" s="3">
-        <v>198900</v>
+        <v>309800</v>
       </c>
       <c r="J24" s="3">
+        <v>185800</v>
+      </c>
+      <c r="K24" s="3">
         <v>104600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>81100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>99200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>58300</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1945200</v>
+        <v>2501600</v>
       </c>
       <c r="E26" s="3">
-        <v>2124800</v>
+        <v>1817000</v>
       </c>
       <c r="F26" s="3">
-        <v>1359300</v>
+        <v>1984700</v>
       </c>
       <c r="G26" s="3">
-        <v>1843200</v>
+        <v>1269700</v>
       </c>
       <c r="H26" s="3">
-        <v>1914500</v>
+        <v>1721700</v>
       </c>
       <c r="I26" s="3">
-        <v>1111500</v>
+        <v>1788300</v>
       </c>
       <c r="J26" s="3">
+        <v>1038200</v>
+      </c>
+      <c r="K26" s="3">
         <v>756600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>679100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>514600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>478300</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1903000</v>
+        <v>2484000</v>
       </c>
       <c r="E27" s="3">
-        <v>2094300</v>
+        <v>1777600</v>
       </c>
       <c r="F27" s="3">
-        <v>1308000</v>
+        <v>1956200</v>
       </c>
       <c r="G27" s="3">
-        <v>1820900</v>
+        <v>1221800</v>
       </c>
       <c r="H27" s="3">
-        <v>1884800</v>
+        <v>1700900</v>
       </c>
       <c r="I27" s="3">
-        <v>1095400</v>
+        <v>1760500</v>
       </c>
       <c r="J27" s="3">
+        <v>1023200</v>
+      </c>
+      <c r="K27" s="3">
         <v>750400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>678900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>521900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>480000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1416,35 +1476,38 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>1256200</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-337400</v>
+        <v>1173400</v>
       </c>
       <c r="G29" s="3">
-        <v>-131600</v>
+        <v>-315200</v>
       </c>
       <c r="H29" s="3">
-        <v>-54000</v>
+        <v>-123000</v>
       </c>
       <c r="I29" s="3">
-        <v>-32900</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>17</v>
+        <v>-50500</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-30700</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-179400</v>
+        <v>-721800</v>
       </c>
       <c r="E32" s="3">
-        <v>-475100</v>
+        <v>-167600</v>
       </c>
       <c r="F32" s="3">
-        <v>-223300</v>
+        <v>-443800</v>
       </c>
       <c r="G32" s="3">
-        <v>-147800</v>
+        <v>-208600</v>
       </c>
       <c r="H32" s="3">
-        <v>-204600</v>
+        <v>-138000</v>
       </c>
       <c r="I32" s="3">
-        <v>-135100</v>
+        <v>-191200</v>
       </c>
       <c r="J32" s="3">
+        <v>-126200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-112500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-97100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-81300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-43400</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1903000</v>
+        <v>2484000</v>
       </c>
       <c r="E33" s="3">
-        <v>3350400</v>
+        <v>1777600</v>
       </c>
       <c r="F33" s="3">
-        <v>970600</v>
+        <v>3129600</v>
       </c>
       <c r="G33" s="3">
-        <v>1689300</v>
+        <v>906600</v>
       </c>
       <c r="H33" s="3">
-        <v>1830700</v>
+        <v>1577900</v>
       </c>
       <c r="I33" s="3">
-        <v>1062500</v>
+        <v>1710000</v>
       </c>
       <c r="J33" s="3">
+        <v>992500</v>
+      </c>
+      <c r="K33" s="3">
         <v>750400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>678900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>521900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>480000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1903000</v>
+        <v>2484000</v>
       </c>
       <c r="E35" s="3">
-        <v>3350400</v>
+        <v>1777600</v>
       </c>
       <c r="F35" s="3">
-        <v>970600</v>
+        <v>3129600</v>
       </c>
       <c r="G35" s="3">
-        <v>1689300</v>
+        <v>906600</v>
       </c>
       <c r="H35" s="3">
-        <v>1830700</v>
+        <v>1577900</v>
       </c>
       <c r="I35" s="3">
-        <v>1062500</v>
+        <v>1710000</v>
       </c>
       <c r="J35" s="3">
+        <v>992500</v>
+      </c>
+      <c r="K35" s="3">
         <v>750400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>678900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>521900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>480000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,142 +1817,152 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2287200</v>
+        <v>2136400</v>
       </c>
       <c r="E41" s="3">
-        <v>1438300</v>
+        <v>1343500</v>
       </c>
       <c r="F41" s="3">
-        <v>512100</v>
+        <v>478400</v>
       </c>
       <c r="G41" s="3">
-        <v>787000</v>
+        <v>735100</v>
       </c>
       <c r="H41" s="3">
-        <v>436100</v>
+        <v>407300</v>
       </c>
       <c r="I41" s="3">
-        <v>858100</v>
+        <v>801600</v>
       </c>
       <c r="J41" s="3">
+        <v>894700</v>
+      </c>
+      <c r="K41" s="3">
         <v>957800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>222800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>228200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>328700</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>13099800</v>
+        <v>12236200</v>
       </c>
       <c r="E42" s="3">
-        <v>13307400</v>
+        <v>12430200</v>
       </c>
       <c r="F42" s="3">
-        <v>10853800</v>
+        <v>10138300</v>
       </c>
       <c r="G42" s="3">
-        <v>7032200</v>
+        <v>6568600</v>
       </c>
       <c r="H42" s="3">
-        <v>6365000</v>
+        <v>5945400</v>
       </c>
       <c r="I42" s="3">
-        <v>4881600</v>
+        <v>4559800</v>
       </c>
       <c r="J42" s="3">
+        <v>2889300</v>
+      </c>
+      <c r="K42" s="3">
         <v>3093200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2677700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2033400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1587700</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>868900</v>
+        <v>1050900</v>
       </c>
       <c r="E43" s="3">
-        <v>1067500</v>
+        <v>987300</v>
       </c>
       <c r="F43" s="3">
-        <v>760600</v>
+        <v>706500</v>
       </c>
       <c r="G43" s="3">
-        <v>1469300</v>
+        <v>1323700</v>
       </c>
       <c r="H43" s="3">
-        <v>703800</v>
+        <v>607600</v>
       </c>
       <c r="I43" s="3">
-        <v>1427100</v>
+        <v>1307500</v>
       </c>
       <c r="J43" s="3">
+        <v>434100</v>
+      </c>
+      <c r="K43" s="3">
         <v>464700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>104500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>66300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>50800</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>152200</v>
+        <v>142200</v>
       </c>
       <c r="E44" s="3">
-        <v>98000</v>
+        <v>91500</v>
       </c>
       <c r="F44" s="3">
-        <v>102600</v>
+        <v>95900</v>
       </c>
       <c r="G44" s="3">
-        <v>168100</v>
+        <v>157000</v>
       </c>
       <c r="H44" s="3">
-        <v>863700</v>
+        <v>806800</v>
       </c>
       <c r="I44" s="3">
-        <v>249000</v>
+        <v>232600</v>
       </c>
       <c r="J44" s="3">
+        <v>120500</v>
+      </c>
+      <c r="K44" s="3">
         <v>129000</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>17</v>
@@ -1875,189 +1970,207 @@
       <c r="M44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1437700</v>
+        <v>1103600</v>
       </c>
       <c r="E45" s="3">
-        <v>1100100</v>
+        <v>1037500</v>
       </c>
       <c r="F45" s="3">
-        <v>1197000</v>
+        <v>1122000</v>
       </c>
       <c r="G45" s="3">
-        <v>2790700</v>
+        <v>2655500</v>
       </c>
       <c r="H45" s="3">
-        <v>1404300</v>
+        <v>1361500</v>
       </c>
       <c r="I45" s="3">
-        <v>1962500</v>
+        <v>1858700</v>
       </c>
       <c r="J45" s="3">
+        <v>732000</v>
+      </c>
+      <c r="K45" s="3">
         <v>783600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>478000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>235800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>180900</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17845900</v>
+        <v>16669400</v>
       </c>
       <c r="E46" s="3">
-        <v>17011400</v>
+        <v>15890000</v>
       </c>
       <c r="F46" s="3">
-        <v>13426200</v>
+        <v>12541100</v>
       </c>
       <c r="G46" s="3">
-        <v>10840600</v>
+        <v>10125900</v>
       </c>
       <c r="H46" s="3">
-        <v>9772900</v>
+        <v>9128600</v>
       </c>
       <c r="I46" s="3">
-        <v>7790700</v>
+        <v>7277100</v>
       </c>
       <c r="J46" s="3">
+        <v>5070500</v>
+      </c>
+      <c r="K46" s="3">
         <v>5428400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3483000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2563800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2148100</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>918800</v>
+        <v>3652400</v>
       </c>
       <c r="E47" s="3">
-        <v>2924700</v>
+        <v>2731900</v>
       </c>
       <c r="F47" s="3">
-        <v>2090900</v>
+        <v>1953000</v>
       </c>
       <c r="G47" s="3">
-        <v>843400</v>
+        <v>787800</v>
       </c>
       <c r="H47" s="3">
-        <v>439300</v>
+        <v>410400</v>
       </c>
       <c r="I47" s="3">
-        <v>397600</v>
+        <v>371400</v>
       </c>
       <c r="J47" s="3">
+        <v>423600</v>
+      </c>
+      <c r="K47" s="3">
         <v>453500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>117000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>75200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1505300</v>
+        <v>954600</v>
       </c>
       <c r="E48" s="3">
-        <v>1499800</v>
+        <v>785200</v>
       </c>
       <c r="F48" s="3">
-        <v>1387100</v>
+        <v>749400</v>
       </c>
       <c r="G48" s="3">
-        <v>2101900</v>
+        <v>1481200</v>
       </c>
       <c r="H48" s="3">
-        <v>688200</v>
+        <v>555400</v>
       </c>
       <c r="I48" s="3">
-        <v>856300</v>
+        <v>713100</v>
       </c>
       <c r="J48" s="3">
+        <v>308300</v>
+      </c>
+      <c r="K48" s="3">
         <v>367700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>133200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>116900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>125900</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>17</v>
+      <c r="D49" s="3">
+        <v>473400</v>
       </c>
       <c r="E49" s="3">
-        <v>701100</v>
+        <v>654900</v>
       </c>
       <c r="F49" s="3">
-        <v>574100</v>
+        <v>536300</v>
       </c>
       <c r="G49" s="3">
-        <v>388900</v>
+        <v>363200</v>
       </c>
       <c r="H49" s="3">
-        <v>129400</v>
+        <v>120900</v>
       </c>
       <c r="I49" s="3">
-        <v>40100</v>
+        <v>37400</v>
       </c>
       <c r="J49" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K49" s="3">
         <v>30100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3968900</v>
+        <v>891200</v>
       </c>
       <c r="E52" s="3">
-        <v>245000</v>
+        <v>844600</v>
       </c>
       <c r="F52" s="3">
-        <v>210500</v>
+        <v>742900</v>
       </c>
       <c r="G52" s="3">
-        <v>1688500</v>
+        <v>2059300</v>
       </c>
       <c r="H52" s="3">
-        <v>176000</v>
+        <v>251900</v>
       </c>
       <c r="I52" s="3">
-        <v>841800</v>
+        <v>873100</v>
       </c>
       <c r="J52" s="3">
+        <v>234400</v>
+      </c>
+      <c r="K52" s="3">
         <v>213300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7900</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>24238900</v>
+        <v>22641000</v>
       </c>
       <c r="E54" s="3">
-        <v>22382100</v>
+        <v>20906600</v>
       </c>
       <c r="F54" s="3">
-        <v>17688700</v>
+        <v>16522600</v>
       </c>
       <c r="G54" s="3">
-        <v>13720100</v>
+        <v>12815600</v>
       </c>
       <c r="H54" s="3">
-        <v>11205900</v>
+        <v>10467200</v>
       </c>
       <c r="I54" s="3">
-        <v>9155100</v>
+        <v>8551600</v>
       </c>
       <c r="J54" s="3">
+        <v>6065000</v>
+      </c>
+      <c r="K54" s="3">
         <v>6493000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3750200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2766000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2292200</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,157 +2397,170 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>155400</v>
+        <v>145200</v>
       </c>
       <c r="E57" s="3">
-        <v>179000</v>
+        <v>167200</v>
       </c>
       <c r="F57" s="3">
-        <v>191300</v>
+        <v>178600</v>
       </c>
       <c r="G57" s="3">
-        <v>189600</v>
+        <v>177100</v>
       </c>
       <c r="H57" s="3">
-        <v>385300</v>
+        <v>359900</v>
       </c>
       <c r="I57" s="3">
-        <v>220300</v>
+        <v>205700</v>
       </c>
       <c r="J57" s="3">
+        <v>103200</v>
+      </c>
+      <c r="K57" s="3">
         <v>110500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>33500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>22600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19900</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3053000</v>
+        <v>2851800</v>
       </c>
       <c r="E58" s="3">
-        <v>3077100</v>
+        <v>2874200</v>
       </c>
       <c r="F58" s="3">
-        <v>2654800</v>
+        <v>2479800</v>
       </c>
       <c r="G58" s="3">
-        <v>2154800</v>
+        <v>2012700</v>
       </c>
       <c r="H58" s="3">
-        <v>1044900</v>
+        <v>976000</v>
       </c>
       <c r="I58" s="3">
-        <v>602000</v>
+        <v>562300</v>
       </c>
       <c r="J58" s="3">
+        <v>334900</v>
+      </c>
+      <c r="K58" s="3">
         <v>358600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>149000</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4758700</v>
+        <v>4445000</v>
       </c>
       <c r="E59" s="3">
-        <v>4118200</v>
+        <v>3846700</v>
       </c>
       <c r="F59" s="3">
-        <v>3187100</v>
+        <v>2977000</v>
       </c>
       <c r="G59" s="3">
-        <v>4117100</v>
+        <v>3845700</v>
       </c>
       <c r="H59" s="3">
-        <v>2316600</v>
+        <v>2163800</v>
       </c>
       <c r="I59" s="3">
-        <v>2767500</v>
+        <v>2585100</v>
       </c>
       <c r="J59" s="3">
+        <v>1281200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1371600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>464200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>490500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>318800</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7967100</v>
+        <v>7441900</v>
       </c>
       <c r="E60" s="3">
-        <v>7374300</v>
+        <v>6888100</v>
       </c>
       <c r="F60" s="3">
-        <v>6033200</v>
+        <v>5635500</v>
       </c>
       <c r="G60" s="3">
-        <v>5538800</v>
+        <v>5173700</v>
       </c>
       <c r="H60" s="3">
-        <v>3746800</v>
+        <v>3499800</v>
       </c>
       <c r="I60" s="3">
-        <v>3025300</v>
+        <v>2825800</v>
       </c>
       <c r="J60" s="3">
+        <v>1719300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1840700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>646700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>513200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>338800</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>201200</v>
+        <v>187900</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2447,45 +2589,51 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>385500</v>
+        <v>360100</v>
       </c>
       <c r="E62" s="3">
-        <v>211000</v>
+        <v>197000</v>
       </c>
       <c r="F62" s="3">
-        <v>132400</v>
+        <v>123600</v>
       </c>
       <c r="G62" s="3">
-        <v>69700</v>
+        <v>65100</v>
       </c>
       <c r="H62" s="3">
-        <v>36500</v>
+        <v>34100</v>
       </c>
       <c r="I62" s="3">
-        <v>61900</v>
+        <v>57800</v>
       </c>
       <c r="J62" s="3">
+        <v>24500</v>
+      </c>
+      <c r="K62" s="3">
         <v>26300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>22100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9500</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9199900</v>
+        <v>8593400</v>
       </c>
       <c r="E66" s="3">
-        <v>9425800</v>
+        <v>8804400</v>
       </c>
       <c r="F66" s="3">
-        <v>7993800</v>
+        <v>7466800</v>
       </c>
       <c r="G66" s="3">
-        <v>6584300</v>
+        <v>6150300</v>
       </c>
       <c r="H66" s="3">
-        <v>3991200</v>
+        <v>3728100</v>
       </c>
       <c r="I66" s="3">
-        <v>3130100</v>
+        <v>2923700</v>
       </c>
       <c r="J66" s="3">
+        <v>1756100</v>
+      </c>
+      <c r="K66" s="3">
         <v>1880100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>657100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>516100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>344000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>17</v>
+      <c r="D72" s="3">
+        <v>11603100</v>
       </c>
       <c r="E72" s="3">
-        <v>10316100</v>
+        <v>9636000</v>
       </c>
       <c r="F72" s="3">
-        <v>9088400</v>
+        <v>8489200</v>
       </c>
       <c r="G72" s="3">
-        <v>7132600</v>
+        <v>6662400</v>
       </c>
       <c r="H72" s="3">
-        <v>6931900</v>
+        <v>6474900</v>
       </c>
       <c r="I72" s="3">
-        <v>5756500</v>
+        <v>5377000</v>
       </c>
       <c r="J72" s="3">
+        <v>4042200</v>
+      </c>
+      <c r="K72" s="3">
         <v>4327500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2827800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2053100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1728800</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15039000</v>
+        <v>14047500</v>
       </c>
       <c r="E76" s="3">
-        <v>12956300</v>
+        <v>12102200</v>
       </c>
       <c r="F76" s="3">
-        <v>9694900</v>
+        <v>9055800</v>
       </c>
       <c r="G76" s="3">
-        <v>7135700</v>
+        <v>6665300</v>
       </c>
       <c r="H76" s="3">
-        <v>7214700</v>
+        <v>6739100</v>
       </c>
       <c r="I76" s="3">
-        <v>6025000</v>
+        <v>5627800</v>
       </c>
       <c r="J76" s="3">
+        <v>4308800</v>
+      </c>
+      <c r="K76" s="3">
         <v>4612900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3093100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2249900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1948100</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1903000</v>
+        <v>2484000</v>
       </c>
       <c r="E81" s="3">
-        <v>3350400</v>
+        <v>1777600</v>
       </c>
       <c r="F81" s="3">
-        <v>970600</v>
+        <v>3129600</v>
       </c>
       <c r="G81" s="3">
-        <v>1689300</v>
+        <v>906600</v>
       </c>
       <c r="H81" s="3">
-        <v>1830700</v>
+        <v>1577900</v>
       </c>
       <c r="I81" s="3">
-        <v>1062500</v>
+        <v>1710000</v>
       </c>
       <c r="J81" s="3">
+        <v>992500</v>
+      </c>
+      <c r="K81" s="3">
         <v>750400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>678900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>521900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>480000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>545500</v>
+        <v>482700</v>
       </c>
       <c r="E83" s="3">
-        <v>412400</v>
+        <v>509500</v>
       </c>
       <c r="F83" s="3">
-        <v>328700</v>
+        <v>385200</v>
       </c>
       <c r="G83" s="3">
-        <v>126500</v>
+        <v>307000</v>
       </c>
       <c r="H83" s="3">
-        <v>51700</v>
+        <v>118200</v>
       </c>
       <c r="I83" s="3">
-        <v>28800</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>17</v>
+        <v>48300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>26900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M83" s="3">
         <v>33500</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3926400</v>
+        <v>3673200</v>
       </c>
       <c r="E89" s="3">
-        <v>2716100</v>
+        <v>3667500</v>
       </c>
       <c r="F89" s="3">
-        <v>2116500</v>
+        <v>2537000</v>
       </c>
       <c r="G89" s="3">
-        <v>1875600</v>
+        <v>1977000</v>
       </c>
       <c r="H89" s="3">
-        <v>2443400</v>
+        <v>1752000</v>
       </c>
       <c r="I89" s="3">
-        <v>1274200</v>
+        <v>2282400</v>
       </c>
       <c r="J89" s="3">
+        <v>1190200</v>
+      </c>
+      <c r="K89" s="3">
         <v>926500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>799900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>606100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>604500</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-166500</v>
+        <v>-236000</v>
       </c>
       <c r="E91" s="3">
-        <v>-190800</v>
+        <v>-155500</v>
       </c>
       <c r="F91" s="3">
-        <v>-398800</v>
+        <v>-178200</v>
       </c>
       <c r="G91" s="3">
-        <v>-290700</v>
+        <v>-372500</v>
       </c>
       <c r="H91" s="3">
-        <v>-179100</v>
+        <v>-271600</v>
       </c>
       <c r="I91" s="3">
-        <v>-136700</v>
+        <v>-167300</v>
       </c>
       <c r="J91" s="3">
+        <v>-127700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-84800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-33400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-60900</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4605400</v>
+        <v>-1043100</v>
       </c>
       <c r="E94" s="3">
-        <v>-3492300</v>
+        <v>-4301800</v>
       </c>
       <c r="F94" s="3">
-        <v>-2140700</v>
+        <v>-3262100</v>
       </c>
       <c r="G94" s="3">
-        <v>-2028000</v>
+        <v>-1999600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1871300</v>
+        <v>-1894400</v>
       </c>
       <c r="I94" s="3">
-        <v>-400200</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>17</v>
+        <v>-1747900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-373800</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M94" s="3">
         <v>-639100</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-675300</v>
+        <v>-517000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1394700</v>
+        <v>-630800</v>
       </c>
       <c r="F96" s="3">
-        <v>-227200</v>
+        <v>-1302800</v>
       </c>
       <c r="G96" s="3">
-        <v>-513900</v>
+        <v>-212200</v>
       </c>
       <c r="H96" s="3">
-        <v>-401700</v>
+        <v>-480000</v>
       </c>
       <c r="I96" s="3">
-        <v>-231600</v>
+        <v>-375200</v>
       </c>
       <c r="J96" s="3">
+        <v>-216300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-312800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-124600</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1563900</v>
+        <v>-1854600</v>
       </c>
       <c r="E100" s="3">
-        <v>170800</v>
+        <v>1460800</v>
       </c>
       <c r="F100" s="3">
-        <v>250400</v>
+        <v>159500</v>
       </c>
       <c r="G100" s="3">
-        <v>-205500</v>
+        <v>233900</v>
       </c>
       <c r="H100" s="3">
-        <v>-355000</v>
+        <v>-192000</v>
       </c>
       <c r="I100" s="3">
-        <v>-257600</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>17</v>
+        <v>-331600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-240600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M100" s="3">
         <v>-56000</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>25500</v>
+        <v>-8200</v>
       </c>
       <c r="E101" s="3">
-        <v>4600</v>
+        <v>23900</v>
       </c>
       <c r="F101" s="3">
-        <v>12900</v>
+        <v>4300</v>
       </c>
       <c r="G101" s="3">
-        <v>-2000</v>
+        <v>12000</v>
       </c>
       <c r="H101" s="3">
-        <v>20900</v>
+        <v>-1900</v>
       </c>
       <c r="I101" s="3">
-        <v>22500</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>17</v>
+        <v>19500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>21000</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M101" s="3">
         <v>-600</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="N101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>910400</v>
+        <v>767400</v>
       </c>
       <c r="E102" s="3">
-        <v>-600900</v>
+        <v>850400</v>
       </c>
       <c r="F102" s="3">
-        <v>239100</v>
+        <v>-561200</v>
       </c>
       <c r="G102" s="3">
-        <v>-359900</v>
+        <v>223300</v>
       </c>
       <c r="H102" s="3">
-        <v>238000</v>
+        <v>-336200</v>
       </c>
       <c r="I102" s="3">
-        <v>638900</v>
+        <v>222300</v>
       </c>
       <c r="J102" s="3">
+        <v>596800</v>
+      </c>
+      <c r="K102" s="3">
         <v>88800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-20200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-89500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>137900</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NTES_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NTES_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12909600</v>
+        <v>12793100</v>
       </c>
       <c r="E8" s="3">
-        <v>10855600</v>
+        <v>10757600</v>
       </c>
       <c r="F8" s="3">
-        <v>8729800</v>
+        <v>8651000</v>
       </c>
       <c r="G8" s="3">
-        <v>7541700</v>
+        <v>7473600</v>
       </c>
       <c r="H8" s="3">
-        <v>6548300</v>
+        <v>6489200</v>
       </c>
       <c r="I8" s="3">
-        <v>5009400</v>
+        <v>4964200</v>
       </c>
       <c r="J8" s="3">
-        <v>3195900</v>
+        <v>3167000</v>
       </c>
       <c r="K8" s="3">
         <v>1847800</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5988000</v>
+        <v>5934000</v>
       </c>
       <c r="E9" s="3">
-        <v>5111000</v>
+        <v>5064900</v>
       </c>
       <c r="F9" s="3">
-        <v>4079800</v>
+        <v>4043000</v>
       </c>
       <c r="G9" s="3">
-        <v>3511900</v>
+        <v>3480200</v>
       </c>
       <c r="H9" s="3">
-        <v>2857900</v>
+        <v>2832200</v>
       </c>
       <c r="I9" s="3">
-        <v>4324900</v>
+        <v>4285900</v>
       </c>
       <c r="J9" s="3">
-        <v>2615300</v>
+        <v>2591700</v>
       </c>
       <c r="K9" s="3">
         <v>514500</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6921600</v>
+        <v>6859100</v>
       </c>
       <c r="E10" s="3">
-        <v>5744600</v>
+        <v>5692700</v>
       </c>
       <c r="F10" s="3">
-        <v>4650000</v>
+        <v>4608000</v>
       </c>
       <c r="G10" s="3">
-        <v>4029700</v>
+        <v>3993400</v>
       </c>
       <c r="H10" s="3">
-        <v>3690300</v>
+        <v>3657000</v>
       </c>
       <c r="I10" s="3">
-        <v>684500</v>
+        <v>678300</v>
       </c>
       <c r="J10" s="3">
-        <v>580500</v>
+        <v>575300</v>
       </c>
       <c r="K10" s="3">
         <v>1333300</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2074200</v>
+        <v>2055500</v>
       </c>
       <c r="E12" s="3">
-        <v>1528000</v>
+        <v>1514200</v>
       </c>
       <c r="F12" s="3">
-        <v>1239800</v>
+        <v>1228600</v>
       </c>
       <c r="G12" s="3">
-        <v>1087300</v>
+        <v>1077500</v>
       </c>
       <c r="H12" s="3">
-        <v>613300</v>
+        <v>607700</v>
       </c>
       <c r="I12" s="3">
-        <v>879300</v>
+        <v>871400</v>
       </c>
       <c r="J12" s="3">
-        <v>630800</v>
+        <v>625100</v>
       </c>
       <c r="K12" s="3">
         <v>208800</v>
@@ -938,7 +938,7 @@
         <v>2800</v>
       </c>
       <c r="E14" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>17</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>10493200</v>
+        <v>10398500</v>
       </c>
       <c r="E17" s="3">
-        <v>8721400</v>
+        <v>8642700</v>
       </c>
       <c r="F17" s="3">
-        <v>6697600</v>
+        <v>6637100</v>
       </c>
       <c r="G17" s="3">
-        <v>6071400</v>
+        <v>6016600</v>
       </c>
       <c r="H17" s="3">
-        <v>4633400</v>
+        <v>4591500</v>
       </c>
       <c r="I17" s="3">
-        <v>3097800</v>
+        <v>3069800</v>
       </c>
       <c r="J17" s="3">
-        <v>2095200</v>
+        <v>2076300</v>
       </c>
       <c r="K17" s="3">
         <v>1096100</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2416400</v>
+        <v>2394600</v>
       </c>
       <c r="E18" s="3">
-        <v>2134200</v>
+        <v>2114900</v>
       </c>
       <c r="F18" s="3">
-        <v>2032200</v>
+        <v>2013800</v>
       </c>
       <c r="G18" s="3">
-        <v>1470300</v>
+        <v>1457000</v>
       </c>
       <c r="H18" s="3">
-        <v>1914900</v>
+        <v>1897600</v>
       </c>
       <c r="I18" s="3">
-        <v>1911600</v>
+        <v>1894400</v>
       </c>
       <c r="J18" s="3">
-        <v>1100700</v>
+        <v>1090700</v>
       </c>
       <c r="K18" s="3">
         <v>751700</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>721800</v>
+        <v>715200</v>
       </c>
       <c r="E20" s="3">
-        <v>167600</v>
+        <v>166000</v>
       </c>
       <c r="F20" s="3">
-        <v>443800</v>
+        <v>439800</v>
       </c>
       <c r="G20" s="3">
-        <v>208600</v>
+        <v>206700</v>
       </c>
       <c r="H20" s="3">
-        <v>138000</v>
+        <v>136800</v>
       </c>
       <c r="I20" s="3">
-        <v>191200</v>
+        <v>189400</v>
       </c>
       <c r="J20" s="3">
-        <v>126200</v>
+        <v>125000</v>
       </c>
       <c r="K20" s="3">
         <v>112500</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3625700</v>
+        <v>3587500</v>
       </c>
       <c r="E21" s="3">
-        <v>2816400</v>
+        <v>2785200</v>
       </c>
       <c r="F21" s="3">
-        <v>2865000</v>
+        <v>2834800</v>
       </c>
       <c r="G21" s="3">
-        <v>1988900</v>
+        <v>1967500</v>
       </c>
       <c r="H21" s="3">
-        <v>2172300</v>
+        <v>2151400</v>
       </c>
       <c r="I21" s="3">
-        <v>2151600</v>
+        <v>2131600</v>
       </c>
       <c r="J21" s="3">
-        <v>1254000</v>
+        <v>1242300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>17</v>
@@ -1200,19 +1200,19 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>28200</v>
+        <v>27900</v>
       </c>
       <c r="E22" s="3">
-        <v>36500</v>
+        <v>36200</v>
       </c>
       <c r="F22" s="3">
-        <v>61800</v>
+        <v>61200</v>
       </c>
       <c r="G22" s="3">
-        <v>46600</v>
+        <v>46100</v>
       </c>
       <c r="H22" s="3">
-        <v>13600</v>
+        <v>13400</v>
       </c>
       <c r="I22" s="3">
         <v>4700</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3110000</v>
+        <v>3081900</v>
       </c>
       <c r="E23" s="3">
-        <v>2265200</v>
+        <v>2244800</v>
       </c>
       <c r="F23" s="3">
-        <v>2414200</v>
+        <v>2392500</v>
       </c>
       <c r="G23" s="3">
-        <v>1632300</v>
+        <v>1617500</v>
       </c>
       <c r="H23" s="3">
-        <v>2039400</v>
+        <v>2021000</v>
       </c>
       <c r="I23" s="3">
-        <v>2098100</v>
+        <v>2079100</v>
       </c>
       <c r="J23" s="3">
-        <v>1224000</v>
+        <v>1213000</v>
       </c>
       <c r="K23" s="3">
         <v>861100</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>608300</v>
+        <v>602900</v>
       </c>
       <c r="E24" s="3">
-        <v>448200</v>
+        <v>444200</v>
       </c>
       <c r="F24" s="3">
-        <v>429500</v>
+        <v>425600</v>
       </c>
       <c r="G24" s="3">
-        <v>362600</v>
+        <v>359300</v>
       </c>
       <c r="H24" s="3">
-        <v>317700</v>
+        <v>314800</v>
       </c>
       <c r="I24" s="3">
-        <v>309800</v>
+        <v>307000</v>
       </c>
       <c r="J24" s="3">
-        <v>185800</v>
+        <v>184100</v>
       </c>
       <c r="K24" s="3">
         <v>104600</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2501600</v>
+        <v>2479000</v>
       </c>
       <c r="E26" s="3">
-        <v>1817000</v>
+        <v>1800600</v>
       </c>
       <c r="F26" s="3">
-        <v>1984700</v>
+        <v>1966800</v>
       </c>
       <c r="G26" s="3">
-        <v>1269700</v>
+        <v>1258200</v>
       </c>
       <c r="H26" s="3">
-        <v>1721700</v>
+        <v>1706200</v>
       </c>
       <c r="I26" s="3">
-        <v>1788300</v>
+        <v>1772100</v>
       </c>
       <c r="J26" s="3">
-        <v>1038200</v>
+        <v>1028800</v>
       </c>
       <c r="K26" s="3">
         <v>756600</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2484000</v>
+        <v>2461600</v>
       </c>
       <c r="E27" s="3">
-        <v>1777600</v>
+        <v>1761500</v>
       </c>
       <c r="F27" s="3">
-        <v>1956200</v>
+        <v>1938500</v>
       </c>
       <c r="G27" s="3">
-        <v>1221800</v>
+        <v>1210700</v>
       </c>
       <c r="H27" s="3">
-        <v>1700900</v>
+        <v>1685500</v>
       </c>
       <c r="I27" s="3">
-        <v>1760500</v>
+        <v>1744600</v>
       </c>
       <c r="J27" s="3">
-        <v>1023200</v>
+        <v>1014000</v>
       </c>
       <c r="K27" s="3">
         <v>750400</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>1173400</v>
+        <v>1162800</v>
       </c>
       <c r="G29" s="3">
-        <v>-315200</v>
+        <v>-312300</v>
       </c>
       <c r="H29" s="3">
-        <v>-123000</v>
+        <v>-121900</v>
       </c>
       <c r="I29" s="3">
-        <v>-50500</v>
+        <v>-50000</v>
       </c>
       <c r="J29" s="3">
-        <v>-30700</v>
+        <v>-30400</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>17</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-721800</v>
+        <v>-715200</v>
       </c>
       <c r="E32" s="3">
-        <v>-167600</v>
+        <v>-166000</v>
       </c>
       <c r="F32" s="3">
-        <v>-443800</v>
+        <v>-439800</v>
       </c>
       <c r="G32" s="3">
-        <v>-208600</v>
+        <v>-206700</v>
       </c>
       <c r="H32" s="3">
-        <v>-138000</v>
+        <v>-136800</v>
       </c>
       <c r="I32" s="3">
-        <v>-191200</v>
+        <v>-189400</v>
       </c>
       <c r="J32" s="3">
-        <v>-126200</v>
+        <v>-125000</v>
       </c>
       <c r="K32" s="3">
         <v>-112500</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2484000</v>
+        <v>2461600</v>
       </c>
       <c r="E33" s="3">
-        <v>1777600</v>
+        <v>1761500</v>
       </c>
       <c r="F33" s="3">
-        <v>3129600</v>
+        <v>3101300</v>
       </c>
       <c r="G33" s="3">
-        <v>906600</v>
+        <v>898400</v>
       </c>
       <c r="H33" s="3">
-        <v>1577900</v>
+        <v>1563700</v>
       </c>
       <c r="I33" s="3">
-        <v>1710000</v>
+        <v>1694600</v>
       </c>
       <c r="J33" s="3">
-        <v>992500</v>
+        <v>983500</v>
       </c>
       <c r="K33" s="3">
         <v>750400</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2484000</v>
+        <v>2461600</v>
       </c>
       <c r="E35" s="3">
-        <v>1777600</v>
+        <v>1761500</v>
       </c>
       <c r="F35" s="3">
-        <v>3129600</v>
+        <v>3101300</v>
       </c>
       <c r="G35" s="3">
-        <v>906600</v>
+        <v>898400</v>
       </c>
       <c r="H35" s="3">
-        <v>1577900</v>
+        <v>1563700</v>
       </c>
       <c r="I35" s="3">
-        <v>1710000</v>
+        <v>1694600</v>
       </c>
       <c r="J35" s="3">
-        <v>992500</v>
+        <v>983500</v>
       </c>
       <c r="K35" s="3">
         <v>750400</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2136400</v>
+        <v>2117200</v>
       </c>
       <c r="E41" s="3">
-        <v>1343500</v>
+        <v>1331400</v>
       </c>
       <c r="F41" s="3">
-        <v>478400</v>
+        <v>474100</v>
       </c>
       <c r="G41" s="3">
-        <v>735100</v>
+        <v>728500</v>
       </c>
       <c r="H41" s="3">
-        <v>407300</v>
+        <v>403600</v>
       </c>
       <c r="I41" s="3">
-        <v>801600</v>
+        <v>794300</v>
       </c>
       <c r="J41" s="3">
-        <v>894700</v>
+        <v>886600</v>
       </c>
       <c r="K41" s="3">
         <v>957800</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>12236200</v>
+        <v>12125800</v>
       </c>
       <c r="E42" s="3">
-        <v>12430200</v>
+        <v>12318000</v>
       </c>
       <c r="F42" s="3">
-        <v>10138300</v>
+        <v>10046800</v>
       </c>
       <c r="G42" s="3">
-        <v>6568600</v>
+        <v>6509300</v>
       </c>
       <c r="H42" s="3">
-        <v>5945400</v>
+        <v>5891700</v>
       </c>
       <c r="I42" s="3">
-        <v>4559800</v>
+        <v>4518600</v>
       </c>
       <c r="J42" s="3">
-        <v>2889300</v>
+        <v>2863200</v>
       </c>
       <c r="K42" s="3">
         <v>3093200</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1050900</v>
+        <v>1041400</v>
       </c>
       <c r="E43" s="3">
-        <v>987300</v>
+        <v>978400</v>
       </c>
       <c r="F43" s="3">
-        <v>706500</v>
+        <v>700100</v>
       </c>
       <c r="G43" s="3">
-        <v>1323700</v>
+        <v>1311700</v>
       </c>
       <c r="H43" s="3">
-        <v>607600</v>
+        <v>602100</v>
       </c>
       <c r="I43" s="3">
-        <v>1307500</v>
+        <v>1295700</v>
       </c>
       <c r="J43" s="3">
-        <v>434100</v>
+        <v>430200</v>
       </c>
       <c r="K43" s="3">
         <v>464700</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>142200</v>
+        <v>140900</v>
       </c>
       <c r="E44" s="3">
-        <v>91500</v>
+        <v>90700</v>
       </c>
       <c r="F44" s="3">
-        <v>95900</v>
+        <v>95000</v>
       </c>
       <c r="G44" s="3">
-        <v>157000</v>
+        <v>155600</v>
       </c>
       <c r="H44" s="3">
-        <v>806800</v>
+        <v>799500</v>
       </c>
       <c r="I44" s="3">
-        <v>232600</v>
+        <v>230500</v>
       </c>
       <c r="J44" s="3">
-        <v>120500</v>
+        <v>119400</v>
       </c>
       <c r="K44" s="3">
         <v>129000</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1103600</v>
+        <v>1093700</v>
       </c>
       <c r="E45" s="3">
-        <v>1037500</v>
+        <v>1028100</v>
       </c>
       <c r="F45" s="3">
-        <v>1122000</v>
+        <v>1111900</v>
       </c>
       <c r="G45" s="3">
-        <v>2655500</v>
+        <v>2631500</v>
       </c>
       <c r="H45" s="3">
-        <v>1361500</v>
+        <v>1349200</v>
       </c>
       <c r="I45" s="3">
-        <v>1858700</v>
+        <v>1841900</v>
       </c>
       <c r="J45" s="3">
-        <v>732000</v>
+        <v>725400</v>
       </c>
       <c r="K45" s="3">
         <v>783600</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16669400</v>
+        <v>16519000</v>
       </c>
       <c r="E46" s="3">
-        <v>15890000</v>
+        <v>15746600</v>
       </c>
       <c r="F46" s="3">
-        <v>12541100</v>
+        <v>12427900</v>
       </c>
       <c r="G46" s="3">
-        <v>10125900</v>
+        <v>10034600</v>
       </c>
       <c r="H46" s="3">
-        <v>9128600</v>
+        <v>9046200</v>
       </c>
       <c r="I46" s="3">
-        <v>7277100</v>
+        <v>7211500</v>
       </c>
       <c r="J46" s="3">
-        <v>5070500</v>
+        <v>5024700</v>
       </c>
       <c r="K46" s="3">
         <v>5428400</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3652400</v>
+        <v>3619500</v>
       </c>
       <c r="E47" s="3">
-        <v>2731900</v>
+        <v>2707300</v>
       </c>
       <c r="F47" s="3">
-        <v>1953000</v>
+        <v>1935400</v>
       </c>
       <c r="G47" s="3">
-        <v>787800</v>
+        <v>780700</v>
       </c>
       <c r="H47" s="3">
-        <v>410400</v>
+        <v>406700</v>
       </c>
       <c r="I47" s="3">
-        <v>371400</v>
+        <v>368000</v>
       </c>
       <c r="J47" s="3">
-        <v>423600</v>
+        <v>419800</v>
       </c>
       <c r="K47" s="3">
         <v>453500</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>954600</v>
+        <v>946000</v>
       </c>
       <c r="E48" s="3">
-        <v>785200</v>
+        <v>778100</v>
       </c>
       <c r="F48" s="3">
-        <v>749400</v>
+        <v>742600</v>
       </c>
       <c r="G48" s="3">
-        <v>1481200</v>
+        <v>1467800</v>
       </c>
       <c r="H48" s="3">
-        <v>555400</v>
+        <v>550400</v>
       </c>
       <c r="I48" s="3">
-        <v>713100</v>
+        <v>706600</v>
       </c>
       <c r="J48" s="3">
-        <v>308300</v>
+        <v>305500</v>
       </c>
       <c r="K48" s="3">
         <v>367700</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>473400</v>
+        <v>469100</v>
       </c>
       <c r="E49" s="3">
-        <v>654900</v>
+        <v>649000</v>
       </c>
       <c r="F49" s="3">
-        <v>536300</v>
+        <v>531400</v>
       </c>
       <c r="G49" s="3">
-        <v>363200</v>
+        <v>360000</v>
       </c>
       <c r="H49" s="3">
-        <v>120900</v>
+        <v>119800</v>
       </c>
       <c r="I49" s="3">
-        <v>37400</v>
+        <v>37100</v>
       </c>
       <c r="J49" s="3">
-        <v>28100</v>
+        <v>27900</v>
       </c>
       <c r="K49" s="3">
         <v>30100</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>891200</v>
+        <v>883100</v>
       </c>
       <c r="E52" s="3">
-        <v>844600</v>
+        <v>837000</v>
       </c>
       <c r="F52" s="3">
-        <v>742900</v>
+        <v>736200</v>
       </c>
       <c r="G52" s="3">
-        <v>2059300</v>
+        <v>2040700</v>
       </c>
       <c r="H52" s="3">
-        <v>251900</v>
+        <v>249600</v>
       </c>
       <c r="I52" s="3">
-        <v>873100</v>
+        <v>865200</v>
       </c>
       <c r="J52" s="3">
-        <v>234400</v>
+        <v>232300</v>
       </c>
       <c r="K52" s="3">
         <v>213300</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22641000</v>
+        <v>22436600</v>
       </c>
       <c r="E54" s="3">
-        <v>20906600</v>
+        <v>20717900</v>
       </c>
       <c r="F54" s="3">
-        <v>16522600</v>
+        <v>16373500</v>
       </c>
       <c r="G54" s="3">
-        <v>12815600</v>
+        <v>12699900</v>
       </c>
       <c r="H54" s="3">
-        <v>10467200</v>
+        <v>10372700</v>
       </c>
       <c r="I54" s="3">
-        <v>8551600</v>
+        <v>8474400</v>
       </c>
       <c r="J54" s="3">
-        <v>6065000</v>
+        <v>6010200</v>
       </c>
       <c r="K54" s="3">
         <v>6493000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>145200</v>
+        <v>143800</v>
       </c>
       <c r="E57" s="3">
-        <v>167200</v>
+        <v>165700</v>
       </c>
       <c r="F57" s="3">
-        <v>178600</v>
+        <v>177000</v>
       </c>
       <c r="G57" s="3">
-        <v>177100</v>
+        <v>175500</v>
       </c>
       <c r="H57" s="3">
-        <v>359900</v>
+        <v>356700</v>
       </c>
       <c r="I57" s="3">
-        <v>205700</v>
+        <v>203900</v>
       </c>
       <c r="J57" s="3">
-        <v>103200</v>
+        <v>102300</v>
       </c>
       <c r="K57" s="3">
         <v>110500</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2851800</v>
+        <v>2826000</v>
       </c>
       <c r="E58" s="3">
-        <v>2874200</v>
+        <v>2848300</v>
       </c>
       <c r="F58" s="3">
-        <v>2479800</v>
+        <v>2457400</v>
       </c>
       <c r="G58" s="3">
-        <v>2012700</v>
+        <v>1994600</v>
       </c>
       <c r="H58" s="3">
-        <v>976000</v>
+        <v>967200</v>
       </c>
       <c r="I58" s="3">
-        <v>562300</v>
+        <v>557200</v>
       </c>
       <c r="J58" s="3">
-        <v>334900</v>
+        <v>331900</v>
       </c>
       <c r="K58" s="3">
         <v>358600</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4445000</v>
+        <v>4404800</v>
       </c>
       <c r="E59" s="3">
-        <v>3846700</v>
+        <v>3812000</v>
       </c>
       <c r="F59" s="3">
-        <v>2977000</v>
+        <v>2950200</v>
       </c>
       <c r="G59" s="3">
-        <v>3845700</v>
+        <v>3811000</v>
       </c>
       <c r="H59" s="3">
-        <v>2163800</v>
+        <v>2144300</v>
       </c>
       <c r="I59" s="3">
-        <v>2585100</v>
+        <v>2561700</v>
       </c>
       <c r="J59" s="3">
-        <v>1281200</v>
+        <v>1269600</v>
       </c>
       <c r="K59" s="3">
         <v>1371600</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7441900</v>
+        <v>7374700</v>
       </c>
       <c r="E60" s="3">
-        <v>6888100</v>
+        <v>6826000</v>
       </c>
       <c r="F60" s="3">
-        <v>5635500</v>
+        <v>5584600</v>
       </c>
       <c r="G60" s="3">
-        <v>5173700</v>
+        <v>5127000</v>
       </c>
       <c r="H60" s="3">
-        <v>3499800</v>
+        <v>3468200</v>
       </c>
       <c r="I60" s="3">
-        <v>2825800</v>
+        <v>2800300</v>
       </c>
       <c r="J60" s="3">
-        <v>1719300</v>
+        <v>1703800</v>
       </c>
       <c r="K60" s="3">
         <v>1840700</v>
@@ -2560,7 +2560,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>187900</v>
+        <v>186200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>360100</v>
+        <v>356800</v>
       </c>
       <c r="E62" s="3">
-        <v>197000</v>
+        <v>195300</v>
       </c>
       <c r="F62" s="3">
-        <v>123600</v>
+        <v>122500</v>
       </c>
       <c r="G62" s="3">
-        <v>65100</v>
+        <v>64500</v>
       </c>
       <c r="H62" s="3">
-        <v>34100</v>
+        <v>33800</v>
       </c>
       <c r="I62" s="3">
-        <v>57800</v>
+        <v>57300</v>
       </c>
       <c r="J62" s="3">
-        <v>24500</v>
+        <v>24300</v>
       </c>
       <c r="K62" s="3">
         <v>26300</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8593400</v>
+        <v>8515900</v>
       </c>
       <c r="E66" s="3">
-        <v>8804400</v>
+        <v>8725000</v>
       </c>
       <c r="F66" s="3">
-        <v>7466800</v>
+        <v>7399400</v>
       </c>
       <c r="G66" s="3">
-        <v>6150300</v>
+        <v>6094800</v>
       </c>
       <c r="H66" s="3">
-        <v>3728100</v>
+        <v>3694500</v>
       </c>
       <c r="I66" s="3">
-        <v>2923700</v>
+        <v>2897300</v>
       </c>
       <c r="J66" s="3">
-        <v>1756100</v>
+        <v>1740300</v>
       </c>
       <c r="K66" s="3">
         <v>1880100</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11603100</v>
+        <v>11498300</v>
       </c>
       <c r="E72" s="3">
-        <v>9636000</v>
+        <v>9549100</v>
       </c>
       <c r="F72" s="3">
-        <v>8489200</v>
+        <v>8412600</v>
       </c>
       <c r="G72" s="3">
-        <v>6662400</v>
+        <v>6602300</v>
       </c>
       <c r="H72" s="3">
-        <v>6474900</v>
+        <v>6416500</v>
       </c>
       <c r="I72" s="3">
-        <v>5377000</v>
+        <v>5328500</v>
       </c>
       <c r="J72" s="3">
-        <v>4042200</v>
+        <v>4005700</v>
       </c>
       <c r="K72" s="3">
         <v>4327500</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14047500</v>
+        <v>13920800</v>
       </c>
       <c r="E76" s="3">
-        <v>12102200</v>
+        <v>11993000</v>
       </c>
       <c r="F76" s="3">
-        <v>9055800</v>
+        <v>8974100</v>
       </c>
       <c r="G76" s="3">
-        <v>6665300</v>
+        <v>6605200</v>
       </c>
       <c r="H76" s="3">
-        <v>6739100</v>
+        <v>6678200</v>
       </c>
       <c r="I76" s="3">
-        <v>5627800</v>
+        <v>5577000</v>
       </c>
       <c r="J76" s="3">
-        <v>4308800</v>
+        <v>4269900</v>
       </c>
       <c r="K76" s="3">
         <v>4612900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2484000</v>
+        <v>2461600</v>
       </c>
       <c r="E81" s="3">
-        <v>1777600</v>
+        <v>1761500</v>
       </c>
       <c r="F81" s="3">
-        <v>3129600</v>
+        <v>3101300</v>
       </c>
       <c r="G81" s="3">
-        <v>906600</v>
+        <v>898400</v>
       </c>
       <c r="H81" s="3">
-        <v>1577900</v>
+        <v>1563700</v>
       </c>
       <c r="I81" s="3">
-        <v>1710000</v>
+        <v>1694600</v>
       </c>
       <c r="J81" s="3">
-        <v>992500</v>
+        <v>983500</v>
       </c>
       <c r="K81" s="3">
         <v>750400</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>482700</v>
+        <v>478400</v>
       </c>
       <c r="E83" s="3">
-        <v>509500</v>
+        <v>504900</v>
       </c>
       <c r="F83" s="3">
-        <v>385200</v>
+        <v>381700</v>
       </c>
       <c r="G83" s="3">
-        <v>307000</v>
+        <v>304300</v>
       </c>
       <c r="H83" s="3">
-        <v>118200</v>
+        <v>117100</v>
       </c>
       <c r="I83" s="3">
-        <v>48300</v>
+        <v>47800</v>
       </c>
       <c r="J83" s="3">
-        <v>26900</v>
+        <v>26600</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>17</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3673200</v>
+        <v>3640000</v>
       </c>
       <c r="E89" s="3">
-        <v>3667500</v>
+        <v>3634400</v>
       </c>
       <c r="F89" s="3">
-        <v>2537000</v>
+        <v>2514100</v>
       </c>
       <c r="G89" s="3">
-        <v>1977000</v>
+        <v>1959100</v>
       </c>
       <c r="H89" s="3">
-        <v>1752000</v>
+        <v>1736200</v>
       </c>
       <c r="I89" s="3">
-        <v>2282400</v>
+        <v>2261800</v>
       </c>
       <c r="J89" s="3">
-        <v>1190200</v>
+        <v>1179500</v>
       </c>
       <c r="K89" s="3">
         <v>926500</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-236000</v>
+        <v>-233900</v>
       </c>
       <c r="E91" s="3">
-        <v>-155500</v>
+        <v>-154100</v>
       </c>
       <c r="F91" s="3">
-        <v>-178200</v>
+        <v>-176600</v>
       </c>
       <c r="G91" s="3">
-        <v>-372500</v>
+        <v>-369200</v>
       </c>
       <c r="H91" s="3">
-        <v>-271600</v>
+        <v>-269100</v>
       </c>
       <c r="I91" s="3">
-        <v>-167300</v>
+        <v>-165800</v>
       </c>
       <c r="J91" s="3">
-        <v>-127700</v>
+        <v>-126500</v>
       </c>
       <c r="K91" s="3">
         <v>-84800</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1043100</v>
+        <v>-1033600</v>
       </c>
       <c r="E94" s="3">
-        <v>-4301800</v>
+        <v>-4263000</v>
       </c>
       <c r="F94" s="3">
-        <v>-3262100</v>
+        <v>-3232600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1999600</v>
+        <v>-1981600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1894400</v>
+        <v>-1877300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1747900</v>
+        <v>-1732100</v>
       </c>
       <c r="J94" s="3">
-        <v>-373800</v>
+        <v>-370400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>17</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-517000</v>
+        <v>-512300</v>
       </c>
       <c r="E96" s="3">
-        <v>-630800</v>
+        <v>-625100</v>
       </c>
       <c r="F96" s="3">
-        <v>-1302800</v>
+        <v>-1291000</v>
       </c>
       <c r="G96" s="3">
-        <v>-212200</v>
+        <v>-210300</v>
       </c>
       <c r="H96" s="3">
-        <v>-480000</v>
+        <v>-475700</v>
       </c>
       <c r="I96" s="3">
-        <v>-375200</v>
+        <v>-371800</v>
       </c>
       <c r="J96" s="3">
-        <v>-216300</v>
+        <v>-214400</v>
       </c>
       <c r="K96" s="3">
         <v>-312800</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1854600</v>
+        <v>-1837900</v>
       </c>
       <c r="E100" s="3">
-        <v>1460800</v>
+        <v>1447600</v>
       </c>
       <c r="F100" s="3">
-        <v>159500</v>
+        <v>158100</v>
       </c>
       <c r="G100" s="3">
-        <v>233900</v>
+        <v>231800</v>
       </c>
       <c r="H100" s="3">
-        <v>-192000</v>
+        <v>-190200</v>
       </c>
       <c r="I100" s="3">
-        <v>-331600</v>
+        <v>-328600</v>
       </c>
       <c r="J100" s="3">
-        <v>-240600</v>
+        <v>-238400</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>17</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8200</v>
+        <v>-8100</v>
       </c>
       <c r="E101" s="3">
-        <v>23900</v>
+        <v>23600</v>
       </c>
       <c r="F101" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="G101" s="3">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="H101" s="3">
         <v>-1900</v>
       </c>
       <c r="I101" s="3">
-        <v>19500</v>
+        <v>19300</v>
       </c>
       <c r="J101" s="3">
-        <v>21000</v>
+        <v>20800</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>17</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>767400</v>
+        <v>760500</v>
       </c>
       <c r="E102" s="3">
-        <v>850400</v>
+        <v>842700</v>
       </c>
       <c r="F102" s="3">
-        <v>-561200</v>
+        <v>-556200</v>
       </c>
       <c r="G102" s="3">
-        <v>223300</v>
+        <v>221300</v>
       </c>
       <c r="H102" s="3">
-        <v>-336200</v>
+        <v>-333200</v>
       </c>
       <c r="I102" s="3">
-        <v>222300</v>
+        <v>220300</v>
       </c>
       <c r="J102" s="3">
-        <v>596800</v>
+        <v>591400</v>
       </c>
       <c r="K102" s="3">
         <v>88800</v>

--- a/AAII_Financials/Yearly/NTES_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NTES_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12793100</v>
+        <v>12194800</v>
       </c>
       <c r="E8" s="3">
-        <v>10757600</v>
+        <v>10254500</v>
       </c>
       <c r="F8" s="3">
-        <v>8651000</v>
+        <v>8246400</v>
       </c>
       <c r="G8" s="3">
-        <v>7473600</v>
+        <v>7124100</v>
       </c>
       <c r="H8" s="3">
-        <v>6489200</v>
+        <v>6185700</v>
       </c>
       <c r="I8" s="3">
-        <v>4964200</v>
+        <v>4732000</v>
       </c>
       <c r="J8" s="3">
-        <v>3167000</v>
+        <v>3018900</v>
       </c>
       <c r="K8" s="3">
         <v>1847800</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5934000</v>
+        <v>5656400</v>
       </c>
       <c r="E9" s="3">
-        <v>5064900</v>
+        <v>4828000</v>
       </c>
       <c r="F9" s="3">
-        <v>4043000</v>
+        <v>3853900</v>
       </c>
       <c r="G9" s="3">
-        <v>3480200</v>
+        <v>3317500</v>
       </c>
       <c r="H9" s="3">
-        <v>2832200</v>
+        <v>2699700</v>
       </c>
       <c r="I9" s="3">
-        <v>4285900</v>
+        <v>4085400</v>
       </c>
       <c r="J9" s="3">
-        <v>2591700</v>
+        <v>2470500</v>
       </c>
       <c r="K9" s="3">
         <v>514500</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6859100</v>
+        <v>6538300</v>
       </c>
       <c r="E10" s="3">
-        <v>5692700</v>
+        <v>5426500</v>
       </c>
       <c r="F10" s="3">
-        <v>4608000</v>
+        <v>4392500</v>
       </c>
       <c r="G10" s="3">
-        <v>3993400</v>
+        <v>3806600</v>
       </c>
       <c r="H10" s="3">
-        <v>3657000</v>
+        <v>3486000</v>
       </c>
       <c r="I10" s="3">
-        <v>678300</v>
+        <v>646600</v>
       </c>
       <c r="J10" s="3">
-        <v>575300</v>
+        <v>548400</v>
       </c>
       <c r="K10" s="3">
         <v>1333300</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2055500</v>
+        <v>1959400</v>
       </c>
       <c r="E12" s="3">
-        <v>1514200</v>
+        <v>1443400</v>
       </c>
       <c r="F12" s="3">
-        <v>1228600</v>
+        <v>1171100</v>
       </c>
       <c r="G12" s="3">
-        <v>1077500</v>
+        <v>1027100</v>
       </c>
       <c r="H12" s="3">
-        <v>607700</v>
+        <v>579300</v>
       </c>
       <c r="I12" s="3">
-        <v>871400</v>
+        <v>830600</v>
       </c>
       <c r="J12" s="3">
-        <v>625100</v>
+        <v>595900</v>
       </c>
       <c r="K12" s="3">
         <v>208800</v>
@@ -935,10 +935,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="E14" s="3">
-        <v>8100</v>
+        <v>7700</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>17</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>10398500</v>
+        <v>9912200</v>
       </c>
       <c r="E17" s="3">
-        <v>8642700</v>
+        <v>8238500</v>
       </c>
       <c r="F17" s="3">
-        <v>6637100</v>
+        <v>6326700</v>
       </c>
       <c r="G17" s="3">
-        <v>6016600</v>
+        <v>5735200</v>
       </c>
       <c r="H17" s="3">
-        <v>4591500</v>
+        <v>4376800</v>
       </c>
       <c r="I17" s="3">
-        <v>3069800</v>
+        <v>2926200</v>
       </c>
       <c r="J17" s="3">
-        <v>2076300</v>
+        <v>1979200</v>
       </c>
       <c r="K17" s="3">
         <v>1096100</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2394600</v>
+        <v>2282600</v>
       </c>
       <c r="E18" s="3">
-        <v>2114900</v>
+        <v>2016000</v>
       </c>
       <c r="F18" s="3">
-        <v>2013800</v>
+        <v>1919700</v>
       </c>
       <c r="G18" s="3">
-        <v>1457000</v>
+        <v>1388800</v>
       </c>
       <c r="H18" s="3">
-        <v>1897600</v>
+        <v>1808900</v>
       </c>
       <c r="I18" s="3">
-        <v>1894400</v>
+        <v>1805800</v>
       </c>
       <c r="J18" s="3">
-        <v>1090700</v>
+        <v>1039700</v>
       </c>
       <c r="K18" s="3">
         <v>751700</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>715200</v>
+        <v>681800</v>
       </c>
       <c r="E20" s="3">
-        <v>166000</v>
+        <v>158300</v>
       </c>
       <c r="F20" s="3">
-        <v>439800</v>
+        <v>419200</v>
       </c>
       <c r="G20" s="3">
-        <v>206700</v>
+        <v>197000</v>
       </c>
       <c r="H20" s="3">
-        <v>136800</v>
+        <v>130400</v>
       </c>
       <c r="I20" s="3">
-        <v>189400</v>
+        <v>180600</v>
       </c>
       <c r="J20" s="3">
-        <v>125000</v>
+        <v>119200</v>
       </c>
       <c r="K20" s="3">
         <v>112500</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3587500</v>
+        <v>3416800</v>
       </c>
       <c r="E21" s="3">
-        <v>2785200</v>
+        <v>2651900</v>
       </c>
       <c r="F21" s="3">
-        <v>2834800</v>
+        <v>2699900</v>
       </c>
       <c r="G21" s="3">
-        <v>1967500</v>
+        <v>1873600</v>
       </c>
       <c r="H21" s="3">
-        <v>2151400</v>
+        <v>2050000</v>
       </c>
       <c r="I21" s="3">
-        <v>2131600</v>
+        <v>2031600</v>
       </c>
       <c r="J21" s="3">
-        <v>1242300</v>
+        <v>1184100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>17</v>
@@ -1200,25 +1200,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>27900</v>
+        <v>26600</v>
       </c>
       <c r="E22" s="3">
-        <v>36200</v>
+        <v>34500</v>
       </c>
       <c r="F22" s="3">
-        <v>61200</v>
+        <v>58300</v>
       </c>
       <c r="G22" s="3">
-        <v>46100</v>
+        <v>44000</v>
       </c>
       <c r="H22" s="3">
-        <v>13400</v>
+        <v>12800</v>
       </c>
       <c r="I22" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="J22" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="K22" s="3">
         <v>3100</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3081900</v>
+        <v>2937700</v>
       </c>
       <c r="E23" s="3">
-        <v>2244800</v>
+        <v>2139800</v>
       </c>
       <c r="F23" s="3">
-        <v>2392500</v>
+        <v>2280600</v>
       </c>
       <c r="G23" s="3">
-        <v>1617500</v>
+        <v>1541900</v>
       </c>
       <c r="H23" s="3">
-        <v>2021000</v>
+        <v>1926500</v>
       </c>
       <c r="I23" s="3">
-        <v>2079100</v>
+        <v>1981900</v>
       </c>
       <c r="J23" s="3">
-        <v>1213000</v>
+        <v>1156200</v>
       </c>
       <c r="K23" s="3">
         <v>861100</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>602900</v>
+        <v>574700</v>
       </c>
       <c r="E24" s="3">
-        <v>444200</v>
+        <v>423400</v>
       </c>
       <c r="F24" s="3">
-        <v>425600</v>
+        <v>405700</v>
       </c>
       <c r="G24" s="3">
-        <v>359300</v>
+        <v>342500</v>
       </c>
       <c r="H24" s="3">
-        <v>314800</v>
+        <v>300100</v>
       </c>
       <c r="I24" s="3">
-        <v>307000</v>
+        <v>292600</v>
       </c>
       <c r="J24" s="3">
-        <v>184100</v>
+        <v>175500</v>
       </c>
       <c r="K24" s="3">
         <v>104600</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2479000</v>
+        <v>2363100</v>
       </c>
       <c r="E26" s="3">
-        <v>1800600</v>
+        <v>1716400</v>
       </c>
       <c r="F26" s="3">
-        <v>1966800</v>
+        <v>1874800</v>
       </c>
       <c r="G26" s="3">
-        <v>1258200</v>
+        <v>1199400</v>
       </c>
       <c r="H26" s="3">
-        <v>1706200</v>
+        <v>1626400</v>
       </c>
       <c r="I26" s="3">
-        <v>1772100</v>
+        <v>1689200</v>
       </c>
       <c r="J26" s="3">
-        <v>1028800</v>
+        <v>980700</v>
       </c>
       <c r="K26" s="3">
         <v>756600</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2461600</v>
+        <v>2346500</v>
       </c>
       <c r="E27" s="3">
-        <v>1761500</v>
+        <v>1679100</v>
       </c>
       <c r="F27" s="3">
-        <v>1938500</v>
+        <v>1847900</v>
       </c>
       <c r="G27" s="3">
-        <v>1210700</v>
+        <v>1154100</v>
       </c>
       <c r="H27" s="3">
-        <v>1685500</v>
+        <v>1606700</v>
       </c>
       <c r="I27" s="3">
-        <v>1744600</v>
+        <v>1663000</v>
       </c>
       <c r="J27" s="3">
-        <v>1014000</v>
+        <v>966500</v>
       </c>
       <c r="K27" s="3">
         <v>750400</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>1162800</v>
+        <v>1108400</v>
       </c>
       <c r="G29" s="3">
-        <v>-312300</v>
+        <v>-297700</v>
       </c>
       <c r="H29" s="3">
-        <v>-121900</v>
+        <v>-116200</v>
       </c>
       <c r="I29" s="3">
-        <v>-50000</v>
+        <v>-47700</v>
       </c>
       <c r="J29" s="3">
-        <v>-30400</v>
+        <v>-29000</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>17</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-715200</v>
+        <v>-681800</v>
       </c>
       <c r="E32" s="3">
-        <v>-166000</v>
+        <v>-158300</v>
       </c>
       <c r="F32" s="3">
-        <v>-439800</v>
+        <v>-419200</v>
       </c>
       <c r="G32" s="3">
-        <v>-206700</v>
+        <v>-197000</v>
       </c>
       <c r="H32" s="3">
-        <v>-136800</v>
+        <v>-130400</v>
       </c>
       <c r="I32" s="3">
-        <v>-189400</v>
+        <v>-180600</v>
       </c>
       <c r="J32" s="3">
-        <v>-125000</v>
+        <v>-119200</v>
       </c>
       <c r="K32" s="3">
         <v>-112500</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2461600</v>
+        <v>2346500</v>
       </c>
       <c r="E33" s="3">
-        <v>1761500</v>
+        <v>1679100</v>
       </c>
       <c r="F33" s="3">
-        <v>3101300</v>
+        <v>2956300</v>
       </c>
       <c r="G33" s="3">
-        <v>898400</v>
+        <v>856400</v>
       </c>
       <c r="H33" s="3">
-        <v>1563700</v>
+        <v>1490500</v>
       </c>
       <c r="I33" s="3">
-        <v>1694600</v>
+        <v>1615300</v>
       </c>
       <c r="J33" s="3">
-        <v>983500</v>
+        <v>937500</v>
       </c>
       <c r="K33" s="3">
         <v>750400</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2461600</v>
+        <v>2346500</v>
       </c>
       <c r="E35" s="3">
-        <v>1761500</v>
+        <v>1679100</v>
       </c>
       <c r="F35" s="3">
-        <v>3101300</v>
+        <v>2956300</v>
       </c>
       <c r="G35" s="3">
-        <v>898400</v>
+        <v>856400</v>
       </c>
       <c r="H35" s="3">
-        <v>1563700</v>
+        <v>1490500</v>
       </c>
       <c r="I35" s="3">
-        <v>1694600</v>
+        <v>1615300</v>
       </c>
       <c r="J35" s="3">
-        <v>983500</v>
+        <v>937500</v>
       </c>
       <c r="K35" s="3">
         <v>750400</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2117200</v>
+        <v>2018100</v>
       </c>
       <c r="E41" s="3">
-        <v>1331400</v>
+        <v>1269100</v>
       </c>
       <c r="F41" s="3">
-        <v>474100</v>
+        <v>451900</v>
       </c>
       <c r="G41" s="3">
-        <v>728500</v>
+        <v>694400</v>
       </c>
       <c r="H41" s="3">
-        <v>403600</v>
+        <v>384800</v>
       </c>
       <c r="I41" s="3">
-        <v>794300</v>
+        <v>757200</v>
       </c>
       <c r="J41" s="3">
-        <v>886600</v>
+        <v>845200</v>
       </c>
       <c r="K41" s="3">
         <v>957800</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>12125800</v>
+        <v>11558700</v>
       </c>
       <c r="E42" s="3">
-        <v>12318000</v>
+        <v>11741800</v>
       </c>
       <c r="F42" s="3">
-        <v>10046800</v>
+        <v>9576900</v>
       </c>
       <c r="G42" s="3">
-        <v>6509300</v>
+        <v>6204800</v>
       </c>
       <c r="H42" s="3">
-        <v>5891700</v>
+        <v>5616200</v>
       </c>
       <c r="I42" s="3">
-        <v>4518600</v>
+        <v>4307300</v>
       </c>
       <c r="J42" s="3">
-        <v>2863200</v>
+        <v>2729300</v>
       </c>
       <c r="K42" s="3">
         <v>3093200</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1041400</v>
+        <v>992700</v>
       </c>
       <c r="E43" s="3">
-        <v>978400</v>
+        <v>932600</v>
       </c>
       <c r="F43" s="3">
-        <v>700100</v>
+        <v>667400</v>
       </c>
       <c r="G43" s="3">
-        <v>1311700</v>
+        <v>1250400</v>
       </c>
       <c r="H43" s="3">
-        <v>602100</v>
+        <v>573900</v>
       </c>
       <c r="I43" s="3">
-        <v>1295700</v>
+        <v>1235100</v>
       </c>
       <c r="J43" s="3">
-        <v>430200</v>
+        <v>410000</v>
       </c>
       <c r="K43" s="3">
         <v>464700</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>140900</v>
+        <v>134300</v>
       </c>
       <c r="E44" s="3">
-        <v>90700</v>
+        <v>86500</v>
       </c>
       <c r="F44" s="3">
-        <v>95000</v>
+        <v>90600</v>
       </c>
       <c r="G44" s="3">
-        <v>155600</v>
+        <v>148300</v>
       </c>
       <c r="H44" s="3">
-        <v>799500</v>
+        <v>762100</v>
       </c>
       <c r="I44" s="3">
-        <v>230500</v>
+        <v>219700</v>
       </c>
       <c r="J44" s="3">
-        <v>119400</v>
+        <v>113800</v>
       </c>
       <c r="K44" s="3">
         <v>129000</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1093700</v>
+        <v>1042500</v>
       </c>
       <c r="E45" s="3">
-        <v>1028100</v>
+        <v>980000</v>
       </c>
       <c r="F45" s="3">
-        <v>1111900</v>
+        <v>1059900</v>
       </c>
       <c r="G45" s="3">
-        <v>2631500</v>
+        <v>2508400</v>
       </c>
       <c r="H45" s="3">
-        <v>1349200</v>
+        <v>1286100</v>
       </c>
       <c r="I45" s="3">
-        <v>1841900</v>
+        <v>1755700</v>
       </c>
       <c r="J45" s="3">
-        <v>725400</v>
+        <v>691400</v>
       </c>
       <c r="K45" s="3">
         <v>783600</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16519000</v>
+        <v>15746300</v>
       </c>
       <c r="E46" s="3">
-        <v>15746600</v>
+        <v>15010100</v>
       </c>
       <c r="F46" s="3">
-        <v>12427900</v>
+        <v>11846600</v>
       </c>
       <c r="G46" s="3">
-        <v>10034600</v>
+        <v>9565200</v>
       </c>
       <c r="H46" s="3">
-        <v>9046200</v>
+        <v>8623100</v>
       </c>
       <c r="I46" s="3">
-        <v>7211500</v>
+        <v>6874200</v>
       </c>
       <c r="J46" s="3">
-        <v>5024700</v>
+        <v>4789700</v>
       </c>
       <c r="K46" s="3">
         <v>5428400</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3619500</v>
+        <v>3450200</v>
       </c>
       <c r="E47" s="3">
-        <v>2707300</v>
+        <v>2580600</v>
       </c>
       <c r="F47" s="3">
-        <v>1935400</v>
+        <v>1844900</v>
       </c>
       <c r="G47" s="3">
-        <v>780700</v>
+        <v>744200</v>
       </c>
       <c r="H47" s="3">
-        <v>406700</v>
+        <v>387600</v>
       </c>
       <c r="I47" s="3">
-        <v>368000</v>
+        <v>350800</v>
       </c>
       <c r="J47" s="3">
-        <v>419800</v>
+        <v>400200</v>
       </c>
       <c r="K47" s="3">
         <v>453500</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>946000</v>
+        <v>901700</v>
       </c>
       <c r="E48" s="3">
-        <v>778100</v>
+        <v>741700</v>
       </c>
       <c r="F48" s="3">
-        <v>742600</v>
+        <v>707900</v>
       </c>
       <c r="G48" s="3">
-        <v>1467800</v>
+        <v>1399200</v>
       </c>
       <c r="H48" s="3">
-        <v>550400</v>
+        <v>524700</v>
       </c>
       <c r="I48" s="3">
-        <v>706600</v>
+        <v>673600</v>
       </c>
       <c r="J48" s="3">
-        <v>305500</v>
+        <v>291200</v>
       </c>
       <c r="K48" s="3">
         <v>367700</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>469100</v>
+        <v>447200</v>
       </c>
       <c r="E49" s="3">
-        <v>649000</v>
+        <v>618700</v>
       </c>
       <c r="F49" s="3">
-        <v>531400</v>
+        <v>506600</v>
       </c>
       <c r="G49" s="3">
-        <v>360000</v>
+        <v>343100</v>
       </c>
       <c r="H49" s="3">
-        <v>119800</v>
+        <v>114200</v>
       </c>
       <c r="I49" s="3">
-        <v>37100</v>
+        <v>35400</v>
       </c>
       <c r="J49" s="3">
-        <v>27900</v>
+        <v>26600</v>
       </c>
       <c r="K49" s="3">
         <v>30100</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>883100</v>
+        <v>841800</v>
       </c>
       <c r="E52" s="3">
-        <v>837000</v>
+        <v>797800</v>
       </c>
       <c r="F52" s="3">
-        <v>736200</v>
+        <v>701800</v>
       </c>
       <c r="G52" s="3">
-        <v>2040700</v>
+        <v>1945300</v>
       </c>
       <c r="H52" s="3">
-        <v>249600</v>
+        <v>237900</v>
       </c>
       <c r="I52" s="3">
-        <v>865200</v>
+        <v>824700</v>
       </c>
       <c r="J52" s="3">
-        <v>232300</v>
+        <v>221400</v>
       </c>
       <c r="K52" s="3">
         <v>213300</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22436600</v>
+        <v>21387200</v>
       </c>
       <c r="E54" s="3">
-        <v>20717900</v>
+        <v>19748900</v>
       </c>
       <c r="F54" s="3">
-        <v>16373500</v>
+        <v>15607700</v>
       </c>
       <c r="G54" s="3">
-        <v>12699900</v>
+        <v>12105900</v>
       </c>
       <c r="H54" s="3">
-        <v>10372700</v>
+        <v>9887600</v>
       </c>
       <c r="I54" s="3">
-        <v>8474400</v>
+        <v>8078000</v>
       </c>
       <c r="J54" s="3">
-        <v>6010200</v>
+        <v>5729100</v>
       </c>
       <c r="K54" s="3">
         <v>6493000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>143800</v>
+        <v>137100</v>
       </c>
       <c r="E57" s="3">
-        <v>165700</v>
+        <v>157900</v>
       </c>
       <c r="F57" s="3">
-        <v>177000</v>
+        <v>168800</v>
       </c>
       <c r="G57" s="3">
-        <v>175500</v>
+        <v>167300</v>
       </c>
       <c r="H57" s="3">
-        <v>356700</v>
+        <v>340000</v>
       </c>
       <c r="I57" s="3">
-        <v>203900</v>
+        <v>194300</v>
       </c>
       <c r="J57" s="3">
-        <v>102300</v>
+        <v>97500</v>
       </c>
       <c r="K57" s="3">
         <v>110500</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2826000</v>
+        <v>2693800</v>
       </c>
       <c r="E58" s="3">
-        <v>2848300</v>
+        <v>2715100</v>
       </c>
       <c r="F58" s="3">
-        <v>2457400</v>
+        <v>2342500</v>
       </c>
       <c r="G58" s="3">
-        <v>1994600</v>
+        <v>1901300</v>
       </c>
       <c r="H58" s="3">
-        <v>967200</v>
+        <v>922000</v>
       </c>
       <c r="I58" s="3">
-        <v>557200</v>
+        <v>531100</v>
       </c>
       <c r="J58" s="3">
-        <v>331900</v>
+        <v>316400</v>
       </c>
       <c r="K58" s="3">
         <v>358600</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4404800</v>
+        <v>4198800</v>
       </c>
       <c r="E59" s="3">
-        <v>3812000</v>
+        <v>3633700</v>
       </c>
       <c r="F59" s="3">
-        <v>2950200</v>
+        <v>2812200</v>
       </c>
       <c r="G59" s="3">
-        <v>3811000</v>
+        <v>3632700</v>
       </c>
       <c r="H59" s="3">
-        <v>2144300</v>
+        <v>2044000</v>
       </c>
       <c r="I59" s="3">
-        <v>2561700</v>
+        <v>2441900</v>
       </c>
       <c r="J59" s="3">
-        <v>1269600</v>
+        <v>1210200</v>
       </c>
       <c r="K59" s="3">
         <v>1371600</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7374700</v>
+        <v>7029800</v>
       </c>
       <c r="E60" s="3">
-        <v>6826000</v>
+        <v>6506700</v>
       </c>
       <c r="F60" s="3">
-        <v>5584600</v>
+        <v>5323400</v>
       </c>
       <c r="G60" s="3">
-        <v>5127000</v>
+        <v>4887200</v>
       </c>
       <c r="H60" s="3">
-        <v>3468200</v>
+        <v>3306000</v>
       </c>
       <c r="I60" s="3">
-        <v>2800300</v>
+        <v>2669400</v>
       </c>
       <c r="J60" s="3">
-        <v>1703800</v>
+        <v>1624100</v>
       </c>
       <c r="K60" s="3">
         <v>1840700</v>
@@ -2560,7 +2560,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>186200</v>
+        <v>177500</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>356800</v>
+        <v>340100</v>
       </c>
       <c r="E62" s="3">
-        <v>195300</v>
+        <v>186100</v>
       </c>
       <c r="F62" s="3">
-        <v>122500</v>
+        <v>116800</v>
       </c>
       <c r="G62" s="3">
-        <v>64500</v>
+        <v>61500</v>
       </c>
       <c r="H62" s="3">
-        <v>33800</v>
+        <v>32200</v>
       </c>
       <c r="I62" s="3">
-        <v>57300</v>
+        <v>54600</v>
       </c>
       <c r="J62" s="3">
-        <v>24300</v>
+        <v>23200</v>
       </c>
       <c r="K62" s="3">
         <v>26300</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8515900</v>
+        <v>8117600</v>
       </c>
       <c r="E66" s="3">
-        <v>8725000</v>
+        <v>8316900</v>
       </c>
       <c r="F66" s="3">
-        <v>7399400</v>
+        <v>7053400</v>
       </c>
       <c r="G66" s="3">
-        <v>6094800</v>
+        <v>5809700</v>
       </c>
       <c r="H66" s="3">
-        <v>3694500</v>
+        <v>3521700</v>
       </c>
       <c r="I66" s="3">
-        <v>2897300</v>
+        <v>2761800</v>
       </c>
       <c r="J66" s="3">
-        <v>1740300</v>
+        <v>1658900</v>
       </c>
       <c r="K66" s="3">
         <v>1880100</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11498300</v>
+        <v>10960600</v>
       </c>
       <c r="E72" s="3">
-        <v>9549100</v>
+        <v>9102400</v>
       </c>
       <c r="F72" s="3">
-        <v>8412600</v>
+        <v>8019200</v>
       </c>
       <c r="G72" s="3">
-        <v>6602300</v>
+        <v>6293500</v>
       </c>
       <c r="H72" s="3">
-        <v>6416500</v>
+        <v>6116400</v>
       </c>
       <c r="I72" s="3">
-        <v>5328500</v>
+        <v>5079300</v>
       </c>
       <c r="J72" s="3">
-        <v>4005700</v>
+        <v>3818300</v>
       </c>
       <c r="K72" s="3">
         <v>4327500</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13920800</v>
+        <v>13269700</v>
       </c>
       <c r="E76" s="3">
-        <v>11993000</v>
+        <v>11432100</v>
       </c>
       <c r="F76" s="3">
-        <v>8974100</v>
+        <v>8554400</v>
       </c>
       <c r="G76" s="3">
-        <v>6605200</v>
+        <v>6296200</v>
       </c>
       <c r="H76" s="3">
-        <v>6678200</v>
+        <v>6365900</v>
       </c>
       <c r="I76" s="3">
-        <v>5577000</v>
+        <v>5316200</v>
       </c>
       <c r="J76" s="3">
-        <v>4269900</v>
+        <v>4070200</v>
       </c>
       <c r="K76" s="3">
         <v>4612900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2461600</v>
+        <v>2346500</v>
       </c>
       <c r="E81" s="3">
-        <v>1761500</v>
+        <v>1679100</v>
       </c>
       <c r="F81" s="3">
-        <v>3101300</v>
+        <v>2956300</v>
       </c>
       <c r="G81" s="3">
-        <v>898400</v>
+        <v>856400</v>
       </c>
       <c r="H81" s="3">
-        <v>1563700</v>
+        <v>1490500</v>
       </c>
       <c r="I81" s="3">
-        <v>1694600</v>
+        <v>1615300</v>
       </c>
       <c r="J81" s="3">
-        <v>983500</v>
+        <v>937500</v>
       </c>
       <c r="K81" s="3">
         <v>750400</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>478400</v>
+        <v>456000</v>
       </c>
       <c r="E83" s="3">
-        <v>504900</v>
+        <v>481300</v>
       </c>
       <c r="F83" s="3">
-        <v>381700</v>
+        <v>363800</v>
       </c>
       <c r="G83" s="3">
-        <v>304300</v>
+        <v>290000</v>
       </c>
       <c r="H83" s="3">
-        <v>117100</v>
+        <v>111600</v>
       </c>
       <c r="I83" s="3">
-        <v>47800</v>
+        <v>45600</v>
       </c>
       <c r="J83" s="3">
-        <v>26600</v>
+        <v>25400</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>17</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3640000</v>
+        <v>3469800</v>
       </c>
       <c r="E89" s="3">
-        <v>3634400</v>
+        <v>3464400</v>
       </c>
       <c r="F89" s="3">
-        <v>2514100</v>
+        <v>2396500</v>
       </c>
       <c r="G89" s="3">
-        <v>1959100</v>
+        <v>1867500</v>
       </c>
       <c r="H89" s="3">
-        <v>1736200</v>
+        <v>1655000</v>
       </c>
       <c r="I89" s="3">
-        <v>2261800</v>
+        <v>2156000</v>
       </c>
       <c r="J89" s="3">
-        <v>1179500</v>
+        <v>1124300</v>
       </c>
       <c r="K89" s="3">
         <v>926500</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-233900</v>
+        <v>-223000</v>
       </c>
       <c r="E91" s="3">
-        <v>-154100</v>
+        <v>-146900</v>
       </c>
       <c r="F91" s="3">
-        <v>-176600</v>
+        <v>-168400</v>
       </c>
       <c r="G91" s="3">
-        <v>-369200</v>
+        <v>-351900</v>
       </c>
       <c r="H91" s="3">
-        <v>-269100</v>
+        <v>-256500</v>
       </c>
       <c r="I91" s="3">
-        <v>-165800</v>
+        <v>-158100</v>
       </c>
       <c r="J91" s="3">
-        <v>-126500</v>
+        <v>-120600</v>
       </c>
       <c r="K91" s="3">
         <v>-84800</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1033600</v>
+        <v>-985300</v>
       </c>
       <c r="E94" s="3">
-        <v>-4263000</v>
+        <v>-4063600</v>
       </c>
       <c r="F94" s="3">
-        <v>-3232600</v>
+        <v>-3081400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1981600</v>
+        <v>-1888900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1877300</v>
+        <v>-1789500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1732100</v>
+        <v>-1651100</v>
       </c>
       <c r="J94" s="3">
-        <v>-370400</v>
+        <v>-353100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>17</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-512300</v>
+        <v>-488400</v>
       </c>
       <c r="E96" s="3">
-        <v>-625100</v>
+        <v>-595800</v>
       </c>
       <c r="F96" s="3">
-        <v>-1291000</v>
+        <v>-1230600</v>
       </c>
       <c r="G96" s="3">
-        <v>-210300</v>
+        <v>-200500</v>
       </c>
       <c r="H96" s="3">
-        <v>-475700</v>
+        <v>-453500</v>
       </c>
       <c r="I96" s="3">
-        <v>-371800</v>
+        <v>-354400</v>
       </c>
       <c r="J96" s="3">
-        <v>-214400</v>
+        <v>-204300</v>
       </c>
       <c r="K96" s="3">
         <v>-312800</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1837900</v>
+        <v>-1751900</v>
       </c>
       <c r="E100" s="3">
-        <v>1447600</v>
+        <v>1379900</v>
       </c>
       <c r="F100" s="3">
-        <v>158100</v>
+        <v>150700</v>
       </c>
       <c r="G100" s="3">
-        <v>231800</v>
+        <v>221000</v>
       </c>
       <c r="H100" s="3">
-        <v>-190200</v>
+        <v>-181300</v>
       </c>
       <c r="I100" s="3">
-        <v>-328600</v>
+        <v>-313300</v>
       </c>
       <c r="J100" s="3">
-        <v>-238400</v>
+        <v>-227300</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>17</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8100</v>
+        <v>-7700</v>
       </c>
       <c r="E101" s="3">
-        <v>23600</v>
+        <v>22500</v>
       </c>
       <c r="F101" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="G101" s="3">
-        <v>11900</v>
+        <v>11300</v>
       </c>
       <c r="H101" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="I101" s="3">
-        <v>19300</v>
+        <v>18400</v>
       </c>
       <c r="J101" s="3">
-        <v>20800</v>
+        <v>19800</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>17</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>760500</v>
+        <v>724900</v>
       </c>
       <c r="E102" s="3">
-        <v>842700</v>
+        <v>803300</v>
       </c>
       <c r="F102" s="3">
-        <v>-556200</v>
+        <v>-530200</v>
       </c>
       <c r="G102" s="3">
-        <v>221300</v>
+        <v>210900</v>
       </c>
       <c r="H102" s="3">
-        <v>-333200</v>
+        <v>-317600</v>
       </c>
       <c r="I102" s="3">
-        <v>220300</v>
+        <v>210000</v>
       </c>
       <c r="J102" s="3">
-        <v>591400</v>
+        <v>563800</v>
       </c>
       <c r="K102" s="3">
         <v>88800</v>

--- a/AAII_Financials/Yearly/NTES_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NTES_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>NTES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12194800</v>
+        <v>13858700</v>
       </c>
       <c r="E8" s="3">
-        <v>10254500</v>
+        <v>12582000</v>
       </c>
       <c r="F8" s="3">
-        <v>8246400</v>
+        <v>10580100</v>
       </c>
       <c r="G8" s="3">
-        <v>7124100</v>
+        <v>8508200</v>
       </c>
       <c r="H8" s="3">
-        <v>6185700</v>
+        <v>7350300</v>
       </c>
       <c r="I8" s="3">
-        <v>4732000</v>
+        <v>6382100</v>
       </c>
       <c r="J8" s="3">
+        <v>4882300</v>
+      </c>
+      <c r="K8" s="3">
         <v>3018900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1847800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1405000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1176700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1082000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5656400</v>
+        <v>6280500</v>
       </c>
       <c r="E9" s="3">
-        <v>4828000</v>
+        <v>5836000</v>
       </c>
       <c r="F9" s="3">
-        <v>3853900</v>
+        <v>4981300</v>
       </c>
       <c r="G9" s="3">
-        <v>3317500</v>
+        <v>3976200</v>
       </c>
       <c r="H9" s="3">
-        <v>2699700</v>
+        <v>3422800</v>
       </c>
       <c r="I9" s="3">
-        <v>4085400</v>
+        <v>2785400</v>
       </c>
       <c r="J9" s="3">
+        <v>4215100</v>
+      </c>
+      <c r="K9" s="3">
         <v>2470500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>514500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>378700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>369900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>352100</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6538300</v>
+        <v>7578300</v>
       </c>
       <c r="E10" s="3">
-        <v>5426500</v>
+        <v>6745900</v>
       </c>
       <c r="F10" s="3">
-        <v>4392500</v>
+        <v>5598800</v>
       </c>
       <c r="G10" s="3">
-        <v>3806600</v>
+        <v>4532000</v>
       </c>
       <c r="H10" s="3">
-        <v>3486000</v>
+        <v>3927500</v>
       </c>
       <c r="I10" s="3">
-        <v>646600</v>
+        <v>3596700</v>
       </c>
       <c r="J10" s="3">
+        <v>667100</v>
+      </c>
+      <c r="K10" s="3">
         <v>548400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1333300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1026300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>806800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>729900</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,47 +863,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1959400</v>
+        <v>2159900</v>
       </c>
       <c r="E12" s="3">
-        <v>1443400</v>
+        <v>2021600</v>
       </c>
       <c r="F12" s="3">
-        <v>1171100</v>
+        <v>1489300</v>
       </c>
       <c r="G12" s="3">
-        <v>1027100</v>
+        <v>1208300</v>
       </c>
       <c r="H12" s="3">
-        <v>579300</v>
+        <v>1059700</v>
       </c>
       <c r="I12" s="3">
-        <v>830600</v>
+        <v>597700</v>
       </c>
       <c r="J12" s="3">
+        <v>857000</v>
+      </c>
+      <c r="K12" s="3">
         <v>595900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>208800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>140800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>103100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>69100</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -928,20 +944,23 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>2700</v>
+      <c r="D14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E14" s="3">
-        <v>7700</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>17</v>
+        <v>2800</v>
+      </c>
+      <c r="F14" s="3">
+        <v>8000</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>17</v>
@@ -958,8 +977,8 @@
       <c r="K14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -967,9 +986,12 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1006,9 +1028,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>9912200</v>
+        <v>11039700</v>
       </c>
       <c r="E17" s="3">
-        <v>8238500</v>
+        <v>10226900</v>
       </c>
       <c r="F17" s="3">
-        <v>6326700</v>
+        <v>8500100</v>
       </c>
       <c r="G17" s="3">
-        <v>5735200</v>
+        <v>6527600</v>
       </c>
       <c r="H17" s="3">
-        <v>4376800</v>
+        <v>5917300</v>
       </c>
       <c r="I17" s="3">
-        <v>2926200</v>
+        <v>4515800</v>
       </c>
       <c r="J17" s="3">
+        <v>3019100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1979200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1096100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>740000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>644100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>588800</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2282600</v>
+        <v>2819100</v>
       </c>
       <c r="E18" s="3">
-        <v>2016000</v>
+        <v>2355100</v>
       </c>
       <c r="F18" s="3">
-        <v>1919700</v>
+        <v>2080000</v>
       </c>
       <c r="G18" s="3">
-        <v>1388800</v>
+        <v>1980600</v>
       </c>
       <c r="H18" s="3">
-        <v>1808900</v>
+        <v>1432900</v>
       </c>
       <c r="I18" s="3">
-        <v>1805800</v>
+        <v>1866300</v>
       </c>
       <c r="J18" s="3">
+        <v>1863100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1039700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>751700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>665000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>532500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>493200</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>681800</v>
+        <v>663800</v>
       </c>
       <c r="E20" s="3">
-        <v>158300</v>
+        <v>703400</v>
       </c>
       <c r="F20" s="3">
-        <v>419200</v>
+        <v>163300</v>
       </c>
       <c r="G20" s="3">
-        <v>197000</v>
+        <v>432600</v>
       </c>
       <c r="H20" s="3">
-        <v>130400</v>
+        <v>203300</v>
       </c>
       <c r="I20" s="3">
-        <v>180600</v>
+        <v>134500</v>
       </c>
       <c r="J20" s="3">
+        <v>186300</v>
+      </c>
+      <c r="K20" s="3">
         <v>119200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>112500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>97100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>81300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>43400</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3416800</v>
+        <v>3894100</v>
       </c>
       <c r="E21" s="3">
-        <v>2651900</v>
+        <v>3529800</v>
       </c>
       <c r="F21" s="3">
-        <v>2699900</v>
+        <v>2740900</v>
       </c>
       <c r="G21" s="3">
-        <v>1873600</v>
+        <v>2789300</v>
       </c>
       <c r="H21" s="3">
-        <v>2050000</v>
+        <v>1936000</v>
       </c>
       <c r="I21" s="3">
-        <v>2031600</v>
+        <v>2116200</v>
       </c>
       <c r="J21" s="3">
+        <v>2096600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1184100</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="3">
         <v>647300</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3">
-        <v>26600</v>
+      <c r="D22" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E22" s="3">
-        <v>34500</v>
+        <v>27500</v>
       </c>
       <c r="F22" s="3">
-        <v>58300</v>
+        <v>35600</v>
       </c>
       <c r="G22" s="3">
-        <v>44000</v>
+        <v>60200</v>
       </c>
       <c r="H22" s="3">
-        <v>12800</v>
+        <v>45400</v>
       </c>
       <c r="I22" s="3">
-        <v>4500</v>
+        <v>13200</v>
       </c>
       <c r="J22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K22" s="3">
         <v>2600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1900</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2937700</v>
+        <v>3482800</v>
       </c>
       <c r="E23" s="3">
-        <v>2139800</v>
+        <v>3031000</v>
       </c>
       <c r="F23" s="3">
-        <v>2280600</v>
+        <v>2207700</v>
       </c>
       <c r="G23" s="3">
-        <v>1541900</v>
+        <v>2353000</v>
       </c>
       <c r="H23" s="3">
-        <v>1926500</v>
+        <v>1590800</v>
       </c>
       <c r="I23" s="3">
-        <v>1981900</v>
+        <v>1987600</v>
       </c>
       <c r="J23" s="3">
+        <v>2044800</v>
+      </c>
+      <c r="K23" s="3">
         <v>1156200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>861100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>760200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>613800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>536600</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>574700</v>
+        <v>722700</v>
       </c>
       <c r="E24" s="3">
-        <v>423400</v>
+        <v>592900</v>
       </c>
       <c r="F24" s="3">
-        <v>405700</v>
+        <v>436900</v>
       </c>
       <c r="G24" s="3">
-        <v>342500</v>
+        <v>418600</v>
       </c>
       <c r="H24" s="3">
-        <v>300100</v>
+        <v>353400</v>
       </c>
       <c r="I24" s="3">
-        <v>292600</v>
+        <v>309600</v>
       </c>
       <c r="J24" s="3">
+        <v>301900</v>
+      </c>
+      <c r="K24" s="3">
         <v>175500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>104600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>81100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>99200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>58300</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2363100</v>
+        <v>2760200</v>
       </c>
       <c r="E26" s="3">
-        <v>1716400</v>
+        <v>2438100</v>
       </c>
       <c r="F26" s="3">
-        <v>1874800</v>
+        <v>1770900</v>
       </c>
       <c r="G26" s="3">
-        <v>1199400</v>
+        <v>1934400</v>
       </c>
       <c r="H26" s="3">
-        <v>1626400</v>
+        <v>1237400</v>
       </c>
       <c r="I26" s="3">
-        <v>1689200</v>
+        <v>1678000</v>
       </c>
       <c r="J26" s="3">
+        <v>1742900</v>
+      </c>
+      <c r="K26" s="3">
         <v>980700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>756600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>679100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>514600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>478300</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2346500</v>
+        <v>2831100</v>
       </c>
       <c r="E27" s="3">
-        <v>1679100</v>
+        <v>2421000</v>
       </c>
       <c r="F27" s="3">
-        <v>1847900</v>
+        <v>1732500</v>
       </c>
       <c r="G27" s="3">
-        <v>1154100</v>
+        <v>1906600</v>
       </c>
       <c r="H27" s="3">
-        <v>1606700</v>
+        <v>1190800</v>
       </c>
       <c r="I27" s="3">
-        <v>1663000</v>
+        <v>1657700</v>
       </c>
       <c r="J27" s="3">
+        <v>1715800</v>
+      </c>
+      <c r="K27" s="3">
         <v>966500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>750400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>678900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>521900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>480000</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,48 +1523,54 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>89700</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>1108400</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-297700</v>
+        <v>1143600</v>
       </c>
       <c r="H29" s="3">
-        <v>-116200</v>
+        <v>-307200</v>
       </c>
       <c r="I29" s="3">
-        <v>-47700</v>
+        <v>-119800</v>
       </c>
       <c r="J29" s="3">
+        <v>-49200</v>
+      </c>
+      <c r="K29" s="3">
         <v>-29000</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-681800</v>
+        <v>-663800</v>
       </c>
       <c r="E32" s="3">
-        <v>-158300</v>
+        <v>-703400</v>
       </c>
       <c r="F32" s="3">
-        <v>-419200</v>
+        <v>-163300</v>
       </c>
       <c r="G32" s="3">
-        <v>-197000</v>
+        <v>-432600</v>
       </c>
       <c r="H32" s="3">
-        <v>-130400</v>
+        <v>-203300</v>
       </c>
       <c r="I32" s="3">
-        <v>-180600</v>
+        <v>-134500</v>
       </c>
       <c r="J32" s="3">
+        <v>-186300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-119200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-112500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-97100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-81300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-43400</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2346500</v>
+        <v>2920900</v>
       </c>
       <c r="E33" s="3">
-        <v>1679100</v>
+        <v>2421000</v>
       </c>
       <c r="F33" s="3">
-        <v>2956300</v>
+        <v>1732500</v>
       </c>
       <c r="G33" s="3">
-        <v>856400</v>
+        <v>3050100</v>
       </c>
       <c r="H33" s="3">
-        <v>1490500</v>
+        <v>883600</v>
       </c>
       <c r="I33" s="3">
-        <v>1615300</v>
+        <v>1537900</v>
       </c>
       <c r="J33" s="3">
+        <v>1666600</v>
+      </c>
+      <c r="K33" s="3">
         <v>937500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>750400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>678900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>521900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>480000</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2346500</v>
+        <v>2920900</v>
       </c>
       <c r="E35" s="3">
-        <v>1679100</v>
+        <v>2421000</v>
       </c>
       <c r="F35" s="3">
-        <v>2956300</v>
+        <v>1732500</v>
       </c>
       <c r="G35" s="3">
-        <v>856400</v>
+        <v>3050100</v>
       </c>
       <c r="H35" s="3">
-        <v>1490500</v>
+        <v>883600</v>
       </c>
       <c r="I35" s="3">
-        <v>1615300</v>
+        <v>1537900</v>
       </c>
       <c r="J35" s="3">
+        <v>1666600</v>
+      </c>
+      <c r="K35" s="3">
         <v>937500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>750400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>678900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>521900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>480000</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,154 +1903,164 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2018100</v>
+        <v>3574600</v>
       </c>
       <c r="E41" s="3">
-        <v>1269100</v>
+        <v>2082200</v>
       </c>
       <c r="F41" s="3">
-        <v>451900</v>
+        <v>1309400</v>
       </c>
       <c r="G41" s="3">
-        <v>694400</v>
+        <v>466200</v>
       </c>
       <c r="H41" s="3">
-        <v>384800</v>
+        <v>716400</v>
       </c>
       <c r="I41" s="3">
-        <v>757200</v>
+        <v>397000</v>
       </c>
       <c r="J41" s="3">
+        <v>781200</v>
+      </c>
+      <c r="K41" s="3">
         <v>845200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>957800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>222800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>228200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>328700</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>11558700</v>
+        <v>13295000</v>
       </c>
       <c r="E42" s="3">
-        <v>11741800</v>
+        <v>11925700</v>
       </c>
       <c r="F42" s="3">
-        <v>9576900</v>
+        <v>12114700</v>
       </c>
       <c r="G42" s="3">
-        <v>6204800</v>
+        <v>9881000</v>
       </c>
       <c r="H42" s="3">
-        <v>5616200</v>
+        <v>6401900</v>
       </c>
       <c r="I42" s="3">
-        <v>4307300</v>
+        <v>5794500</v>
       </c>
       <c r="J42" s="3">
+        <v>4444100</v>
+      </c>
+      <c r="K42" s="3">
         <v>2729300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3093200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2677700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2033400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1587700</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>992700</v>
+        <v>718500</v>
       </c>
       <c r="E43" s="3">
-        <v>932600</v>
+        <v>1024200</v>
       </c>
       <c r="F43" s="3">
-        <v>667400</v>
+        <v>962200</v>
       </c>
       <c r="G43" s="3">
-        <v>1250400</v>
+        <v>688600</v>
       </c>
       <c r="H43" s="3">
-        <v>573900</v>
+        <v>1290100</v>
       </c>
       <c r="I43" s="3">
-        <v>1235100</v>
+        <v>592200</v>
       </c>
       <c r="J43" s="3">
+        <v>1274400</v>
+      </c>
+      <c r="K43" s="3">
         <v>410000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>464700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>104500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>66300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>50800</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>134300</v>
+        <v>142700</v>
       </c>
       <c r="E44" s="3">
-        <v>86500</v>
+        <v>138600</v>
       </c>
       <c r="F44" s="3">
-        <v>90600</v>
+        <v>89200</v>
       </c>
       <c r="G44" s="3">
-        <v>148300</v>
+        <v>93400</v>
       </c>
       <c r="H44" s="3">
-        <v>762100</v>
+        <v>153000</v>
       </c>
       <c r="I44" s="3">
-        <v>219700</v>
+        <v>786300</v>
       </c>
       <c r="J44" s="3">
+        <v>226700</v>
+      </c>
+      <c r="K44" s="3">
         <v>113800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>129000</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>17</v>
@@ -1973,204 +2068,222 @@
       <c r="N44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1042500</v>
+        <v>1170100</v>
       </c>
       <c r="E45" s="3">
-        <v>980000</v>
+        <v>1075600</v>
       </c>
       <c r="F45" s="3">
-        <v>1059900</v>
+        <v>1011100</v>
       </c>
       <c r="G45" s="3">
-        <v>2508400</v>
+        <v>1093500</v>
       </c>
       <c r="H45" s="3">
-        <v>1286100</v>
+        <v>2588100</v>
       </c>
       <c r="I45" s="3">
-        <v>1755700</v>
+        <v>1327000</v>
       </c>
       <c r="J45" s="3">
+        <v>1811500</v>
+      </c>
+      <c r="K45" s="3">
         <v>691400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>783600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>478000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>235800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>180900</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15746300</v>
+        <v>18900900</v>
       </c>
       <c r="E46" s="3">
-        <v>15010100</v>
+        <v>16246300</v>
       </c>
       <c r="F46" s="3">
-        <v>11846600</v>
+        <v>15486700</v>
       </c>
       <c r="G46" s="3">
-        <v>9565200</v>
+        <v>12222800</v>
       </c>
       <c r="H46" s="3">
-        <v>8623100</v>
+        <v>9869000</v>
       </c>
       <c r="I46" s="3">
-        <v>6874200</v>
+        <v>8896900</v>
       </c>
       <c r="J46" s="3">
+        <v>7092400</v>
+      </c>
+      <c r="K46" s="3">
         <v>4789700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5428400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3483000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2563800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2148100</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3450200</v>
+        <v>427100</v>
       </c>
       <c r="E47" s="3">
-        <v>2580600</v>
+        <v>3559700</v>
       </c>
       <c r="F47" s="3">
-        <v>1844900</v>
+        <v>2662600</v>
       </c>
       <c r="G47" s="3">
-        <v>744200</v>
+        <v>1903500</v>
       </c>
       <c r="H47" s="3">
-        <v>387600</v>
+        <v>767800</v>
       </c>
       <c r="I47" s="3">
-        <v>350800</v>
+        <v>399900</v>
       </c>
       <c r="J47" s="3">
+        <v>361900</v>
+      </c>
+      <c r="K47" s="3">
         <v>400200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>453500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>117000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>75200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5000</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>901700</v>
+        <v>910900</v>
       </c>
       <c r="E48" s="3">
-        <v>741700</v>
+        <v>930400</v>
       </c>
       <c r="F48" s="3">
-        <v>707900</v>
+        <v>765300</v>
       </c>
       <c r="G48" s="3">
-        <v>1399200</v>
+        <v>730400</v>
       </c>
       <c r="H48" s="3">
-        <v>524700</v>
+        <v>1443600</v>
       </c>
       <c r="I48" s="3">
-        <v>673600</v>
+        <v>541400</v>
       </c>
       <c r="J48" s="3">
+        <v>695000</v>
+      </c>
+      <c r="K48" s="3">
         <v>291200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>367700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>133200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>116900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>125900</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>447200</v>
+      <c r="D49" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E49" s="3">
-        <v>618700</v>
+        <v>461400</v>
       </c>
       <c r="F49" s="3">
-        <v>506600</v>
+        <v>638300</v>
       </c>
       <c r="G49" s="3">
-        <v>343100</v>
+        <v>522700</v>
       </c>
       <c r="H49" s="3">
-        <v>114200</v>
+        <v>354000</v>
       </c>
       <c r="I49" s="3">
-        <v>35400</v>
+        <v>117800</v>
       </c>
       <c r="J49" s="3">
+        <v>36500</v>
+      </c>
+      <c r="K49" s="3">
         <v>26600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>30100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9000</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>841800</v>
+        <v>4573100</v>
       </c>
       <c r="E52" s="3">
-        <v>797800</v>
+        <v>868500</v>
       </c>
       <c r="F52" s="3">
-        <v>701800</v>
+        <v>823200</v>
       </c>
       <c r="G52" s="3">
-        <v>1945300</v>
+        <v>724000</v>
       </c>
       <c r="H52" s="3">
-        <v>237900</v>
+        <v>2007100</v>
       </c>
       <c r="I52" s="3">
-        <v>824700</v>
+        <v>245500</v>
       </c>
       <c r="J52" s="3">
+        <v>850900</v>
+      </c>
+      <c r="K52" s="3">
         <v>221400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>213300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7900</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21387200</v>
+        <v>24811900</v>
       </c>
       <c r="E54" s="3">
-        <v>19748900</v>
+        <v>22066300</v>
       </c>
       <c r="F54" s="3">
-        <v>15607700</v>
+        <v>20376000</v>
       </c>
       <c r="G54" s="3">
-        <v>12105900</v>
+        <v>16103300</v>
       </c>
       <c r="H54" s="3">
-        <v>9887600</v>
+        <v>12490300</v>
       </c>
       <c r="I54" s="3">
-        <v>8078000</v>
+        <v>10201500</v>
       </c>
       <c r="J54" s="3">
+        <v>8334500</v>
+      </c>
+      <c r="K54" s="3">
         <v>5729100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6493000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3750200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2766000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2292200</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,172 +2527,185 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>137100</v>
+        <v>216500</v>
       </c>
       <c r="E57" s="3">
-        <v>157900</v>
+        <v>141500</v>
       </c>
       <c r="F57" s="3">
-        <v>168800</v>
+        <v>162900</v>
       </c>
       <c r="G57" s="3">
-        <v>167300</v>
+        <v>174100</v>
       </c>
       <c r="H57" s="3">
-        <v>340000</v>
+        <v>172600</v>
       </c>
       <c r="I57" s="3">
-        <v>194300</v>
+        <v>350800</v>
       </c>
       <c r="J57" s="3">
+        <v>200500</v>
+      </c>
+      <c r="K57" s="3">
         <v>97500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>110500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>33500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>22600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19900</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2693800</v>
+        <v>3429000</v>
       </c>
       <c r="E58" s="3">
-        <v>2715100</v>
+        <v>2779400</v>
       </c>
       <c r="F58" s="3">
-        <v>2342500</v>
+        <v>2801300</v>
       </c>
       <c r="G58" s="3">
-        <v>1901300</v>
+        <v>2416900</v>
       </c>
       <c r="H58" s="3">
-        <v>922000</v>
+        <v>1961600</v>
       </c>
       <c r="I58" s="3">
-        <v>531100</v>
+        <v>951300</v>
       </c>
       <c r="J58" s="3">
+        <v>548000</v>
+      </c>
+      <c r="K58" s="3">
         <v>316400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>358600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>149000</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4198800</v>
+        <v>4516300</v>
       </c>
       <c r="E59" s="3">
-        <v>3633700</v>
+        <v>4332100</v>
       </c>
       <c r="F59" s="3">
-        <v>2812200</v>
+        <v>3749100</v>
       </c>
       <c r="G59" s="3">
-        <v>3632700</v>
+        <v>2901500</v>
       </c>
       <c r="H59" s="3">
-        <v>2044000</v>
+        <v>3748100</v>
       </c>
       <c r="I59" s="3">
-        <v>2441900</v>
+        <v>2108900</v>
       </c>
       <c r="J59" s="3">
+        <v>2519500</v>
+      </c>
+      <c r="K59" s="3">
         <v>1210200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1371600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>464200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>490500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>318800</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7029800</v>
+        <v>8161800</v>
       </c>
       <c r="E60" s="3">
-        <v>6506700</v>
+        <v>7253000</v>
       </c>
       <c r="F60" s="3">
-        <v>5323400</v>
+        <v>6713300</v>
       </c>
       <c r="G60" s="3">
-        <v>4887200</v>
+        <v>5492500</v>
       </c>
       <c r="H60" s="3">
-        <v>3306000</v>
+        <v>5042400</v>
       </c>
       <c r="I60" s="3">
-        <v>2669400</v>
+        <v>3411000</v>
       </c>
       <c r="J60" s="3">
+        <v>2754100</v>
+      </c>
+      <c r="K60" s="3">
         <v>1624100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1840700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>646700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>513200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>338800</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>177500</v>
+        <v>524900</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>183100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2592,48 +2734,54 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>340100</v>
+        <v>488800</v>
       </c>
       <c r="E62" s="3">
-        <v>186100</v>
+        <v>350900</v>
       </c>
       <c r="F62" s="3">
-        <v>116800</v>
+        <v>192000</v>
       </c>
       <c r="G62" s="3">
-        <v>61500</v>
+        <v>120500</v>
       </c>
       <c r="H62" s="3">
-        <v>32200</v>
+        <v>63400</v>
       </c>
       <c r="I62" s="3">
-        <v>54600</v>
+        <v>33200</v>
       </c>
       <c r="J62" s="3">
+        <v>56400</v>
+      </c>
+      <c r="K62" s="3">
         <v>23200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>26300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>22100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9500</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8117600</v>
+        <v>9770400</v>
       </c>
       <c r="E66" s="3">
-        <v>8316900</v>
+        <v>8375300</v>
       </c>
       <c r="F66" s="3">
-        <v>7053400</v>
+        <v>8581000</v>
       </c>
       <c r="G66" s="3">
-        <v>5809700</v>
+        <v>7277300</v>
       </c>
       <c r="H66" s="3">
-        <v>3521700</v>
+        <v>5994200</v>
       </c>
       <c r="I66" s="3">
-        <v>2761800</v>
+        <v>3633500</v>
       </c>
       <c r="J66" s="3">
+        <v>2849500</v>
+      </c>
+      <c r="K66" s="3">
         <v>1658900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1880100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>657100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>516100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>344000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>10960600</v>
+      <c r="D72" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E72" s="3">
-        <v>9102400</v>
+        <v>11308600</v>
       </c>
       <c r="F72" s="3">
-        <v>8019200</v>
+        <v>9391500</v>
       </c>
       <c r="G72" s="3">
-        <v>6293500</v>
+        <v>8273800</v>
       </c>
       <c r="H72" s="3">
-        <v>6116400</v>
+        <v>6493300</v>
       </c>
       <c r="I72" s="3">
-        <v>5079300</v>
+        <v>6310600</v>
       </c>
       <c r="J72" s="3">
+        <v>5240500</v>
+      </c>
+      <c r="K72" s="3">
         <v>3818300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4327500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2827800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2053100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1728800</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13269700</v>
+        <v>15041500</v>
       </c>
       <c r="E76" s="3">
-        <v>11432100</v>
+        <v>13691000</v>
       </c>
       <c r="F76" s="3">
-        <v>8554400</v>
+        <v>11795100</v>
       </c>
       <c r="G76" s="3">
-        <v>6296200</v>
+        <v>8826000</v>
       </c>
       <c r="H76" s="3">
-        <v>6365900</v>
+        <v>6496200</v>
       </c>
       <c r="I76" s="3">
-        <v>5316200</v>
+        <v>6568000</v>
       </c>
       <c r="J76" s="3">
+        <v>5485000</v>
+      </c>
+      <c r="K76" s="3">
         <v>4070200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4612900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3093100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2249900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1948100</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2346500</v>
+        <v>2920900</v>
       </c>
       <c r="E81" s="3">
-        <v>1679100</v>
+        <v>2421000</v>
       </c>
       <c r="F81" s="3">
-        <v>2956300</v>
+        <v>1732500</v>
       </c>
       <c r="G81" s="3">
-        <v>856400</v>
+        <v>3050100</v>
       </c>
       <c r="H81" s="3">
-        <v>1490500</v>
+        <v>883600</v>
       </c>
       <c r="I81" s="3">
-        <v>1615300</v>
+        <v>1537900</v>
       </c>
       <c r="J81" s="3">
+        <v>1666600</v>
+      </c>
+      <c r="K81" s="3">
         <v>937500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>750400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>678900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>521900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>480000</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>456000</v>
+        <v>410500</v>
       </c>
       <c r="E83" s="3">
-        <v>481300</v>
+        <v>470500</v>
       </c>
       <c r="F83" s="3">
-        <v>363800</v>
+        <v>496600</v>
       </c>
       <c r="G83" s="3">
-        <v>290000</v>
+        <v>375400</v>
       </c>
       <c r="H83" s="3">
-        <v>111600</v>
+        <v>299200</v>
       </c>
       <c r="I83" s="3">
-        <v>45600</v>
+        <v>115200</v>
       </c>
       <c r="J83" s="3">
+        <v>47000</v>
+      </c>
+      <c r="K83" s="3">
         <v>25400</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N83" s="3">
         <v>33500</v>
       </c>
-      <c r="N83" s="3" t="s">
+      <c r="O83" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3469800</v>
+        <v>3979600</v>
       </c>
       <c r="E89" s="3">
-        <v>3464400</v>
+        <v>3580000</v>
       </c>
       <c r="F89" s="3">
-        <v>2396500</v>
+        <v>3574400</v>
       </c>
       <c r="G89" s="3">
-        <v>1867500</v>
+        <v>2472600</v>
       </c>
       <c r="H89" s="3">
-        <v>1655000</v>
+        <v>1926800</v>
       </c>
       <c r="I89" s="3">
-        <v>2156000</v>
+        <v>1707500</v>
       </c>
       <c r="J89" s="3">
+        <v>2224400</v>
+      </c>
+      <c r="K89" s="3">
         <v>1124300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>926500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>799900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>606100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>604500</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-223000</v>
+        <v>-301600</v>
       </c>
       <c r="E91" s="3">
-        <v>-146900</v>
+        <v>-230100</v>
       </c>
       <c r="F91" s="3">
-        <v>-168400</v>
+        <v>-151600</v>
       </c>
       <c r="G91" s="3">
-        <v>-351900</v>
+        <v>-173700</v>
       </c>
       <c r="H91" s="3">
-        <v>-256500</v>
+        <v>-363100</v>
       </c>
       <c r="I91" s="3">
-        <v>-158100</v>
+        <v>-264700</v>
       </c>
       <c r="J91" s="3">
+        <v>-163100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-120600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-84800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-33400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-25600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-60900</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-985300</v>
+        <v>-1058400</v>
       </c>
       <c r="E94" s="3">
-        <v>-4063600</v>
+        <v>-1016600</v>
       </c>
       <c r="F94" s="3">
-        <v>-3081400</v>
+        <v>-4192600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1888900</v>
+        <v>-3179300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1789500</v>
+        <v>-1948900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1651100</v>
+        <v>-1846300</v>
       </c>
       <c r="J94" s="3">
+        <v>-1703500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-353100</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N94" s="3">
         <v>-639100</v>
       </c>
-      <c r="N94" s="3" t="s">
+      <c r="O94" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-488400</v>
+        <v>-965700</v>
       </c>
       <c r="E96" s="3">
-        <v>-595800</v>
+        <v>-503900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1230600</v>
+        <v>-614800</v>
       </c>
       <c r="G96" s="3">
-        <v>-200500</v>
+        <v>-1269700</v>
       </c>
       <c r="H96" s="3">
-        <v>-453500</v>
+        <v>-206800</v>
       </c>
       <c r="I96" s="3">
-        <v>-354400</v>
+        <v>-467900</v>
       </c>
       <c r="J96" s="3">
+        <v>-365700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-204300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-312800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-124600</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1751900</v>
+        <v>-1470300</v>
       </c>
       <c r="E100" s="3">
-        <v>1379900</v>
+        <v>-1807500</v>
       </c>
       <c r="F100" s="3">
-        <v>150700</v>
+        <v>1423700</v>
       </c>
       <c r="G100" s="3">
-        <v>221000</v>
+        <v>155500</v>
       </c>
       <c r="H100" s="3">
-        <v>-181300</v>
+        <v>228000</v>
       </c>
       <c r="I100" s="3">
-        <v>-313300</v>
+        <v>-187100</v>
       </c>
       <c r="J100" s="3">
+        <v>-323200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-227300</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N100" s="3">
         <v>-56000</v>
       </c>
-      <c r="N100" s="3" t="s">
+      <c r="O100" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7700</v>
+        <v>15900</v>
       </c>
       <c r="E101" s="3">
-        <v>22500</v>
+        <v>-7900</v>
       </c>
       <c r="F101" s="3">
-        <v>4000</v>
+        <v>23300</v>
       </c>
       <c r="G101" s="3">
-        <v>11300</v>
+        <v>4200</v>
       </c>
       <c r="H101" s="3">
+        <v>11700</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1800</v>
       </c>
-      <c r="I101" s="3">
-        <v>18400</v>
-      </c>
       <c r="J101" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K101" s="3">
         <v>19800</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N101" s="3">
         <v>-600</v>
       </c>
-      <c r="N101" s="3" t="s">
+      <c r="O101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>724900</v>
+        <v>1466700</v>
       </c>
       <c r="E102" s="3">
-        <v>803300</v>
+        <v>747900</v>
       </c>
       <c r="F102" s="3">
-        <v>-530200</v>
+        <v>828800</v>
       </c>
       <c r="G102" s="3">
-        <v>210900</v>
+        <v>-547000</v>
       </c>
       <c r="H102" s="3">
-        <v>-317600</v>
+        <v>217600</v>
       </c>
       <c r="I102" s="3">
-        <v>210000</v>
+        <v>-327700</v>
       </c>
       <c r="J102" s="3">
+        <v>216700</v>
+      </c>
+      <c r="K102" s="3">
         <v>563800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>88800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-20200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-89500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>137900</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NTES_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NTES_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>NTES</t>
   </si>
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13858700</v>
+        <v>13716900</v>
       </c>
       <c r="E8" s="3">
-        <v>12582000</v>
+        <v>12453200</v>
       </c>
       <c r="F8" s="3">
-        <v>10580100</v>
+        <v>10471800</v>
       </c>
       <c r="G8" s="3">
-        <v>8508200</v>
+        <v>8421100</v>
       </c>
       <c r="H8" s="3">
-        <v>7350300</v>
+        <v>7275000</v>
       </c>
       <c r="I8" s="3">
-        <v>6382100</v>
+        <v>6316800</v>
       </c>
       <c r="J8" s="3">
-        <v>4882300</v>
+        <v>4832300</v>
       </c>
       <c r="K8" s="3">
         <v>3018900</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6280500</v>
+        <v>6216200</v>
       </c>
       <c r="E9" s="3">
-        <v>5836000</v>
+        <v>5776300</v>
       </c>
       <c r="F9" s="3">
-        <v>4981300</v>
+        <v>4930300</v>
       </c>
       <c r="G9" s="3">
-        <v>3976200</v>
+        <v>3935500</v>
       </c>
       <c r="H9" s="3">
-        <v>3422800</v>
+        <v>3387800</v>
       </c>
       <c r="I9" s="3">
-        <v>2785400</v>
+        <v>2756900</v>
       </c>
       <c r="J9" s="3">
-        <v>4215100</v>
+        <v>4172000</v>
       </c>
       <c r="K9" s="3">
         <v>2470500</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7578300</v>
+        <v>7500700</v>
       </c>
       <c r="E10" s="3">
-        <v>6745900</v>
+        <v>6676900</v>
       </c>
       <c r="F10" s="3">
-        <v>5598800</v>
+        <v>5541500</v>
       </c>
       <c r="G10" s="3">
-        <v>4532000</v>
+        <v>4485600</v>
       </c>
       <c r="H10" s="3">
-        <v>3927500</v>
+        <v>3887300</v>
       </c>
       <c r="I10" s="3">
-        <v>3596700</v>
+        <v>3559900</v>
       </c>
       <c r="J10" s="3">
-        <v>667100</v>
+        <v>660300</v>
       </c>
       <c r="K10" s="3">
         <v>548400</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2159900</v>
+        <v>2137800</v>
       </c>
       <c r="E12" s="3">
-        <v>2021600</v>
+        <v>2000900</v>
       </c>
       <c r="F12" s="3">
-        <v>1489300</v>
+        <v>1474000</v>
       </c>
       <c r="G12" s="3">
-        <v>1208300</v>
+        <v>1195900</v>
       </c>
       <c r="H12" s="3">
-        <v>1059700</v>
+        <v>1048800</v>
       </c>
       <c r="I12" s="3">
-        <v>597700</v>
+        <v>591600</v>
       </c>
       <c r="J12" s="3">
-        <v>857000</v>
+        <v>848200</v>
       </c>
       <c r="K12" s="3">
         <v>595900</v>
@@ -953,14 +953,14 @@
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>17</v>
+      <c r="D14" s="3">
+        <v>7900</v>
       </c>
       <c r="E14" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="F14" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>17</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>11039700</v>
+        <v>10934600</v>
       </c>
       <c r="E17" s="3">
-        <v>10226900</v>
+        <v>10122200</v>
       </c>
       <c r="F17" s="3">
-        <v>8500100</v>
+        <v>8413100</v>
       </c>
       <c r="G17" s="3">
-        <v>6527600</v>
+        <v>6460800</v>
       </c>
       <c r="H17" s="3">
-        <v>5917300</v>
+        <v>5856800</v>
       </c>
       <c r="I17" s="3">
-        <v>4515800</v>
+        <v>4469500</v>
       </c>
       <c r="J17" s="3">
-        <v>3019100</v>
+        <v>2988200</v>
       </c>
       <c r="K17" s="3">
         <v>1979200</v>
@@ -1095,25 +1095,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2819100</v>
+        <v>2782300</v>
       </c>
       <c r="E18" s="3">
-        <v>2355100</v>
+        <v>2331000</v>
       </c>
       <c r="F18" s="3">
-        <v>2080000</v>
+        <v>2058700</v>
       </c>
       <c r="G18" s="3">
-        <v>1980600</v>
+        <v>1960300</v>
       </c>
       <c r="H18" s="3">
-        <v>1432900</v>
+        <v>1418300</v>
       </c>
       <c r="I18" s="3">
-        <v>1866300</v>
+        <v>1847200</v>
       </c>
       <c r="J18" s="3">
-        <v>1863100</v>
+        <v>1844100</v>
       </c>
       <c r="K18" s="3">
         <v>1039700</v>
@@ -1155,25 +1155,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>663800</v>
+        <v>664900</v>
       </c>
       <c r="E20" s="3">
-        <v>703400</v>
+        <v>696200</v>
       </c>
       <c r="F20" s="3">
-        <v>163300</v>
+        <v>161600</v>
       </c>
       <c r="G20" s="3">
-        <v>432600</v>
+        <v>428100</v>
       </c>
       <c r="H20" s="3">
-        <v>203300</v>
+        <v>201200</v>
       </c>
       <c r="I20" s="3">
-        <v>134500</v>
+        <v>133200</v>
       </c>
       <c r="J20" s="3">
-        <v>186300</v>
+        <v>184400</v>
       </c>
       <c r="K20" s="3">
         <v>119200</v>
@@ -1197,25 +1197,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3894100</v>
+        <v>3855600</v>
       </c>
       <c r="E21" s="3">
-        <v>3529800</v>
+        <v>3495300</v>
       </c>
       <c r="F21" s="3">
-        <v>2740900</v>
+        <v>2714500</v>
       </c>
       <c r="G21" s="3">
-        <v>2789300</v>
+        <v>2762000</v>
       </c>
       <c r="H21" s="3">
-        <v>1936000</v>
+        <v>1917200</v>
       </c>
       <c r="I21" s="3">
-        <v>2116200</v>
+        <v>2095000</v>
       </c>
       <c r="J21" s="3">
-        <v>2096600</v>
+        <v>2075300</v>
       </c>
       <c r="K21" s="3">
         <v>1184100</v>
@@ -1242,19 +1242,19 @@
         <v>17</v>
       </c>
       <c r="E22" s="3">
-        <v>27500</v>
+        <v>27200</v>
       </c>
       <c r="F22" s="3">
-        <v>35600</v>
+        <v>35200</v>
       </c>
       <c r="G22" s="3">
-        <v>60200</v>
+        <v>59600</v>
       </c>
       <c r="H22" s="3">
-        <v>45400</v>
+        <v>44900</v>
       </c>
       <c r="I22" s="3">
-        <v>13200</v>
+        <v>13100</v>
       </c>
       <c r="J22" s="3">
         <v>4600</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3482800</v>
+        <v>3447200</v>
       </c>
       <c r="E23" s="3">
-        <v>3031000</v>
+        <v>3000000</v>
       </c>
       <c r="F23" s="3">
-        <v>2207700</v>
+        <v>2185100</v>
       </c>
       <c r="G23" s="3">
-        <v>2353000</v>
+        <v>2328900</v>
       </c>
       <c r="H23" s="3">
-        <v>1590800</v>
+        <v>1574600</v>
       </c>
       <c r="I23" s="3">
-        <v>1987600</v>
+        <v>1967300</v>
       </c>
       <c r="J23" s="3">
-        <v>2044800</v>
+        <v>2023900</v>
       </c>
       <c r="K23" s="3">
         <v>1156200</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>722700</v>
+        <v>715300</v>
       </c>
       <c r="E24" s="3">
-        <v>592900</v>
+        <v>586800</v>
       </c>
       <c r="F24" s="3">
-        <v>436900</v>
+        <v>432400</v>
       </c>
       <c r="G24" s="3">
-        <v>418600</v>
+        <v>414300</v>
       </c>
       <c r="H24" s="3">
-        <v>353400</v>
+        <v>349800</v>
       </c>
       <c r="I24" s="3">
-        <v>309600</v>
+        <v>306500</v>
       </c>
       <c r="J24" s="3">
-        <v>301900</v>
+        <v>298800</v>
       </c>
       <c r="K24" s="3">
         <v>175500</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2760200</v>
+        <v>2731900</v>
       </c>
       <c r="E26" s="3">
-        <v>2438100</v>
+        <v>2413200</v>
       </c>
       <c r="F26" s="3">
-        <v>1770900</v>
+        <v>1752700</v>
       </c>
       <c r="G26" s="3">
-        <v>1934400</v>
+        <v>1914600</v>
       </c>
       <c r="H26" s="3">
-        <v>1237400</v>
+        <v>1224800</v>
       </c>
       <c r="I26" s="3">
-        <v>1678000</v>
+        <v>1660800</v>
       </c>
       <c r="J26" s="3">
-        <v>1742900</v>
+        <v>1725000</v>
       </c>
       <c r="K26" s="3">
         <v>980700</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2831100</v>
+        <v>2802200</v>
       </c>
       <c r="E27" s="3">
-        <v>2421000</v>
+        <v>2396200</v>
       </c>
       <c r="F27" s="3">
-        <v>1732500</v>
+        <v>1714700</v>
       </c>
       <c r="G27" s="3">
-        <v>1906600</v>
+        <v>1887000</v>
       </c>
       <c r="H27" s="3">
-        <v>1190800</v>
+        <v>1178600</v>
       </c>
       <c r="I27" s="3">
-        <v>1657700</v>
+        <v>1640800</v>
       </c>
       <c r="J27" s="3">
-        <v>1715800</v>
+        <v>1698300</v>
       </c>
       <c r="K27" s="3">
         <v>966500</v>
@@ -1533,7 +1533,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>89700</v>
+        <v>88800</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1542,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>1143600</v>
+        <v>1131900</v>
       </c>
       <c r="H29" s="3">
-        <v>-307200</v>
+        <v>-304000</v>
       </c>
       <c r="I29" s="3">
-        <v>-119800</v>
+        <v>-118600</v>
       </c>
       <c r="J29" s="3">
-        <v>-49200</v>
+        <v>-48700</v>
       </c>
       <c r="K29" s="3">
         <v>-29000</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-663800</v>
+        <v>-664900</v>
       </c>
       <c r="E32" s="3">
-        <v>-703400</v>
+        <v>-696200</v>
       </c>
       <c r="F32" s="3">
-        <v>-163300</v>
+        <v>-161600</v>
       </c>
       <c r="G32" s="3">
-        <v>-432600</v>
+        <v>-428100</v>
       </c>
       <c r="H32" s="3">
-        <v>-203300</v>
+        <v>-201200</v>
       </c>
       <c r="I32" s="3">
-        <v>-134500</v>
+        <v>-133200</v>
       </c>
       <c r="J32" s="3">
-        <v>-186300</v>
+        <v>-184400</v>
       </c>
       <c r="K32" s="3">
         <v>-119200</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2920900</v>
+        <v>2891000</v>
       </c>
       <c r="E33" s="3">
-        <v>2421000</v>
+        <v>2396200</v>
       </c>
       <c r="F33" s="3">
-        <v>1732500</v>
+        <v>1714700</v>
       </c>
       <c r="G33" s="3">
-        <v>3050100</v>
+        <v>3018900</v>
       </c>
       <c r="H33" s="3">
-        <v>883600</v>
+        <v>874600</v>
       </c>
       <c r="I33" s="3">
-        <v>1537900</v>
+        <v>1522100</v>
       </c>
       <c r="J33" s="3">
-        <v>1666600</v>
+        <v>1649600</v>
       </c>
       <c r="K33" s="3">
         <v>937500</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2920900</v>
+        <v>2891000</v>
       </c>
       <c r="E35" s="3">
-        <v>2421000</v>
+        <v>2396200</v>
       </c>
       <c r="F35" s="3">
-        <v>1732500</v>
+        <v>1714700</v>
       </c>
       <c r="G35" s="3">
-        <v>3050100</v>
+        <v>3018900</v>
       </c>
       <c r="H35" s="3">
-        <v>883600</v>
+        <v>874600</v>
       </c>
       <c r="I35" s="3">
-        <v>1537900</v>
+        <v>1522100</v>
       </c>
       <c r="J35" s="3">
-        <v>1666600</v>
+        <v>1649600</v>
       </c>
       <c r="K35" s="3">
         <v>937500</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3574600</v>
+        <v>3538000</v>
       </c>
       <c r="E41" s="3">
-        <v>2082200</v>
+        <v>2060900</v>
       </c>
       <c r="F41" s="3">
-        <v>1309400</v>
+        <v>1296000</v>
       </c>
       <c r="G41" s="3">
-        <v>466200</v>
+        <v>461500</v>
       </c>
       <c r="H41" s="3">
-        <v>716400</v>
+        <v>709100</v>
       </c>
       <c r="I41" s="3">
-        <v>397000</v>
+        <v>392900</v>
       </c>
       <c r="J41" s="3">
-        <v>781200</v>
+        <v>773200</v>
       </c>
       <c r="K41" s="3">
         <v>845200</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>13295000</v>
+        <v>13158900</v>
       </c>
       <c r="E42" s="3">
-        <v>11925700</v>
+        <v>11803600</v>
       </c>
       <c r="F42" s="3">
-        <v>12114700</v>
+        <v>11990700</v>
       </c>
       <c r="G42" s="3">
-        <v>9881000</v>
+        <v>9779900</v>
       </c>
       <c r="H42" s="3">
-        <v>6401900</v>
+        <v>6336300</v>
       </c>
       <c r="I42" s="3">
-        <v>5794500</v>
+        <v>5735200</v>
       </c>
       <c r="J42" s="3">
-        <v>4444100</v>
+        <v>4398600</v>
       </c>
       <c r="K42" s="3">
         <v>2729300</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>718500</v>
+        <v>926800</v>
       </c>
       <c r="E43" s="3">
-        <v>1024200</v>
+        <v>1013700</v>
       </c>
       <c r="F43" s="3">
-        <v>962200</v>
+        <v>952400</v>
       </c>
       <c r="G43" s="3">
-        <v>688600</v>
+        <v>681500</v>
       </c>
       <c r="H43" s="3">
-        <v>1290100</v>
+        <v>1276900</v>
       </c>
       <c r="I43" s="3">
-        <v>592200</v>
+        <v>586100</v>
       </c>
       <c r="J43" s="3">
-        <v>1274400</v>
+        <v>1261300</v>
       </c>
       <c r="K43" s="3">
         <v>410000</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>142700</v>
+        <v>141200</v>
       </c>
       <c r="E44" s="3">
-        <v>138600</v>
+        <v>137100</v>
       </c>
       <c r="F44" s="3">
-        <v>89200</v>
+        <v>88300</v>
       </c>
       <c r="G44" s="3">
-        <v>93400</v>
+        <v>92500</v>
       </c>
       <c r="H44" s="3">
-        <v>153000</v>
+        <v>151500</v>
       </c>
       <c r="I44" s="3">
-        <v>786300</v>
+        <v>778300</v>
       </c>
       <c r="J44" s="3">
-        <v>226700</v>
+        <v>224300</v>
       </c>
       <c r="K44" s="3">
         <v>113800</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1170100</v>
+        <v>942500</v>
       </c>
       <c r="E45" s="3">
-        <v>1075600</v>
+        <v>1064600</v>
       </c>
       <c r="F45" s="3">
-        <v>1011100</v>
+        <v>1000800</v>
       </c>
       <c r="G45" s="3">
-        <v>1093500</v>
+        <v>1082300</v>
       </c>
       <c r="H45" s="3">
-        <v>2588100</v>
+        <v>2561600</v>
       </c>
       <c r="I45" s="3">
-        <v>1327000</v>
+        <v>1313400</v>
       </c>
       <c r="J45" s="3">
-        <v>1811500</v>
+        <v>1793000</v>
       </c>
       <c r="K45" s="3">
         <v>691400</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18900900</v>
+        <v>18707400</v>
       </c>
       <c r="E46" s="3">
-        <v>16246300</v>
+        <v>16080000</v>
       </c>
       <c r="F46" s="3">
-        <v>15486700</v>
+        <v>15328200</v>
       </c>
       <c r="G46" s="3">
-        <v>12222800</v>
+        <v>12097700</v>
       </c>
       <c r="H46" s="3">
-        <v>9869000</v>
+        <v>9767900</v>
       </c>
       <c r="I46" s="3">
-        <v>8896900</v>
+        <v>8805900</v>
       </c>
       <c r="J46" s="3">
-        <v>7092400</v>
+        <v>7019800</v>
       </c>
       <c r="K46" s="3">
         <v>4789700</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>427100</v>
+        <v>3306000</v>
       </c>
       <c r="E47" s="3">
-        <v>3559700</v>
+        <v>3523300</v>
       </c>
       <c r="F47" s="3">
-        <v>2662600</v>
+        <v>2635300</v>
       </c>
       <c r="G47" s="3">
-        <v>1903500</v>
+        <v>1884000</v>
       </c>
       <c r="H47" s="3">
-        <v>767800</v>
+        <v>759900</v>
       </c>
       <c r="I47" s="3">
-        <v>399900</v>
+        <v>395900</v>
       </c>
       <c r="J47" s="3">
-        <v>361900</v>
+        <v>358200</v>
       </c>
       <c r="K47" s="3">
         <v>400200</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>910900</v>
+        <v>1027800</v>
       </c>
       <c r="E48" s="3">
-        <v>930400</v>
+        <v>920800</v>
       </c>
       <c r="F48" s="3">
-        <v>765300</v>
+        <v>757500</v>
       </c>
       <c r="G48" s="3">
-        <v>730400</v>
+        <v>722900</v>
       </c>
       <c r="H48" s="3">
-        <v>1443600</v>
+        <v>1428800</v>
       </c>
       <c r="I48" s="3">
-        <v>541400</v>
+        <v>535800</v>
       </c>
       <c r="J48" s="3">
-        <v>695000</v>
+        <v>687900</v>
       </c>
       <c r="K48" s="3">
         <v>291200</v>
@@ -2245,26 +2245,26 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>17</v>
+      <c r="D49" s="3">
+        <v>609000</v>
       </c>
       <c r="E49" s="3">
-        <v>461400</v>
+        <v>456600</v>
       </c>
       <c r="F49" s="3">
-        <v>638300</v>
+        <v>631800</v>
       </c>
       <c r="G49" s="3">
-        <v>522700</v>
+        <v>517300</v>
       </c>
       <c r="H49" s="3">
-        <v>354000</v>
+        <v>350400</v>
       </c>
       <c r="I49" s="3">
-        <v>117800</v>
+        <v>116600</v>
       </c>
       <c r="J49" s="3">
-        <v>36500</v>
+        <v>36100</v>
       </c>
       <c r="K49" s="3">
         <v>26600</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4573100</v>
+        <v>907800</v>
       </c>
       <c r="E52" s="3">
-        <v>868500</v>
+        <v>859700</v>
       </c>
       <c r="F52" s="3">
-        <v>823200</v>
+        <v>814700</v>
       </c>
       <c r="G52" s="3">
-        <v>724000</v>
+        <v>716600</v>
       </c>
       <c r="H52" s="3">
-        <v>2007100</v>
+        <v>1986500</v>
       </c>
       <c r="I52" s="3">
-        <v>245500</v>
+        <v>243000</v>
       </c>
       <c r="J52" s="3">
-        <v>850900</v>
+        <v>842200</v>
       </c>
       <c r="K52" s="3">
         <v>221400</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>24811900</v>
+        <v>24558000</v>
       </c>
       <c r="E54" s="3">
-        <v>22066300</v>
+        <v>21840500</v>
       </c>
       <c r="F54" s="3">
-        <v>20376000</v>
+        <v>20167500</v>
       </c>
       <c r="G54" s="3">
-        <v>16103300</v>
+        <v>15938500</v>
       </c>
       <c r="H54" s="3">
-        <v>12490300</v>
+        <v>12362500</v>
       </c>
       <c r="I54" s="3">
-        <v>10201500</v>
+        <v>10097100</v>
       </c>
       <c r="J54" s="3">
-        <v>8334500</v>
+        <v>8249200</v>
       </c>
       <c r="K54" s="3">
         <v>5729100</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>216500</v>
+        <v>214200</v>
       </c>
       <c r="E57" s="3">
-        <v>141500</v>
+        <v>140000</v>
       </c>
       <c r="F57" s="3">
-        <v>162900</v>
+        <v>161300</v>
       </c>
       <c r="G57" s="3">
-        <v>174100</v>
+        <v>172300</v>
       </c>
       <c r="H57" s="3">
-        <v>172600</v>
+        <v>170800</v>
       </c>
       <c r="I57" s="3">
-        <v>350800</v>
+        <v>347200</v>
       </c>
       <c r="J57" s="3">
-        <v>200500</v>
+        <v>198500</v>
       </c>
       <c r="K57" s="3">
         <v>97500</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3429000</v>
+        <v>3393900</v>
       </c>
       <c r="E58" s="3">
-        <v>2779400</v>
+        <v>2750900</v>
       </c>
       <c r="F58" s="3">
-        <v>2801300</v>
+        <v>2772600</v>
       </c>
       <c r="G58" s="3">
-        <v>2416900</v>
+        <v>2392100</v>
       </c>
       <c r="H58" s="3">
-        <v>1961600</v>
+        <v>1941600</v>
       </c>
       <c r="I58" s="3">
-        <v>951300</v>
+        <v>941500</v>
       </c>
       <c r="J58" s="3">
-        <v>548000</v>
+        <v>542400</v>
       </c>
       <c r="K58" s="3">
         <v>316400</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4516300</v>
+        <v>4470000</v>
       </c>
       <c r="E59" s="3">
-        <v>4332100</v>
+        <v>4287800</v>
       </c>
       <c r="F59" s="3">
-        <v>3749100</v>
+        <v>3710700</v>
       </c>
       <c r="G59" s="3">
-        <v>2901500</v>
+        <v>2871800</v>
       </c>
       <c r="H59" s="3">
-        <v>3748100</v>
+        <v>3709700</v>
       </c>
       <c r="I59" s="3">
-        <v>2108900</v>
+        <v>2087300</v>
       </c>
       <c r="J59" s="3">
-        <v>2519500</v>
+        <v>2493700</v>
       </c>
       <c r="K59" s="3">
         <v>1210200</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8161800</v>
+        <v>8078200</v>
       </c>
       <c r="E60" s="3">
-        <v>7253000</v>
+        <v>7178800</v>
       </c>
       <c r="F60" s="3">
-        <v>6713300</v>
+        <v>6644600</v>
       </c>
       <c r="G60" s="3">
-        <v>5492500</v>
+        <v>5436200</v>
       </c>
       <c r="H60" s="3">
-        <v>5042400</v>
+        <v>4990700</v>
       </c>
       <c r="I60" s="3">
-        <v>3411000</v>
+        <v>3376100</v>
       </c>
       <c r="J60" s="3">
-        <v>2754100</v>
+        <v>2725900</v>
       </c>
       <c r="K60" s="3">
         <v>1624100</v>
@@ -2702,10 +2702,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>524900</v>
+        <v>519600</v>
       </c>
       <c r="E61" s="3">
-        <v>183100</v>
+        <v>181300</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>488800</v>
+        <v>483800</v>
       </c>
       <c r="E62" s="3">
-        <v>350900</v>
+        <v>347400</v>
       </c>
       <c r="F62" s="3">
-        <v>192000</v>
+        <v>190100</v>
       </c>
       <c r="G62" s="3">
-        <v>120500</v>
+        <v>119300</v>
       </c>
       <c r="H62" s="3">
-        <v>63400</v>
+        <v>62800</v>
       </c>
       <c r="I62" s="3">
-        <v>33200</v>
+        <v>32900</v>
       </c>
       <c r="J62" s="3">
-        <v>56400</v>
+        <v>55800</v>
       </c>
       <c r="K62" s="3">
         <v>23200</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9770400</v>
+        <v>9670400</v>
       </c>
       <c r="E66" s="3">
-        <v>8375300</v>
+        <v>8289600</v>
       </c>
       <c r="F66" s="3">
-        <v>8581000</v>
+        <v>8493100</v>
       </c>
       <c r="G66" s="3">
-        <v>7277300</v>
+        <v>7202800</v>
       </c>
       <c r="H66" s="3">
-        <v>5994200</v>
+        <v>5932800</v>
       </c>
       <c r="I66" s="3">
-        <v>3633500</v>
+        <v>3596300</v>
       </c>
       <c r="J66" s="3">
-        <v>2849500</v>
+        <v>2820400</v>
       </c>
       <c r="K66" s="3">
         <v>1658900</v>
@@ -3139,26 +3139,26 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>17</v>
+      <c r="D72" s="3">
+        <v>13128000</v>
       </c>
       <c r="E72" s="3">
-        <v>11308600</v>
+        <v>11192800</v>
       </c>
       <c r="F72" s="3">
-        <v>9391500</v>
+        <v>9295400</v>
       </c>
       <c r="G72" s="3">
-        <v>8273800</v>
+        <v>8189100</v>
       </c>
       <c r="H72" s="3">
-        <v>6493300</v>
+        <v>6426900</v>
       </c>
       <c r="I72" s="3">
-        <v>6310600</v>
+        <v>6246000</v>
       </c>
       <c r="J72" s="3">
-        <v>5240500</v>
+        <v>5186900</v>
       </c>
       <c r="K72" s="3">
         <v>3818300</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15041500</v>
+        <v>14887600</v>
       </c>
       <c r="E76" s="3">
-        <v>13691000</v>
+        <v>13550900</v>
       </c>
       <c r="F76" s="3">
-        <v>11795100</v>
+        <v>11674300</v>
       </c>
       <c r="G76" s="3">
-        <v>8826000</v>
+        <v>8735600</v>
       </c>
       <c r="H76" s="3">
-        <v>6496200</v>
+        <v>6429700</v>
       </c>
       <c r="I76" s="3">
-        <v>6568000</v>
+        <v>6500800</v>
       </c>
       <c r="J76" s="3">
-        <v>5485000</v>
+        <v>5428900</v>
       </c>
       <c r="K76" s="3">
         <v>4070200</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2920900</v>
+        <v>2891000</v>
       </c>
       <c r="E81" s="3">
-        <v>2421000</v>
+        <v>2396200</v>
       </c>
       <c r="F81" s="3">
-        <v>1732500</v>
+        <v>1714700</v>
       </c>
       <c r="G81" s="3">
-        <v>3050100</v>
+        <v>3018900</v>
       </c>
       <c r="H81" s="3">
-        <v>883600</v>
+        <v>874600</v>
       </c>
       <c r="I81" s="3">
-        <v>1537900</v>
+        <v>1522100</v>
       </c>
       <c r="J81" s="3">
-        <v>1666600</v>
+        <v>1649600</v>
       </c>
       <c r="K81" s="3">
         <v>937500</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>410500</v>
+        <v>406300</v>
       </c>
       <c r="E83" s="3">
-        <v>470500</v>
+        <v>465600</v>
       </c>
       <c r="F83" s="3">
-        <v>496600</v>
+        <v>491500</v>
       </c>
       <c r="G83" s="3">
-        <v>375400</v>
+        <v>371500</v>
       </c>
       <c r="H83" s="3">
-        <v>299200</v>
+        <v>296200</v>
       </c>
       <c r="I83" s="3">
-        <v>115200</v>
+        <v>114000</v>
       </c>
       <c r="J83" s="3">
-        <v>47000</v>
+        <v>46600</v>
       </c>
       <c r="K83" s="3">
         <v>25400</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3979600</v>
+        <v>3938900</v>
       </c>
       <c r="E89" s="3">
-        <v>3580000</v>
+        <v>3543300</v>
       </c>
       <c r="F89" s="3">
-        <v>3574400</v>
+        <v>3537900</v>
       </c>
       <c r="G89" s="3">
-        <v>2472600</v>
+        <v>2447300</v>
       </c>
       <c r="H89" s="3">
-        <v>1926800</v>
+        <v>1907100</v>
       </c>
       <c r="I89" s="3">
-        <v>1707500</v>
+        <v>1690100</v>
       </c>
       <c r="J89" s="3">
-        <v>2224400</v>
+        <v>2201700</v>
       </c>
       <c r="K89" s="3">
         <v>1124300</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-301600</v>
+        <v>-298600</v>
       </c>
       <c r="E91" s="3">
-        <v>-230100</v>
+        <v>-227700</v>
       </c>
       <c r="F91" s="3">
-        <v>-151600</v>
+        <v>-150000</v>
       </c>
       <c r="G91" s="3">
-        <v>-173700</v>
+        <v>-171900</v>
       </c>
       <c r="H91" s="3">
-        <v>-363100</v>
+        <v>-359400</v>
       </c>
       <c r="I91" s="3">
-        <v>-264700</v>
+        <v>-262000</v>
       </c>
       <c r="J91" s="3">
-        <v>-163100</v>
+        <v>-161400</v>
       </c>
       <c r="K91" s="3">
         <v>-120600</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1058400</v>
+        <v>-1047600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1016600</v>
+        <v>-1006200</v>
       </c>
       <c r="F94" s="3">
-        <v>-4192600</v>
+        <v>-4149700</v>
       </c>
       <c r="G94" s="3">
-        <v>-3179300</v>
+        <v>-3146700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1948900</v>
+        <v>-1928900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1846300</v>
+        <v>-1827400</v>
       </c>
       <c r="J94" s="3">
-        <v>-1703500</v>
+        <v>-1686100</v>
       </c>
       <c r="K94" s="3">
         <v>-353100</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-965700</v>
+        <v>-955800</v>
       </c>
       <c r="E96" s="3">
-        <v>-503900</v>
+        <v>-498700</v>
       </c>
       <c r="F96" s="3">
-        <v>-614800</v>
+        <v>-608500</v>
       </c>
       <c r="G96" s="3">
-        <v>-1269700</v>
+        <v>-1256700</v>
       </c>
       <c r="H96" s="3">
-        <v>-206800</v>
+        <v>-204700</v>
       </c>
       <c r="I96" s="3">
-        <v>-467900</v>
+        <v>-463100</v>
       </c>
       <c r="J96" s="3">
-        <v>-365700</v>
+        <v>-361900</v>
       </c>
       <c r="K96" s="3">
         <v>-204300</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1470300</v>
+        <v>-1455300</v>
       </c>
       <c r="E100" s="3">
-        <v>-1807500</v>
+        <v>-1789000</v>
       </c>
       <c r="F100" s="3">
-        <v>1423700</v>
+        <v>1409100</v>
       </c>
       <c r="G100" s="3">
-        <v>155500</v>
+        <v>153900</v>
       </c>
       <c r="H100" s="3">
-        <v>228000</v>
+        <v>225700</v>
       </c>
       <c r="I100" s="3">
-        <v>-187100</v>
+        <v>-185200</v>
       </c>
       <c r="J100" s="3">
-        <v>-323200</v>
+        <v>-319900</v>
       </c>
       <c r="K100" s="3">
         <v>-227300</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>15900</v>
+        <v>15700</v>
       </c>
       <c r="E101" s="3">
         <v>-7900</v>
       </c>
       <c r="F101" s="3">
-        <v>23300</v>
+        <v>23000</v>
       </c>
       <c r="G101" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="H101" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="I101" s="3">
         <v>-1800</v>
       </c>
       <c r="J101" s="3">
-        <v>19000</v>
+        <v>18800</v>
       </c>
       <c r="K101" s="3">
         <v>19800</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1466700</v>
+        <v>1451700</v>
       </c>
       <c r="E102" s="3">
-        <v>747900</v>
+        <v>740200</v>
       </c>
       <c r="F102" s="3">
-        <v>828800</v>
+        <v>820300</v>
       </c>
       <c r="G102" s="3">
-        <v>-547000</v>
+        <v>-541400</v>
       </c>
       <c r="H102" s="3">
-        <v>217600</v>
+        <v>215400</v>
       </c>
       <c r="I102" s="3">
-        <v>-327700</v>
+        <v>-324300</v>
       </c>
       <c r="J102" s="3">
-        <v>216700</v>
+        <v>214500</v>
       </c>
       <c r="K102" s="3">
         <v>563800</v>

--- a/AAII_Financials/Yearly/NTES_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NTES_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>NTES</t>
   </si>
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13716900</v>
+        <v>13295200</v>
       </c>
       <c r="E8" s="3">
-        <v>12453200</v>
+        <v>12070400</v>
       </c>
       <c r="F8" s="3">
-        <v>10471800</v>
+        <v>10149900</v>
       </c>
       <c r="G8" s="3">
-        <v>8421100</v>
+        <v>8162200</v>
       </c>
       <c r="H8" s="3">
-        <v>7275000</v>
+        <v>7051400</v>
       </c>
       <c r="I8" s="3">
-        <v>6316800</v>
+        <v>6122600</v>
       </c>
       <c r="J8" s="3">
-        <v>4832300</v>
+        <v>4683700</v>
       </c>
       <c r="K8" s="3">
         <v>3018900</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6216200</v>
+        <v>6025100</v>
       </c>
       <c r="E9" s="3">
-        <v>5776300</v>
+        <v>5598700</v>
       </c>
       <c r="F9" s="3">
-        <v>4930300</v>
+        <v>4778700</v>
       </c>
       <c r="G9" s="3">
-        <v>3935500</v>
+        <v>3814600</v>
       </c>
       <c r="H9" s="3">
-        <v>3387800</v>
+        <v>3283600</v>
       </c>
       <c r="I9" s="3">
-        <v>2756900</v>
+        <v>2672100</v>
       </c>
       <c r="J9" s="3">
-        <v>4172000</v>
+        <v>4043700</v>
       </c>
       <c r="K9" s="3">
         <v>2470500</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7500700</v>
+        <v>7270100</v>
       </c>
       <c r="E10" s="3">
-        <v>6676900</v>
+        <v>6471600</v>
       </c>
       <c r="F10" s="3">
-        <v>5541500</v>
+        <v>5371100</v>
       </c>
       <c r="G10" s="3">
-        <v>4485600</v>
+        <v>4347700</v>
       </c>
       <c r="H10" s="3">
-        <v>3887300</v>
+        <v>3767800</v>
       </c>
       <c r="I10" s="3">
-        <v>3559900</v>
+        <v>3450400</v>
       </c>
       <c r="J10" s="3">
-        <v>660300</v>
+        <v>640000</v>
       </c>
       <c r="K10" s="3">
         <v>548400</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2137800</v>
+        <v>2072100</v>
       </c>
       <c r="E12" s="3">
-        <v>2000900</v>
+        <v>1939400</v>
       </c>
       <c r="F12" s="3">
-        <v>1474000</v>
+        <v>1428700</v>
       </c>
       <c r="G12" s="3">
-        <v>1195900</v>
+        <v>1159200</v>
       </c>
       <c r="H12" s="3">
-        <v>1048800</v>
+        <v>1016600</v>
       </c>
       <c r="I12" s="3">
-        <v>591600</v>
+        <v>573400</v>
       </c>
       <c r="J12" s="3">
-        <v>848200</v>
+        <v>822200</v>
       </c>
       <c r="K12" s="3">
         <v>595900</v>
@@ -954,13 +954,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="E14" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="F14" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>17</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>10934600</v>
+        <v>10598400</v>
       </c>
       <c r="E17" s="3">
-        <v>10122200</v>
+        <v>9811100</v>
       </c>
       <c r="F17" s="3">
-        <v>8413100</v>
+        <v>8154400</v>
       </c>
       <c r="G17" s="3">
-        <v>6460800</v>
+        <v>6262200</v>
       </c>
       <c r="H17" s="3">
-        <v>5856800</v>
+        <v>5676700</v>
       </c>
       <c r="I17" s="3">
-        <v>4469500</v>
+        <v>4332100</v>
       </c>
       <c r="J17" s="3">
-        <v>2988200</v>
+        <v>2896400</v>
       </c>
       <c r="K17" s="3">
         <v>1979200</v>
@@ -1095,25 +1095,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2782300</v>
+        <v>2696800</v>
       </c>
       <c r="E18" s="3">
-        <v>2331000</v>
+        <v>2259300</v>
       </c>
       <c r="F18" s="3">
-        <v>2058700</v>
+        <v>1995400</v>
       </c>
       <c r="G18" s="3">
-        <v>1960300</v>
+        <v>1900100</v>
       </c>
       <c r="H18" s="3">
-        <v>1418300</v>
+        <v>1374700</v>
       </c>
       <c r="I18" s="3">
-        <v>1847200</v>
+        <v>1790400</v>
       </c>
       <c r="J18" s="3">
-        <v>1844100</v>
+        <v>1787400</v>
       </c>
       <c r="K18" s="3">
         <v>1039700</v>
@@ -1155,25 +1155,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>664900</v>
+        <v>734000</v>
       </c>
       <c r="E20" s="3">
-        <v>696200</v>
+        <v>674800</v>
       </c>
       <c r="F20" s="3">
-        <v>161600</v>
+        <v>156700</v>
       </c>
       <c r="G20" s="3">
-        <v>428100</v>
+        <v>415000</v>
       </c>
       <c r="H20" s="3">
-        <v>201200</v>
+        <v>195000</v>
       </c>
       <c r="I20" s="3">
-        <v>133200</v>
+        <v>129100</v>
       </c>
       <c r="J20" s="3">
-        <v>184400</v>
+        <v>178700</v>
       </c>
       <c r="K20" s="3">
         <v>119200</v>
@@ -1197,25 +1197,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3855600</v>
+        <v>3824600</v>
       </c>
       <c r="E21" s="3">
-        <v>3495300</v>
+        <v>3385500</v>
       </c>
       <c r="F21" s="3">
-        <v>2714500</v>
+        <v>2628500</v>
       </c>
       <c r="G21" s="3">
-        <v>2762000</v>
+        <v>2675200</v>
       </c>
       <c r="H21" s="3">
-        <v>1917200</v>
+        <v>1856700</v>
       </c>
       <c r="I21" s="3">
-        <v>2095000</v>
+        <v>2030000</v>
       </c>
       <c r="J21" s="3">
-        <v>2075300</v>
+        <v>2011200</v>
       </c>
       <c r="K21" s="3">
         <v>1184100</v>
@@ -1238,26 +1238,26 @@
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>17</v>
+      <c r="D22" s="3">
+        <v>89600</v>
       </c>
       <c r="E22" s="3">
-        <v>27200</v>
+        <v>26400</v>
       </c>
       <c r="F22" s="3">
-        <v>35200</v>
+        <v>34100</v>
       </c>
       <c r="G22" s="3">
-        <v>59600</v>
+        <v>57700</v>
       </c>
       <c r="H22" s="3">
-        <v>44900</v>
+        <v>43500</v>
       </c>
       <c r="I22" s="3">
-        <v>13100</v>
+        <v>12700</v>
       </c>
       <c r="J22" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="K22" s="3">
         <v>2600</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3447200</v>
+        <v>3341200</v>
       </c>
       <c r="E23" s="3">
-        <v>3000000</v>
+        <v>2907800</v>
       </c>
       <c r="F23" s="3">
-        <v>2185100</v>
+        <v>2118000</v>
       </c>
       <c r="G23" s="3">
-        <v>2328900</v>
+        <v>2257300</v>
       </c>
       <c r="H23" s="3">
-        <v>1574600</v>
+        <v>1526200</v>
       </c>
       <c r="I23" s="3">
-        <v>1967300</v>
+        <v>1906800</v>
       </c>
       <c r="J23" s="3">
-        <v>2023900</v>
+        <v>1961700</v>
       </c>
       <c r="K23" s="3">
         <v>1156200</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>715300</v>
+        <v>693300</v>
       </c>
       <c r="E24" s="3">
-        <v>586800</v>
+        <v>568800</v>
       </c>
       <c r="F24" s="3">
-        <v>432400</v>
+        <v>419100</v>
       </c>
       <c r="G24" s="3">
-        <v>414300</v>
+        <v>401600</v>
       </c>
       <c r="H24" s="3">
-        <v>349800</v>
+        <v>339000</v>
       </c>
       <c r="I24" s="3">
-        <v>306500</v>
+        <v>297100</v>
       </c>
       <c r="J24" s="3">
-        <v>298800</v>
+        <v>289700</v>
       </c>
       <c r="K24" s="3">
         <v>175500</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2731900</v>
+        <v>2647900</v>
       </c>
       <c r="E26" s="3">
-        <v>2413200</v>
+        <v>2339000</v>
       </c>
       <c r="F26" s="3">
-        <v>1752700</v>
+        <v>1698900</v>
       </c>
       <c r="G26" s="3">
-        <v>1914600</v>
+        <v>1855700</v>
       </c>
       <c r="H26" s="3">
-        <v>1224800</v>
+        <v>1187100</v>
       </c>
       <c r="I26" s="3">
-        <v>1660800</v>
+        <v>1609800</v>
       </c>
       <c r="J26" s="3">
-        <v>1725000</v>
+        <v>1672000</v>
       </c>
       <c r="K26" s="3">
         <v>980700</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2802200</v>
+        <v>2716000</v>
       </c>
       <c r="E27" s="3">
-        <v>2396200</v>
+        <v>2322500</v>
       </c>
       <c r="F27" s="3">
-        <v>1714700</v>
+        <v>1662000</v>
       </c>
       <c r="G27" s="3">
-        <v>1887000</v>
+        <v>1829000</v>
       </c>
       <c r="H27" s="3">
-        <v>1178600</v>
+        <v>1142300</v>
       </c>
       <c r="I27" s="3">
-        <v>1640800</v>
+        <v>1590300</v>
       </c>
       <c r="J27" s="3">
-        <v>1698300</v>
+        <v>1646100</v>
       </c>
       <c r="K27" s="3">
         <v>966500</v>
@@ -1533,7 +1533,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>88800</v>
+        <v>86100</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1542,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>1131900</v>
+        <v>1097100</v>
       </c>
       <c r="H29" s="3">
-        <v>-304000</v>
+        <v>-294700</v>
       </c>
       <c r="I29" s="3">
-        <v>-118600</v>
+        <v>-115000</v>
       </c>
       <c r="J29" s="3">
-        <v>-48700</v>
+        <v>-47200</v>
       </c>
       <c r="K29" s="3">
         <v>-29000</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-664900</v>
+        <v>-734000</v>
       </c>
       <c r="E32" s="3">
-        <v>-696200</v>
+        <v>-674800</v>
       </c>
       <c r="F32" s="3">
-        <v>-161600</v>
+        <v>-156700</v>
       </c>
       <c r="G32" s="3">
-        <v>-428100</v>
+        <v>-415000</v>
       </c>
       <c r="H32" s="3">
-        <v>-201200</v>
+        <v>-195000</v>
       </c>
       <c r="I32" s="3">
-        <v>-133200</v>
+        <v>-129100</v>
       </c>
       <c r="J32" s="3">
-        <v>-184400</v>
+        <v>-178700</v>
       </c>
       <c r="K32" s="3">
         <v>-119200</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2891000</v>
+        <v>2802100</v>
       </c>
       <c r="E33" s="3">
-        <v>2396200</v>
+        <v>2322500</v>
       </c>
       <c r="F33" s="3">
-        <v>1714700</v>
+        <v>1662000</v>
       </c>
       <c r="G33" s="3">
-        <v>3018900</v>
+        <v>2926100</v>
       </c>
       <c r="H33" s="3">
-        <v>874600</v>
+        <v>847700</v>
       </c>
       <c r="I33" s="3">
-        <v>1522100</v>
+        <v>1475300</v>
       </c>
       <c r="J33" s="3">
-        <v>1649600</v>
+        <v>1598900</v>
       </c>
       <c r="K33" s="3">
         <v>937500</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2891000</v>
+        <v>2802100</v>
       </c>
       <c r="E35" s="3">
-        <v>2396200</v>
+        <v>2322500</v>
       </c>
       <c r="F35" s="3">
-        <v>1714700</v>
+        <v>1662000</v>
       </c>
       <c r="G35" s="3">
-        <v>3018900</v>
+        <v>2926100</v>
       </c>
       <c r="H35" s="3">
-        <v>874600</v>
+        <v>847700</v>
       </c>
       <c r="I35" s="3">
-        <v>1522100</v>
+        <v>1475300</v>
       </c>
       <c r="J35" s="3">
-        <v>1649600</v>
+        <v>1598900</v>
       </c>
       <c r="K35" s="3">
         <v>937500</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3538000</v>
+        <v>3429200</v>
       </c>
       <c r="E41" s="3">
-        <v>2060900</v>
+        <v>1997600</v>
       </c>
       <c r="F41" s="3">
-        <v>1296000</v>
+        <v>1256200</v>
       </c>
       <c r="G41" s="3">
-        <v>461500</v>
+        <v>447300</v>
       </c>
       <c r="H41" s="3">
-        <v>709100</v>
+        <v>687300</v>
       </c>
       <c r="I41" s="3">
-        <v>392900</v>
+        <v>380800</v>
       </c>
       <c r="J41" s="3">
-        <v>773200</v>
+        <v>749500</v>
       </c>
       <c r="K41" s="3">
         <v>845200</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>13158900</v>
+        <v>12754300</v>
       </c>
       <c r="E42" s="3">
-        <v>11803600</v>
+        <v>11440800</v>
       </c>
       <c r="F42" s="3">
-        <v>11990700</v>
+        <v>11622100</v>
       </c>
       <c r="G42" s="3">
-        <v>9779900</v>
+        <v>9479200</v>
       </c>
       <c r="H42" s="3">
-        <v>6336300</v>
+        <v>6141600</v>
       </c>
       <c r="I42" s="3">
-        <v>5735200</v>
+        <v>5558900</v>
       </c>
       <c r="J42" s="3">
-        <v>4398600</v>
+        <v>4263400</v>
       </c>
       <c r="K42" s="3">
         <v>2729300</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>926800</v>
+        <v>898300</v>
       </c>
       <c r="E43" s="3">
-        <v>1013700</v>
+        <v>982600</v>
       </c>
       <c r="F43" s="3">
-        <v>952400</v>
+        <v>923100</v>
       </c>
       <c r="G43" s="3">
-        <v>681500</v>
+        <v>660600</v>
       </c>
       <c r="H43" s="3">
-        <v>1276900</v>
+        <v>1237600</v>
       </c>
       <c r="I43" s="3">
-        <v>586100</v>
+        <v>568100</v>
       </c>
       <c r="J43" s="3">
-        <v>1261300</v>
+        <v>1222500</v>
       </c>
       <c r="K43" s="3">
         <v>410000</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>141200</v>
+        <v>136900</v>
       </c>
       <c r="E44" s="3">
-        <v>137100</v>
+        <v>132900</v>
       </c>
       <c r="F44" s="3">
-        <v>88300</v>
+        <v>85600</v>
       </c>
       <c r="G44" s="3">
-        <v>92500</v>
+        <v>89600</v>
       </c>
       <c r="H44" s="3">
-        <v>151500</v>
+        <v>146800</v>
       </c>
       <c r="I44" s="3">
-        <v>778300</v>
+        <v>754300</v>
       </c>
       <c r="J44" s="3">
-        <v>224300</v>
+        <v>217400</v>
       </c>
       <c r="K44" s="3">
         <v>113800</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>942500</v>
+        <v>913500</v>
       </c>
       <c r="E45" s="3">
-        <v>1064600</v>
+        <v>1031900</v>
       </c>
       <c r="F45" s="3">
-        <v>1000800</v>
+        <v>970000</v>
       </c>
       <c r="G45" s="3">
-        <v>1082300</v>
+        <v>1049000</v>
       </c>
       <c r="H45" s="3">
-        <v>2561600</v>
+        <v>2482800</v>
       </c>
       <c r="I45" s="3">
-        <v>1313400</v>
+        <v>1273000</v>
       </c>
       <c r="J45" s="3">
-        <v>1793000</v>
+        <v>1737800</v>
       </c>
       <c r="K45" s="3">
         <v>691400</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18707400</v>
+        <v>18132300</v>
       </c>
       <c r="E46" s="3">
-        <v>16080000</v>
+        <v>15585700</v>
       </c>
       <c r="F46" s="3">
-        <v>15328200</v>
+        <v>14857000</v>
       </c>
       <c r="G46" s="3">
-        <v>12097700</v>
+        <v>11725800</v>
       </c>
       <c r="H46" s="3">
-        <v>9767900</v>
+        <v>9467700</v>
       </c>
       <c r="I46" s="3">
-        <v>8805900</v>
+        <v>8535200</v>
       </c>
       <c r="J46" s="3">
-        <v>7019800</v>
+        <v>6804000</v>
       </c>
       <c r="K46" s="3">
         <v>4789700</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3306000</v>
+        <v>3204400</v>
       </c>
       <c r="E47" s="3">
-        <v>3523300</v>
+        <v>3415000</v>
       </c>
       <c r="F47" s="3">
-        <v>2635300</v>
+        <v>2554300</v>
       </c>
       <c r="G47" s="3">
-        <v>1884000</v>
+        <v>1826100</v>
       </c>
       <c r="H47" s="3">
-        <v>759900</v>
+        <v>736600</v>
       </c>
       <c r="I47" s="3">
-        <v>395900</v>
+        <v>383700</v>
       </c>
       <c r="J47" s="3">
-        <v>358200</v>
+        <v>347200</v>
       </c>
       <c r="K47" s="3">
         <v>400200</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1027800</v>
+        <v>996200</v>
       </c>
       <c r="E48" s="3">
-        <v>920800</v>
+        <v>892500</v>
       </c>
       <c r="F48" s="3">
-        <v>757500</v>
+        <v>734200</v>
       </c>
       <c r="G48" s="3">
-        <v>722900</v>
+        <v>700700</v>
       </c>
       <c r="H48" s="3">
-        <v>1428800</v>
+        <v>1384900</v>
       </c>
       <c r="I48" s="3">
-        <v>535800</v>
+        <v>519300</v>
       </c>
       <c r="J48" s="3">
-        <v>687900</v>
+        <v>666700</v>
       </c>
       <c r="K48" s="3">
         <v>291200</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>609000</v>
+        <v>590300</v>
       </c>
       <c r="E49" s="3">
-        <v>456600</v>
+        <v>442600</v>
       </c>
       <c r="F49" s="3">
-        <v>631800</v>
+        <v>612300</v>
       </c>
       <c r="G49" s="3">
-        <v>517300</v>
+        <v>501400</v>
       </c>
       <c r="H49" s="3">
-        <v>350400</v>
+        <v>339600</v>
       </c>
       <c r="I49" s="3">
-        <v>116600</v>
+        <v>113000</v>
       </c>
       <c r="J49" s="3">
-        <v>36100</v>
+        <v>35000</v>
       </c>
       <c r="K49" s="3">
         <v>26600</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>907800</v>
+        <v>879900</v>
       </c>
       <c r="E52" s="3">
-        <v>859700</v>
+        <v>833200</v>
       </c>
       <c r="F52" s="3">
-        <v>814700</v>
+        <v>789700</v>
       </c>
       <c r="G52" s="3">
-        <v>716600</v>
+        <v>694600</v>
       </c>
       <c r="H52" s="3">
-        <v>1986500</v>
+        <v>1925400</v>
       </c>
       <c r="I52" s="3">
-        <v>243000</v>
+        <v>235500</v>
       </c>
       <c r="J52" s="3">
-        <v>842200</v>
+        <v>816300</v>
       </c>
       <c r="K52" s="3">
         <v>221400</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>24558000</v>
+        <v>23803000</v>
       </c>
       <c r="E54" s="3">
-        <v>21840500</v>
+        <v>21169100</v>
       </c>
       <c r="F54" s="3">
-        <v>20167500</v>
+        <v>19547500</v>
       </c>
       <c r="G54" s="3">
-        <v>15938500</v>
+        <v>15448500</v>
       </c>
       <c r="H54" s="3">
-        <v>12362500</v>
+        <v>11982400</v>
       </c>
       <c r="I54" s="3">
-        <v>10097100</v>
+        <v>9786700</v>
       </c>
       <c r="J54" s="3">
-        <v>8249200</v>
+        <v>7995600</v>
       </c>
       <c r="K54" s="3">
         <v>5729100</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>214200</v>
+        <v>207700</v>
       </c>
       <c r="E57" s="3">
-        <v>140000</v>
+        <v>135700</v>
       </c>
       <c r="F57" s="3">
-        <v>161300</v>
+        <v>156300</v>
       </c>
       <c r="G57" s="3">
-        <v>172300</v>
+        <v>167000</v>
       </c>
       <c r="H57" s="3">
-        <v>170800</v>
+        <v>165600</v>
       </c>
       <c r="I57" s="3">
-        <v>347200</v>
+        <v>336500</v>
       </c>
       <c r="J57" s="3">
-        <v>198500</v>
+        <v>192400</v>
       </c>
       <c r="K57" s="3">
         <v>97500</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3393900</v>
+        <v>3289600</v>
       </c>
       <c r="E58" s="3">
-        <v>2750900</v>
+        <v>2666400</v>
       </c>
       <c r="F58" s="3">
-        <v>2772600</v>
+        <v>2687400</v>
       </c>
       <c r="G58" s="3">
-        <v>2392100</v>
+        <v>2318600</v>
       </c>
       <c r="H58" s="3">
-        <v>1941600</v>
+        <v>1881900</v>
       </c>
       <c r="I58" s="3">
-        <v>941500</v>
+        <v>912600</v>
       </c>
       <c r="J58" s="3">
-        <v>542400</v>
+        <v>525700</v>
       </c>
       <c r="K58" s="3">
         <v>316400</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4470000</v>
+        <v>4332600</v>
       </c>
       <c r="E59" s="3">
-        <v>4287800</v>
+        <v>4156000</v>
       </c>
       <c r="F59" s="3">
-        <v>3710700</v>
+        <v>3596700</v>
       </c>
       <c r="G59" s="3">
-        <v>2871800</v>
+        <v>2783500</v>
       </c>
       <c r="H59" s="3">
-        <v>3709700</v>
+        <v>3595700</v>
       </c>
       <c r="I59" s="3">
-        <v>2087300</v>
+        <v>2023200</v>
       </c>
       <c r="J59" s="3">
-        <v>2493700</v>
+        <v>2417000</v>
       </c>
       <c r="K59" s="3">
         <v>1210200</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8078200</v>
+        <v>7829900</v>
       </c>
       <c r="E60" s="3">
-        <v>7178800</v>
+        <v>6958100</v>
       </c>
       <c r="F60" s="3">
-        <v>6644600</v>
+        <v>6440300</v>
       </c>
       <c r="G60" s="3">
-        <v>5436200</v>
+        <v>5269100</v>
       </c>
       <c r="H60" s="3">
-        <v>4990700</v>
+        <v>4837300</v>
       </c>
       <c r="I60" s="3">
-        <v>3376100</v>
+        <v>3272300</v>
       </c>
       <c r="J60" s="3">
-        <v>2725900</v>
+        <v>2642100</v>
       </c>
       <c r="K60" s="3">
         <v>1624100</v>
@@ -2702,10 +2702,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>519600</v>
+        <v>503600</v>
       </c>
       <c r="E61" s="3">
-        <v>181300</v>
+        <v>175700</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>483800</v>
+        <v>469000</v>
       </c>
       <c r="E62" s="3">
-        <v>347400</v>
+        <v>336700</v>
       </c>
       <c r="F62" s="3">
-        <v>190100</v>
+        <v>184200</v>
       </c>
       <c r="G62" s="3">
-        <v>119300</v>
+        <v>115600</v>
       </c>
       <c r="H62" s="3">
-        <v>62800</v>
+        <v>60800</v>
       </c>
       <c r="I62" s="3">
-        <v>32900</v>
+        <v>31900</v>
       </c>
       <c r="J62" s="3">
-        <v>55800</v>
+        <v>54100</v>
       </c>
       <c r="K62" s="3">
         <v>23200</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9670400</v>
+        <v>9373100</v>
       </c>
       <c r="E66" s="3">
-        <v>8289600</v>
+        <v>8034800</v>
       </c>
       <c r="F66" s="3">
-        <v>8493100</v>
+        <v>8232000</v>
       </c>
       <c r="G66" s="3">
-        <v>7202800</v>
+        <v>6981400</v>
       </c>
       <c r="H66" s="3">
-        <v>5932800</v>
+        <v>5750400</v>
       </c>
       <c r="I66" s="3">
-        <v>3596300</v>
+        <v>3485800</v>
       </c>
       <c r="J66" s="3">
-        <v>2820400</v>
+        <v>2733700</v>
       </c>
       <c r="K66" s="3">
         <v>1658900</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13128000</v>
+        <v>12724400</v>
       </c>
       <c r="E72" s="3">
-        <v>11192800</v>
+        <v>10848700</v>
       </c>
       <c r="F72" s="3">
-        <v>9295400</v>
+        <v>9009600</v>
       </c>
       <c r="G72" s="3">
-        <v>8189100</v>
+        <v>7937300</v>
       </c>
       <c r="H72" s="3">
-        <v>6426900</v>
+        <v>6229300</v>
       </c>
       <c r="I72" s="3">
-        <v>6246000</v>
+        <v>6054000</v>
       </c>
       <c r="J72" s="3">
-        <v>5186900</v>
+        <v>5027500</v>
       </c>
       <c r="K72" s="3">
         <v>3818300</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14887600</v>
+        <v>14429900</v>
       </c>
       <c r="E76" s="3">
-        <v>13550900</v>
+        <v>13134300</v>
       </c>
       <c r="F76" s="3">
-        <v>11674300</v>
+        <v>11315400</v>
       </c>
       <c r="G76" s="3">
-        <v>8735600</v>
+        <v>8467100</v>
       </c>
       <c r="H76" s="3">
-        <v>6429700</v>
+        <v>6232000</v>
       </c>
       <c r="I76" s="3">
-        <v>6500800</v>
+        <v>6301000</v>
       </c>
       <c r="J76" s="3">
-        <v>5428900</v>
+        <v>5262000</v>
       </c>
       <c r="K76" s="3">
         <v>4070200</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2891000</v>
+        <v>2802100</v>
       </c>
       <c r="E81" s="3">
-        <v>2396200</v>
+        <v>2322500</v>
       </c>
       <c r="F81" s="3">
-        <v>1714700</v>
+        <v>1662000</v>
       </c>
       <c r="G81" s="3">
-        <v>3018900</v>
+        <v>2926100</v>
       </c>
       <c r="H81" s="3">
-        <v>874600</v>
+        <v>847700</v>
       </c>
       <c r="I81" s="3">
-        <v>1522100</v>
+        <v>1475300</v>
       </c>
       <c r="J81" s="3">
-        <v>1649600</v>
+        <v>1598900</v>
       </c>
       <c r="K81" s="3">
         <v>937500</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>406300</v>
+        <v>393800</v>
       </c>
       <c r="E83" s="3">
-        <v>465600</v>
+        <v>451300</v>
       </c>
       <c r="F83" s="3">
-        <v>491500</v>
+        <v>476400</v>
       </c>
       <c r="G83" s="3">
-        <v>371500</v>
+        <v>360100</v>
       </c>
       <c r="H83" s="3">
-        <v>296200</v>
+        <v>287100</v>
       </c>
       <c r="I83" s="3">
-        <v>114000</v>
+        <v>110500</v>
       </c>
       <c r="J83" s="3">
-        <v>46600</v>
+        <v>45100</v>
       </c>
       <c r="K83" s="3">
         <v>25400</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3938900</v>
+        <v>3817800</v>
       </c>
       <c r="E89" s="3">
-        <v>3543300</v>
+        <v>3434400</v>
       </c>
       <c r="F89" s="3">
-        <v>3537900</v>
+        <v>3429100</v>
       </c>
       <c r="G89" s="3">
-        <v>2447300</v>
+        <v>2372100</v>
       </c>
       <c r="H89" s="3">
-        <v>1907100</v>
+        <v>1848400</v>
       </c>
       <c r="I89" s="3">
-        <v>1690100</v>
+        <v>1638100</v>
       </c>
       <c r="J89" s="3">
-        <v>2201700</v>
+        <v>2134000</v>
       </c>
       <c r="K89" s="3">
         <v>1124300</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-298600</v>
+        <v>-289400</v>
       </c>
       <c r="E91" s="3">
-        <v>-227700</v>
+        <v>-220700</v>
       </c>
       <c r="F91" s="3">
-        <v>-150000</v>
+        <v>-145400</v>
       </c>
       <c r="G91" s="3">
-        <v>-171900</v>
+        <v>-166600</v>
       </c>
       <c r="H91" s="3">
-        <v>-359400</v>
+        <v>-348300</v>
       </c>
       <c r="I91" s="3">
-        <v>-262000</v>
+        <v>-253900</v>
       </c>
       <c r="J91" s="3">
-        <v>-161400</v>
+        <v>-156500</v>
       </c>
       <c r="K91" s="3">
         <v>-120600</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1047600</v>
+        <v>-1015400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1006200</v>
+        <v>-975200</v>
       </c>
       <c r="F94" s="3">
-        <v>-4149700</v>
+        <v>-4022100</v>
       </c>
       <c r="G94" s="3">
-        <v>-3146700</v>
+        <v>-3050000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1928900</v>
+        <v>-1869600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1827400</v>
+        <v>-1771200</v>
       </c>
       <c r="J94" s="3">
-        <v>-1686100</v>
+        <v>-1634300</v>
       </c>
       <c r="K94" s="3">
         <v>-353100</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-955800</v>
+        <v>-926400</v>
       </c>
       <c r="E96" s="3">
-        <v>-498700</v>
+        <v>-483400</v>
       </c>
       <c r="F96" s="3">
-        <v>-608500</v>
+        <v>-589800</v>
       </c>
       <c r="G96" s="3">
-        <v>-1256700</v>
+        <v>-1218100</v>
       </c>
       <c r="H96" s="3">
-        <v>-204700</v>
+        <v>-198400</v>
       </c>
       <c r="I96" s="3">
-        <v>-463100</v>
+        <v>-448800</v>
       </c>
       <c r="J96" s="3">
-        <v>-361900</v>
+        <v>-350800</v>
       </c>
       <c r="K96" s="3">
         <v>-204300</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1455300</v>
+        <v>-1410600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1789000</v>
+        <v>-1734000</v>
       </c>
       <c r="F100" s="3">
-        <v>1409100</v>
+        <v>1365800</v>
       </c>
       <c r="G100" s="3">
-        <v>153900</v>
+        <v>149200</v>
       </c>
       <c r="H100" s="3">
-        <v>225700</v>
+        <v>218700</v>
       </c>
       <c r="I100" s="3">
-        <v>-185200</v>
+        <v>-179500</v>
       </c>
       <c r="J100" s="3">
-        <v>-319900</v>
+        <v>-310100</v>
       </c>
       <c r="K100" s="3">
         <v>-227300</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>15700</v>
+        <v>15200</v>
       </c>
       <c r="E101" s="3">
-        <v>-7900</v>
+        <v>-7600</v>
       </c>
       <c r="F101" s="3">
-        <v>23000</v>
+        <v>22300</v>
       </c>
       <c r="G101" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="H101" s="3">
-        <v>11600</v>
+        <v>11200</v>
       </c>
       <c r="I101" s="3">
         <v>-1800</v>
       </c>
       <c r="J101" s="3">
-        <v>18800</v>
+        <v>18200</v>
       </c>
       <c r="K101" s="3">
         <v>19800</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1451700</v>
+        <v>1407000</v>
       </c>
       <c r="E102" s="3">
-        <v>740200</v>
+        <v>717500</v>
       </c>
       <c r="F102" s="3">
-        <v>820300</v>
+        <v>795100</v>
       </c>
       <c r="G102" s="3">
-        <v>-541400</v>
+        <v>-524800</v>
       </c>
       <c r="H102" s="3">
-        <v>215400</v>
+        <v>208800</v>
       </c>
       <c r="I102" s="3">
-        <v>-324300</v>
+        <v>-314300</v>
       </c>
       <c r="J102" s="3">
-        <v>214500</v>
+        <v>207900</v>
       </c>
       <c r="K102" s="3">
         <v>563800</v>

--- a/AAII_Financials/Yearly/NTES_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NTES_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13295200</v>
+        <v>13324100</v>
       </c>
       <c r="E8" s="3">
-        <v>12070400</v>
+        <v>12096600</v>
       </c>
       <c r="F8" s="3">
-        <v>10149900</v>
+        <v>10172000</v>
       </c>
       <c r="G8" s="3">
-        <v>8162200</v>
+        <v>8180000</v>
       </c>
       <c r="H8" s="3">
-        <v>7051400</v>
+        <v>7066700</v>
       </c>
       <c r="I8" s="3">
-        <v>6122600</v>
+        <v>6135900</v>
       </c>
       <c r="J8" s="3">
-        <v>4683700</v>
+        <v>4693900</v>
       </c>
       <c r="K8" s="3">
         <v>3018900</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6025100</v>
+        <v>6038200</v>
       </c>
       <c r="E9" s="3">
-        <v>5598700</v>
+        <v>5610900</v>
       </c>
       <c r="F9" s="3">
-        <v>4778700</v>
+        <v>4789100</v>
       </c>
       <c r="G9" s="3">
-        <v>3814600</v>
+        <v>3822900</v>
       </c>
       <c r="H9" s="3">
-        <v>3283600</v>
+        <v>3290800</v>
       </c>
       <c r="I9" s="3">
-        <v>2672100</v>
+        <v>2678000</v>
       </c>
       <c r="J9" s="3">
-        <v>4043700</v>
+        <v>4052500</v>
       </c>
       <c r="K9" s="3">
         <v>2470500</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7270100</v>
+        <v>7285900</v>
       </c>
       <c r="E10" s="3">
-        <v>6471600</v>
+        <v>6485700</v>
       </c>
       <c r="F10" s="3">
-        <v>5371100</v>
+        <v>5382800</v>
       </c>
       <c r="G10" s="3">
-        <v>4347700</v>
+        <v>4357200</v>
       </c>
       <c r="H10" s="3">
-        <v>3767800</v>
+        <v>3776000</v>
       </c>
       <c r="I10" s="3">
-        <v>3450400</v>
+        <v>3457900</v>
       </c>
       <c r="J10" s="3">
-        <v>640000</v>
+        <v>641400</v>
       </c>
       <c r="K10" s="3">
         <v>548400</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2072100</v>
+        <v>2076600</v>
       </c>
       <c r="E12" s="3">
-        <v>1939400</v>
+        <v>1943600</v>
       </c>
       <c r="F12" s="3">
-        <v>1428700</v>
+        <v>1431800</v>
       </c>
       <c r="G12" s="3">
-        <v>1159200</v>
+        <v>1161700</v>
       </c>
       <c r="H12" s="3">
-        <v>1016600</v>
+        <v>1018800</v>
       </c>
       <c r="I12" s="3">
-        <v>573400</v>
+        <v>574600</v>
       </c>
       <c r="J12" s="3">
-        <v>822200</v>
+        <v>823900</v>
       </c>
       <c r="K12" s="3">
         <v>595900</v>
@@ -957,7 +957,7 @@
         <v>7700</v>
       </c>
       <c r="E14" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F14" s="3">
         <v>7700</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>10598400</v>
+        <v>10621500</v>
       </c>
       <c r="E17" s="3">
-        <v>9811100</v>
+        <v>9832400</v>
       </c>
       <c r="F17" s="3">
-        <v>8154400</v>
+        <v>8172200</v>
       </c>
       <c r="G17" s="3">
-        <v>6262200</v>
+        <v>6275800</v>
       </c>
       <c r="H17" s="3">
-        <v>5676700</v>
+        <v>5689100</v>
       </c>
       <c r="I17" s="3">
-        <v>4332100</v>
+        <v>4341600</v>
       </c>
       <c r="J17" s="3">
-        <v>2896400</v>
+        <v>2902700</v>
       </c>
       <c r="K17" s="3">
         <v>1979200</v>
@@ -1095,25 +1095,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2696800</v>
+        <v>2702600</v>
       </c>
       <c r="E18" s="3">
-        <v>2259300</v>
+        <v>2264200</v>
       </c>
       <c r="F18" s="3">
-        <v>1995400</v>
+        <v>1999800</v>
       </c>
       <c r="G18" s="3">
-        <v>1900100</v>
+        <v>1904200</v>
       </c>
       <c r="H18" s="3">
-        <v>1374700</v>
+        <v>1377700</v>
       </c>
       <c r="I18" s="3">
-        <v>1790400</v>
+        <v>1794300</v>
       </c>
       <c r="J18" s="3">
-        <v>1787400</v>
+        <v>1791300</v>
       </c>
       <c r="K18" s="3">
         <v>1039700</v>
@@ -1155,25 +1155,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>734000</v>
+        <v>735600</v>
       </c>
       <c r="E20" s="3">
-        <v>674800</v>
+        <v>676300</v>
       </c>
       <c r="F20" s="3">
-        <v>156700</v>
+        <v>157000</v>
       </c>
       <c r="G20" s="3">
-        <v>415000</v>
+        <v>415900</v>
       </c>
       <c r="H20" s="3">
-        <v>195000</v>
+        <v>195400</v>
       </c>
       <c r="I20" s="3">
-        <v>129100</v>
+        <v>129300</v>
       </c>
       <c r="J20" s="3">
-        <v>178700</v>
+        <v>179100</v>
       </c>
       <c r="K20" s="3">
         <v>119200</v>
@@ -1197,25 +1197,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3824600</v>
+        <v>3832700</v>
       </c>
       <c r="E21" s="3">
-        <v>3385500</v>
+        <v>3392600</v>
       </c>
       <c r="F21" s="3">
-        <v>2628500</v>
+        <v>2634000</v>
       </c>
       <c r="G21" s="3">
-        <v>2675200</v>
+        <v>2680800</v>
       </c>
       <c r="H21" s="3">
-        <v>1856700</v>
+        <v>1860600</v>
       </c>
       <c r="I21" s="3">
-        <v>2030000</v>
+        <v>2034300</v>
       </c>
       <c r="J21" s="3">
-        <v>2011200</v>
+        <v>2015600</v>
       </c>
       <c r="K21" s="3">
         <v>1184100</v>
@@ -1239,19 +1239,19 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>89600</v>
+        <v>89800</v>
       </c>
       <c r="E22" s="3">
         <v>26400</v>
       </c>
       <c r="F22" s="3">
-        <v>34100</v>
+        <v>34200</v>
       </c>
       <c r="G22" s="3">
-        <v>57700</v>
+        <v>57900</v>
       </c>
       <c r="H22" s="3">
-        <v>43500</v>
+        <v>43600</v>
       </c>
       <c r="I22" s="3">
         <v>12700</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3341200</v>
+        <v>3348500</v>
       </c>
       <c r="E23" s="3">
-        <v>2907800</v>
+        <v>2914100</v>
       </c>
       <c r="F23" s="3">
-        <v>2118000</v>
+        <v>2122600</v>
       </c>
       <c r="G23" s="3">
-        <v>2257300</v>
+        <v>2262200</v>
       </c>
       <c r="H23" s="3">
-        <v>1526200</v>
+        <v>1529500</v>
       </c>
       <c r="I23" s="3">
-        <v>1906800</v>
+        <v>1911000</v>
       </c>
       <c r="J23" s="3">
-        <v>1961700</v>
+        <v>1965900</v>
       </c>
       <c r="K23" s="3">
         <v>1156200</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>693300</v>
+        <v>694800</v>
       </c>
       <c r="E24" s="3">
-        <v>568800</v>
+        <v>570000</v>
       </c>
       <c r="F24" s="3">
-        <v>419100</v>
+        <v>420000</v>
       </c>
       <c r="G24" s="3">
-        <v>401600</v>
+        <v>402500</v>
       </c>
       <c r="H24" s="3">
-        <v>339000</v>
+        <v>339800</v>
       </c>
       <c r="I24" s="3">
-        <v>297100</v>
+        <v>297700</v>
       </c>
       <c r="J24" s="3">
-        <v>289700</v>
+        <v>290300</v>
       </c>
       <c r="K24" s="3">
         <v>175500</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2647900</v>
+        <v>2653700</v>
       </c>
       <c r="E26" s="3">
-        <v>2339000</v>
+        <v>2344100</v>
       </c>
       <c r="F26" s="3">
-        <v>1698900</v>
+        <v>1702600</v>
       </c>
       <c r="G26" s="3">
-        <v>1855700</v>
+        <v>1859700</v>
       </c>
       <c r="H26" s="3">
-        <v>1187100</v>
+        <v>1189700</v>
       </c>
       <c r="I26" s="3">
-        <v>1609800</v>
+        <v>1613300</v>
       </c>
       <c r="J26" s="3">
-        <v>1672000</v>
+        <v>1675700</v>
       </c>
       <c r="K26" s="3">
         <v>980700</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2716000</v>
+        <v>2721900</v>
       </c>
       <c r="E27" s="3">
-        <v>2322500</v>
+        <v>2327600</v>
       </c>
       <c r="F27" s="3">
-        <v>1662000</v>
+        <v>1665600</v>
       </c>
       <c r="G27" s="3">
-        <v>1829000</v>
+        <v>1833000</v>
       </c>
       <c r="H27" s="3">
-        <v>1142300</v>
+        <v>1144800</v>
       </c>
       <c r="I27" s="3">
-        <v>1590300</v>
+        <v>1593800</v>
       </c>
       <c r="J27" s="3">
-        <v>1646100</v>
+        <v>1649600</v>
       </c>
       <c r="K27" s="3">
         <v>966500</v>
@@ -1533,7 +1533,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>86100</v>
+        <v>86300</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1542,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>1097100</v>
+        <v>1099500</v>
       </c>
       <c r="H29" s="3">
-        <v>-294700</v>
+        <v>-295300</v>
       </c>
       <c r="I29" s="3">
-        <v>-115000</v>
+        <v>-115200</v>
       </c>
       <c r="J29" s="3">
-        <v>-47200</v>
+        <v>-47300</v>
       </c>
       <c r="K29" s="3">
         <v>-29000</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-734000</v>
+        <v>-735600</v>
       </c>
       <c r="E32" s="3">
-        <v>-674800</v>
+        <v>-676300</v>
       </c>
       <c r="F32" s="3">
-        <v>-156700</v>
+        <v>-157000</v>
       </c>
       <c r="G32" s="3">
-        <v>-415000</v>
+        <v>-415900</v>
       </c>
       <c r="H32" s="3">
-        <v>-195000</v>
+        <v>-195400</v>
       </c>
       <c r="I32" s="3">
-        <v>-129100</v>
+        <v>-129300</v>
       </c>
       <c r="J32" s="3">
-        <v>-178700</v>
+        <v>-179100</v>
       </c>
       <c r="K32" s="3">
         <v>-119200</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2802100</v>
+        <v>2808200</v>
       </c>
       <c r="E33" s="3">
-        <v>2322500</v>
+        <v>2327600</v>
       </c>
       <c r="F33" s="3">
-        <v>1662000</v>
+        <v>1665600</v>
       </c>
       <c r="G33" s="3">
-        <v>2926100</v>
+        <v>2932500</v>
       </c>
       <c r="H33" s="3">
-        <v>847700</v>
+        <v>849500</v>
       </c>
       <c r="I33" s="3">
-        <v>1475300</v>
+        <v>1478600</v>
       </c>
       <c r="J33" s="3">
-        <v>1598900</v>
+        <v>1602400</v>
       </c>
       <c r="K33" s="3">
         <v>937500</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2802100</v>
+        <v>2808200</v>
       </c>
       <c r="E35" s="3">
-        <v>2322500</v>
+        <v>2327600</v>
       </c>
       <c r="F35" s="3">
-        <v>1662000</v>
+        <v>1665600</v>
       </c>
       <c r="G35" s="3">
-        <v>2926100</v>
+        <v>2932500</v>
       </c>
       <c r="H35" s="3">
-        <v>847700</v>
+        <v>849500</v>
       </c>
       <c r="I35" s="3">
-        <v>1475300</v>
+        <v>1478600</v>
       </c>
       <c r="J35" s="3">
-        <v>1598900</v>
+        <v>1602400</v>
       </c>
       <c r="K35" s="3">
         <v>937500</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3429200</v>
+        <v>3436700</v>
       </c>
       <c r="E41" s="3">
-        <v>1997600</v>
+        <v>2001900</v>
       </c>
       <c r="F41" s="3">
-        <v>1256200</v>
+        <v>1258900</v>
       </c>
       <c r="G41" s="3">
-        <v>447300</v>
+        <v>448300</v>
       </c>
       <c r="H41" s="3">
-        <v>687300</v>
+        <v>688800</v>
       </c>
       <c r="I41" s="3">
-        <v>380800</v>
+        <v>381700</v>
       </c>
       <c r="J41" s="3">
-        <v>749500</v>
+        <v>751100</v>
       </c>
       <c r="K41" s="3">
         <v>845200</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>12754300</v>
+        <v>12782100</v>
       </c>
       <c r="E42" s="3">
-        <v>11440800</v>
+        <v>11465700</v>
       </c>
       <c r="F42" s="3">
-        <v>11622100</v>
+        <v>11647400</v>
       </c>
       <c r="G42" s="3">
-        <v>9479200</v>
+        <v>9499900</v>
       </c>
       <c r="H42" s="3">
-        <v>6141600</v>
+        <v>6154900</v>
       </c>
       <c r="I42" s="3">
-        <v>5558900</v>
+        <v>5571000</v>
       </c>
       <c r="J42" s="3">
-        <v>4263400</v>
+        <v>4272600</v>
       </c>
       <c r="K42" s="3">
         <v>2729300</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>898300</v>
+        <v>900300</v>
       </c>
       <c r="E43" s="3">
-        <v>982600</v>
+        <v>984700</v>
       </c>
       <c r="F43" s="3">
-        <v>923100</v>
+        <v>925100</v>
       </c>
       <c r="G43" s="3">
-        <v>660600</v>
+        <v>662000</v>
       </c>
       <c r="H43" s="3">
-        <v>1237600</v>
+        <v>1240300</v>
       </c>
       <c r="I43" s="3">
-        <v>568100</v>
+        <v>569300</v>
       </c>
       <c r="J43" s="3">
-        <v>1222500</v>
+        <v>1225200</v>
       </c>
       <c r="K43" s="3">
         <v>410000</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>136900</v>
+        <v>137200</v>
       </c>
       <c r="E44" s="3">
-        <v>132900</v>
+        <v>133200</v>
       </c>
       <c r="F44" s="3">
-        <v>85600</v>
+        <v>85800</v>
       </c>
       <c r="G44" s="3">
-        <v>89600</v>
+        <v>89800</v>
       </c>
       <c r="H44" s="3">
-        <v>146800</v>
+        <v>147100</v>
       </c>
       <c r="I44" s="3">
-        <v>754300</v>
+        <v>756000</v>
       </c>
       <c r="J44" s="3">
-        <v>217400</v>
+        <v>217900</v>
       </c>
       <c r="K44" s="3">
         <v>113800</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>913500</v>
+        <v>915500</v>
       </c>
       <c r="E45" s="3">
-        <v>1031900</v>
+        <v>1034100</v>
       </c>
       <c r="F45" s="3">
-        <v>970000</v>
+        <v>972100</v>
       </c>
       <c r="G45" s="3">
-        <v>1049000</v>
+        <v>1051300</v>
       </c>
       <c r="H45" s="3">
-        <v>2482800</v>
+        <v>2488200</v>
       </c>
       <c r="I45" s="3">
-        <v>1273000</v>
+        <v>1275800</v>
       </c>
       <c r="J45" s="3">
-        <v>1737800</v>
+        <v>1741600</v>
       </c>
       <c r="K45" s="3">
         <v>691400</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18132300</v>
+        <v>18171800</v>
       </c>
       <c r="E46" s="3">
-        <v>15585700</v>
+        <v>15619600</v>
       </c>
       <c r="F46" s="3">
-        <v>14857000</v>
+        <v>14889300</v>
       </c>
       <c r="G46" s="3">
-        <v>11725800</v>
+        <v>11751300</v>
       </c>
       <c r="H46" s="3">
-        <v>9467700</v>
+        <v>9488300</v>
       </c>
       <c r="I46" s="3">
-        <v>8535200</v>
+        <v>8553700</v>
       </c>
       <c r="J46" s="3">
-        <v>6804000</v>
+        <v>6818900</v>
       </c>
       <c r="K46" s="3">
         <v>4789700</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3204400</v>
+        <v>3211300</v>
       </c>
       <c r="E47" s="3">
-        <v>3415000</v>
+        <v>3422400</v>
       </c>
       <c r="F47" s="3">
-        <v>2554300</v>
+        <v>2559900</v>
       </c>
       <c r="G47" s="3">
-        <v>1826100</v>
+        <v>1830000</v>
       </c>
       <c r="H47" s="3">
-        <v>736600</v>
+        <v>738200</v>
       </c>
       <c r="I47" s="3">
-        <v>383700</v>
+        <v>384500</v>
       </c>
       <c r="J47" s="3">
-        <v>347200</v>
+        <v>348000</v>
       </c>
       <c r="K47" s="3">
         <v>400200</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>996200</v>
+        <v>998400</v>
       </c>
       <c r="E48" s="3">
-        <v>892500</v>
+        <v>894500</v>
       </c>
       <c r="F48" s="3">
-        <v>734200</v>
+        <v>735800</v>
       </c>
       <c r="G48" s="3">
-        <v>700700</v>
+        <v>702200</v>
       </c>
       <c r="H48" s="3">
-        <v>1384900</v>
+        <v>1387900</v>
       </c>
       <c r="I48" s="3">
-        <v>519300</v>
+        <v>520500</v>
       </c>
       <c r="J48" s="3">
-        <v>666700</v>
+        <v>668200</v>
       </c>
       <c r="K48" s="3">
         <v>291200</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>590300</v>
+        <v>591600</v>
       </c>
       <c r="E49" s="3">
-        <v>442600</v>
+        <v>443600</v>
       </c>
       <c r="F49" s="3">
-        <v>612300</v>
+        <v>613700</v>
       </c>
       <c r="G49" s="3">
-        <v>501400</v>
+        <v>502500</v>
       </c>
       <c r="H49" s="3">
-        <v>339600</v>
+        <v>340400</v>
       </c>
       <c r="I49" s="3">
-        <v>113000</v>
+        <v>113300</v>
       </c>
       <c r="J49" s="3">
-        <v>35000</v>
+        <v>35100</v>
       </c>
       <c r="K49" s="3">
         <v>26600</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>879900</v>
+        <v>881800</v>
       </c>
       <c r="E52" s="3">
-        <v>833200</v>
+        <v>835000</v>
       </c>
       <c r="F52" s="3">
-        <v>789700</v>
+        <v>791400</v>
       </c>
       <c r="G52" s="3">
-        <v>694600</v>
+        <v>696100</v>
       </c>
       <c r="H52" s="3">
-        <v>1925400</v>
+        <v>1929600</v>
       </c>
       <c r="I52" s="3">
-        <v>235500</v>
+        <v>236000</v>
       </c>
       <c r="J52" s="3">
-        <v>816300</v>
+        <v>818100</v>
       </c>
       <c r="K52" s="3">
         <v>221400</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23803000</v>
+        <v>23854800</v>
       </c>
       <c r="E54" s="3">
-        <v>21169100</v>
+        <v>21215200</v>
       </c>
       <c r="F54" s="3">
-        <v>19547500</v>
+        <v>19590000</v>
       </c>
       <c r="G54" s="3">
-        <v>15448500</v>
+        <v>15482100</v>
       </c>
       <c r="H54" s="3">
-        <v>11982400</v>
+        <v>12008500</v>
       </c>
       <c r="I54" s="3">
-        <v>9786700</v>
+        <v>9808000</v>
       </c>
       <c r="J54" s="3">
-        <v>7995600</v>
+        <v>8013000</v>
       </c>
       <c r="K54" s="3">
         <v>5729100</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>207700</v>
+        <v>208100</v>
       </c>
       <c r="E57" s="3">
-        <v>135700</v>
+        <v>136000</v>
       </c>
       <c r="F57" s="3">
-        <v>156300</v>
+        <v>156600</v>
       </c>
       <c r="G57" s="3">
-        <v>167000</v>
+        <v>167400</v>
       </c>
       <c r="H57" s="3">
-        <v>165600</v>
+        <v>165900</v>
       </c>
       <c r="I57" s="3">
-        <v>336500</v>
+        <v>337300</v>
       </c>
       <c r="J57" s="3">
-        <v>192400</v>
+        <v>192800</v>
       </c>
       <c r="K57" s="3">
         <v>97500</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3289600</v>
+        <v>3296800</v>
       </c>
       <c r="E58" s="3">
-        <v>2666400</v>
+        <v>2672200</v>
       </c>
       <c r="F58" s="3">
-        <v>2687400</v>
+        <v>2693200</v>
       </c>
       <c r="G58" s="3">
-        <v>2318600</v>
+        <v>2323600</v>
       </c>
       <c r="H58" s="3">
-        <v>1881900</v>
+        <v>1886000</v>
       </c>
       <c r="I58" s="3">
-        <v>912600</v>
+        <v>914600</v>
       </c>
       <c r="J58" s="3">
-        <v>525700</v>
+        <v>526900</v>
       </c>
       <c r="K58" s="3">
         <v>316400</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4332600</v>
+        <v>4342100</v>
       </c>
       <c r="E59" s="3">
-        <v>4156000</v>
+        <v>4165000</v>
       </c>
       <c r="F59" s="3">
-        <v>3596700</v>
+        <v>3604500</v>
       </c>
       <c r="G59" s="3">
-        <v>2783500</v>
+        <v>2789600</v>
       </c>
       <c r="H59" s="3">
-        <v>3595700</v>
+        <v>3603500</v>
       </c>
       <c r="I59" s="3">
-        <v>2023200</v>
+        <v>2027600</v>
       </c>
       <c r="J59" s="3">
-        <v>2417000</v>
+        <v>2422300</v>
       </c>
       <c r="K59" s="3">
         <v>1210200</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7829900</v>
+        <v>7846900</v>
       </c>
       <c r="E60" s="3">
-        <v>6958100</v>
+        <v>6973200</v>
       </c>
       <c r="F60" s="3">
-        <v>6440300</v>
+        <v>6454300</v>
       </c>
       <c r="G60" s="3">
-        <v>5269100</v>
+        <v>5280600</v>
       </c>
       <c r="H60" s="3">
-        <v>4837300</v>
+        <v>4847900</v>
       </c>
       <c r="I60" s="3">
-        <v>3272300</v>
+        <v>3279400</v>
       </c>
       <c r="J60" s="3">
-        <v>2642100</v>
+        <v>2647900</v>
       </c>
       <c r="K60" s="3">
         <v>1624100</v>
@@ -2702,10 +2702,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>503600</v>
+        <v>504700</v>
       </c>
       <c r="E61" s="3">
-        <v>175700</v>
+        <v>176100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>469000</v>
+        <v>470000</v>
       </c>
       <c r="E62" s="3">
-        <v>336700</v>
+        <v>337400</v>
       </c>
       <c r="F62" s="3">
-        <v>184200</v>
+        <v>184600</v>
       </c>
       <c r="G62" s="3">
-        <v>115600</v>
+        <v>115800</v>
       </c>
       <c r="H62" s="3">
-        <v>60800</v>
+        <v>61000</v>
       </c>
       <c r="I62" s="3">
-        <v>31900</v>
+        <v>32000</v>
       </c>
       <c r="J62" s="3">
-        <v>54100</v>
+        <v>54200</v>
       </c>
       <c r="K62" s="3">
         <v>23200</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9373100</v>
+        <v>9393500</v>
       </c>
       <c r="E66" s="3">
-        <v>8034800</v>
+        <v>8052300</v>
       </c>
       <c r="F66" s="3">
-        <v>8232000</v>
+        <v>8250000</v>
       </c>
       <c r="G66" s="3">
-        <v>6981400</v>
+        <v>6996600</v>
       </c>
       <c r="H66" s="3">
-        <v>5750400</v>
+        <v>5762900</v>
       </c>
       <c r="I66" s="3">
-        <v>3485800</v>
+        <v>3493300</v>
       </c>
       <c r="J66" s="3">
-        <v>2733700</v>
+        <v>2739600</v>
       </c>
       <c r="K66" s="3">
         <v>1658900</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>12724400</v>
+        <v>12752100</v>
       </c>
       <c r="E72" s="3">
-        <v>10848700</v>
+        <v>10872400</v>
       </c>
       <c r="F72" s="3">
-        <v>9009600</v>
+        <v>9029200</v>
       </c>
       <c r="G72" s="3">
-        <v>7937300</v>
+        <v>7954600</v>
       </c>
       <c r="H72" s="3">
-        <v>6229300</v>
+        <v>6242900</v>
       </c>
       <c r="I72" s="3">
-        <v>6054000</v>
+        <v>6067100</v>
       </c>
       <c r="J72" s="3">
-        <v>5027500</v>
+        <v>5038400</v>
       </c>
       <c r="K72" s="3">
         <v>3818300</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14429900</v>
+        <v>14461300</v>
       </c>
       <c r="E76" s="3">
-        <v>13134300</v>
+        <v>13162900</v>
       </c>
       <c r="F76" s="3">
-        <v>11315400</v>
+        <v>11340100</v>
       </c>
       <c r="G76" s="3">
-        <v>8467100</v>
+        <v>8485500</v>
       </c>
       <c r="H76" s="3">
-        <v>6232000</v>
+        <v>6245600</v>
       </c>
       <c r="I76" s="3">
-        <v>6301000</v>
+        <v>6314700</v>
       </c>
       <c r="J76" s="3">
-        <v>5262000</v>
+        <v>5273400</v>
       </c>
       <c r="K76" s="3">
         <v>4070200</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2802100</v>
+        <v>2808200</v>
       </c>
       <c r="E81" s="3">
-        <v>2322500</v>
+        <v>2327600</v>
       </c>
       <c r="F81" s="3">
-        <v>1662000</v>
+        <v>1665600</v>
       </c>
       <c r="G81" s="3">
-        <v>2926100</v>
+        <v>2932500</v>
       </c>
       <c r="H81" s="3">
-        <v>847700</v>
+        <v>849500</v>
       </c>
       <c r="I81" s="3">
-        <v>1475300</v>
+        <v>1478600</v>
       </c>
       <c r="J81" s="3">
-        <v>1598900</v>
+        <v>1602400</v>
       </c>
       <c r="K81" s="3">
         <v>937500</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>393800</v>
+        <v>394700</v>
       </c>
       <c r="E83" s="3">
-        <v>451300</v>
+        <v>452300</v>
       </c>
       <c r="F83" s="3">
-        <v>476400</v>
+        <v>477500</v>
       </c>
       <c r="G83" s="3">
-        <v>360100</v>
+        <v>360900</v>
       </c>
       <c r="H83" s="3">
-        <v>287100</v>
+        <v>287700</v>
       </c>
       <c r="I83" s="3">
-        <v>110500</v>
+        <v>110700</v>
       </c>
       <c r="J83" s="3">
-        <v>45100</v>
+        <v>45200</v>
       </c>
       <c r="K83" s="3">
         <v>25400</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3817800</v>
+        <v>3826100</v>
       </c>
       <c r="E89" s="3">
-        <v>3434400</v>
+        <v>3441900</v>
       </c>
       <c r="F89" s="3">
-        <v>3429100</v>
+        <v>3436600</v>
       </c>
       <c r="G89" s="3">
-        <v>2372100</v>
+        <v>2377200</v>
       </c>
       <c r="H89" s="3">
-        <v>1848400</v>
+        <v>1852500</v>
       </c>
       <c r="I89" s="3">
-        <v>1638100</v>
+        <v>1641700</v>
       </c>
       <c r="J89" s="3">
-        <v>2134000</v>
+        <v>2138600</v>
       </c>
       <c r="K89" s="3">
         <v>1124300</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-289400</v>
+        <v>-290000</v>
       </c>
       <c r="E91" s="3">
-        <v>-220700</v>
+        <v>-221200</v>
       </c>
       <c r="F91" s="3">
-        <v>-145400</v>
+        <v>-145800</v>
       </c>
       <c r="G91" s="3">
-        <v>-166600</v>
+        <v>-167000</v>
       </c>
       <c r="H91" s="3">
-        <v>-348300</v>
+        <v>-349100</v>
       </c>
       <c r="I91" s="3">
-        <v>-253900</v>
+        <v>-254500</v>
       </c>
       <c r="J91" s="3">
-        <v>-156500</v>
+        <v>-156800</v>
       </c>
       <c r="K91" s="3">
         <v>-120600</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1015400</v>
+        <v>-1017600</v>
       </c>
       <c r="E94" s="3">
-        <v>-975200</v>
+        <v>-977400</v>
       </c>
       <c r="F94" s="3">
-        <v>-4022100</v>
+        <v>-4030900</v>
       </c>
       <c r="G94" s="3">
-        <v>-3050000</v>
+        <v>-3056600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1869600</v>
+        <v>-1873700</v>
       </c>
       <c r="I94" s="3">
-        <v>-1771200</v>
+        <v>-1775100</v>
       </c>
       <c r="J94" s="3">
-        <v>-1634300</v>
+        <v>-1637800</v>
       </c>
       <c r="K94" s="3">
         <v>-353100</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-926400</v>
+        <v>-928400</v>
       </c>
       <c r="E96" s="3">
-        <v>-483400</v>
+        <v>-484400</v>
       </c>
       <c r="F96" s="3">
-        <v>-589800</v>
+        <v>-591000</v>
       </c>
       <c r="G96" s="3">
-        <v>-1218100</v>
+        <v>-1220700</v>
       </c>
       <c r="H96" s="3">
-        <v>-198400</v>
+        <v>-198900</v>
       </c>
       <c r="I96" s="3">
-        <v>-448800</v>
+        <v>-449800</v>
       </c>
       <c r="J96" s="3">
-        <v>-350800</v>
+        <v>-351600</v>
       </c>
       <c r="K96" s="3">
         <v>-204300</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1410600</v>
+        <v>-1413600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1734000</v>
+        <v>-1737800</v>
       </c>
       <c r="F100" s="3">
-        <v>1365800</v>
+        <v>1368800</v>
       </c>
       <c r="G100" s="3">
-        <v>149200</v>
+        <v>149500</v>
       </c>
       <c r="H100" s="3">
-        <v>218700</v>
+        <v>219200</v>
       </c>
       <c r="I100" s="3">
-        <v>-179500</v>
+        <v>-179900</v>
       </c>
       <c r="J100" s="3">
-        <v>-310100</v>
+        <v>-310800</v>
       </c>
       <c r="K100" s="3">
         <v>-227300</v>
@@ -4213,19 +4213,19 @@
         <v>-7600</v>
       </c>
       <c r="F101" s="3">
-        <v>22300</v>
+        <v>22400</v>
       </c>
       <c r="G101" s="3">
         <v>4000</v>
       </c>
       <c r="H101" s="3">
-        <v>11200</v>
+        <v>11300</v>
       </c>
       <c r="I101" s="3">
         <v>-1800</v>
       </c>
       <c r="J101" s="3">
-        <v>18200</v>
+        <v>18300</v>
       </c>
       <c r="K101" s="3">
         <v>19800</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1407000</v>
+        <v>1410100</v>
       </c>
       <c r="E102" s="3">
-        <v>717500</v>
+        <v>719100</v>
       </c>
       <c r="F102" s="3">
-        <v>795100</v>
+        <v>796800</v>
       </c>
       <c r="G102" s="3">
-        <v>-524800</v>
+        <v>-525900</v>
       </c>
       <c r="H102" s="3">
-        <v>208800</v>
+        <v>209200</v>
       </c>
       <c r="I102" s="3">
-        <v>-314300</v>
+        <v>-315000</v>
       </c>
       <c r="J102" s="3">
-        <v>207900</v>
+        <v>208300</v>
       </c>
       <c r="K102" s="3">
         <v>563800</v>
